--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -592,37 +592,37 @@
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>Q_AGEESTAT</t>
+          <t>Q_AGEB</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik (AGEE-Stat)</t>
+          <t>AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>AG Energiebilanzen</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>AG Energiebilanzen</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
+          <t>https://ag-energiebilanzen.de/</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
+          <t>https://ag-energiebilanzen.de/en/</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
@@ -637,44 +637,44 @@
       </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
-          <t>ageestat</t>
+          <t>ageb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Q_AGNE</t>
+          <t>Q_AGEESTAT</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik (AGEE-Stat)</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Working Group</t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Working Group</t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
         </is>
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
         </is>
       </c>
       <c r="H4" s="4" t="inlineStr">
@@ -689,44 +689,44 @@
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>agne</t>
+          <t>ageestat</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Q_AKUGRDL</t>
+          <t>Q_AGNE</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder (AK UGRdL)</t>
+          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
+          <t>Sustainable Development Working Group</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
+          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>AK UGRdL</t>
+          <t>Sustainable Development Working Group</t>
         </is>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
         </is>
       </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
@@ -741,44 +741,44 @@
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
-          <t>akugrdl</t>
+          <t>agne</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Q_AMI</t>
+          <t>Q_AKUGRDL</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Agrarmarkt Informations-Gesellschaft mbH (AMI)</t>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder (AK UGRdL)</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Agricultural Market Information Company</t>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>Agrarmarkt Informations-Gesellschaft mbH</t>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>Agricultural Market Information Company</t>
+          <t>AK UGRdL</t>
         </is>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
-          <t>https://www.ami-informiert.de/ami-maerkte</t>
+          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
         </is>
       </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
-          <t>https://www.ami-informiert.de/ami-english/ami-about-us/about-us</t>
+          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
         </is>
       </c>
       <c r="H6" s="4" t="inlineStr">
@@ -793,44 +793,44 @@
       </c>
       <c r="J6" s="4" t="inlineStr">
         <is>
-          <t>ami</t>
+          <t>akugrdl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Q_BBSR</t>
+          <t>Q_AMI</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung (BBSR)</t>
+          <t>Agrarmarkt Informations-Gesellschaft mbH (AMI)</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Federal Office for Research on Building, Urban Affairs and Spatial Development</t>
+          <t>Agricultural Market Information Company</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
+          <t>Agrarmarkt Informations-Gesellschaft mbH</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>Federal Office for Research on Building, Urban Affairs and Spatial Development</t>
+          <t>Agricultural Market Information Company</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
-          <t>https://www.bbsr.bund.de/BBSR/DE/startseite/_node.html</t>
+          <t>https://www.ami-informiert.de/ami-maerkte</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
-          <t>https://www.bbsr.bund.de/BBSR/EN/home/_node.html</t>
+          <t>https://www.ami-informiert.de/ami-english/ami-about-us/about-us</t>
         </is>
       </c>
       <c r="H7" s="4" t="inlineStr">
@@ -845,44 +845,44 @@
       </c>
       <c r="J7" s="4" t="inlineStr">
         <is>
-          <t>bbsr</t>
+          <t>ami</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Q_BFN</t>
+          <t>Q_BBSR</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Naturschutz (BfN)</t>
+          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung (BBSR)</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Nature Conservation </t>
+          <t>Federal Office for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Naturschutz</t>
+          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Nature Conservation </t>
+          <t>Federal Office for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
-          <t>https://www.bfn.de/</t>
+          <t>https://www.bbsr.bund.de/BBSR/DE/startseite/_node.html</t>
         </is>
       </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
-          <t>https://www.bfn.de/en.html</t>
+          <t>https://www.bbsr.bund.de/BBSR/EN/home/_node.html</t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
@@ -897,44 +897,44 @@
       </c>
       <c r="J8" s="4" t="inlineStr">
         <is>
-          <t>bfn</t>
+          <t>bbsr</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Q_BKA</t>
+          <t>Q_BFN</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Bundeskriminalamt (BKA)</t>
+          <t>Bundesamt für Naturschutz (BfN)</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Federal Criminal Police Office</t>
+          <t>Federal Agency for Nature Conservation </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>Bundeskriminalamt</t>
+          <t>Bundesamt für Naturschutz</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>Federal Criminal Police Office</t>
+          <t>Federal Agency for Nature Conservation </t>
         </is>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
-          <t>https://www.bka.de/DE/Home/home_node.html</t>
+          <t>https://www.bfn.de/</t>
         </is>
       </c>
       <c r="G9" s="5" t="inlineStr">
         <is>
-          <t>https://www.bka.de/EN/Home/home_node.html</t>
+          <t>https://www.bfn.de/en.html</t>
         </is>
       </c>
       <c r="H9" s="4" t="inlineStr">
@@ -949,44 +949,44 @@
       </c>
       <c r="J9" s="4" t="inlineStr">
         <is>
-          <t>bka</t>
+          <t>bfn</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Q_BKAMT</t>
+          <t>Q_BKA</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Bundeskanzleramt</t>
+          <t>Bundeskriminalamt (BKA)</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Federal Chancellery</t>
+          <t>Federal Criminal Police Office</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>Bundeskanzleramt</t>
+          <t>Bundeskriminalamt</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>Federal Chancellery</t>
+          <t>Federal Criminal Police Office</t>
         </is>
       </c>
       <c r="F10" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesregierung.de/breg-de/bundesregierung/bundeskanzleramt</t>
+          <t>https://www.bka.de/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="G10" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesregierung.de/breg-en/federal-government</t>
+          <t>https://www.bka.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="H10" s="4" t="inlineStr">
@@ -1001,44 +1001,44 @@
       </c>
       <c r="J10" s="4" t="inlineStr">
         <is>
-          <t>bkamt</t>
+          <t>bka</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Q_BKM</t>
+          <t>Q_BKAMT</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
+          <t>Bundeskanzleramt</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Federal Government Commissioner for Culture and the Media</t>
+          <t>Federal Chancellery</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
+          <t>Bundeskanzleramt</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>Federal Government Commissioner for Culture and the Media</t>
+          <t>Federal Chancellery</t>
         </is>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesregierung.de/breg-de/bundesregierung/staatsministerin-fuer-kultur-und-medien</t>
+          <t>https://www.bundesregierung.de/breg-de/bundesregierung/bundeskanzleramt</t>
         </is>
       </c>
       <c r="G11" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesregierung.de/breg-de/bundesregierung/staatsministerin-fuer-kultur-und-medien</t>
+          <t>https://www.bundesregierung.de/breg-en/federal-government</t>
         </is>
       </c>
       <c r="H11" s="4" t="inlineStr">
@@ -1053,44 +1053,44 @@
       </c>
       <c r="J11" s="4" t="inlineStr">
         <is>
-          <t>bkm</t>
+          <t>bkamt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Q_BMBF</t>
+          <t>Q_BKM</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Bildung und Frschung (BMBF)</t>
+          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Education and Research</t>
+          <t>Federal Government Commissioner for Culture and the Media</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Bildung und Frschung (BMBF)</t>
+          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Education and Research</t>
+          <t>Federal Government Commissioner for Culture and the Media</t>
         </is>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmbf.de/</t>
+          <t>https://www.bundesregierung.de/breg-de/bundesregierung/staatsministerin-fuer-kultur-und-medien</t>
         </is>
       </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmbf.de/bmbf/en/</t>
+          <t>https://www.bundesregierung.de/breg-de/bundesregierung/staatsministerin-fuer-kultur-und-medien</t>
         </is>
       </c>
       <c r="H12" s="4" t="inlineStr">
@@ -1105,44 +1105,44 @@
       </c>
       <c r="J12" s="4" t="inlineStr">
         <is>
-          <t>bmbf</t>
+          <t>bkm</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Q_BMDV</t>
+          <t>Q_BMBF</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Digitales und Verkehr (BMDV)</t>
+          <t>Bundesministerium für Bildung und Frschung (BMBF)</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Digital and Transport</t>
+          <t>Federal Ministry of Education and Research</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Digitales und Verkehr</t>
+          <t>Bundesministerium für Bildung und Frschung (BMBF)</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Digital and Transport</t>
+          <t>Federal Ministry of Education and Research</t>
         </is>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmvi.de/DE/Home/home.html</t>
+          <t>https://www.bmbf.de/</t>
         </is>
       </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmvi.de/EN/Home/home.html</t>
+          <t>https://www.bmbf.de/bmbf/en/</t>
         </is>
       </c>
       <c r="H13" s="4" t="inlineStr">
@@ -1157,44 +1157,44 @@
       </c>
       <c r="J13" s="4" t="inlineStr">
         <is>
-          <t>bmdv</t>
+          <t>bmbf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Q_BMEL</t>
+          <t>Q_BMDV</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Ernährung und Landwirtschaft (BMEL)</t>
+          <t>Bundesministerium für Digitales und Verkehr (BMDV)</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>Federal Ministry for Digital and Transport</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
+          <t>Bundesministerium für Digitales und Verkehr</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>Federal Ministry for Digital and Transport</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmel.de/DE/Startseite/startseite_node.html</t>
+          <t>https://www.bmvi.de/DE/Home/home.html</t>
         </is>
       </c>
       <c r="G14" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmel.de/EN/Home/home_node.html</t>
+          <t>https://www.bmvi.de/EN/Home/home.html</t>
         </is>
       </c>
       <c r="H14" s="4" t="inlineStr">
@@ -1209,44 +1209,44 @@
       </c>
       <c r="J14" s="4" t="inlineStr">
         <is>
-          <t>bmel</t>
+          <t>bmdv</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Q_BMF</t>
+          <t>Q_BMEL</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Finanzen (BMF)</t>
+          <t>Bundesministerium für Ernährung und Landwirtschaft (BMEL)</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Finance</t>
+          <t>Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Finanzen</t>
+          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Finance</t>
+          <t>Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesfinanzministerium.de/Web/DE/Home/home.html</t>
+          <t>https://www.bmel.de/DE/Startseite/startseite_node.html</t>
         </is>
       </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesfinanzministerium.de/Web/EN/Home/home.html</t>
+          <t>https://www.bmel.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="H15" s="4" t="inlineStr">
@@ -1261,44 +1261,44 @@
       </c>
       <c r="J15" s="4" t="inlineStr">
         <is>
-          <t>bmf</t>
+          <t>bmel</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Q_BMG</t>
+          <t>Q_BMF</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Gesundheit (BMG)</t>
+          <t>Bundesministerium der Finanzen (BMF)</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Health</t>
+          <t>Federal Ministry of Finance</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Gesundheit</t>
+          <t>Bundesministerium der Finanzen</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Health</t>
+          <t>Federal Ministry of Finance</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesgesundheitsministerium.de/</t>
+          <t>https://www.bundesfinanzministerium.de/Web/DE/Home/home.html</t>
         </is>
       </c>
       <c r="G16" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesgesundheitsministerium.de/en/</t>
+          <t>https://www.bundesfinanzministerium.de/Web/EN/Home/home.html</t>
         </is>
       </c>
       <c r="H16" s="4" t="inlineStr">
@@ -1313,44 +1313,44 @@
       </c>
       <c r="J16" s="4" t="inlineStr">
         <is>
-          <t>bmg</t>
+          <t>bmf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Q_BMWK</t>
+          <t>Q_BMG</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Wirtschaft und Klimaschutz (BMWK)</t>
+          <t>Bundesministerium für Gesundheit (BMG)</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Affairs and Climate Action</t>
+          <t>Federal Ministry of Health</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Wirtschaft und Klimaschutz</t>
+          <t>Bundesministerium für Gesundheit</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Affairs and Climate Action</t>
+          <t>Federal Ministry of Health</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmwi.de/Navigation/DE/Home/home.html</t>
+          <t>https://www.bundesgesundheitsministerium.de/</t>
         </is>
       </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmwi.de/Navigation/EN/Home/home.html</t>
+          <t>https://www.bundesgesundheitsministerium.de/en/</t>
         </is>
       </c>
       <c r="H17" s="4" t="inlineStr">
@@ -1365,44 +1365,44 @@
       </c>
       <c r="J17" s="4" t="inlineStr">
         <is>
-          <t>bmwk</t>
+          <t>bmg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_BMWK</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ)</t>
+          <t>Bundesministerium für Wirtschaft und Klimaschutz (BMWK)</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t>Federal Ministry for Economic Affairs and Climate Action</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Bundesministerium für Wirtschaft und Klimaschutz</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t>Federal Ministry for Economic Affairs and Climate Action</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de/index.html</t>
+          <t>https://www.bmwi.de/Navigation/DE/Home/home.html</t>
         </is>
       </c>
       <c r="G18" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/en/index.html</t>
+          <t>https://www.bmwi.de/Navigation/EN/Home/home.html</t>
         </is>
       </c>
       <c r="H18" s="4" t="inlineStr">
@@ -1417,44 +1417,44 @@
       </c>
       <c r="J18" s="4" t="inlineStr">
         <is>
-          <t>bmz</t>
+          <t>bmwk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Q_BOLW</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Bund Ökologische Lebensmittelwirtschaft e. V. (BÖLW)</t>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ)</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Organic Food Production Alliance</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>Bund Ökologische Lebensmittelwirtschaft e. V.</t>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>Organic Food Production Alliance</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>https://www.boelw.de/</t>
+          <t>https://www.bmz.de/de/index.html</t>
         </is>
       </c>
       <c r="G19" s="5" t="inlineStr">
         <is>
-          <t>https://www.boelw.de/</t>
+          <t>https://www.bmz.de/en/index.html</t>
         </is>
       </c>
       <c r="H19" s="4" t="inlineStr">
@@ -1469,44 +1469,44 @@
       </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
-          <t>bolw</t>
+          <t>bmz</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Q_BUNDESBANK</t>
+          <t>Q_BOLW</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Bundesbank (BBk)</t>
+          <t>Bund Ökologische Lebensmittelwirtschaft e. V. (BÖLW)</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>German Federal Bank</t>
+          <t>Organic Food Production Alliance</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Bundesbank</t>
+          <t>Bund Ökologische Lebensmittelwirtschaft e. V.</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>German Federal Bank</t>
+          <t>Organic Food Production Alliance</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesbank.de/de/</t>
+          <t>https://www.boelw.de/</t>
         </is>
       </c>
       <c r="G20" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesbank.de/en</t>
+          <t>https://www.boelw.de/</t>
         </is>
       </c>
       <c r="H20" s="4" t="inlineStr">
@@ -1521,44 +1521,44 @@
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>bundesbank</t>
+          <t>bolw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Q_BZGA</t>
+          <t>Q_BUNDESBANK</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Bundeszentrale für gesundheitliche Aufklärung (BZGA)</t>
+          <t>Deutsche Bundesbank (BBk)</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Federal Centre for Health Education</t>
+          <t>German Federal Bank</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>Bundeszentrale für gesundheitliche Aufklärung</t>
+          <t>Deutsche Bundesbank</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>Federal Centre for Health Education</t>
+          <t>German Federal Bank</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/</t>
+          <t>https://www.bundesbank.de/de/</t>
         </is>
       </c>
       <c r="G21" s="5" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/home/bzga/</t>
+          <t>https://www.bundesbank.de/en</t>
         </is>
       </c>
       <c r="H21" s="4" t="inlineStr">
@@ -1573,44 +1573,44 @@
       </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
-          <t>bzga</t>
+          <t>bundesbank</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Q_CEVAL</t>
+          <t>Q_BZGA</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Centrum für Evaluation GmbH</t>
+          <t>Bundeszentrale für gesundheitliche Aufklärung (BZGA)</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Center for Evaluation</t>
+          <t>Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>Centrum für Evaluation GmbH</t>
+          <t>Bundeszentrale für gesundheitliche Aufklärung</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>Center for Evaluation</t>
+          <t>Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>https://ceval.de/modx/</t>
+          <t>https://www.bzga.de/</t>
         </is>
       </c>
       <c r="G22" s="5" t="inlineStr">
         <is>
-          <t>https://ceval.de/modx/enindex.php?id=692</t>
+          <t>https://www.bzga.de/home/bzga/</t>
         </is>
       </c>
       <c r="H22" s="4" t="inlineStr">
@@ -1625,44 +1625,44 @@
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>ceval</t>
+          <t>bzga</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_CEVAL</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Statistisches Bundesamt (Destatis)</t>
+          <t>Centrum für Evaluation GmbH</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Federal Statistical Office</t>
+          <t>Center for Evaluation</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Statistisches Bundesamt</t>
+          <t>Centrum für Evaluation GmbH</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>Federal Statistical Office</t>
+          <t>Center for Evaluation</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Home/_inhalt.html</t>
+          <t>https://ceval.de/modx/</t>
         </is>
       </c>
       <c r="G23" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Home/_node.html</t>
+          <t>https://ceval.de/modx/enindex.php?id=692</t>
         </is>
       </c>
       <c r="H23" s="4" t="inlineStr">
@@ -1677,44 +1677,44 @@
       </c>
       <c r="J23" s="4" t="inlineStr">
         <is>
-          <t>destatis</t>
+          <t>ceval</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Q_DIHK</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Deutscher Industrie- und Handelskammertag e. V. (DIHK)</t>
+          <t>Statistisches Bundesamt (Destatis)</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Association of German Chambers of Commerce and Industry</t>
+          <t>Federal Statistical Office</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Deutscher Industrie- und Handelskammertag e. V.</t>
+          <t>Statistisches Bundesamt</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>Association of German Chambers of Commerce and Industry</t>
+          <t>Federal Statistical Office</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>https://www.dihk.de/de</t>
+          <t>https://www.destatis.de/DE/Home/_inhalt.html</t>
         </is>
       </c>
       <c r="G24" s="5" t="inlineStr">
         <is>
-          <t>https://www.dihk.de/de</t>
+          <t>https://www.destatis.de/EN/Home/_node.html</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">
@@ -1729,44 +1729,44 @@
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>dihk</t>
+          <t>destatis</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Q_DIW</t>
+          <t>Q_DIHK</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Wirtschaftsforschung (DIW)</t>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutscher Industrie- und Handelskammertages e.V. (DIHK)</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Economic Research</t>
+          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Wirtschaftsforschung</t>
+          <t>Deutscher Industrie- und Handelskammertag e. V.</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Economic Research</t>
+          <t>Association of German Chambers of Commerce and Industry</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>https://www.diw.de/deutsch</t>
+          <t>https://www.dihk.de/de</t>
         </is>
       </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
-          <t>https://www.diw.de/en</t>
+          <t>https://www.dihk.de/de</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr">
@@ -1781,44 +1781,44 @@
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>diw</t>
+          <t>dihk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROPEANCOMMISSION</t>
+          <t>Q_DIW</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Europäische Kommission</t>
+          <t>Deutsches Institut für Wirtschaftsforschung (DIW)</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>European Commission</t>
+          <t>German Institute for Economic Research</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Europäische Kommission</t>
+          <t>Deutsches Institut für Wirtschaftsforschung</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>European Commission</t>
+          <t>German Institute for Economic Research</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_de</t>
+          <t>https://www.diw.de/deutsch</t>
         </is>
       </c>
       <c r="G26" s="5" t="inlineStr">
         <is>
-          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_en</t>
+          <t>https://www.diw.de/en</t>
         </is>
       </c>
       <c r="H26" s="4" t="inlineStr">
@@ -1833,44 +1833,44 @@
       </c>
       <c r="J26" s="4" t="inlineStr">
         <is>
-          <t>europeancommission</t>
+          <t>diw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_EUROPEANCOMMISSION</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>Europäische Kommission</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>European Commission</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>Europäische Kommission</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>European Commission</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/de/home</t>
+          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_de</t>
         </is>
       </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/home</t>
+          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_en</t>
         </is>
       </c>
       <c r="H27" s="4" t="inlineStr">
@@ -1885,44 +1885,44 @@
       </c>
       <c r="J27" s="4" t="inlineStr">
         <is>
-          <t>eurostat</t>
+          <t>europeancommission</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Q_EZB</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank (EZB)</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/home/html/index.de.html</t>
+          <t>https://ec.europa.eu/eurostat/de/home</t>
         </is>
       </c>
       <c r="G28" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/home/languagepolicy/html/index.en.html</t>
+          <t>https://ec.europa.eu/eurostat/home</t>
         </is>
       </c>
       <c r="H28" s="4" t="inlineStr">
@@ -1937,44 +1937,44 @@
       </c>
       <c r="J28" s="4" t="inlineStr">
         <is>
-          <t>ezb</t>
+          <t>eurostat</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_EZB</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V. (FidAR)</t>
+          <t>Europäische Zentralbank (EZB)</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>European Central Bank</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>Europäische Zentralbank</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>European Central Bank</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/</t>
+          <t>https://www.ecb.europa.eu/home/html/index.de.html</t>
         </is>
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/</t>
+          <t>https://www.ecb.europa.eu/home/languagepolicy/html/index.en.html</t>
         </is>
       </c>
       <c r="H29" s="4" t="inlineStr">
@@ -1989,44 +1989,44 @@
       </c>
       <c r="J29" s="4" t="inlineStr">
         <is>
-          <t>fidar</t>
+          <t>ezb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Q_GBE</t>
+          <t>Q_FIDAR</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Gesundheitsberichterstattung des Bundes (GBE)</t>
+          <t>Frauen in die Aufsichtsräte e.V. (FidAR)</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Federal Health Monitoring</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Gesundheitsberichterstattung des Bundes</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>Federal Health Monitoring</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/</t>
+          <t>https://www.fidar.de/</t>
         </is>
       </c>
       <c r="G30" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_isgbe?p_uid=gast&amp;p_aid=50554816&amp;p_sprache=E</t>
+          <t>https://www.fidar.de/</t>
         </is>
       </c>
       <c r="H30" s="4" t="inlineStr">
@@ -2041,44 +2041,44 @@
       </c>
       <c r="J30" s="4" t="inlineStr">
         <is>
-          <t>gbe</t>
+          <t>fidar</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Q_GFK</t>
+          <t>Q_GBE</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung (GfK)</t>
+          <t>Gesundheitsberichterstattung des Bundes (GBE)</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Federal Health Monitoring</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Gesundheitsberichterstattung des Bundes</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Federal Health Monitoring</t>
         </is>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t>https://www.gfk.com/de/</t>
+          <t>https://www.gbe-bund.de/gbe/</t>
         </is>
       </c>
       <c r="G31" s="5" t="inlineStr">
         <is>
-          <t>https://www.gfk.com/</t>
+          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_isgbe?p_uid=gast&amp;p_aid=50554816&amp;p_sprache=E</t>
         </is>
       </c>
       <c r="H31" s="4" t="inlineStr">
@@ -2093,44 +2093,44 @@
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
-          <t>gfk</t>
+          <t>gbe</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Q_GIZ</t>
+          <t>Q_GFK</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ)</t>
+          <t>Gesellschaft für Konsumforschung (GfK)</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ)</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Internationale Zusammenarbeit (GIZ)</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Internationale Zusammenarbeit (GIZ)</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="F32" s="5" t="inlineStr">
         <is>
-          <t>https://www.giz.de/de/html/index.html</t>
+          <t>https://www.gfk.com/de/</t>
         </is>
       </c>
       <c r="G32" s="5" t="inlineStr">
         <is>
-          <t>https://www.giz.de/en/html/index.html</t>
+          <t>https://www.gfk.com/</t>
         </is>
       </c>
       <c r="H32" s="4" t="inlineStr">
@@ -2145,44 +2145,44 @@
       </c>
       <c r="J32" s="4" t="inlineStr">
         <is>
-          <t>giz</t>
+          <t>gfk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>Q_GIZ</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH (ifeu)</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ)</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Institute for Energy and Environmental Research</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH(GIZ)</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>Institute for Energy and Environmental Research</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="F33" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/</t>
+          <t>https://www.giz.de/de/html/index.html</t>
         </is>
       </c>
       <c r="G33" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/en/</t>
+          <t>https://www.giz.de/en/html/index.html</t>
         </is>
       </c>
       <c r="H33" s="4" t="inlineStr">
@@ -2197,44 +2197,44 @@
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
-          <t>ifeu</t>
+          <t>giz</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Q_JHT</t>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen-Institut (TI)</t>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH (ifeu)</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen Institute</t>
+          <t>Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Thünen-Institut</t>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>Thünen Institute</t>
+          <t>Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>https://www.thuenen.de/de/</t>
+          <t>https://www.ifeu.de/</t>
         </is>
       </c>
       <c r="G34" s="5" t="inlineStr">
         <is>
-          <t>https://www.thuenen.de/en/</t>
+          <t>https://www.ifeu.de/en/</t>
         </is>
       </c>
       <c r="H34" s="4" t="inlineStr">
@@ -2249,44 +2249,44 @@
       </c>
       <c r="J34" s="4" t="inlineStr">
         <is>
-          <t>jht</t>
+          <t>ifeu</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Q_JKI</t>
+          <t>Q_JHT</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Julius Kühn-Institut (JKI) Bundesforschungsinstitut für Kulturpflanzen, Institut für Pflanzenbau und Bodenkunde</t>
+          <t>Johann Heinrich von Thünen-Institut (TI)</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Julius Kühn-Institut, Institut für Pflanzenbau und Bodenkunde</t>
+          <t>Thünen-Institut</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>Thünen Institute</t>
         </is>
       </c>
       <c r="F35" s="5" t="inlineStr">
         <is>
-          <t>https://www.julius-kuehn.de/pb/</t>
+          <t>https://www.thuenen.de/de/</t>
         </is>
       </c>
       <c r="G35" s="5" t="inlineStr">
         <is>
-          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
+          <t>https://www.thuenen.de/en/</t>
         </is>
       </c>
       <c r="H35" s="4" t="inlineStr">
@@ -2301,44 +2301,44 @@
       </c>
       <c r="J35" s="4" t="inlineStr">
         <is>
-          <t>jki</t>
+          <t>jht</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Q_KBA</t>
+          <t>Q_JKI</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrt-Bundesamt (KBA)</t>
+          <t>Julius Kühn-Institut (JKI) Bundesforschungsinstitut für Kulturpflanzen, Institut für Pflanzenbau und Bodenkunde</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Federal Motor Transport Authority</t>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrt-Bundesamt</t>
+          <t>Julius Kühn-Institut, Institut für Pflanzenbau und Bodenkunde</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>Federal Motor Transport Authority</t>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="F36" s="5" t="inlineStr">
         <is>
-          <t>https://www.kba.de/DE/Home/home_node.html</t>
+          <t>https://www.julius-kuehn.de/pb/</t>
         </is>
       </c>
       <c r="G36" s="5" t="inlineStr">
         <is>
-          <t>https://www.kba.de/EN/Home/home_node.html</t>
+          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
         </is>
       </c>
       <c r="H36" s="4" t="inlineStr">
@@ -2353,44 +2353,44 @@
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
-          <t>kba</t>
+          <t>jki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Q_KFW</t>
+          <t>Q_KBA</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Kraftfahrt-Bundesamt (KBA)</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau</t>
+          <t>Kraftfahrt-Bundesamt</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="F37" s="5" t="inlineStr">
         <is>
-          <t>https://www.kfw.de/kfw.de.html</t>
+          <t>https://www.kba.de/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="G37" s="5" t="inlineStr">
         <is>
-          <t>https://www.kfw.de/kfw.de-2.html</t>
+          <t>https://www.kba.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="H37" s="4" t="inlineStr">
@@ -2405,44 +2405,44 @@
       </c>
       <c r="J37" s="4" t="inlineStr">
         <is>
-          <t>kfw</t>
+          <t>kba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Q_KNB</t>
+          <t>Q_KFW</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern (KNB) </t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Center of Excellence for Sustainable Procurement</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
+          <t>Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>Competence Center for Sustainable Procurement</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="F38" s="5" t="inlineStr">
         <is>
-          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
+          <t>https://www.kfw.de/kfw.de.html</t>
         </is>
       </c>
       <c r="G38" s="5" t="inlineStr">
         <is>
-          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
+          <t>https://www.kfw.de/kfw.de-2.html</t>
         </is>
       </c>
       <c r="H38" s="4" t="inlineStr">
@@ -2457,44 +2457,44 @@
       </c>
       <c r="J38" s="4" t="inlineStr">
         <is>
-          <t>knb</t>
+          <t>kfw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_KNB</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis (LAK) Energiebilanzen</t>
+          <t>Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern (KNB) </t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis Energiebilanzen</t>
+          <t>Center of Excellence for Sustainable Procurement</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis Energiebilanzen</t>
+          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>LAK Energiebilanzen</t>
+          <t>Competence Center for Sustainable Procurement</t>
         </is>
       </c>
       <c r="F39" s="5" t="inlineStr">
         <is>
-          <t>http://www.lak-energiebilanzen.de/</t>
+          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="G39" s="5" t="inlineStr">
         <is>
-          <t>http://www.lak-energiebilanzen.de/</t>
+          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="H39" s="4" t="inlineStr">
@@ -2509,44 +2509,44 @@
       </c>
       <c r="J39" s="4" t="inlineStr">
         <is>
-          <t>lakeb</t>
+          <t>knb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren (LIKI)</t>
+          <t>Länderarbeitskreis (LAK) Energiebilanzen</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>Länderarbeitskreis Energiebilanzen</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>Länderarbeitskreis Energiebilanzen</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>LAK Energiebilanzen</t>
         </is>
       </c>
       <c r="F40" s="5" t="inlineStr">
         <is>
-          <t>https://www.lanuv.nrw.de/liki/index.php</t>
+          <t>http://www.lak-energiebilanzen.de/</t>
         </is>
       </c>
       <c r="G40" s="5" t="inlineStr">
         <is>
-          <t>https://www.lanuv.nrw.de/liki/index.php</t>
+          <t>http://www.lak-energiebilanzen.de/</t>
         </is>
       </c>
       <c r="H40" s="4" t="inlineStr">
@@ -2561,44 +2561,44 @@
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
-          <t>liki</t>
+          <t>lakeb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD)</t>
+          <t>Länderinitiative Kernindikatoren (LIKI)</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="F41" s="5" t="inlineStr">
         <is>
-          <t>https://www.oecd.org/</t>
+          <t>https://www.lanuv.nrw.de/liki/index.php</t>
         </is>
       </c>
       <c r="G41" s="5" t="inlineStr">
         <is>
-          <t>https://www.oecd.org/</t>
+          <t>https://www.lanuv.nrw.de/liki/index.php</t>
         </is>
       </c>
       <c r="H41" s="4" t="inlineStr">
@@ -2613,44 +2613,44 @@
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>oecd</t>
+          <t>liki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Q_RKI</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut (RKI)</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD)</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch Institute</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch Institute</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="F42" s="5" t="inlineStr">
         <is>
-          <t>https://www.rki.de/DE/Home/homepage_node.html</t>
+          <t>https://www.oecd.org/</t>
         </is>
       </c>
       <c r="G42" s="5" t="inlineStr">
         <is>
-          <t>https://www.rki.de/EN/Home/homepage_node.html</t>
+          <t>https://www.oecd.org/</t>
         </is>
       </c>
       <c r="H42" s="4" t="inlineStr">
@@ -2665,44 +2665,44 @@
       </c>
       <c r="J42" s="4" t="inlineStr">
         <is>
-          <t>rki</t>
+          <t>oecd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>Q_RKI</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Stifteverband Wissenschaftsstatistik</t>
+          <t>Robert Koch-Institut (RKI)</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Stifteverband Wissenschaftsstatistik</t>
+          <t>Robert Koch Institute</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Stifteverband Wissenschaftsstatistik</t>
+          <t>Robert Koch-Institut</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>Stifteverband Wissenschaftsstatistik</t>
+          <t>Robert Koch Institute</t>
         </is>
       </c>
       <c r="F43" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/wissenschaftsstatistik</t>
+          <t>https://www.rki.de/DE/Home/homepage_node.html</t>
         </is>
       </c>
       <c r="G43" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/wissenschaftsstatistik</t>
+          <t>https://www.rki.de/EN/Home/homepage_node.html</t>
         </is>
       </c>
       <c r="H43" s="4" t="inlineStr">
@@ -2717,44 +2717,44 @@
       </c>
       <c r="J43" s="4" t="inlineStr">
         <is>
-          <t>svws</t>
+          <t>rki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_SVWS</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Stifteverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Stifteverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Stifteverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Stifteverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="F44" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.de/</t>
+          <t>https://www.stifterverband.org/wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="G44" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.de/en/</t>
+          <t>https://www.stifterverband.org/wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="H44" s="4" t="inlineStr">
@@ -2769,44 +2769,44 @@
       </c>
       <c r="J44" s="4" t="inlineStr">
         <is>
-          <t>ta</t>
+          <t>svws</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_TA</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt (UBA)</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="F45" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/</t>
+          <t>https://www.transparency.de/</t>
         </is>
       </c>
       <c r="G45" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en</t>
+          <t>https://www.transparency.de/en/</t>
         </is>
       </c>
       <c r="H45" s="4" t="inlineStr">
@@ -2821,44 +2821,44 @@
       </c>
       <c r="J45" s="4" t="inlineStr">
         <is>
-          <t>uba</t>
+          <t>ta</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Q_UG</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement, Justus-Liebig-Universität Gießen</t>
+          <t>Umweltbundesamt (UBA)</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Institute of Landscape Ecology and Resources Management, Justus Liebig University of Giessen</t>
+          <t>German Environment Agency</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement, Justus-Liebig-Universität Gießen</t>
+          <t>Umweltbundesamt</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>Institute of Landscape Ecology and Resources Management, Justus Liebig University of Giessen</t>
+          <t>German Environment Agency</t>
         </is>
       </c>
       <c r="F46" s="5" t="inlineStr">
         <is>
-          <t>https://www.uni-giessen.de/fbz/fb09/institute/ilr</t>
+          <t>https://www.umweltbundesamt.de/</t>
         </is>
       </c>
       <c r="G46" s="5" t="inlineStr">
         <is>
-          <t>https://www.uni-giessen.de/faculties/f09/institutes/landscape?set_language=en</t>
+          <t>https://www.umweltbundesamt.de/en</t>
         </is>
       </c>
       <c r="H46" s="4" t="inlineStr">
@@ -2873,44 +2873,44 @@
       </c>
       <c r="J46" s="4" t="inlineStr">
         <is>
-          <t>ug</t>
+          <t>uba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Q_VCD</t>
+          <t>Q_UG</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V. (VCD)</t>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement, Justus-Liebig-Universität Gießen</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>Institute of Landscape Ecology and Resources Management, Justus Liebig University of Giessen</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement, Justus-Liebig-Universität Gießen</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>Institute of Landscape Ecology and Resources Management, Justus Liebig University of Giessen</t>
         </is>
       </c>
       <c r="F47" s="5" t="inlineStr">
         <is>
-          <t>https://www.vcd.org/startseite/</t>
+          <t>https://www.uni-giessen.de/fbz/fb09/institute/ilr</t>
         </is>
       </c>
       <c r="G47" s="5" t="inlineStr">
         <is>
-          <t>https://www.vcd.org/startseite/</t>
+          <t>https://www.uni-giessen.de/faculties/f09/institutes/landscape?set_language=en</t>
         </is>
       </c>
       <c r="H47" s="4" t="inlineStr">
@@ -2925,44 +2925,44 @@
       </c>
       <c r="J47" s="4" t="inlineStr">
         <is>
-          <t>vcd</t>
+          <t>ug</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_VCD</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Volkswirtschaftliche Gesamtrechnungen der Länder (VGRdL)</t>
+          <t>Verkehrsclub Deutschland e.V. (VCD)</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Volkswirtschaftliche Gesamtrechnungen der Länder</t>
+          <t>Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Volkswirtschaftliche Gesamtrechnungen der Länder</t>
+          <t>Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>Volkswirtschaftliche Gesamtrechnungen der Länder</t>
+          <t>Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="F48" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+          <t>https://www.vcd.org/startseite/</t>
         </is>
       </c>
       <c r="G48" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+          <t>https://www.vcd.org/startseite/</t>
         </is>
       </c>
       <c r="H48" s="4" t="inlineStr">
@@ -2977,63 +2977,119 @@
       </c>
       <c r="J48" s="4" t="inlineStr">
         <is>
-          <t>vwgdl</t>
+          <t>vcd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
+          <t>Q_VWGDL</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+        </is>
+      </c>
+      <c r="G49" s="5" t="inlineStr">
+        <is>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+        </is>
+      </c>
+      <c r="H49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J49" s="4" t="inlineStr">
+        <is>
+          <t>vwgdl</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="4" t="inlineStr">
+        <is>
           <t>Q_WHO</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>Weltgesundheitsorganisation (WHO)</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="C50" s="4" t="inlineStr">
         <is>
           <t>World Health Organization</t>
         </is>
       </c>
-      <c r="D49" s="4" t="inlineStr">
+      <c r="D50" s="4" t="inlineStr">
         <is>
           <t>Weltgesundheitsorganisation</t>
         </is>
       </c>
-      <c r="E49" s="4" t="inlineStr">
+      <c r="E50" s="4" t="inlineStr">
         <is>
           <t>World Health Organization</t>
         </is>
       </c>
-      <c r="F49" s="5" t="inlineStr">
+      <c r="F50" s="5" t="inlineStr">
         <is>
           <t>http://www.euro.who.int/de/home</t>
         </is>
       </c>
-      <c r="G49" s="5" t="inlineStr">
+      <c r="G50" s="5" t="inlineStr">
         <is>
           <t>http://www.euro.who.int/en/home</t>
         </is>
       </c>
-      <c r="H49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J49" s="4" t="inlineStr">
+      <c r="H50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J50" s="4" t="inlineStr">
         <is>
           <t>who</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -479,7 +479,7 @@
     <col customWidth="true" min="4" max="4" width="13.8359375"/>
     <col customWidth="true" min="5" max="5" width="13.8359375"/>
     <col customWidth="true" min="6" max="6" width="13.8359375"/>
-    <col customWidth="true" min="7" max="7" width="13.8359375"/>
+    <col customWidth="true" min="7" max="7" width="53.171875"/>
     <col customWidth="true" min="8" max="8" width="13.8359375"/>
     <col customWidth="true" min="9" max="9" width="13.8359375"/>
     <col customWidth="true" min="10" max="10" width="13.8359375"/>
@@ -2729,32 +2729,32 @@
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Stifteverband Wissenschaftsstatistik</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Stifteverband Wissenschaftsstatistik</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Stifteverband Wissenschaftsstatistik</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>Stifteverband Wissenschaftsstatistik</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="F44" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/wissenschaftsstatistik</t>
+          <t>https://www.stifterverband.org/</t>
         </is>
       </c>
       <c r="G44" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/wissenschaftsstatistik</t>
+          <t>https://www.stifterverband.org/english</t>
         </is>
       </c>
       <c r="H44" s="4" t="inlineStr">
@@ -3089,6 +3089,8 @@
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
     <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="F44" r:id="rId3"/>
+    <hyperlink ref="G44" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -479,7 +479,7 @@
     <col customWidth="true" min="4" max="4" width="13.8359375"/>
     <col customWidth="true" min="5" max="5" width="13.8359375"/>
     <col customWidth="true" min="6" max="6" width="13.8359375"/>
-    <col customWidth="true" min="7" max="7" width="53.171875"/>
+    <col customWidth="true" min="7" max="7" width="13.8359375"/>
     <col customWidth="true" min="8" max="8" width="13.8359375"/>
     <col customWidth="true" min="9" max="9" width="13.8359375"/>
     <col customWidth="true" min="10" max="10" width="13.8359375"/>

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -474,9 +474,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col customWidth="true" min="1" max="1" width="13.8359375"/>
-    <col customWidth="true" min="2" max="2" width="56.6875"/>
+    <col customWidth="true" min="2" max="2" width="31.640625"/>
     <col customWidth="true" min="3" max="3" width="28.7109375"/>
-    <col customWidth="true" min="4" max="4" width="13.8359375"/>
+    <col customWidth="true" min="4" max="4" width="112.79296875"/>
     <col customWidth="true" min="5" max="5" width="13.8359375"/>
     <col customWidth="true" min="6" max="6" width="13.8359375"/>
     <col customWidth="true" min="7" max="7" width="13.8359375"/>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutscher Industrie- und Handelskammertages e.V. (DIHK)</t>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V. (DIHK)</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
@@ -1751,12 +1751,12 @@
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Deutscher Industrie- und Handelskammertag e. V.</t>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V.</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>Association of German Chambers of Commerce and Industry</t>
+          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -478,8 +478,8 @@
     <col customWidth="true" min="3" max="3" width="28.7109375"/>
     <col customWidth="true" min="4" max="4" width="112.79296875"/>
     <col customWidth="true" min="5" max="5" width="13.8359375"/>
-    <col customWidth="true" min="6" max="6" width="13.8359375"/>
-    <col customWidth="true" min="7" max="7" width="13.8359375"/>
+    <col customWidth="true" min="6" max="6" width="29.734375"/>
+    <col customWidth="true" min="7" max="7" width="42.7734375"/>
     <col customWidth="true" min="8" max="8" width="13.8359375"/>
     <col customWidth="true" min="9" max="9" width="13.8359375"/>
     <col customWidth="true" min="10" max="10" width="13.8359375"/>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Bildung und Frschung (BMBF)</t>
+          <t>Bundesministerium für Bildung und Forschung</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de/index.html</t>
+          <t>https://www.bmz.de/de</t>
         </is>
       </c>
       <c r="G19" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/en/index.html</t>
+          <t>https://www.bmz.de/en</t>
         </is>
       </c>
       <c r="H19" s="4" t="inlineStr">
@@ -3089,8 +3089,10 @@
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
     <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="F44" r:id="rId3"/>
-    <hyperlink ref="G44" r:id="rId4"/>
+    <hyperlink ref="F19" r:id="rId3"/>
+    <hyperlink ref="G19" r:id="rId4"/>
+    <hyperlink ref="F44" r:id="rId5"/>
+    <hyperlink ref="G44" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -3085,6 +3085,58 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBALAWA</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
+        </is>
+      </c>
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
+        </is>
+      </c>
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/</t>
+        </is>
+      </c>
+      <c r="G51" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en</t>
+        </is>
+      </c>
+      <c r="H51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -3133,7 +3133,7 @@
       </c>
       <c r="J51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>uba</t>
         </is>
       </c>
     </row>

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -1637,22 +1637,22 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Centrum für Evaluation GmbH</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Center for Evaluation</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Centrum für Evaluation GmbH</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>Center for Evaluation</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -3137,6 +3137,58 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>Q_AB</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Auto Bild</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>Auto Bild</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>Auto Bild</t>
+        </is>
+      </c>
+      <c r="E52" s="4" t="inlineStr">
+        <is>
+          <t>Auto Bild</t>
+        </is>
+      </c>
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>www.autobild.de</t>
+        </is>
+      </c>
+      <c r="G52" s="5" t="inlineStr">
+        <is>
+          <t>www.autobild.de</t>
+        </is>
+      </c>
+      <c r="H52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J52" s="4" t="inlineStr">
+        <is>
+          <t>ab</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
@@ -3145,6 +3197,8 @@
     <hyperlink ref="G19" r:id="rId4"/>
     <hyperlink ref="F44" r:id="rId5"/>
     <hyperlink ref="G44" r:id="rId6"/>
+    <hyperlink ref="F52" r:id="rId7"/>
+    <hyperlink ref="G52" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -592,37 +592,37 @@
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>Q_AGEB</t>
+          <t>Q_AB</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>AG Energiebilanzen e.V.</t>
+          <t>Auto Bild</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>AG Energiebilanzen e.V.</t>
+          <t>Auto Bild</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>AG Energiebilanzen</t>
+          <t>Auto Bild</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>AG Energiebilanzen</t>
+          <t>Auto Bild</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>https://ag-energiebilanzen.de/</t>
+          <t>https://www.autobild.de</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>https://ag-energiebilanzen.de/en/</t>
+          <t>https://www.autobild.de</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
@@ -637,44 +637,44 @@
       </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
-          <t>ageb</t>
+          <t>ab</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Q_AGEESTAT</t>
+          <t>Q_AGEB</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik (AGEE-Stat)</t>
+          <t>AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>AG Energiebilanzen</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>AG Energiebilanzen</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
+          <t>https://ag-energiebilanzen.de/</t>
         </is>
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
+          <t>https://ag-energiebilanzen.de/en/</t>
         </is>
       </c>
       <c r="H4" s="4" t="inlineStr">
@@ -689,44 +689,44 @@
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>ageestat</t>
+          <t>ageb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Q_AGNE</t>
+          <t>Q_AGEESTAT</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik (AGEE-Stat)</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Working Group</t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Working Group</t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
         </is>
       </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
@@ -741,44 +741,44 @@
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
-          <t>agne</t>
+          <t>ageestat</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Q_AKUGRDL</t>
+          <t>Q_AGNE</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder (AK UGRdL)</t>
+          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
+          <t>Sustainable Development Working Group</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
+          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>AK UGRdL</t>
+          <t>Sustainable Development Working Group</t>
         </is>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
         </is>
       </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
         </is>
       </c>
       <c r="H6" s="4" t="inlineStr">
@@ -793,44 +793,44 @@
       </c>
       <c r="J6" s="4" t="inlineStr">
         <is>
-          <t>akugrdl</t>
+          <t>agne</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Q_AMI</t>
+          <t>Q_AKUGRDL</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Agrarmarkt Informations-Gesellschaft mbH (AMI)</t>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder (AK UGRdL)</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Agricultural Market Information Company</t>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>Agrarmarkt Informations-Gesellschaft mbH</t>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>Agricultural Market Information Company</t>
+          <t>AK UGRdL</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
-          <t>https://www.ami-informiert.de/ami-maerkte</t>
+          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
-          <t>https://www.ami-informiert.de/ami-english/ami-about-us/about-us</t>
+          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
         </is>
       </c>
       <c r="H7" s="4" t="inlineStr">
@@ -845,44 +845,44 @@
       </c>
       <c r="J7" s="4" t="inlineStr">
         <is>
-          <t>ami</t>
+          <t>akugrdl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Q_BBSR</t>
+          <t>Q_AMI</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung (BBSR)</t>
+          <t>Agrarmarkt Informations-Gesellschaft mbH (AMI)</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Federal Office for Research on Building, Urban Affairs and Spatial Development</t>
+          <t>Agricultural Market Information Company</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
+          <t>Agrarmarkt Informations-Gesellschaft mbH</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>Federal Office for Research on Building, Urban Affairs and Spatial Development</t>
+          <t>Agricultural Market Information Company</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
-          <t>https://www.bbsr.bund.de/BBSR/DE/startseite/_node.html</t>
+          <t>https://www.ami-informiert.de/ami-maerkte</t>
         </is>
       </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
-          <t>https://www.bbsr.bund.de/BBSR/EN/home/_node.html</t>
+          <t>https://www.ami-informiert.de/ami-english/ami-about-us/about-us</t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
@@ -897,44 +897,44 @@
       </c>
       <c r="J8" s="4" t="inlineStr">
         <is>
-          <t>bbsr</t>
+          <t>ami</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Q_BFN</t>
+          <t>Q_BBSR</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Naturschutz (BfN)</t>
+          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung (BBSR)</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Nature Conservation </t>
+          <t>Federal Office for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Naturschutz</t>
+          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Nature Conservation </t>
+          <t>Federal Office for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
-          <t>https://www.bfn.de/</t>
+          <t>https://www.bbsr.bund.de/BBSR/DE/startseite/_node.html</t>
         </is>
       </c>
       <c r="G9" s="5" t="inlineStr">
         <is>
-          <t>https://www.bfn.de/en.html</t>
+          <t>https://www.bbsr.bund.de/BBSR/EN/home/_node.html</t>
         </is>
       </c>
       <c r="H9" s="4" t="inlineStr">
@@ -949,44 +949,44 @@
       </c>
       <c r="J9" s="4" t="inlineStr">
         <is>
-          <t>bfn</t>
+          <t>bbsr</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Q_BKA</t>
+          <t>Q_BFN</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Bundeskriminalamt (BKA)</t>
+          <t>Bundesamt für Naturschutz (BfN)</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Federal Criminal Police Office</t>
+          <t>Federal Agency for Nature Conservation </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>Bundeskriminalamt</t>
+          <t>Bundesamt für Naturschutz</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>Federal Criminal Police Office</t>
+          <t>Federal Agency for Nature Conservation </t>
         </is>
       </c>
       <c r="F10" s="5" t="inlineStr">
         <is>
-          <t>https://www.bka.de/DE/Home/home_node.html</t>
+          <t>https://www.bfn.de/</t>
         </is>
       </c>
       <c r="G10" s="5" t="inlineStr">
         <is>
-          <t>https://www.bka.de/EN/Home/home_node.html</t>
+          <t>https://www.bfn.de/en.html</t>
         </is>
       </c>
       <c r="H10" s="4" t="inlineStr">
@@ -1001,44 +1001,44 @@
       </c>
       <c r="J10" s="4" t="inlineStr">
         <is>
-          <t>bka</t>
+          <t>bfn</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Q_BKAMT</t>
+          <t>Q_BKA</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Bundeskanzleramt</t>
+          <t>Bundeskriminalamt (BKA)</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Federal Chancellery</t>
+          <t>Federal Criminal Police Office</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>Bundeskanzleramt</t>
+          <t>Bundeskriminalamt</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>Federal Chancellery</t>
+          <t>Federal Criminal Police Office</t>
         </is>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesregierung.de/breg-de/bundesregierung/bundeskanzleramt</t>
+          <t>https://www.bka.de/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="G11" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesregierung.de/breg-en/federal-government</t>
+          <t>https://www.bka.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="H11" s="4" t="inlineStr">
@@ -1053,44 +1053,44 @@
       </c>
       <c r="J11" s="4" t="inlineStr">
         <is>
-          <t>bkamt</t>
+          <t>bka</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Q_BKM</t>
+          <t>Q_BKAMT</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
+          <t>Bundeskanzleramt</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Federal Government Commissioner for Culture and the Media</t>
+          <t>Federal Chancellery</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
+          <t>Bundeskanzleramt</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>Federal Government Commissioner for Culture and the Media</t>
+          <t>Federal Chancellery</t>
         </is>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesregierung.de/breg-de/bundesregierung/staatsministerin-fuer-kultur-und-medien</t>
+          <t>https://www.bundesregierung.de/breg-de/bundesregierung/bundeskanzleramt</t>
         </is>
       </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesregierung.de/breg-de/bundesregierung/staatsministerin-fuer-kultur-und-medien</t>
+          <t>https://www.bundesregierung.de/breg-en/federal-government</t>
         </is>
       </c>
       <c r="H12" s="4" t="inlineStr">
@@ -1105,44 +1105,44 @@
       </c>
       <c r="J12" s="4" t="inlineStr">
         <is>
-          <t>bkm</t>
+          <t>bkamt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Q_BMBF</t>
+          <t>Q_BKM</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Bildung und Frschung (BMBF)</t>
+          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Education and Research</t>
+          <t>Federal Government Commissioner for Culture and the Media</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Bildung und Forschung</t>
+          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Education and Research</t>
+          <t>Federal Government Commissioner for Culture and the Media</t>
         </is>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmbf.de/</t>
+          <t>https://www.bundesregierung.de/breg-de/bundesregierung/staatsministerin-fuer-kultur-und-medien</t>
         </is>
       </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmbf.de/bmbf/en/</t>
+          <t>https://www.bundesregierung.de/breg-de/bundesregierung/staatsministerin-fuer-kultur-und-medien</t>
         </is>
       </c>
       <c r="H13" s="4" t="inlineStr">
@@ -1157,44 +1157,44 @@
       </c>
       <c r="J13" s="4" t="inlineStr">
         <is>
-          <t>bmbf</t>
+          <t>bkm</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Q_BMDV</t>
+          <t>Q_BMBF</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Digitales und Verkehr (BMDV)</t>
+          <t>Bundesministerium für Bildung und Frschung (BMBF)</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Digital and Transport</t>
+          <t>Federal Ministry of Education and Research</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Digitales und Verkehr</t>
+          <t>Bundesministerium für Bildung und Forschung</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Digital and Transport</t>
+          <t>Federal Ministry of Education and Research</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmvi.de/DE/Home/home.html</t>
+          <t>https://www.bmbf.de/</t>
         </is>
       </c>
       <c r="G14" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmvi.de/EN/Home/home.html</t>
+          <t>https://www.bmbf.de/bmbf/en/</t>
         </is>
       </c>
       <c r="H14" s="4" t="inlineStr">
@@ -1209,44 +1209,44 @@
       </c>
       <c r="J14" s="4" t="inlineStr">
         <is>
-          <t>bmdv</t>
+          <t>bmbf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Q_BMEL</t>
+          <t>Q_BMDV</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Ernährung und Landwirtschaft (BMEL)</t>
+          <t>Bundesministerium für Digitales und Verkehr (BMDV)</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>Federal Ministry for Digital and Transport</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
+          <t>Bundesministerium für Digitales und Verkehr</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>Federal Ministry for Digital and Transport</t>
         </is>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmel.de/DE/Startseite/startseite_node.html</t>
+          <t>https://www.bmvi.de/DE/Home/home.html</t>
         </is>
       </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmel.de/EN/Home/home_node.html</t>
+          <t>https://www.bmvi.de/EN/Home/home.html</t>
         </is>
       </c>
       <c r="H15" s="4" t="inlineStr">
@@ -1261,44 +1261,44 @@
       </c>
       <c r="J15" s="4" t="inlineStr">
         <is>
-          <t>bmel</t>
+          <t>bmdv</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Q_BMF</t>
+          <t>Q_BMEL</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Finanzen (BMF)</t>
+          <t>Bundesministerium für Ernährung und Landwirtschaft (BMEL)</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Finance</t>
+          <t>Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Finanzen</t>
+          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Finance</t>
+          <t>Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesfinanzministerium.de/Web/DE/Home/home.html</t>
+          <t>https://www.bmel.de/DE/Startseite/startseite_node.html</t>
         </is>
       </c>
       <c r="G16" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesfinanzministerium.de/Web/EN/Home/home.html</t>
+          <t>https://www.bmel.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="H16" s="4" t="inlineStr">
@@ -1313,44 +1313,44 @@
       </c>
       <c r="J16" s="4" t="inlineStr">
         <is>
-          <t>bmf</t>
+          <t>bmel</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Q_BMG</t>
+          <t>Q_BMF</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Gesundheit (BMG)</t>
+          <t>Bundesministerium der Finanzen (BMF)</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Health</t>
+          <t>Federal Ministry of Finance</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Gesundheit</t>
+          <t>Bundesministerium der Finanzen</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Health</t>
+          <t>Federal Ministry of Finance</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesgesundheitsministerium.de/</t>
+          <t>https://www.bundesfinanzministerium.de/Web/DE/Home/home.html</t>
         </is>
       </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesgesundheitsministerium.de/en/</t>
+          <t>https://www.bundesfinanzministerium.de/Web/EN/Home/home.html</t>
         </is>
       </c>
       <c r="H17" s="4" t="inlineStr">
@@ -1365,44 +1365,44 @@
       </c>
       <c r="J17" s="4" t="inlineStr">
         <is>
-          <t>bmg</t>
+          <t>bmf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Q_BMWK</t>
+          <t>Q_BMG</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Wirtschaft und Klimaschutz (BMWK)</t>
+          <t>Bundesministerium für Gesundheit (BMG)</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Affairs and Climate Action</t>
+          <t>Federal Ministry of Health</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Wirtschaft und Klimaschutz</t>
+          <t>Bundesministerium für Gesundheit</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Affairs and Climate Action</t>
+          <t>Federal Ministry of Health</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmwi.de/Navigation/DE/Home/home.html</t>
+          <t>https://www.bundesgesundheitsministerium.de/</t>
         </is>
       </c>
       <c r="G18" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmwi.de/Navigation/EN/Home/home.html</t>
+          <t>https://www.bundesgesundheitsministerium.de/en/</t>
         </is>
       </c>
       <c r="H18" s="4" t="inlineStr">
@@ -1417,44 +1417,44 @@
       </c>
       <c r="J18" s="4" t="inlineStr">
         <is>
-          <t>bmwk</t>
+          <t>bmg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_BMWK</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ)</t>
+          <t>Bundesministerium für Wirtschaft und Klimaschutz (BMWK)</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t>Federal Ministry for Economic Affairs and Climate Action</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Bundesministerium für Wirtschaft und Klimaschutz</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t>Federal Ministry for Economic Affairs and Climate Action</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de</t>
+          <t>https://www.bmwi.de/Navigation/DE/Home/home.html</t>
         </is>
       </c>
       <c r="G19" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/en</t>
+          <t>https://www.bmwi.de/Navigation/EN/Home/home.html</t>
         </is>
       </c>
       <c r="H19" s="4" t="inlineStr">
@@ -1469,44 +1469,44 @@
       </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
-          <t>bmz</t>
+          <t>bmwk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Q_BOLW</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Bund Ökologische Lebensmittelwirtschaft e. V. (BÖLW)</t>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ)</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Organic Food Production Alliance</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>Bund Ökologische Lebensmittelwirtschaft e. V.</t>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>Organic Food Production Alliance</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>https://www.boelw.de/</t>
+          <t>https://www.bmz.de/de</t>
         </is>
       </c>
       <c r="G20" s="5" t="inlineStr">
         <is>
-          <t>https://www.boelw.de/</t>
+          <t>https://www.bmz.de/en</t>
         </is>
       </c>
       <c r="H20" s="4" t="inlineStr">
@@ -1521,44 +1521,44 @@
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>bolw</t>
+          <t>bmz</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Q_BUNDESBANK</t>
+          <t>Q_BOLW</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Bundesbank (BBk)</t>
+          <t>Bund Ökologische Lebensmittelwirtschaft e. V. (BÖLW)</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>German Federal Bank</t>
+          <t>Organic Food Production Alliance</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Bundesbank</t>
+          <t>Bund Ökologische Lebensmittelwirtschaft e. V.</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>German Federal Bank</t>
+          <t>Organic Food Production Alliance</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesbank.de/de/</t>
+          <t>https://www.boelw.de/</t>
         </is>
       </c>
       <c r="G21" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesbank.de/en</t>
+          <t>https://www.boelw.de/</t>
         </is>
       </c>
       <c r="H21" s="4" t="inlineStr">
@@ -1573,44 +1573,44 @@
       </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
-          <t>bundesbank</t>
+          <t>bolw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Q_BZGA</t>
+          <t>Q_BUNDESBANK</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Bundeszentrale für gesundheitliche Aufklärung (BZGA)</t>
+          <t>Deutsche Bundesbank (BBk)</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Federal Centre for Health Education</t>
+          <t>German Federal Bank</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>Bundeszentrale für gesundheitliche Aufklärung</t>
+          <t>Deutsche Bundesbank</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>Federal Centre for Health Education</t>
+          <t>German Federal Bank</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/</t>
+          <t>https://www.bundesbank.de/de/</t>
         </is>
       </c>
       <c r="G22" s="5" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/home/bzga/</t>
+          <t>https://www.bundesbank.de/en</t>
         </is>
       </c>
       <c r="H22" s="4" t="inlineStr">
@@ -1625,44 +1625,44 @@
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>bzga</t>
+          <t>bundesbank</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Q_CEVAL</t>
+          <t>Q_BZGA</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Bundeszentrale für gesundheitliche Aufklärung (BZGA)</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Bundeszentrale für gesundheitliche Aufklärung</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>https://ceval.de/modx/</t>
+          <t>https://www.bzga.de/</t>
         </is>
       </c>
       <c r="G23" s="5" t="inlineStr">
         <is>
-          <t>https://ceval.de/modx/enindex.php?id=692</t>
+          <t>https://www.bzga.de/home/bzga/</t>
         </is>
       </c>
       <c r="H23" s="4" t="inlineStr">
@@ -1677,44 +1677,44 @@
       </c>
       <c r="J23" s="4" t="inlineStr">
         <is>
-          <t>ceval</t>
+          <t>bzga</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_CEVAL</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Statistisches Bundesamt (Destatis)</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Federal Statistical Office</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Statistisches Bundesamt</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>Federal Statistical Office</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Home/_inhalt.html</t>
+          <t>https://ceval.de/modx/</t>
         </is>
       </c>
       <c r="G24" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Home/_node.html</t>
+          <t>https://ceval.de/modx/enindex.php?id=692</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">
@@ -1729,44 +1729,44 @@
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>destatis</t>
+          <t>ceval</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Q_DIHK</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V. (DIHK)</t>
+          <t>Statistisches Bundesamt (Destatis)</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
+          <t>Federal Statistical Office</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V.</t>
+          <t>Statistisches Bundesamt</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
+          <t>Federal Statistical Office</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>https://www.dihk.de/de</t>
+          <t>https://www.destatis.de/DE/Home/_inhalt.html</t>
         </is>
       </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
-          <t>https://www.dihk.de/de</t>
+          <t>https://www.destatis.de/EN/Home/_node.html</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr">
@@ -1781,44 +1781,44 @@
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>dihk</t>
+          <t>destatis</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Q_DIW</t>
+          <t>Q_DIHK</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Wirtschaftsforschung (DIW)</t>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V. (DIHK)</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Economic Research</t>
+          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Wirtschaftsforschung</t>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V.</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Economic Research</t>
+          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>https://www.diw.de/deutsch</t>
+          <t>https://www.dihk.de/de</t>
         </is>
       </c>
       <c r="G26" s="5" t="inlineStr">
         <is>
-          <t>https://www.diw.de/en</t>
+          <t>https://www.dihk.de/de</t>
         </is>
       </c>
       <c r="H26" s="4" t="inlineStr">
@@ -1833,44 +1833,44 @@
       </c>
       <c r="J26" s="4" t="inlineStr">
         <is>
-          <t>diw</t>
+          <t>dihk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROPEANCOMMISSION</t>
+          <t>Q_DIW</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Europäische Kommission</t>
+          <t>Deutsches Institut für Wirtschaftsforschung (DIW)</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>European Commission</t>
+          <t>German Institute for Economic Research</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Europäische Kommission</t>
+          <t>Deutsches Institut für Wirtschaftsforschung</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>European Commission</t>
+          <t>German Institute for Economic Research</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_de</t>
+          <t>https://www.diw.de/deutsch</t>
         </is>
       </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
-          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_en</t>
+          <t>https://www.diw.de/en</t>
         </is>
       </c>
       <c r="H27" s="4" t="inlineStr">
@@ -1885,44 +1885,44 @@
       </c>
       <c r="J27" s="4" t="inlineStr">
         <is>
-          <t>europeancommission</t>
+          <t>diw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_EUROPEANCOMMISSION</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>Europäische Kommission</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>European Commission</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>Europäische Kommission</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>European Commission</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/de/home</t>
+          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_de</t>
         </is>
       </c>
       <c r="G28" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/home</t>
+          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_en</t>
         </is>
       </c>
       <c r="H28" s="4" t="inlineStr">
@@ -1937,44 +1937,44 @@
       </c>
       <c r="J28" s="4" t="inlineStr">
         <is>
-          <t>eurostat</t>
+          <t>europeancommission</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Q_EZB</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank (EZB)</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/home/html/index.de.html</t>
+          <t>https://ec.europa.eu/eurostat/de/home</t>
         </is>
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/home/languagepolicy/html/index.en.html</t>
+          <t>https://ec.europa.eu/eurostat/home</t>
         </is>
       </c>
       <c r="H29" s="4" t="inlineStr">
@@ -1989,44 +1989,44 @@
       </c>
       <c r="J29" s="4" t="inlineStr">
         <is>
-          <t>ezb</t>
+          <t>eurostat</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_EZB</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V. (FidAR)</t>
+          <t>Europäische Zentralbank (EZB)</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>European Central Bank</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>Europäische Zentralbank</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>European Central Bank</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/</t>
+          <t>https://www.ecb.europa.eu/home/html/index.de.html</t>
         </is>
       </c>
       <c r="G30" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/</t>
+          <t>https://www.ecb.europa.eu/home/languagepolicy/html/index.en.html</t>
         </is>
       </c>
       <c r="H30" s="4" t="inlineStr">
@@ -2041,44 +2041,44 @@
       </c>
       <c r="J30" s="4" t="inlineStr">
         <is>
-          <t>fidar</t>
+          <t>ezb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Q_GBE</t>
+          <t>Q_FIDAR</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Gesundheitsberichterstattung des Bundes (GBE)</t>
+          <t>Frauen in die Aufsichtsräte e.V. (FidAR)</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Federal Health Monitoring</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Gesundheitsberichterstattung des Bundes</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>Federal Health Monitoring</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/</t>
+          <t>https://www.fidar.de/</t>
         </is>
       </c>
       <c r="G31" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_isgbe?p_uid=gast&amp;p_aid=50554816&amp;p_sprache=E</t>
+          <t>https://www.fidar.de/</t>
         </is>
       </c>
       <c r="H31" s="4" t="inlineStr">
@@ -2093,44 +2093,44 @@
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
-          <t>gbe</t>
+          <t>fidar</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Q_GFK</t>
+          <t>Q_GBE</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung (GfK)</t>
+          <t>Gesundheitsberichterstattung des Bundes (GBE)</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Federal Health Monitoring</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Gesundheitsberichterstattung des Bundes</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Federal Health Monitoring</t>
         </is>
       </c>
       <c r="F32" s="5" t="inlineStr">
         <is>
-          <t>https://www.gfk.com/de/</t>
+          <t>https://www.gbe-bund.de/gbe/</t>
         </is>
       </c>
       <c r="G32" s="5" t="inlineStr">
         <is>
-          <t>https://www.gfk.com/</t>
+          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_isgbe?p_uid=gast&amp;p_aid=50554816&amp;p_sprache=E</t>
         </is>
       </c>
       <c r="H32" s="4" t="inlineStr">
@@ -2145,44 +2145,44 @@
       </c>
       <c r="J32" s="4" t="inlineStr">
         <is>
-          <t>gfk</t>
+          <t>gbe</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Q_GIZ</t>
+          <t>Q_GFK</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ)</t>
+          <t>Gesellschaft für Konsumforschung (GfK)</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH(GIZ)</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="F33" s="5" t="inlineStr">
         <is>
-          <t>https://www.giz.de/de/html/index.html</t>
+          <t>https://www.gfk.com/de/</t>
         </is>
       </c>
       <c r="G33" s="5" t="inlineStr">
         <is>
-          <t>https://www.giz.de/en/html/index.html</t>
+          <t>https://www.gfk.com/</t>
         </is>
       </c>
       <c r="H33" s="4" t="inlineStr">
@@ -2197,44 +2197,44 @@
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
-          <t>giz</t>
+          <t>gfk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>Q_GIZ</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH (ifeu)</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ)</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Institute for Energy and Environmental Research</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH(GIZ)</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>Institute for Energy and Environmental Research</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/</t>
+          <t>https://www.giz.de/de/html/index.html</t>
         </is>
       </c>
       <c r="G34" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/en/</t>
+          <t>https://www.giz.de/en/html/index.html</t>
         </is>
       </c>
       <c r="H34" s="4" t="inlineStr">
@@ -2249,44 +2249,44 @@
       </c>
       <c r="J34" s="4" t="inlineStr">
         <is>
-          <t>ifeu</t>
+          <t>giz</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Q_JHT</t>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen-Institut (TI)</t>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH (ifeu)</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen Institute</t>
+          <t>Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Thünen-Institut</t>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>Thünen Institute</t>
+          <t>Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="F35" s="5" t="inlineStr">
         <is>
-          <t>https://www.thuenen.de/de/</t>
+          <t>https://www.ifeu.de/</t>
         </is>
       </c>
       <c r="G35" s="5" t="inlineStr">
         <is>
-          <t>https://www.thuenen.de/en/</t>
+          <t>https://www.ifeu.de/en/</t>
         </is>
       </c>
       <c r="H35" s="4" t="inlineStr">
@@ -2301,44 +2301,44 @@
       </c>
       <c r="J35" s="4" t="inlineStr">
         <is>
-          <t>jht</t>
+          <t>ifeu</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Q_JKI</t>
+          <t>Q_JHT</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Julius Kühn-Institut (JKI) Bundesforschungsinstitut für Kulturpflanzen, Institut für Pflanzenbau und Bodenkunde</t>
+          <t>Johann Heinrich von Thünen-Institut (TI)</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Julius Kühn-Institut, Institut für Pflanzenbau und Bodenkunde</t>
+          <t>Thünen-Institut</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>Thünen Institute</t>
         </is>
       </c>
       <c r="F36" s="5" t="inlineStr">
         <is>
-          <t>https://www.julius-kuehn.de/pb/</t>
+          <t>https://www.thuenen.de/de/</t>
         </is>
       </c>
       <c r="G36" s="5" t="inlineStr">
         <is>
-          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
+          <t>https://www.thuenen.de/en/</t>
         </is>
       </c>
       <c r="H36" s="4" t="inlineStr">
@@ -2353,44 +2353,44 @@
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
-          <t>jki</t>
+          <t>jht</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Q_KBA</t>
+          <t>Q_JKI</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrt-Bundesamt (KBA)</t>
+          <t>Julius Kühn-Institut (JKI) Bundesforschungsinstitut für Kulturpflanzen, Institut für Pflanzenbau und Bodenkunde</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Federal Motor Transport Authority</t>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrt-Bundesamt</t>
+          <t>Julius Kühn-Institut, Institut für Pflanzenbau und Bodenkunde</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>Federal Motor Transport Authority</t>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="F37" s="5" t="inlineStr">
         <is>
-          <t>https://www.kba.de/DE/Home/home_node.html</t>
+          <t>https://www.julius-kuehn.de/pb/</t>
         </is>
       </c>
       <c r="G37" s="5" t="inlineStr">
         <is>
-          <t>https://www.kba.de/EN/Home/home_node.html</t>
+          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
         </is>
       </c>
       <c r="H37" s="4" t="inlineStr">
@@ -2405,44 +2405,44 @@
       </c>
       <c r="J37" s="4" t="inlineStr">
         <is>
-          <t>kba</t>
+          <t>jki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Q_KFW</t>
+          <t>Q_KBA</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Kraftfahrt-Bundesamt (KBA)</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau</t>
+          <t>Kraftfahrt-Bundesamt</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="F38" s="5" t="inlineStr">
         <is>
-          <t>https://www.kfw.de/kfw.de.html</t>
+          <t>https://www.kba.de/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="G38" s="5" t="inlineStr">
         <is>
-          <t>https://www.kfw.de/kfw.de-2.html</t>
+          <t>https://www.kba.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="H38" s="4" t="inlineStr">
@@ -2457,44 +2457,44 @@
       </c>
       <c r="J38" s="4" t="inlineStr">
         <is>
-          <t>kfw</t>
+          <t>kba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Q_KNB</t>
+          <t>Q_KFW</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern (KNB) </t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Center of Excellence for Sustainable Procurement</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
+          <t>Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>Competence Center for Sustainable Procurement</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="F39" s="5" t="inlineStr">
         <is>
-          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
+          <t>https://www.kfw.de/kfw.de.html</t>
         </is>
       </c>
       <c r="G39" s="5" t="inlineStr">
         <is>
-          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
+          <t>https://www.kfw.de/kfw.de-2.html</t>
         </is>
       </c>
       <c r="H39" s="4" t="inlineStr">
@@ -2509,44 +2509,44 @@
       </c>
       <c r="J39" s="4" t="inlineStr">
         <is>
-          <t>knb</t>
+          <t>kfw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_KNB</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis (LAK) Energiebilanzen</t>
+          <t>Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern (KNB) </t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis Energiebilanzen</t>
+          <t>Center of Excellence for Sustainable Procurement</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis Energiebilanzen</t>
+          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>LAK Energiebilanzen</t>
+          <t>Competence Center for Sustainable Procurement</t>
         </is>
       </c>
       <c r="F40" s="5" t="inlineStr">
         <is>
-          <t>http://www.lak-energiebilanzen.de/</t>
+          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="G40" s="5" t="inlineStr">
         <is>
-          <t>http://www.lak-energiebilanzen.de/</t>
+          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="H40" s="4" t="inlineStr">
@@ -2561,44 +2561,44 @@
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
-          <t>lakeb</t>
+          <t>knb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren (LIKI)</t>
+          <t>Länderarbeitskreis (LAK) Energiebilanzen</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>Länderarbeitskreis Energiebilanzen</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>Länderarbeitskreis Energiebilanzen</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>LAK Energiebilanzen</t>
         </is>
       </c>
       <c r="F41" s="5" t="inlineStr">
         <is>
-          <t>https://www.lanuv.nrw.de/liki/index.php</t>
+          <t>http://www.lak-energiebilanzen.de/</t>
         </is>
       </c>
       <c r="G41" s="5" t="inlineStr">
         <is>
-          <t>https://www.lanuv.nrw.de/liki/index.php</t>
+          <t>http://www.lak-energiebilanzen.de/</t>
         </is>
       </c>
       <c r="H41" s="4" t="inlineStr">
@@ -2613,44 +2613,44 @@
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>liki</t>
+          <t>lakeb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD)</t>
+          <t>Länderinitiative Kernindikatoren (LIKI)</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="F42" s="5" t="inlineStr">
         <is>
-          <t>https://www.oecd.org/</t>
+          <t>https://www.lanuv.nrw.de/liki/index.php</t>
         </is>
       </c>
       <c r="G42" s="5" t="inlineStr">
         <is>
-          <t>https://www.oecd.org/</t>
+          <t>https://www.lanuv.nrw.de/liki/index.php</t>
         </is>
       </c>
       <c r="H42" s="4" t="inlineStr">
@@ -2665,44 +2665,44 @@
       </c>
       <c r="J42" s="4" t="inlineStr">
         <is>
-          <t>oecd</t>
+          <t>liki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Q_RKI</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut (RKI)</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD)</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch Institute</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch Institute</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="F43" s="5" t="inlineStr">
         <is>
-          <t>https://www.rki.de/DE/Home/homepage_node.html</t>
+          <t>https://www.oecd.org/</t>
         </is>
       </c>
       <c r="G43" s="5" t="inlineStr">
         <is>
-          <t>https://www.rki.de/EN/Home/homepage_node.html</t>
+          <t>https://www.oecd.org/</t>
         </is>
       </c>
       <c r="H43" s="4" t="inlineStr">
@@ -2717,44 +2717,44 @@
       </c>
       <c r="J43" s="4" t="inlineStr">
         <is>
-          <t>rki</t>
+          <t>oecd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>Q_RKI</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Robert Koch-Institut (RKI)</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Robert Koch Institute</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Robert Koch-Institut</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Robert Koch Institute</t>
         </is>
       </c>
       <c r="F44" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/</t>
+          <t>https://www.rki.de/DE/Home/homepage_node.html</t>
         </is>
       </c>
       <c r="G44" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/english</t>
+          <t>https://www.rki.de/EN/Home/homepage_node.html</t>
         </is>
       </c>
       <c r="H44" s="4" t="inlineStr">
@@ -2769,44 +2769,44 @@
       </c>
       <c r="J44" s="4" t="inlineStr">
         <is>
-          <t>svws</t>
+          <t>rki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_SVWS</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="F45" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.de/</t>
+          <t>https://www.stifterverband.org/</t>
         </is>
       </c>
       <c r="G45" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.de/en/</t>
+          <t>https://www.stifterverband.org/english</t>
         </is>
       </c>
       <c r="H45" s="4" t="inlineStr">
@@ -2821,44 +2821,44 @@
       </c>
       <c r="J45" s="4" t="inlineStr">
         <is>
-          <t>ta</t>
+          <t>svws</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_TA</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt (UBA)</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="F46" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/</t>
+          <t>https://www.transparency.de/</t>
         </is>
       </c>
       <c r="G46" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en</t>
+          <t>https://www.transparency.de/en/</t>
         </is>
       </c>
       <c r="H46" s="4" t="inlineStr">
@@ -2873,44 +2873,44 @@
       </c>
       <c r="J46" s="4" t="inlineStr">
         <is>
-          <t>uba</t>
+          <t>ta</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Q_UG</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement, Justus-Liebig-Universität Gießen</t>
+          <t>Umweltbundesamt (UBA)</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Institute of Landscape Ecology and Resources Management, Justus Liebig University of Giessen</t>
+          <t>German Environment Agency</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement, Justus-Liebig-Universität Gießen</t>
+          <t>Umweltbundesamt</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>Institute of Landscape Ecology and Resources Management, Justus Liebig University of Giessen</t>
+          <t>German Environment Agency</t>
         </is>
       </c>
       <c r="F47" s="5" t="inlineStr">
         <is>
-          <t>https://www.uni-giessen.de/fbz/fb09/institute/ilr</t>
+          <t>https://www.umweltbundesamt.de/</t>
         </is>
       </c>
       <c r="G47" s="5" t="inlineStr">
         <is>
-          <t>https://www.uni-giessen.de/faculties/f09/institutes/landscape?set_language=en</t>
+          <t>https://www.umweltbundesamt.de/en</t>
         </is>
       </c>
       <c r="H47" s="4" t="inlineStr">
@@ -2925,44 +2925,44 @@
       </c>
       <c r="J47" s="4" t="inlineStr">
         <is>
-          <t>ug</t>
+          <t>uba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Q_VCD</t>
+          <t>Q_UBALAWA</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V. (VCD)</t>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
         </is>
       </c>
       <c r="F48" s="5" t="inlineStr">
         <is>
-          <t>https://www.vcd.org/startseite/</t>
+          <t>https://www.umweltbundesamt.de/</t>
         </is>
       </c>
       <c r="G48" s="5" t="inlineStr">
         <is>
-          <t>https://www.vcd.org/startseite/</t>
+          <t>https://www.umweltbundesamt.de/en</t>
         </is>
       </c>
       <c r="H48" s="4" t="inlineStr">
@@ -2977,44 +2977,44 @@
       </c>
       <c r="J48" s="4" t="inlineStr">
         <is>
-          <t>vcd</t>
+          <t>uba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_UG</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement, Justus-Liebig-Universität Gießen</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Institute of Landscape Ecology and Resources Management, Justus Liebig University of Giessen</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement, Justus-Liebig-Universität Gießen</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Institute of Landscape Ecology and Resources Management, Justus Liebig University of Giessen</t>
         </is>
       </c>
       <c r="F49" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+          <t>https://www.uni-giessen.de/fbz/fb09/institute/ilr</t>
         </is>
       </c>
       <c r="G49" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+          <t>https://www.uni-giessen.de/faculties/f09/institutes/landscape?set_language=en</t>
         </is>
       </c>
       <c r="H49" s="4" t="inlineStr">
@@ -3029,44 +3029,44 @@
       </c>
       <c r="J49" s="4" t="inlineStr">
         <is>
-          <t>vwgdl</t>
+          <t>ug</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Q_WHO</t>
+          <t>Q_VCD</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Weltgesundheitsorganisation (WHO)</t>
+          <t>Verkehrsclub Deutschland e.V. (VCD)</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>World Health Organization</t>
+          <t>Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Weltgesundheitsorganisation</t>
+          <t>Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>World Health Organization</t>
+          <t>Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="F50" s="5" t="inlineStr">
         <is>
-          <t>http://www.euro.who.int/de/home</t>
+          <t>https://www.vcd.org/startseite/</t>
         </is>
       </c>
       <c r="G50" s="5" t="inlineStr">
         <is>
-          <t>http://www.euro.who.int/en/home</t>
+          <t>https://www.vcd.org/startseite/</t>
         </is>
       </c>
       <c r="H50" s="4" t="inlineStr">
@@ -3081,44 +3081,44 @@
       </c>
       <c r="J50" s="4" t="inlineStr">
         <is>
-          <t>who</t>
+          <t>vcd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Q_UBALAWA</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
+          <t>Statistische Ämter des Bundes und der Länder</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
+          <t>Statistische Ämter des Bundes und der Länder</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
+          <t>Statistische Ämter des Bundes und der Länder</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
+          <t>Statistische Ämter des Bundes und der Länder</t>
         </is>
       </c>
       <c r="F51" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/</t>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
         </is>
       </c>
       <c r="G51" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en</t>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
         </is>
       </c>
       <c r="H51" s="4" t="inlineStr">
@@ -3133,44 +3133,44 @@
       </c>
       <c r="J51" s="4" t="inlineStr">
         <is>
-          <t>uba</t>
+          <t>vwgdl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Q_AB</t>
+          <t>Q_WHO</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Auto Bild</t>
+          <t>Weltgesundheitsorganisation (WHO)</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Auto Bild</t>
+          <t>World Health Organization</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Auto Bild</t>
+          <t>Weltgesundheitsorganisation</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>Auto Bild</t>
+          <t>World Health Organization</t>
         </is>
       </c>
       <c r="F52" s="5" t="inlineStr">
         <is>
-          <t>www.autobild.de</t>
+          <t>http://www.euro.who.int/de/home</t>
         </is>
       </c>
       <c r="G52" s="5" t="inlineStr">
         <is>
-          <t>www.autobild.de</t>
+          <t>http://www.euro.who.int/en/home</t>
         </is>
       </c>
       <c r="H52" s="4" t="inlineStr">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="J52" s="4" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>who</t>
         </is>
       </c>
     </row>
@@ -3193,12 +3193,12 @@
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
     <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="F19" r:id="rId3"/>
-    <hyperlink ref="G19" r:id="rId4"/>
-    <hyperlink ref="F44" r:id="rId5"/>
-    <hyperlink ref="G44" r:id="rId6"/>
-    <hyperlink ref="F52" r:id="rId7"/>
-    <hyperlink ref="G52" r:id="rId8"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="F20" r:id="rId5"/>
+    <hyperlink ref="G20" r:id="rId6"/>
+    <hyperlink ref="F45" r:id="rId7"/>
+    <hyperlink ref="G45" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -914,7 +914,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Federal Office for Research on Building, Urban Affairs and Spatial Development</t>
+          <t>Federal Office for Building and Regional Planning</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>Federal Office for Research on Building, Urban Affairs and Spatial Development</t>
+          <t>Federal Office for Building and Regional Planning</t>
         </is>
       </c>
       <c r="F9" s="5" t="inlineStr">
@@ -3195,10 +3195,11 @@
     <hyperlink ref="G3" r:id="rId2"/>
     <hyperlink ref="F4" r:id="rId3"/>
     <hyperlink ref="G4" r:id="rId4"/>
-    <hyperlink ref="F20" r:id="rId5"/>
-    <hyperlink ref="G20" r:id="rId6"/>
-    <hyperlink ref="F45" r:id="rId7"/>
-    <hyperlink ref="G45" r:id="rId8"/>
+    <hyperlink ref="G9" r:id="rId5"/>
+    <hyperlink ref="F20" r:id="rId6"/>
+    <hyperlink ref="G20" r:id="rId7"/>
+    <hyperlink ref="F45" r:id="rId8"/>
+    <hyperlink ref="G45" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -474,7 +474,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col customWidth="true" min="1" max="1" width="13.8359375"/>
-    <col customWidth="true" min="2" max="2" width="31.640625"/>
+    <col customWidth="true" min="2" max="2" width="81.73828125"/>
     <col customWidth="true" min="3" max="3" width="28.7109375"/>
     <col customWidth="true" min="4" max="4" width="112.79296875"/>
     <col customWidth="true" min="5" max="5" width="13.8359375"/>
@@ -659,12 +659,12 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>AG Energiebilanzen</t>
+          <t>AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>AG Energiebilanzen</t>
+          <t>AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Julius Kühn-Institut (JKI) Bundesforschungsinstitut für Kulturpflanzen, Institut für Pflanzenbau und Bodenkunde</t>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut (JKI)</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Julius Kühn-Institut, Institut für Pflanzenbau und Bodenkunde</t>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
@@ -2947,12 +2947,12 @@
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government</t>
         </is>
       </c>
       <c r="F48" s="5" t="inlineStr">
@@ -2989,7 +2989,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement, Justus-Liebig-Universität Gießen</t>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Justus-Liebig-Universität Gießen</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement, Justus-Liebig-Universität Gießen</t>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Justus-Liebig-Universität Gießen</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2323,12 +2323,12 @@
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Thünen-Institut</t>
+          <t>Johann Heinrich von Thünen-Institut</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>Thünen Institute</t>
+          <t>Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="F36" s="5" t="inlineStr">
@@ -3186,6 +3186,58 @@
       <c r="J52" s="4" t="inlineStr">
         <is>
           <t>who</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA_1</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+        </is>
+      </c>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
+        </is>
+      </c>
+      <c r="F53" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/</t>
+        </is>
+      </c>
+      <c r="G53" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en</t>
+        </is>
+      </c>
+      <c r="H53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J53" s="4" t="inlineStr">
+        <is>
+          <t>uba</t>
         </is>
       </c>
     </row>

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -1241,12 +1241,12 @@
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmvi.de/DE/Home/home.html</t>
+          <t>https://bmdv.bund.de/DE/Home/home.html</t>
         </is>
       </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmvi.de/EN/Home/home.html</t>
+          <t>https://bmdv.bund.de/EN/Home/home.html</t>
         </is>
       </c>
       <c r="H15" s="4" t="inlineStr">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>https://ceval.de/modx/</t>
+          <t>https://ceval.de/</t>
         </is>
       </c>
       <c r="G24" s="5" t="inlineStr">
         <is>
-          <t>https://ceval.de/modx/enindex.php?id=692</t>
+          <t>https://ceval.de/en/</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">
@@ -2932,27 +2932,27 @@
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Q_UBALAWA</t>
+          <t>Q_UBA_1</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
+          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser</t>
+          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government</t>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
         </is>
       </c>
       <c r="F48" s="5" t="inlineStr">
@@ -2984,37 +2984,37 @@
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Q_UG</t>
+          <t>Q_UBALAWA</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Justus-Liebig-Universität Gießen</t>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Institute of Landscape Ecology and Resources Management, Justus Liebig University of Giessen</t>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Justus-Liebig-Universität Gießen</t>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>Institute of Landscape Ecology and Resources Management, Justus Liebig University of Giessen</t>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government</t>
         </is>
       </c>
       <c r="F49" s="5" t="inlineStr">
         <is>
-          <t>https://www.uni-giessen.de/fbz/fb09/institute/ilr</t>
+          <t>https://www.umweltbundesamt.de/</t>
         </is>
       </c>
       <c r="G49" s="5" t="inlineStr">
         <is>
-          <t>https://www.uni-giessen.de/faculties/f09/institutes/landscape?set_language=en</t>
+          <t>https://www.umweltbundesamt.de/en</t>
         </is>
       </c>
       <c r="H49" s="4" t="inlineStr">
@@ -3029,44 +3029,44 @@
       </c>
       <c r="J49" s="4" t="inlineStr">
         <is>
-          <t>ug</t>
+          <t>uba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Q_VCD</t>
+          <t>Q_UG</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V. (VCD)</t>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Justus-Liebig-Universität Gießen</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>Institute of Landscape Ecology and Resources Management, Justus Liebig University of Giessen</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Justus-Liebig-Universität Gießen</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>Institute of Landscape Ecology and Resources Management, Justus Liebig University of Giessen</t>
         </is>
       </c>
       <c r="F50" s="5" t="inlineStr">
         <is>
-          <t>https://www.vcd.org/startseite/</t>
+          <t>https://www.uni-giessen.de/fbz/fb09/institute/ilr</t>
         </is>
       </c>
       <c r="G50" s="5" t="inlineStr">
         <is>
-          <t>https://www.vcd.org/startseite/</t>
+          <t>https://www.uni-giessen.de/faculties/f09/institutes/landscape?set_language=en</t>
         </is>
       </c>
       <c r="H50" s="4" t="inlineStr">
@@ -3081,44 +3081,44 @@
       </c>
       <c r="J50" s="4" t="inlineStr">
         <is>
-          <t>vcd</t>
+          <t>ug</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_VCD</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Verkehrsclub Deutschland e.V. (VCD)</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="F51" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+          <t>https://www.vcd.org/startseite/</t>
         </is>
       </c>
       <c r="G51" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+          <t>https://www.vcd.org/startseite/</t>
         </is>
       </c>
       <c r="H51" s="4" t="inlineStr">
@@ -3133,44 +3133,44 @@
       </c>
       <c r="J51" s="4" t="inlineStr">
         <is>
-          <t>vwgdl</t>
+          <t>vcd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Q_WHO</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Weltgesundheitsorganisation (WHO)</t>
+          <t>Statistische Ämter des Bundes und der Länder</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>World Health Organization</t>
+          <t>Statistische Ämter des Bundes und der Länder</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Weltgesundheitsorganisation</t>
+          <t>Statistische Ämter des Bundes und der Länder</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>World Health Organization</t>
+          <t>Statistische Ämter des Bundes und der Länder</t>
         </is>
       </c>
       <c r="F52" s="5" t="inlineStr">
         <is>
-          <t>http://www.euro.who.int/de/home</t>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
         </is>
       </c>
       <c r="G52" s="5" t="inlineStr">
         <is>
-          <t>http://www.euro.who.int/en/home</t>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
         </is>
       </c>
       <c r="H52" s="4" t="inlineStr">
@@ -3185,44 +3185,44 @@
       </c>
       <c r="J52" s="4" t="inlineStr">
         <is>
-          <t>who</t>
+          <t>vwgdl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA_1</t>
+          <t>Q_WHO</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+          <t>Weltgesundheitsorganisation (WHO)</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
+          <t>World Health Organization</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+          <t>Weltgesundheitsorganisation</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
+          <t>World Health Organization</t>
         </is>
       </c>
       <c r="F53" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/</t>
+          <t>http://www.euro.who.int/de/home</t>
         </is>
       </c>
       <c r="G53" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en</t>
+          <t>http://www.euro.who.int/en/home</t>
         </is>
       </c>
       <c r="H53" s="4" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="J53" s="4" t="inlineStr">
         <is>
-          <t>uba</t>
+          <t>who</t>
         </is>
       </c>
     </row>
@@ -3248,10 +3248,14 @@
     <hyperlink ref="F4" r:id="rId3"/>
     <hyperlink ref="G4" r:id="rId4"/>
     <hyperlink ref="G9" r:id="rId5"/>
-    <hyperlink ref="F20" r:id="rId6"/>
-    <hyperlink ref="G20" r:id="rId7"/>
-    <hyperlink ref="F45" r:id="rId8"/>
-    <hyperlink ref="G45" r:id="rId9"/>
+    <hyperlink ref="F15" r:id="rId6"/>
+    <hyperlink ref="G15" r:id="rId7"/>
+    <hyperlink ref="F20" r:id="rId8"/>
+    <hyperlink ref="G20" r:id="rId9"/>
+    <hyperlink ref="F24" r:id="rId10"/>
+    <hyperlink ref="G24" r:id="rId11"/>
+    <hyperlink ref="F45" r:id="rId12"/>
+    <hyperlink ref="G45" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -3041,22 +3041,22 @@
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Justus-Liebig-Universität Gießen</t>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>Institute of Landscape Ecology and Resources Management, Justus Liebig University of Giessen</t>
+          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Justus-Liebig-Universität Gießen</t>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>Institute of Landscape Ecology and Resources Management, Justus Liebig University of Giessen</t>
+          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
         </is>
       </c>
       <c r="F50" s="5" t="inlineStr">

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -474,15 +474,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col customWidth="true" min="1" max="1" width="13.8359375"/>
-    <col customWidth="true" min="2" max="2" width="81.73828125"/>
-    <col customWidth="true" min="3" max="3" width="28.7109375"/>
-    <col customWidth="true" min="4" max="4" width="112.79296875"/>
+    <col customWidth="true" min="2" max="2" width="65.91796875"/>
+    <col customWidth="true" min="3" max="3" width="44.3828125"/>
+    <col customWidth="true" min="4" max="4" width="78.80859375"/>
     <col customWidth="true" min="5" max="5" width="13.8359375"/>
-    <col customWidth="true" min="6" max="6" width="29.734375"/>
-    <col customWidth="true" min="7" max="7" width="42.7734375"/>
-    <col customWidth="true" min="8" max="8" width="13.8359375"/>
-    <col customWidth="true" min="9" max="9" width="13.8359375"/>
+    <col customWidth="true" min="6" max="6" width="44.23828125"/>
+    <col customWidth="true" min="7" max="7" width="86.71875"/>
+    <col customWidth="true" min="8" max="8" width="29.734375"/>
+    <col customWidth="true" min="9" max="9" width="42.7734375"/>
     <col customWidth="true" min="10" max="10" width="13.8359375"/>
+    <col customWidth="true" min="11" max="11" width="13.8359375"/>
+    <col customWidth="true" min="12" max="12" width="13.8359375"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -498,40 +500,50 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
+          <t>LinkMeldungDe</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
           <t>Bezeichnung lang En</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>LinkMeldungEn</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Bezeichnung De</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Bezeichnung En</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Homepage De</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Homepage En</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Logo De</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Logo En</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>imgId</t>
         </is>
@@ -550,40 +562,50 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
+          <t>des Auswärtigen Amtes</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
           <t>Federal Foreign Office </t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>Auswärtiges Amt</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>Federal Foreign Office </t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>https://www.auswaertiges-amt.de/de/</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>https://www.auswaertiges-amt.de/en</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>aa</t>
         </is>
@@ -592,2338 +614,2788 @@
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>Q_AB</t>
+          <t>Q_AGEB</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Auto Bild</t>
+          <t>AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Auto Bild</t>
+          <t>des AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>Auto Bild</t>
+          <t>AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Auto Bild</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>https://www.autobild.de</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>https://www.autobild.de</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>AG Energiebilanzen e.V.</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>AG Energiebilanzen e.V.</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>https://ag-energiebilanzen.de/</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>https://ag-energiebilanzen.de/en/</t>
         </is>
       </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>ageb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Q_AGEB</t>
+          <t>Q_AGEESTAT</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>AG Energiebilanzen e.V.</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik (AGEE-Stat)</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>AG Energiebilanzen e.V.</t>
+          <t>der Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>AG Energiebilanzen e.V.</t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>AG Energiebilanzen e.V.</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>https://ag-energiebilanzen.de/</t>
-        </is>
-      </c>
-      <c r="G4" s="5" t="inlineStr">
-        <is>
-          <t>https://ag-energiebilanzen.de/en/</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>Working Group on Renewable Energy Statistics</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>ageb</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
+        <is>
+          <t>ageestat</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Q_AGEESTAT</t>
+          <t>Q_AGNE</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik (AGEE-Stat)</t>
+          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>der Arbeitsgruppe Nachhaltige Entwicklung</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>Sustainable Development Working Group</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I5" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>Sustainable Development Working Group</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
-          <t>ageestat</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>agne</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Q_AGNE</t>
+          <t>Q_AKUGRDL</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder (AK UGRdL)</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Working Group</t>
+          <t>des Arbeitskreises der Umweltökonomischen Gesamtrechnungen der Länder</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Working Group</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
-        </is>
-      </c>
-      <c r="G6" s="5" t="inlineStr">
-        <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>AK UGRdL</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
         </is>
       </c>
       <c r="J6" s="4" t="inlineStr">
         <is>
-          <t>agne</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>akugrdl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Q_AKUGRDL</t>
+          <t>Q_AMI</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder (AK UGRdL)</t>
+          <t>Agrarmarkt Informations-Gesellschaft mbH (AMI)</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
+          <t>der Agrarmarkt Informations-Gesellschaft mbH</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
+          <t>Agricultural Market Information Company</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>AK UGRdL</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>Agrarmarkt Informations-Gesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>Agricultural Market Information Company</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>https://www.ami-informiert.de/ami-maerkte</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>https://www.ami-informiert.de/ami-english/ami-about-us/about-us</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
         <is>
-          <t>akugrdl</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K7" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <t>ami</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Q_AMI</t>
+          <t>Q_BBSR</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Agrarmarkt Informations-Gesellschaft mbH (AMI)</t>
+          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung (BBSR)</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Agricultural Market Information Company</t>
+          <t>des Bundesinstituts für Bau-, Stadt- und Raumforschung</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>Agrarmarkt Informations-Gesellschaft mbH</t>
+          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>Agricultural Market Information Company</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>https://www.ami-informiert.de/ami-maerkte</t>
-        </is>
-      </c>
-      <c r="G8" s="5" t="inlineStr">
-        <is>
-          <t>https://www.ami-informiert.de/ami-english/ami-about-us/about-us</t>
-        </is>
-      </c>
-      <c r="H8" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I8" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bbsr.bund.de/BBSR/DE/startseite/_node.html</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bbsr.bund.de/BBSR/EN/home/_node.html</t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
         <is>
-          <t>ami</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L8" s="4" t="inlineStr">
+        <is>
+          <t>bbsr</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Q_BBSR</t>
+          <t>Q_BFN</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung (BBSR)</t>
+          <t>Bundesamt für Naturschutz (BfN)</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Federal Office for Building and Regional Planning</t>
+          <t>des Bundesamts für Naturschutz</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
+          <t>Federal Agency for Nature Conservation </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>Federal Office for Building and Regional Planning</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bbsr.bund.de/BBSR/DE/startseite/_node.html</t>
-        </is>
-      </c>
-      <c r="G9" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bbsr.bund.de/BBSR/EN/home/_node.html</t>
-        </is>
-      </c>
-      <c r="H9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I9" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>Bundesamt für Naturschutz</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bfn.de/</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bfn.de/en.html</t>
         </is>
       </c>
       <c r="J9" s="4" t="inlineStr">
         <is>
-          <t>bbsr</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t>bfn</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Q_BFN</t>
+          <t>Q_BKA</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Naturschutz (BfN)</t>
+          <t>Bundeskriminalamt (BKA)</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Nature Conservation </t>
+          <t>des Bundeskriminalamts</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Naturschutz</t>
+          <t>Federal Criminal Police Office</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Nature Conservation </t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bfn.de/</t>
-        </is>
-      </c>
-      <c r="G10" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bfn.de/en.html</t>
-        </is>
-      </c>
-      <c r="H10" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I10" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>Bundeskriminalamt</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>Federal Criminal Police Office</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bka.de/DE/Home/home_node.html</t>
+        </is>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bka.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="J10" s="4" t="inlineStr">
         <is>
-          <t>bfn</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L10" s="4" t="inlineStr">
+        <is>
+          <t>bka</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Q_BKA</t>
+          <t>Q_BKAMT</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Bundeskriminalamt (BKA)</t>
+          <t>Bundeskanzleramt</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Federal Criminal Police Office</t>
+          <t>des Bundeskanzleramts</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>Bundeskriminalamt</t>
+          <t>Federal Chancellery</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>Federal Criminal Police Office</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bka.de/DE/Home/home_node.html</t>
-        </is>
-      </c>
-      <c r="G11" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bka.de/EN/Home/home_node.html</t>
-        </is>
-      </c>
-      <c r="H11" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I11" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>Bundeskanzleramt</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>Federal Chancellery</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesregierung.de/breg-de/bundesregierung/bundeskanzleramt</t>
+        </is>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesregierung.de/breg-en/federal-government</t>
         </is>
       </c>
       <c r="J11" s="4" t="inlineStr">
         <is>
-          <t>bka</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K11" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L11" s="4" t="inlineStr">
+        <is>
+          <t>bkamt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Q_BKAMT</t>
+          <t>Q_BKM</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Bundeskanzleramt</t>
+          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Federal Chancellery</t>
+          <t>der Beauftragten der Bundesregierung für Kultur und Medien</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Bundeskanzleramt</t>
+          <t>Federal Government Commissioner for Culture and the Media</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>Federal Chancellery</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bundesregierung.de/breg-de/bundesregierung/bundeskanzleramt</t>
-        </is>
-      </c>
-      <c r="G12" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bundesregierung.de/breg-en/federal-government</t>
-        </is>
-      </c>
-      <c r="H12" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I12" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>Federal Government Commissioner for Culture and the Media</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesregierung.de/breg-de/bundesregierung/staatsministerin-fuer-kultur-und-medien</t>
+        </is>
+      </c>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesregierung.de/breg-de/bundesregierung/staatsministerin-fuer-kultur-und-medien</t>
         </is>
       </c>
       <c r="J12" s="4" t="inlineStr">
         <is>
-          <t>bkamt</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L12" s="4" t="inlineStr">
+        <is>
+          <t>bkm</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Q_BKM</t>
+          <t>Q_BMBF</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
+          <t>Bundesministerium für Bildung und Frschung (BMBF)</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Federal Government Commissioner for Culture and the Media</t>
+          <t>des Bundesministeriums für Bildung und Frschung</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
+          <t>Federal Ministry of Education and Research</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>Federal Government Commissioner for Culture and the Media</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bundesregierung.de/breg-de/bundesregierung/staatsministerin-fuer-kultur-und-medien</t>
-        </is>
-      </c>
-      <c r="G13" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bundesregierung.de/breg-de/bundesregierung/staatsministerin-fuer-kultur-und-medien</t>
-        </is>
-      </c>
-      <c r="H13" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I13" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Bildung und Forschung</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Education and Research</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmbf.de/</t>
+        </is>
+      </c>
+      <c r="I13" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmbf.de/bmbf/en/</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
         <is>
-          <t>bkm</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L13" s="4" t="inlineStr">
+        <is>
+          <t>bmbf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Q_BMBF</t>
+          <t>Q_BMDV</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Bildung und Frschung (BMBF)</t>
+          <t>Bundesministerium für Digitales und Verkehr (BMDV)</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Education and Research</t>
+          <t>des Bundesministeriums für Digitales und Verkehr</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Bildung und Forschung</t>
+          <t>Federal Ministry for Digital and Transport</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Education and Research</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bmbf.de/</t>
-        </is>
-      </c>
-      <c r="G14" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bmbf.de/bmbf/en/</t>
-        </is>
-      </c>
-      <c r="H14" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I14" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Digitales und Verkehr</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry for Digital and Transport</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>https://bmdv.bund.de/DE/Home/home.html</t>
+        </is>
+      </c>
+      <c r="I14" s="5" t="inlineStr">
+        <is>
+          <t>https://bmdv.bund.de/EN/Home/home.html</t>
         </is>
       </c>
       <c r="J14" s="4" t="inlineStr">
         <is>
-          <t>bmbf</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L14" s="4" t="inlineStr">
+        <is>
+          <t>bmdv</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Q_BMDV</t>
+          <t>Q_BMEL</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Digitales und Verkehr (BMDV)</t>
+          <t>Bundesministerium für Ernährung und Landwirtschaft (BMEL)</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Digital and Transport</t>
+          <t>des Bundesministeriums für Ernährung und Landwirtschaft</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Digitales und Verkehr</t>
+          <t>Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Digital and Transport</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="inlineStr">
-        <is>
-          <t>https://bmdv.bund.de/DE/Home/home.html</t>
-        </is>
-      </c>
-      <c r="G15" s="5" t="inlineStr">
-        <is>
-          <t>https://bmdv.bund.de/EN/Home/home.html</t>
-        </is>
-      </c>
-      <c r="H15" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I15" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Food and Agriculture</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmel.de/DE/Startseite/startseite_node.html</t>
+        </is>
+      </c>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmel.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
         <is>
-          <t>bmdv</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L15" s="4" t="inlineStr">
+        <is>
+          <t>bmel</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Q_BMEL</t>
+          <t>Q_BMF</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Ernährung und Landwirtschaft (BMEL)</t>
+          <t>Bundesministerium der Finanzen (BMF)</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>des Bundesministeriums der Finanzen</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
+          <t>Federal Ministry of Finance</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bmel.de/DE/Startseite/startseite_node.html</t>
-        </is>
-      </c>
-      <c r="G16" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bmel.de/EN/Home/home_node.html</t>
-        </is>
-      </c>
-      <c r="H16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I16" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium der Finanzen</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Finance</t>
+        </is>
+      </c>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesfinanzministerium.de/Web/DE/Home/home.html</t>
+        </is>
+      </c>
+      <c r="I16" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesfinanzministerium.de/Web/EN/Home/home.html</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
         <is>
-          <t>bmel</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L16" s="4" t="inlineStr">
+        <is>
+          <t>bmf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Q_BMF</t>
+          <t>Q_BMG</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Finanzen (BMF)</t>
+          <t>Bundesministerium für Gesundheit (BMG)</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Finance</t>
+          <t>des Bundesministeriums für Gesundheit</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Finanzen</t>
+          <t>Federal Ministry of Health</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Finance</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bundesfinanzministerium.de/Web/DE/Home/home.html</t>
-        </is>
-      </c>
-      <c r="G17" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bundesfinanzministerium.de/Web/EN/Home/home.html</t>
-        </is>
-      </c>
-      <c r="H17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I17" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Gesundheit</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Health</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesgesundheitsministerium.de/</t>
+        </is>
+      </c>
+      <c r="I17" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesgesundheitsministerium.de/en/</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
         <is>
-          <t>bmf</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L17" s="4" t="inlineStr">
+        <is>
+          <t>bmg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Q_BMG</t>
+          <t>Q_BMWK</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Gesundheit (BMG)</t>
+          <t>Bundesministerium für Wirtschaft und Klimaschutz (BMWK)</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Health</t>
+          <t>des Bundesministeriums für Wirtschaft und Klimaschutz</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Gesundheit</t>
+          <t>Federal Ministry for Economic Affairs and Climate Action</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Health</t>
-        </is>
-      </c>
-      <c r="F18" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bundesgesundheitsministerium.de/</t>
-        </is>
-      </c>
-      <c r="G18" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bundesgesundheitsministerium.de/en/</t>
-        </is>
-      </c>
-      <c r="H18" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I18" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Wirtschaft und Klimaschutz</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry for Economic Affairs and Climate Action</t>
+        </is>
+      </c>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmwi.de/Navigation/DE/Home/home.html</t>
+        </is>
+      </c>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmwi.de/Navigation/EN/Home/home.html</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
         <is>
-          <t>bmg</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L18" s="4" t="inlineStr">
+        <is>
+          <t>bmwk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Q_BMWK</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Wirtschaft und Klimaschutz (BMWK)</t>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ)</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Affairs and Climate Action</t>
+          <t>des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Wirtschaft und Klimaschutz</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Affairs and Climate Action</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bmwi.de/Navigation/DE/Home/home.html</t>
-        </is>
-      </c>
-      <c r="G19" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bmwi.de/Navigation/EN/Home/home.html</t>
-        </is>
-      </c>
-      <c r="H19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I19" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+        </is>
+      </c>
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmz.de/de</t>
+        </is>
+      </c>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmz.de/en</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
-          <t>bmwk</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L19" s="4" t="inlineStr">
+        <is>
+          <t>bmz</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_BOLW</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ)</t>
+          <t>Bund Ökologische Lebensmittelwirtschaft e. V. (BÖLW)</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t>des Bunds Ökologische Lebensmittelwirtschaft e. V.</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Organic Food Production Alliance</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bmz.de/de</t>
-        </is>
-      </c>
-      <c r="G20" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bmz.de/en</t>
-        </is>
-      </c>
-      <c r="H20" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I20" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>Bund Ökologische Lebensmittelwirtschaft e. V.</t>
+        </is>
+      </c>
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t>Organic Food Production Alliance</t>
+        </is>
+      </c>
+      <c r="H20" s="5" t="inlineStr">
+        <is>
+          <t>https://www.boelw.de/</t>
+        </is>
+      </c>
+      <c r="I20" s="5" t="inlineStr">
+        <is>
+          <t>https://www.boelw.de/</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>bmz</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L20" s="4" t="inlineStr">
+        <is>
+          <t>bolw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Q_BOLW</t>
+          <t>Q_BUNDESBANK</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Bund Ökologische Lebensmittelwirtschaft e. V. (BÖLW)</t>
+          <t>Deutsche Bundesbank (BBk)</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Organic Food Production Alliance</t>
+          <t>der Deutschen Bundesbank</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>Bund Ökologische Lebensmittelwirtschaft e. V.</t>
+          <t>German Federal Bank</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>Organic Food Production Alliance</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>https://www.boelw.de/</t>
-        </is>
-      </c>
-      <c r="G21" s="5" t="inlineStr">
-        <is>
-          <t>https://www.boelw.de/</t>
-        </is>
-      </c>
-      <c r="H21" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche Bundesbank</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>German Federal Bank</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesbank.de/de/</t>
+        </is>
+      </c>
+      <c r="I21" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesbank.de/en</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
-          <t>bolw</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
+          <t>bundesbank</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Q_BUNDESBANK</t>
+          <t>Q_BZGA</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Bundesbank (BBk)</t>
+          <t>Bundeszentrale für gesundheitliche Aufklärung (BZGA)</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>German Federal Bank</t>
+          <t>der Bundeszentrale für gesundheitliche Aufklärung</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Bundesbank</t>
+          <t>Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>German Federal Bank</t>
-        </is>
-      </c>
-      <c r="F22" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bundesbank.de/de/</t>
-        </is>
-      </c>
-      <c r="G22" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bundesbank.de/en</t>
-        </is>
-      </c>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>Bundeszentrale für gesundheitliche Aufklärung</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>Federal Centre for Health Education</t>
+        </is>
+      </c>
+      <c r="H22" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bzga.de/</t>
+        </is>
+      </c>
+      <c r="I22" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bzga.de/home/bzga/</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>bundesbank</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L22" s="4" t="inlineStr">
+        <is>
+          <t>bzga</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Q_BZGA</t>
+          <t>Q_CEVAL</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Bundeszentrale für gesundheitliche Aufklärung (BZGA)</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Federal Centre for Health Education</t>
+          <t>der CEval GmbH</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Bundeszentrale für gesundheitliche Aufklärung</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>Federal Centre for Health Education</t>
-        </is>
-      </c>
-      <c r="F23" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bzga.de/</t>
-        </is>
-      </c>
-      <c r="G23" s="5" t="inlineStr">
-        <is>
-          <t>https://www.bzga.de/home/bzga/</t>
-        </is>
-      </c>
-      <c r="H23" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>CEval GmbH</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>CEval GmbH</t>
+        </is>
+      </c>
+      <c r="H23" s="5" t="inlineStr">
+        <is>
+          <t>https://ceval.de/</t>
+        </is>
+      </c>
+      <c r="I23" s="5" t="inlineStr">
+        <is>
+          <t>https://ceval.de/en/</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
         <is>
-          <t>bzga</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr">
+        <is>
+          <t>ceval</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Q_CEVAL</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Statistisches Bundesamt (Destatis)</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t/>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Federal Statistical Office</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
-        </is>
-      </c>
-      <c r="F24" s="5" t="inlineStr">
-        <is>
-          <t>https://ceval.de/</t>
-        </is>
-      </c>
-      <c r="G24" s="5" t="inlineStr">
-        <is>
-          <t>https://ceval.de/en/</t>
-        </is>
-      </c>
-      <c r="H24" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I24" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>Statistisches Bundesamt</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>Federal Statistical Office</t>
+        </is>
+      </c>
+      <c r="H24" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Home/_inhalt.html</t>
+        </is>
+      </c>
+      <c r="I24" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/EN/Home/_node.html</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>ceval</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr">
+        <is>
+          <t>destatis</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_DIHK</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Statistisches Bundesamt (Destatis)</t>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V. (DIHK)</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Federal Statistical Office</t>
+          <t>des Deutschen Industrie- und Handelskammertages</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Statistisches Bundesamt</t>
+          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>Federal Statistical Office</t>
-        </is>
-      </c>
-      <c r="F25" s="5" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/DE/Home/_inhalt.html</t>
-        </is>
-      </c>
-      <c r="G25" s="5" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/EN/Home/_node.html</t>
-        </is>
-      </c>
-      <c r="H25" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I25" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V.</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
+        </is>
+      </c>
+      <c r="H25" s="5" t="inlineStr">
+        <is>
+          <t>https://www.dihk.de/de</t>
+        </is>
+      </c>
+      <c r="I25" s="5" t="inlineStr">
+        <is>
+          <t>https://www.dihk.de/de</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>destatis</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L25" s="4" t="inlineStr">
+        <is>
+          <t>dihk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Q_DIHK</t>
+          <t>Q_DIW</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V. (DIHK)</t>
+          <t>Deutsches Institut für Wirtschaftsforschung (DIW)</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
+          <t>des Deutschen Instituts für Wirtschaftsforschung</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V.</t>
+          <t>German Institute for Economic Research</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
-        </is>
-      </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>https://www.dihk.de/de</t>
-        </is>
-      </c>
-      <c r="G26" s="5" t="inlineStr">
-        <is>
-          <t>https://www.dihk.de/de</t>
-        </is>
-      </c>
-      <c r="H26" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I26" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr">
+        <is>
+          <t>Deutsches Institut für Wirtschaftsforschung</t>
+        </is>
+      </c>
+      <c r="G26" s="4" t="inlineStr">
+        <is>
+          <t>German Institute for Economic Research</t>
+        </is>
+      </c>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>https://www.diw.de/deutsch</t>
+        </is>
+      </c>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>https://www.diw.de/en</t>
         </is>
       </c>
       <c r="J26" s="4" t="inlineStr">
         <is>
-          <t>dihk</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L26" s="4" t="inlineStr">
+        <is>
+          <t>diw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Q_DIW</t>
+          <t>Q_EUROPEANCOMMISSION</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Wirtschaftsforschung (DIW)</t>
+          <t>Europäische Kommission</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Economic Research</t>
+          <t>der Europäischen Kommission</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Wirtschaftsforschung</t>
+          <t>European Commission</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Economic Research</t>
-        </is>
-      </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>https://www.diw.de/deutsch</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="inlineStr">
-        <is>
-          <t>https://www.diw.de/en</t>
-        </is>
-      </c>
-      <c r="H27" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I27" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>Europäische Kommission</t>
+        </is>
+      </c>
+      <c r="G27" s="4" t="inlineStr">
+        <is>
+          <t>European Commission</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_de</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_en</t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
         <is>
-          <t>diw</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L27" s="4" t="inlineStr">
+        <is>
+          <t>europeancommission</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROPEANCOMMISSION</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Europäische Kommission</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>European Commission</t>
+          <t>von Eurostat</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Europäische Kommission</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>European Commission</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_de</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_en</t>
-        </is>
-      </c>
-      <c r="H28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I28" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>Eurostat</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>Eurostat</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/de/home</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/home</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
         <is>
-          <t>europeancommission</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L28" s="4" t="inlineStr">
+        <is>
+          <t>eurostat</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_EZB</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>Europäische Zentralbank (EZB)</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>der Europäischen Zentralbank</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>European Central Bank</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
-        </is>
-      </c>
-      <c r="F29" s="5" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/de/home</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/home</t>
-        </is>
-      </c>
-      <c r="H29" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I29" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>Europäische Zentralbank</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>European Central Bank</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>https://www.ecb.europa.eu/home/html/index.de.html</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>https://www.ecb.europa.eu/home/languagepolicy/html/index.en.html</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
         <is>
-          <t>eurostat</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L29" s="4" t="inlineStr">
+        <is>
+          <t>ezb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Q_EZB</t>
+          <t>Q_FIDAR</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank (EZB)</t>
+          <t>Frauen in die Aufsichtsräte e.V. (FidAR)</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
+          <t>vom Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
-        </is>
-      </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>https://www.ecb.europa.eu/home/html/index.de.html</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t>https://www.ecb.europa.eu/home/languagepolicy/html/index.en.html</t>
-        </is>
-      </c>
-      <c r="H30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I30" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
+        </is>
+      </c>
+      <c r="G30" s="4" t="inlineStr">
+        <is>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>https://www.fidar.de/</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>https://www.fidar.de/</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
         <is>
-          <t>ezb</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L30" s="4" t="inlineStr">
+        <is>
+          <t>fidar</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_GBE</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V. (FidAR)</t>
+          <t>Gesundheitsberichterstattung des Bundes (GBE)</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>der Gesundheitsberichterstattung des Bundes</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>Federal Health Monitoring</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
-        </is>
-      </c>
-      <c r="F31" s="5" t="inlineStr">
-        <is>
-          <t>https://www.fidar.de/</t>
-        </is>
-      </c>
-      <c r="G31" s="5" t="inlineStr">
-        <is>
-          <t>https://www.fidar.de/</t>
-        </is>
-      </c>
-      <c r="H31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I31" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>Gesundheitsberichterstattung des Bundes</t>
+        </is>
+      </c>
+      <c r="G31" s="4" t="inlineStr">
+        <is>
+          <t>Federal Health Monitoring</t>
+        </is>
+      </c>
+      <c r="H31" s="5" t="inlineStr">
+        <is>
+          <t>https://www.gbe-bund.de/gbe/</t>
+        </is>
+      </c>
+      <c r="I31" s="5" t="inlineStr">
+        <is>
+          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_isgbe?p_uid=gast&amp;p_aid=50554816&amp;p_sprache=E</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
-          <t>fidar</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L31" s="4" t="inlineStr">
+        <is>
+          <t>gbe</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Q_GBE</t>
+          <t>Q_GFK</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Gesundheitsberichterstattung des Bundes (GBE)</t>
+          <t>Gesellschaft für Konsumforschung (GfK)</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Federal Health Monitoring</t>
+          <t>der Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Gesundheitsberichterstattung des Bundes</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>Federal Health Monitoring</t>
-        </is>
-      </c>
-      <c r="F32" s="5" t="inlineStr">
-        <is>
-          <t>https://www.gbe-bund.de/gbe/</t>
-        </is>
-      </c>
-      <c r="G32" s="5" t="inlineStr">
-        <is>
-          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_isgbe?p_uid=gast&amp;p_aid=50554816&amp;p_sprache=E</t>
-        </is>
-      </c>
-      <c r="H32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I32" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>Gesellschaft für Konsumforschung</t>
+        </is>
+      </c>
+      <c r="G32" s="4" t="inlineStr">
+        <is>
+          <t>Gesellschaft für Konsumforschung</t>
+        </is>
+      </c>
+      <c r="H32" s="5" t="inlineStr">
+        <is>
+          <t>https://www.gfk.com/de/</t>
+        </is>
+      </c>
+      <c r="I32" s="5" t="inlineStr">
+        <is>
+          <t>https://www.gfk.com/</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
         <is>
-          <t>gbe</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L32" s="4" t="inlineStr">
+        <is>
+          <t>gfk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Q_GFK</t>
+          <t>Q_GIZ</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung (GfK)</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ)</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>der Deutschen Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH(GIZ)</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
-        </is>
-      </c>
-      <c r="F33" s="5" t="inlineStr">
-        <is>
-          <t>https://www.gfk.com/de/</t>
-        </is>
-      </c>
-      <c r="G33" s="5" t="inlineStr">
-        <is>
-          <t>https://www.gfk.com/</t>
-        </is>
-      </c>
-      <c r="H33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I33" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+        </is>
+      </c>
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+        </is>
+      </c>
+      <c r="H33" s="5" t="inlineStr">
+        <is>
+          <t>https://www.giz.de/de/html/index.html</t>
+        </is>
+      </c>
+      <c r="I33" s="5" t="inlineStr">
+        <is>
+          <t>https://www.giz.de/en/html/index.html</t>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
-          <t>gfk</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L33" s="4" t="inlineStr">
+        <is>
+          <t>giz</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Q_GIZ</t>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ)</t>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH (ifeu)</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH(GIZ)</t>
+          <t>des Instituts für Energie- und Umweltforschung Heidelberg gGmbH</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
-        </is>
-      </c>
-      <c r="F34" s="5" t="inlineStr">
-        <is>
-          <t>https://www.giz.de/de/html/index.html</t>
-        </is>
-      </c>
-      <c r="G34" s="5" t="inlineStr">
-        <is>
-          <t>https://www.giz.de/en/html/index.html</t>
-        </is>
-      </c>
-      <c r="H34" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I34" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F34" s="4" t="inlineStr">
+        <is>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
+        </is>
+      </c>
+      <c r="G34" s="4" t="inlineStr">
+        <is>
+          <t>Institute for Energy and Environmental Research</t>
+        </is>
+      </c>
+      <c r="H34" s="5" t="inlineStr">
+        <is>
+          <t>https://www.ifeu.de/</t>
+        </is>
+      </c>
+      <c r="I34" s="5" t="inlineStr">
+        <is>
+          <t>https://www.ifeu.de/en/</t>
         </is>
       </c>
       <c r="J34" s="4" t="inlineStr">
         <is>
-          <t>giz</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L34" s="4" t="inlineStr">
+        <is>
+          <t>ifeu</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>Q_JHT</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH (ifeu)</t>
+          <t>Johann Heinrich von Thünen-Institut (TI)</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Institute for Energy and Environmental Research</t>
+          <t>des Johann Heinrich von Thünen-Instituts</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
+          <t>Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>Institute for Energy and Environmental Research</t>
-        </is>
-      </c>
-      <c r="F35" s="5" t="inlineStr">
-        <is>
-          <t>https://www.ifeu.de/</t>
-        </is>
-      </c>
-      <c r="G35" s="5" t="inlineStr">
-        <is>
-          <t>https://www.ifeu.de/en/</t>
-        </is>
-      </c>
-      <c r="H35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I35" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F35" s="4" t="inlineStr">
+        <is>
+          <t>Johann Heinrich von Thünen-Institut</t>
+        </is>
+      </c>
+      <c r="G35" s="4" t="inlineStr">
+        <is>
+          <t>Johann Heinrich von Thünen Institute</t>
+        </is>
+      </c>
+      <c r="H35" s="5" t="inlineStr">
+        <is>
+          <t>https://www.thuenen.de/de/</t>
+        </is>
+      </c>
+      <c r="I35" s="5" t="inlineStr">
+        <is>
+          <t>https://www.thuenen.de/en/</t>
         </is>
       </c>
       <c r="J35" s="4" t="inlineStr">
         <is>
-          <t>ifeu</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L35" s="4" t="inlineStr">
+        <is>
+          <t>jht</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Q_JHT</t>
+          <t>Q_JKI</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen-Institut (TI)</t>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut (JKI)</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen Institute</t>
+          <t>des Instituts für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen-Institut</t>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen Institute</t>
-        </is>
-      </c>
-      <c r="F36" s="5" t="inlineStr">
-        <is>
-          <t>https://www.thuenen.de/de/</t>
-        </is>
-      </c>
-      <c r="G36" s="5" t="inlineStr">
-        <is>
-          <t>https://www.thuenen.de/en/</t>
-        </is>
-      </c>
-      <c r="H36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I36" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F36" s="4" t="inlineStr">
+        <is>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
+        </is>
+      </c>
+      <c r="G36" s="4" t="inlineStr">
+        <is>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+        </is>
+      </c>
+      <c r="H36" s="5" t="inlineStr">
+        <is>
+          <t>https://www.julius-kuehn.de/pb/</t>
+        </is>
+      </c>
+      <c r="I36" s="5" t="inlineStr">
+        <is>
+          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
-          <t>jht</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L36" s="4" t="inlineStr">
+        <is>
+          <t>jki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Q_JKI</t>
+          <t>Q_KBA</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut (JKI)</t>
+          <t>Kraftfahrt-Bundesamt (KBA)</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>des Kraftfahrt-Bundesamts</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
+          <t>Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
-        </is>
-      </c>
-      <c r="F37" s="5" t="inlineStr">
-        <is>
-          <t>https://www.julius-kuehn.de/pb/</t>
-        </is>
-      </c>
-      <c r="G37" s="5" t="inlineStr">
-        <is>
-          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
-        </is>
-      </c>
-      <c r="H37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I37" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F37" s="4" t="inlineStr">
+        <is>
+          <t>Kraftfahrt-Bundesamt</t>
+        </is>
+      </c>
+      <c r="G37" s="4" t="inlineStr">
+        <is>
+          <t>Federal Motor Transport Authority</t>
+        </is>
+      </c>
+      <c r="H37" s="5" t="inlineStr">
+        <is>
+          <t>https://www.kba.de/DE/Home/home_node.html</t>
+        </is>
+      </c>
+      <c r="I37" s="5" t="inlineStr">
+        <is>
+          <t>https://www.kba.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="J37" s="4" t="inlineStr">
         <is>
-          <t>jki</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L37" s="4" t="inlineStr">
+        <is>
+          <t>kba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Q_KBA</t>
+          <t>Q_KFW</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrt-Bundesamt (KBA)</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Federal Motor Transport Authority</t>
+          <t>der Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrt-Bundesamt</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>Federal Motor Transport Authority</t>
-        </is>
-      </c>
-      <c r="F38" s="5" t="inlineStr">
-        <is>
-          <t>https://www.kba.de/DE/Home/home_node.html</t>
-        </is>
-      </c>
-      <c r="G38" s="5" t="inlineStr">
-        <is>
-          <t>https://www.kba.de/EN/Home/home_node.html</t>
-        </is>
-      </c>
-      <c r="H38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I38" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F38" s="4" t="inlineStr">
+        <is>
+          <t>Kreditanstalt für Wiederaufbau</t>
+        </is>
+      </c>
+      <c r="G38" s="4" t="inlineStr">
+        <is>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+        </is>
+      </c>
+      <c r="H38" s="5" t="inlineStr">
+        <is>
+          <t>https://www.kfw.de/kfw.de.html</t>
+        </is>
+      </c>
+      <c r="I38" s="5" t="inlineStr">
+        <is>
+          <t>https://www.kfw.de/kfw.de-2.html</t>
         </is>
       </c>
       <c r="J38" s="4" t="inlineStr">
         <is>
-          <t>kba</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L38" s="4" t="inlineStr">
+        <is>
+          <t>kfw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Q_KFW</t>
+          <t>Q_KNB</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern (KNB) </t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>der Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau</t>
+          <t>Center of Excellence for Sustainable Procurement</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
-        </is>
-      </c>
-      <c r="F39" s="5" t="inlineStr">
-        <is>
-          <t>https://www.kfw.de/kfw.de.html</t>
-        </is>
-      </c>
-      <c r="G39" s="5" t="inlineStr">
-        <is>
-          <t>https://www.kfw.de/kfw.de-2.html</t>
-        </is>
-      </c>
-      <c r="H39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I39" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
+        </is>
+      </c>
+      <c r="G39" s="4" t="inlineStr">
+        <is>
+          <t>Competence Center for Sustainable Procurement</t>
+        </is>
+      </c>
+      <c r="H39" s="5" t="inlineStr">
+        <is>
+          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
+        </is>
+      </c>
+      <c r="I39" s="5" t="inlineStr">
+        <is>
+          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr">
         <is>
-          <t>kfw</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L39" s="4" t="inlineStr">
+        <is>
+          <t>knb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Q_KNB</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern (KNB) </t>
+          <t>Länderarbeitskreis (LAK) Energiebilanzen</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Center of Excellence for Sustainable Procurement</t>
+          <t>des Länderarbeitskreises Energiebilanzen</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
+          <t>Länderarbeitskreis Energiebilanzen</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>Competence Center for Sustainable Procurement</t>
-        </is>
-      </c>
-      <c r="F40" s="5" t="inlineStr">
-        <is>
-          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
-        </is>
-      </c>
-      <c r="G40" s="5" t="inlineStr">
-        <is>
-          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
-        </is>
-      </c>
-      <c r="H40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I40" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F40" s="4" t="inlineStr">
+        <is>
+          <t>Länderarbeitskreis Energiebilanzen</t>
+        </is>
+      </c>
+      <c r="G40" s="4" t="inlineStr">
+        <is>
+          <t>LAK Energiebilanzen</t>
+        </is>
+      </c>
+      <c r="H40" s="5" t="inlineStr">
+        <is>
+          <t>http://www.lak-energiebilanzen.de/</t>
+        </is>
+      </c>
+      <c r="I40" s="5" t="inlineStr">
+        <is>
+          <t>http://www.lak-energiebilanzen.de/</t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
-          <t>knb</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L40" s="4" t="inlineStr">
+        <is>
+          <t>lakeb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis (LAK) Energiebilanzen</t>
+          <t>Länderinitiative Kernindikatoren (LIKI)</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis Energiebilanzen</t>
+          <t>der Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis Energiebilanzen</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>LAK Energiebilanzen</t>
-        </is>
-      </c>
-      <c r="F41" s="5" t="inlineStr">
-        <is>
-          <t>http://www.lak-energiebilanzen.de/</t>
-        </is>
-      </c>
-      <c r="G41" s="5" t="inlineStr">
-        <is>
-          <t>http://www.lak-energiebilanzen.de/</t>
-        </is>
-      </c>
-      <c r="H41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I41" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F41" s="4" t="inlineStr">
+        <is>
+          <t>Länderinitiative Kernindikatoren</t>
+        </is>
+      </c>
+      <c r="G41" s="4" t="inlineStr">
+        <is>
+          <t>Länderinitiative Kernindikatoren</t>
+        </is>
+      </c>
+      <c r="H41" s="5" t="inlineStr">
+        <is>
+          <t>https://www.lanuv.nrw.de/liki/index.php</t>
+        </is>
+      </c>
+      <c r="I41" s="5" t="inlineStr">
+        <is>
+          <t>https://www.lanuv.nrw.de/liki/index.php</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>lakeb</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L41" s="4" t="inlineStr">
+        <is>
+          <t>liki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren (LIKI)</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD)</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
-        </is>
-      </c>
-      <c r="F42" s="5" t="inlineStr">
-        <is>
-          <t>https://www.lanuv.nrw.de/liki/index.php</t>
-        </is>
-      </c>
-      <c r="G42" s="5" t="inlineStr">
-        <is>
-          <t>https://www.lanuv.nrw.de/liki/index.php</t>
-        </is>
-      </c>
-      <c r="H42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I42" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F42" s="4" t="inlineStr">
+        <is>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+        </is>
+      </c>
+      <c r="G42" s="4" t="inlineStr">
+        <is>
+          <t>Organisation for Economic Co-operation and Development</t>
+        </is>
+      </c>
+      <c r="H42" s="5" t="inlineStr">
+        <is>
+          <t>https://www.oecd.org/</t>
+        </is>
+      </c>
+      <c r="I42" s="5" t="inlineStr">
+        <is>
+          <t>https://www.oecd.org/</t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr">
         <is>
-          <t>liki</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L42" s="4" t="inlineStr">
+        <is>
+          <t>oecd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_RKI</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD)</t>
+          <t>Robert Koch-Institut (RKI)</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>des Robert Koch-Instituts</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Robert Koch Institute</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
-        </is>
-      </c>
-      <c r="F43" s="5" t="inlineStr">
-        <is>
-          <t>https://www.oecd.org/</t>
-        </is>
-      </c>
-      <c r="G43" s="5" t="inlineStr">
-        <is>
-          <t>https://www.oecd.org/</t>
-        </is>
-      </c>
-      <c r="H43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I43" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F43" s="4" t="inlineStr">
+        <is>
+          <t>Robert Koch-Institut</t>
+        </is>
+      </c>
+      <c r="G43" s="4" t="inlineStr">
+        <is>
+          <t>Robert Koch Institute</t>
+        </is>
+      </c>
+      <c r="H43" s="5" t="inlineStr">
+        <is>
+          <t>https://www.rki.de/DE/Home/homepage_node.html</t>
+        </is>
+      </c>
+      <c r="I43" s="5" t="inlineStr">
+        <is>
+          <t>https://www.rki.de/EN/Home/homepage_node.html</t>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr">
         <is>
-          <t>oecd</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L43" s="4" t="inlineStr">
+        <is>
+          <t>rki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Q_RKI</t>
+          <t>Q_SVWS</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut (RKI)</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch Institute</t>
+          <t>des Stifterverbands Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch Institute</t>
-        </is>
-      </c>
-      <c r="F44" s="5" t="inlineStr">
-        <is>
-          <t>https://www.rki.de/DE/Home/homepage_node.html</t>
-        </is>
-      </c>
-      <c r="G44" s="5" t="inlineStr">
-        <is>
-          <t>https://www.rki.de/EN/Home/homepage_node.html</t>
-        </is>
-      </c>
-      <c r="H44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I44" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F44" s="4" t="inlineStr">
+        <is>
+          <t>Stifterverband Wissenschaftsstatistik</t>
+        </is>
+      </c>
+      <c r="G44" s="4" t="inlineStr">
+        <is>
+          <t>Stifterverband Wissenschaftsstatistik</t>
+        </is>
+      </c>
+      <c r="H44" s="5" t="inlineStr">
+        <is>
+          <t>https://www.stifterverband.org/</t>
+        </is>
+      </c>
+      <c r="I44" s="5" t="inlineStr">
+        <is>
+          <t>https://www.stifterverband.org/english</t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
         <is>
-          <t>rki</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L44" s="4" t="inlineStr">
+        <is>
+          <t>svws</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>Q_TA</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>von Transparency International</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
-        </is>
-      </c>
-      <c r="F45" s="5" t="inlineStr">
-        <is>
-          <t>https://www.stifterverband.org/</t>
-        </is>
-      </c>
-      <c r="G45" s="5" t="inlineStr">
-        <is>
-          <t>https://www.stifterverband.org/english</t>
-        </is>
-      </c>
-      <c r="H45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I45" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F45" s="4" t="inlineStr">
+        <is>
+          <t>Transparency International e.V.</t>
+        </is>
+      </c>
+      <c r="G45" s="4" t="inlineStr">
+        <is>
+          <t>Transparency International e.V.</t>
+        </is>
+      </c>
+      <c r="H45" s="5" t="inlineStr">
+        <is>
+          <t>https://www.transparency.de/</t>
+        </is>
+      </c>
+      <c r="I45" s="5" t="inlineStr">
+        <is>
+          <t>https://www.transparency.de/en/</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr">
         <is>
-          <t>svws</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L45" s="4" t="inlineStr">
+        <is>
+          <t>ta</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Umweltbundesamt (UBA)</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>des Umweltbundesamts</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>German Environment Agency</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
-        </is>
-      </c>
-      <c r="F46" s="5" t="inlineStr">
-        <is>
-          <t>https://www.transparency.de/</t>
-        </is>
-      </c>
-      <c r="G46" s="5" t="inlineStr">
-        <is>
-          <t>https://www.transparency.de/en/</t>
-        </is>
-      </c>
-      <c r="H46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I46" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F46" s="4" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt</t>
+        </is>
+      </c>
+      <c r="G46" s="4" t="inlineStr">
+        <is>
+          <t>German Environment Agency</t>
+        </is>
+      </c>
+      <c r="H46" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/</t>
+        </is>
+      </c>
+      <c r="I46" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en</t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">
         <is>
-          <t>ta</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L46" s="4" t="inlineStr">
+        <is>
+          <t>uba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_UBA_1</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt (UBA)</t>
+          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency</t>
+          <t>des Umweltbundesamts</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt</t>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency</t>
-        </is>
-      </c>
-      <c r="F47" s="5" t="inlineStr">
+          <t/>
+        </is>
+      </c>
+      <c r="F47" s="4" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+        </is>
+      </c>
+      <c r="G47" s="4" t="inlineStr">
+        <is>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
+        </is>
+      </c>
+      <c r="H47" s="5" t="inlineStr">
         <is>
           <t>https://www.umweltbundesamt.de/</t>
         </is>
       </c>
-      <c r="G47" s="5" t="inlineStr">
+      <c r="I47" s="5" t="inlineStr">
         <is>
           <t>https://www.umweltbundesamt.de/en</t>
         </is>
       </c>
-      <c r="H47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="J47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L47" s="4" t="inlineStr">
         <is>
           <t>uba</t>
         </is>
@@ -2932,50 +3404,60 @@
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA_1</t>
+          <t>Q_UBALAWA</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
+          <t>des Umweltbundesamts</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
-        </is>
-      </c>
-      <c r="F48" s="5" t="inlineStr">
+          <t/>
+        </is>
+      </c>
+      <c r="F48" s="4" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser</t>
+        </is>
+      </c>
+      <c r="G48" s="4" t="inlineStr">
+        <is>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government</t>
+        </is>
+      </c>
+      <c r="H48" s="5" t="inlineStr">
         <is>
           <t>https://www.umweltbundesamt.de/</t>
         </is>
       </c>
-      <c r="G48" s="5" t="inlineStr">
+      <c r="I48" s="5" t="inlineStr">
         <is>
           <t>https://www.umweltbundesamt.de/en</t>
         </is>
       </c>
-      <c r="H48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="J48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L48" s="4" t="inlineStr">
         <is>
           <t>uba</t>
         </is>
@@ -2984,258 +3466,246 @@
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Q_UBALAWA</t>
+          <t>Q_UG</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
+          <t>der Universität Gießen</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser</t>
+          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government</t>
-        </is>
-      </c>
-      <c r="F49" s="5" t="inlineStr">
-        <is>
-          <t>https://www.umweltbundesamt.de/</t>
-        </is>
-      </c>
-      <c r="G49" s="5" t="inlineStr">
-        <is>
-          <t>https://www.umweltbundesamt.de/en</t>
-        </is>
-      </c>
-      <c r="H49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I49" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F49" s="4" t="inlineStr">
+        <is>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+        </is>
+      </c>
+      <c r="G49" s="4" t="inlineStr">
+        <is>
+          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
+        </is>
+      </c>
+      <c r="H49" s="5" t="inlineStr">
+        <is>
+          <t>https://www.uni-giessen.de/fbz/fb09/institute/ilr</t>
+        </is>
+      </c>
+      <c r="I49" s="5" t="inlineStr">
+        <is>
+          <t>https://www.uni-giessen.de/faculties/f09/institutes/landscape?set_language=en</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
         <is>
-          <t>uba</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L49" s="4" t="inlineStr">
+        <is>
+          <t>ug</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Q_UG</t>
+          <t>Q_VCD</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+          <t>Verkehrsclub Deutschland e.V. (VCD)</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
+          <t>des Verkehrsclub Deutschlands</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+          <t>Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
-        </is>
-      </c>
-      <c r="F50" s="5" t="inlineStr">
-        <is>
-          <t>https://www.uni-giessen.de/fbz/fb09/institute/ilr</t>
-        </is>
-      </c>
-      <c r="G50" s="5" t="inlineStr">
-        <is>
-          <t>https://www.uni-giessen.de/faculties/f09/institutes/landscape?set_language=en</t>
-        </is>
-      </c>
-      <c r="H50" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I50" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F50" s="4" t="inlineStr">
+        <is>
+          <t>Verkehrsclub Deutschland e.V.</t>
+        </is>
+      </c>
+      <c r="G50" s="4" t="inlineStr">
+        <is>
+          <t>Verkehrsclub Deutschland e.V.</t>
+        </is>
+      </c>
+      <c r="H50" s="5" t="inlineStr">
+        <is>
+          <t>https://www.vcd.org/startseite/</t>
+        </is>
+      </c>
+      <c r="I50" s="5" t="inlineStr">
+        <is>
+          <t>https://www.vcd.org/startseite/</t>
         </is>
       </c>
       <c r="J50" s="4" t="inlineStr">
         <is>
-          <t>ug</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L50" s="4" t="inlineStr">
+        <is>
+          <t>vcd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Q_VCD</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V. (VCD)</t>
+          <t>Statistische Ämter des Bundes und der Länder</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>der Statistischen Ämter der Länder</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>Statistische Ämter des Bundes und der Länder</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
-        </is>
-      </c>
-      <c r="F51" s="5" t="inlineStr">
-        <is>
-          <t>https://www.vcd.org/startseite/</t>
-        </is>
-      </c>
-      <c r="G51" s="5" t="inlineStr">
-        <is>
-          <t>https://www.vcd.org/startseite/</t>
-        </is>
-      </c>
-      <c r="H51" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I51" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F51" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="G51" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="H51" s="5" t="inlineStr">
+        <is>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+        </is>
+      </c>
+      <c r="I51" s="5" t="inlineStr">
+        <is>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
         </is>
       </c>
       <c r="J51" s="4" t="inlineStr">
         <is>
-          <t>vcd</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L51" s="4" t="inlineStr">
+        <is>
+          <t>vwgdl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_WHO</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Weltgesundheitsorganisation (WHO)</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>der Weltgesundheitsorganisation</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>World Health Organization</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
-        </is>
-      </c>
-      <c r="F52" s="5" t="inlineStr">
-        <is>
-          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
-        </is>
-      </c>
-      <c r="G52" s="5" t="inlineStr">
-        <is>
-          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
-        </is>
-      </c>
-      <c r="H52" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I52" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t/>
+        </is>
+      </c>
+      <c r="F52" s="4" t="inlineStr">
+        <is>
+          <t>Weltgesundheitsorganisation</t>
+        </is>
+      </c>
+      <c r="G52" s="4" t="inlineStr">
+        <is>
+          <t>World Health Organization</t>
+        </is>
+      </c>
+      <c r="H52" s="5" t="inlineStr">
+        <is>
+          <t>http://www.euro.who.int/de/home</t>
+        </is>
+      </c>
+      <c r="I52" s="5" t="inlineStr">
+        <is>
+          <t>http://www.euro.who.int/en/home</t>
         </is>
       </c>
       <c r="J52" s="4" t="inlineStr">
         <is>
-          <t>vwgdl</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="53">
-      <c r="A53" s="4" t="inlineStr">
-        <is>
-          <t>Q_WHO</t>
-        </is>
-      </c>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>Weltgesundheitsorganisation (WHO)</t>
-        </is>
-      </c>
-      <c r="C53" s="4" t="inlineStr">
-        <is>
-          <t>World Health Organization</t>
-        </is>
-      </c>
-      <c r="D53" s="4" t="inlineStr">
-        <is>
-          <t>Weltgesundheitsorganisation</t>
-        </is>
-      </c>
-      <c r="E53" s="4" t="inlineStr">
-        <is>
-          <t>World Health Organization</t>
-        </is>
-      </c>
-      <c r="F53" s="5" t="inlineStr">
-        <is>
-          <t>http://www.euro.who.int/de/home</t>
-        </is>
-      </c>
-      <c r="G53" s="5" t="inlineStr">
-        <is>
-          <t>http://www.euro.who.int/en/home</t>
-        </is>
-      </c>
-      <c r="H53" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I53" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J53" s="4" t="inlineStr">
+          <t/>
+        </is>
+      </c>
+      <c r="K52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L52" s="4" t="inlineStr">
         <is>
           <t>who</t>
         </is>
@@ -3243,19 +3713,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="G4" r:id="rId4"/>
-    <hyperlink ref="G9" r:id="rId5"/>
-    <hyperlink ref="F15" r:id="rId6"/>
-    <hyperlink ref="G15" r:id="rId7"/>
-    <hyperlink ref="F20" r:id="rId8"/>
-    <hyperlink ref="G20" r:id="rId9"/>
-    <hyperlink ref="F24" r:id="rId10"/>
-    <hyperlink ref="G24" r:id="rId11"/>
-    <hyperlink ref="F45" r:id="rId12"/>
-    <hyperlink ref="G45" r:id="rId13"/>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I8" r:id="rId3"/>
+    <hyperlink ref="H14" r:id="rId4"/>
+    <hyperlink ref="I14" r:id="rId5"/>
+    <hyperlink ref="H19" r:id="rId6"/>
+    <hyperlink ref="I19" r:id="rId7"/>
+    <hyperlink ref="H23" r:id="rId8"/>
+    <hyperlink ref="I23" r:id="rId9"/>
+    <hyperlink ref="H44" r:id="rId10"/>
+    <hyperlink ref="I44" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Federal Foreign Office </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Sustainable Development Working Group</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Agricultural Market Information Company</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Federal Agency for Nature Conservation </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Federal Criminal Police Office</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Federal Chancellery</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Federal Government Commissioner for Culture and the Media</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Federal Ministry of Education and Research</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Federal Ministry for Digital and Transport</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Federal Ministry of Finance</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Federal Ministry of Health</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Federal Ministry for Economic Affairs and Climate Action</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Organic Food Production Alliance</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the German Federal Bank</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the CEval GmbH</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the German EMAS Advisory Board</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the German Institute for Economic Research</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the European Commission</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the European Central Bank</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Federal Health Monitoring</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Center of Excellence for Sustainable Procurement</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Robert Koch Institute</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Transparency International</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the German Environment Agency</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
@@ -3357,12 +3357,12 @@
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions)</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the German Environment Agency</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
@@ -3424,7 +3424,7 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the German Environment Agency</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the University of Giessen</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Statistische Ämter des Bundes und der Länder</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the World Health Organization</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -1207,12 +1207,12 @@
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesregierung.de/breg-de/bundesregierung/staatsministerin-fuer-kultur-und-medien</t>
+          <t>https://www.kulturstaatsministerin.de/DE/startseite/startseite_node.html</t>
         </is>
       </c>
       <c r="I12" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesregierung.de/breg-de/bundesregierung/staatsministerin-fuer-kultur-und-medien</t>
+          <t>https://www.kulturstaatsministerin.de/DE/startseite/startseite_node.html</t>
         </is>
       </c>
       <c r="J12" s="4" t="inlineStr">
@@ -3716,14 +3716,16 @@
     <hyperlink ref="H3" r:id="rId1"/>
     <hyperlink ref="I3" r:id="rId2"/>
     <hyperlink ref="I8" r:id="rId3"/>
-    <hyperlink ref="H14" r:id="rId4"/>
-    <hyperlink ref="I14" r:id="rId5"/>
-    <hyperlink ref="H19" r:id="rId6"/>
-    <hyperlink ref="I19" r:id="rId7"/>
-    <hyperlink ref="H23" r:id="rId8"/>
-    <hyperlink ref="I23" r:id="rId9"/>
-    <hyperlink ref="H44" r:id="rId10"/>
-    <hyperlink ref="I44" r:id="rId11"/>
+    <hyperlink ref="H12" r:id="rId4"/>
+    <hyperlink ref="I12" r:id="rId5"/>
+    <hyperlink ref="H14" r:id="rId6"/>
+    <hyperlink ref="I14" r:id="rId7"/>
+    <hyperlink ref="H19" r:id="rId8"/>
+    <hyperlink ref="I19" r:id="rId9"/>
+    <hyperlink ref="H23" r:id="rId10"/>
+    <hyperlink ref="I23" r:id="rId11"/>
+    <hyperlink ref="H44" r:id="rId12"/>
+    <hyperlink ref="I44" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -552,69 +552,3244 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
+          <t>Q_AA</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Auswärtiges Amt (AA)</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>des Auswärtigen Amtes</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>Federal Foreign Office </t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>the Federal Foreign Office </t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>Auswärtiges Amt</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>Federal Foreign Office </t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>https://www.auswaertiges-amt.de/de/</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>https://www.auswaertiges-amt.de/en</t>
+        </is>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>Q_AGEB</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>AG Energiebilanzen e.V.</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>des AG Energiebilanzen e.V.</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>AG Energiebilanzen e.V.</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>the AG Energiebilanzen e.V.</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>AG Energiebilanzen e.V.</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>AG Energiebilanzen e.V.</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>https://ag-energiebilanzen.de/</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>https://ag-energiebilanzen.de/en/</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>ageb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>Q_AGEESTAT</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik (AGEE-Stat)</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>der Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Working Group on Renewable Energy Statistics</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>the Working Group on Renewable Energy Statistics</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>Working Group on Renewable Energy Statistics</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
+        <is>
+          <t>ageestat</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Q_AGNE</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>der Arbeitsgruppe Nachhaltige Entwicklung</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Sustainable Development Working Group</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>the Sustainable Development Working Group</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>Sustainable Development Working Group</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>agne</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Q_AKUGRDL</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder (AK UGRdL)</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>des Arbeitskreises der Umweltökonomischen Gesamtrechnungen der Länder</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>the Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>AK UGRdL</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>akugrdl</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Q_AMI</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Agrarmarkt Informations-Gesellschaft mbH (AMI)</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>der Agrarmarkt Informations-Gesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>Agricultural Market Information Company</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>the Agricultural Market Information Company</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>Agrarmarkt Informations-Gesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>Agricultural Market Information Company</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>https://www.ami-informiert.de/ami-maerkte</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>https://www.ami-informiert.de/ami-english/ami-about-us/about-us</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K7" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <t>ami</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>Q_BBSR</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung (BBSR)</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>des Bundesinstituts für Bau-, Stadt- und Raumforschung</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>the Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bbsr.bund.de/BBSR/DE/startseite/_node.html</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bbsr.bund.de/BBSR/EN/home/_node.html</t>
+        </is>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L8" s="4" t="inlineStr">
+        <is>
+          <t>bbsr</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>Q_BFN</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Bundesamt für Naturschutz (BfN)</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>des Bundesamts für Naturschutz</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>Federal Agency for Nature Conservation </t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>the Federal Agency for Nature Conservation </t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>Bundesamt für Naturschutz</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bfn.de/</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bfn.de/en.html</t>
+        </is>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t>bfn</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>Q_BKA</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Bundeskriminalamt (BKA)</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>des Bundeskriminalamts</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>Federal Criminal Police Office</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>the Federal Criminal Police Office</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>Bundeskriminalamt</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>Federal Criminal Police Office</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bka.de/DE/Home/home_node.html</t>
+        </is>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bka.de/EN/Home/home_node.html</t>
+        </is>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L10" s="4" t="inlineStr">
+        <is>
+          <t>bka</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>Q_BKAMT</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Bundeskanzleramt</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>des Bundeskanzleramts</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>Federal Chancellery</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>the Federal Chancellery</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>Bundeskanzleramt</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>Federal Chancellery</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesregierung.de/breg-de/bundesregierung/bundeskanzleramt</t>
+        </is>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesregierung.de/breg-en/federal-government</t>
+        </is>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K11" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L11" s="4" t="inlineStr">
+        <is>
+          <t>bkamt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>Q_BKM</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>der Beauftragten der Bundesregierung für Kultur und Medien</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>Federal Government Commissioner for Culture and the Media</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>the Federal Government Commissioner for Culture and the Media</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>Federal Government Commissioner for Culture and the Media</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>https://www.kulturstaatsministerin.de/DE/startseite/startseite_node.html</t>
+        </is>
+      </c>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>https://www.kulturstaatsministerin.de/DE/startseite/startseite_node.html</t>
+        </is>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L12" s="4" t="inlineStr">
+        <is>
+          <t>bkm</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Q_BMBF</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Bildung und Frschung (BMBF)</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>des Bundesministeriums für Bildung und Frschung</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Education and Research</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>the Federal Ministry of Education and Research</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Bildung und Forschung</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Education and Research</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmbf.de/</t>
+        </is>
+      </c>
+      <c r="I13" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmbf.de/bmbf/en/</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L13" s="4" t="inlineStr">
+        <is>
+          <t>bmbf</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>Q_BMDV</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Digitales und Verkehr (BMDV)</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>des Bundesministeriums für Digitales und Verkehr</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry for Digital and Transport</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>the Federal Ministry for Digital and Transport</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Digitales und Verkehr</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry for Digital and Transport</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>https://bmdv.bund.de/DE/Home/home.html</t>
+        </is>
+      </c>
+      <c r="I14" s="5" t="inlineStr">
+        <is>
+          <t>https://bmdv.bund.de/EN/Home/home.html</t>
+        </is>
+      </c>
+      <c r="J14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L14" s="4" t="inlineStr">
+        <is>
+          <t>bmdv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>Q_BMEL</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Ernährung und Landwirtschaft (BMEL)</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>des Bundesministeriums für Ernährung und Landwirtschaft</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Food and Agriculture</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>the Federal Ministry of Food and Agriculture</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Food and Agriculture</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmel.de/DE/Startseite/startseite_node.html</t>
+        </is>
+      </c>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmel.de/EN/Home/home_node.html</t>
+        </is>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L15" s="4" t="inlineStr">
+        <is>
+          <t>bmel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>Q_BMF</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium der Finanzen (BMF)</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>des Bundesministeriums der Finanzen</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Finance</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>the Federal Ministry of Finance</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium der Finanzen</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Finance</t>
+        </is>
+      </c>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesfinanzministerium.de/Web/DE/Home/home.html</t>
+        </is>
+      </c>
+      <c r="I16" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesfinanzministerium.de/Web/EN/Home/home.html</t>
+        </is>
+      </c>
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L16" s="4" t="inlineStr">
+        <is>
+          <t>bmf</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>Q_BMG</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Gesundheit (BMG)</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>des Bundesministeriums für Gesundheit</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Health</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>the Federal Ministry of Health</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Gesundheit</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Health</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesgesundheitsministerium.de/</t>
+        </is>
+      </c>
+      <c r="I17" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesgesundheitsministerium.de/en/</t>
+        </is>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L17" s="4" t="inlineStr">
+        <is>
+          <t>bmg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>Q_BMWK</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Wirtschaft und Klimaschutz (BMWK)</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>des Bundesministeriums für Wirtschaft und Klimaschutz</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry for Economic Affairs and Climate Action</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>the Federal Ministry for Economic Affairs and Climate Action</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Wirtschaft und Klimaschutz</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry for Economic Affairs and Climate Action</t>
+        </is>
+      </c>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmwi.de/Navigation/DE/Home/home.html</t>
+        </is>
+      </c>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmwi.de/Navigation/EN/Home/home.html</t>
+        </is>
+      </c>
+      <c r="J18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L18" s="4" t="inlineStr">
+        <is>
+          <t>bmwk</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>Q_BMZ</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ)</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>the Federal Ministry for Economic Cooperation and Development</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+        </is>
+      </c>
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmz.de/de</t>
+        </is>
+      </c>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmz.de/en</t>
+        </is>
+      </c>
+      <c r="J19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L19" s="4" t="inlineStr">
+        <is>
+          <t>bmz</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>Q_BOLW</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Bund Ökologische Lebensmittelwirtschaft e. V. (BÖLW)</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>des Bunds Ökologische Lebensmittelwirtschaft e. V.</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>Organic Food Production Alliance</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>the Organic Food Production Alliance</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>Bund Ökologische Lebensmittelwirtschaft e. V.</t>
+        </is>
+      </c>
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t>Organic Food Production Alliance</t>
+        </is>
+      </c>
+      <c r="H20" s="5" t="inlineStr">
+        <is>
+          <t>https://www.boelw.de/</t>
+        </is>
+      </c>
+      <c r="I20" s="5" t="inlineStr">
+        <is>
+          <t>https://www.boelw.de/</t>
+        </is>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L20" s="4" t="inlineStr">
+        <is>
+          <t>bolw</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>Q_BUNDESBANK</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche Bundesbank (BBk)</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>der Deutschen Bundesbank</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>German Federal Bank</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>the German Federal Bank</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche Bundesbank</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>German Federal Bank</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesbank.de/de/</t>
+        </is>
+      </c>
+      <c r="I21" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesbank.de/en</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
+          <t>bundesbank</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>Q_BZGA</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Bundeszentrale für gesundheitliche Aufklärung (BZGA)</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>der Bundeszentrale für gesundheitliche Aufklärung</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>Federal Centre for Health Education</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>the Federal Centre for Health Education</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>Bundeszentrale für gesundheitliche Aufklärung</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>Federal Centre for Health Education</t>
+        </is>
+      </c>
+      <c r="H22" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bzga.de/</t>
+        </is>
+      </c>
+      <c r="I22" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bzga.de/home/bzga/</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L22" s="4" t="inlineStr">
+        <is>
+          <t>bzga</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>Q_CEVAL</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>CEval GmbH</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>der CEval GmbH</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>CEval GmbH</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>the CEval GmbH</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>CEval GmbH</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>CEval GmbH</t>
+        </is>
+      </c>
+      <c r="H23" s="5" t="inlineStr">
+        <is>
+          <t>https://ceval.de/</t>
+        </is>
+      </c>
+      <c r="I23" s="5" t="inlineStr">
+        <is>
+          <t>https://ceval.de/en/</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr">
+        <is>
+          <t>ceval</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
           <t>Q_DDB</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>der deutschen digitalen Bibliothek</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
         <is>
           <t>the Deutsche Digitale Bibliothek</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G24" s="4" t="inlineStr">
         <is>
           <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="H24" s="5" t="inlineStr">
         <is>
           <t>https://www.deutsche-digitale-bibliothek.de/</t>
         </is>
       </c>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="I24" s="5" t="inlineStr">
         <is>
           <t>https://www.deutsche-digitale-bibliothek.de/?lang=en</t>
         </is>
       </c>
-      <c r="J2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L2" s="4" t="inlineStr">
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr">
         <is>
           <t>ddb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Statistisches Bundesamt (Destatis)</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>Federal Statistical Office</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>Statistisches Bundesamt</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>Federal Statistical Office</t>
+        </is>
+      </c>
+      <c r="H25" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Home/_inhalt.html</t>
+        </is>
+      </c>
+      <c r="I25" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/EN/Home/_node.html</t>
+        </is>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L25" s="4" t="inlineStr">
+        <is>
+          <t>destatis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>Q_DIHK</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V. (DIHK)</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>des Deutschen Industrie- und Handelskammertages</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>the German EMAS Advisory Board</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr">
+        <is>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V.</t>
+        </is>
+      </c>
+      <c r="G26" s="4" t="inlineStr">
+        <is>
+          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
+        </is>
+      </c>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>https://www.dihk.de/de</t>
+        </is>
+      </c>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>https://www.dihk.de/de</t>
+        </is>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L26" s="4" t="inlineStr">
+        <is>
+          <t>dihk</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>Q_DIW</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Deutsches Institut für Wirtschaftsforschung (DIW)</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>des Deutschen Instituts für Wirtschaftsforschung</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>German Institute for Economic Research</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>the German Institute for Economic Research</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>Deutsches Institut für Wirtschaftsforschung</t>
+        </is>
+      </c>
+      <c r="G27" s="4" t="inlineStr">
+        <is>
+          <t>German Institute for Economic Research</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>https://www.diw.de/deutsch</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>https://www.diw.de/en</t>
+        </is>
+      </c>
+      <c r="J27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L27" s="4" t="inlineStr">
+        <is>
+          <t>diw</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>Q_EUROPEANCOMMISSION</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Europäische Kommission</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>der Europäischen Kommission</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>European Commission</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>the European Commission</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>Europäische Kommission</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>European Commission</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_de</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_en</t>
+        </is>
+      </c>
+      <c r="J28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L28" s="4" t="inlineStr">
+        <is>
+          <t>europeancommission</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>Q_EUROSTAT</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Eurostat</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>von Eurostat</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>Eurostat</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>Eurostat</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>Eurostat</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>Eurostat</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/de/home</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/home</t>
+        </is>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L29" s="4" t="inlineStr">
+        <is>
+          <t>eurostat</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>Q_EZB</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>Europäische Zentralbank (EZB)</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>der Europäischen Zentralbank</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>European Central Bank</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>the European Central Bank</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>Europäische Zentralbank</t>
+        </is>
+      </c>
+      <c r="G30" s="4" t="inlineStr">
+        <is>
+          <t>European Central Bank</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>https://www.ecb.europa.eu/home/html/index.de.html</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>https://www.ecb.europa.eu/home/languagepolicy/html/index.en.html</t>
+        </is>
+      </c>
+      <c r="J30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L30" s="4" t="inlineStr">
+        <is>
+          <t>ezb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Q_FIDAR</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Frauen in die Aufsichtsräte e.V. (FidAR)</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>vom Frauen in die Aufsichtsräte e.V.</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>the Frauen in die Aufsichtsräte e.V.</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
+        </is>
+      </c>
+      <c r="G31" s="4" t="inlineStr">
+        <is>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
+        </is>
+      </c>
+      <c r="H31" s="5" t="inlineStr">
+        <is>
+          <t>https://www.fidar.de/</t>
+        </is>
+      </c>
+      <c r="I31" s="5" t="inlineStr">
+        <is>
+          <t>https://www.fidar.de/</t>
+        </is>
+      </c>
+      <c r="J31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L31" s="4" t="inlineStr">
+        <is>
+          <t>fidar</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Q_GBE</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Gesundheitsberichterstattung des Bundes (GBE)</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>der Gesundheitsberichterstattung des Bundes</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>Federal Health Monitoring</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>the Federal Health Monitoring</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>Gesundheitsberichterstattung des Bundes</t>
+        </is>
+      </c>
+      <c r="G32" s="4" t="inlineStr">
+        <is>
+          <t>Federal Health Monitoring</t>
+        </is>
+      </c>
+      <c r="H32" s="5" t="inlineStr">
+        <is>
+          <t>https://www.gbe-bund.de/gbe/</t>
+        </is>
+      </c>
+      <c r="I32" s="5" t="inlineStr">
+        <is>
+          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_isgbe?p_uid=gast&amp;p_aid=50554816&amp;p_sprache=E</t>
+        </is>
+      </c>
+      <c r="J32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L32" s="4" t="inlineStr">
+        <is>
+          <t>gbe</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>Q_GFK</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>Gesellschaft für Konsumforschung (GfK)</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>der Gesellschaft für Konsumforschung</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>Gesellschaft für Konsumforschung</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>the Gesellschaft für Konsumforschung</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>Gesellschaft für Konsumforschung</t>
+        </is>
+      </c>
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>Gesellschaft für Konsumforschung</t>
+        </is>
+      </c>
+      <c r="H33" s="5" t="inlineStr">
+        <is>
+          <t>https://www.gfk.com/de/</t>
+        </is>
+      </c>
+      <c r="I33" s="5" t="inlineStr">
+        <is>
+          <t>https://www.gfk.com/</t>
+        </is>
+      </c>
+      <c r="J33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L33" s="4" t="inlineStr">
+        <is>
+          <t>gfk</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>Q_GIZ</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ)</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>der Deutschen Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH(GIZ)</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>the Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+        </is>
+      </c>
+      <c r="G34" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+        </is>
+      </c>
+      <c r="H34" s="5" t="inlineStr">
+        <is>
+          <t>https://www.giz.de/de/html/index.html</t>
+        </is>
+      </c>
+      <c r="I34" s="5" t="inlineStr">
+        <is>
+          <t>https://www.giz.de/en/html/index.html</t>
+        </is>
+      </c>
+      <c r="J34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L34" s="4" t="inlineStr">
+        <is>
+          <t>giz</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>Q_IFEU</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH (ifeu)</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>des Instituts für Energie- und Umweltforschung Heidelberg gGmbH</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>Institute for Energy and Environmental Research</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>the Institute for Energy and Environmental Research</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="inlineStr">
+        <is>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
+        </is>
+      </c>
+      <c r="G35" s="4" t="inlineStr">
+        <is>
+          <t>Institute for Energy and Environmental Research</t>
+        </is>
+      </c>
+      <c r="H35" s="5" t="inlineStr">
+        <is>
+          <t>https://www.ifeu.de/</t>
+        </is>
+      </c>
+      <c r="I35" s="5" t="inlineStr">
+        <is>
+          <t>https://www.ifeu.de/en/</t>
+        </is>
+      </c>
+      <c r="J35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L35" s="4" t="inlineStr">
+        <is>
+          <t>ifeu</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="4" t="inlineStr">
+        <is>
+          <t>Q_JHT</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>Johann Heinrich von Thünen-Institut (TI)</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>des Johann Heinrich von Thünen-Instituts</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>Johann Heinrich von Thünen Institute</t>
+        </is>
+      </c>
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t>the Johann Heinrich von Thünen Institute</t>
+        </is>
+      </c>
+      <c r="F36" s="4" t="inlineStr">
+        <is>
+          <t>Johann Heinrich von Thünen-Institut</t>
+        </is>
+      </c>
+      <c r="G36" s="4" t="inlineStr">
+        <is>
+          <t>Johann Heinrich von Thünen Institute</t>
+        </is>
+      </c>
+      <c r="H36" s="5" t="inlineStr">
+        <is>
+          <t>https://www.thuenen.de/de/</t>
+        </is>
+      </c>
+      <c r="I36" s="5" t="inlineStr">
+        <is>
+          <t>https://www.thuenen.de/en/</t>
+        </is>
+      </c>
+      <c r="J36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L36" s="4" t="inlineStr">
+        <is>
+          <t>jht</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="4" t="inlineStr">
+        <is>
+          <t>Q_JKI</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut (JKI)</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>des Instituts für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>the Institute for Crop and Soil Science, Julius Kühn Institute</t>
+        </is>
+      </c>
+      <c r="F37" s="4" t="inlineStr">
+        <is>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
+        </is>
+      </c>
+      <c r="G37" s="4" t="inlineStr">
+        <is>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+        </is>
+      </c>
+      <c r="H37" s="5" t="inlineStr">
+        <is>
+          <t>https://www.julius-kuehn.de/pb/</t>
+        </is>
+      </c>
+      <c r="I37" s="5" t="inlineStr">
+        <is>
+          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
+        </is>
+      </c>
+      <c r="J37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L37" s="4" t="inlineStr">
+        <is>
+          <t>jki</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="4" t="inlineStr">
+        <is>
+          <t>Q_KBA</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>Kraftfahrt-Bundesamt (KBA)</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>des Kraftfahrt-Bundesamts</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>Federal Motor Transport Authority</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>the Federal Motor Transport Authority</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="inlineStr">
+        <is>
+          <t>Kraftfahrt-Bundesamt</t>
+        </is>
+      </c>
+      <c r="G38" s="4" t="inlineStr">
+        <is>
+          <t>Federal Motor Transport Authority</t>
+        </is>
+      </c>
+      <c r="H38" s="5" t="inlineStr">
+        <is>
+          <t>https://www.kba.de/DE/Home/home_node.html</t>
+        </is>
+      </c>
+      <c r="I38" s="5" t="inlineStr">
+        <is>
+          <t>https://www.kba.de/EN/Home/home_node.html</t>
+        </is>
+      </c>
+      <c r="J38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L38" s="4" t="inlineStr">
+        <is>
+          <t>kba</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>Q_KFW</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>der Kreditanstalt für Wiederaufbau</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>the Kreditanstalt für Wiederaufbau</t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>Kreditanstalt für Wiederaufbau</t>
+        </is>
+      </c>
+      <c r="G39" s="4" t="inlineStr">
+        <is>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+        </is>
+      </c>
+      <c r="H39" s="5" t="inlineStr">
+        <is>
+          <t>https://www.kfw.de/kfw.de.html</t>
+        </is>
+      </c>
+      <c r="I39" s="5" t="inlineStr">
+        <is>
+          <t>https://www.kfw.de/kfw.de-2.html</t>
+        </is>
+      </c>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L39" s="4" t="inlineStr">
+        <is>
+          <t>kfw</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t>Q_KNB</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern (KNB) </t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>der Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>Center of Excellence for Sustainable Procurement</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>the Center of Excellence for Sustainable Procurement</t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="inlineStr">
+        <is>
+          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
+        </is>
+      </c>
+      <c r="G40" s="4" t="inlineStr">
+        <is>
+          <t>Competence Center for Sustainable Procurement</t>
+        </is>
+      </c>
+      <c r="H40" s="5" t="inlineStr">
+        <is>
+          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
+        </is>
+      </c>
+      <c r="I40" s="5" t="inlineStr">
+        <is>
+          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
+        </is>
+      </c>
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L40" s="4" t="inlineStr">
+        <is>
+          <t>knb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>Q_LAKEB</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Länderarbeitskreis (LAK) Energiebilanzen</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>des Länderarbeitskreises Energiebilanzen</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>Länderarbeitskreis Energiebilanzen</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F41" s="4" t="inlineStr">
+        <is>
+          <t>Länderarbeitskreis Energiebilanzen</t>
+        </is>
+      </c>
+      <c r="G41" s="4" t="inlineStr">
+        <is>
+          <t>LAK Energiebilanzen</t>
+        </is>
+      </c>
+      <c r="H41" s="5" t="inlineStr">
+        <is>
+          <t>http://www.lak-energiebilanzen.de/</t>
+        </is>
+      </c>
+      <c r="I41" s="5" t="inlineStr">
+        <is>
+          <t>http://www.lak-energiebilanzen.de/</t>
+        </is>
+      </c>
+      <c r="J41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L41" s="4" t="inlineStr">
+        <is>
+          <t>lakeb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="4" t="inlineStr">
+        <is>
+          <t>Q_LIKI</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>Länderinitiative Kernindikatoren (LIKI)</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>der Länderinitiative Kernindikatoren</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>Länderinitiative Kernindikatoren</t>
+        </is>
+      </c>
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t>the Länderinitiative Kernindikatoren</t>
+        </is>
+      </c>
+      <c r="F42" s="4" t="inlineStr">
+        <is>
+          <t>Länderinitiative Kernindikatoren</t>
+        </is>
+      </c>
+      <c r="G42" s="4" t="inlineStr">
+        <is>
+          <t>Länderinitiative Kernindikatoren</t>
+        </is>
+      </c>
+      <c r="H42" s="5" t="inlineStr">
+        <is>
+          <t>https://www.lanuv.nrw.de/liki/index.php</t>
+        </is>
+      </c>
+      <c r="I42" s="5" t="inlineStr">
+        <is>
+          <t>https://www.lanuv.nrw.de/liki/index.php</t>
+        </is>
+      </c>
+      <c r="J42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L42" s="4" t="inlineStr">
+        <is>
+          <t>liki</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="4" t="inlineStr">
+        <is>
+          <t>Q_OECD</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD)</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>Organisation for Economic Co-operation and Development</t>
+        </is>
+      </c>
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>the Organisation for Economic Co-operation and Development</t>
+        </is>
+      </c>
+      <c r="F43" s="4" t="inlineStr">
+        <is>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+        </is>
+      </c>
+      <c r="G43" s="4" t="inlineStr">
+        <is>
+          <t>Organisation for Economic Co-operation and Development</t>
+        </is>
+      </c>
+      <c r="H43" s="5" t="inlineStr">
+        <is>
+          <t>https://www.oecd.org/</t>
+        </is>
+      </c>
+      <c r="I43" s="5" t="inlineStr">
+        <is>
+          <t>https://www.oecd.org/</t>
+        </is>
+      </c>
+      <c r="J43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L43" s="4" t="inlineStr">
+        <is>
+          <t>oecd</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="4" t="inlineStr">
+        <is>
+          <t>Q_RKI</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>Robert Koch-Institut (RKI)</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>des Robert Koch-Instituts</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr">
+        <is>
+          <t>Robert Koch Institute</t>
+        </is>
+      </c>
+      <c r="E44" s="4" t="inlineStr">
+        <is>
+          <t>the Robert Koch Institute</t>
+        </is>
+      </c>
+      <c r="F44" s="4" t="inlineStr">
+        <is>
+          <t>Robert Koch-Institut</t>
+        </is>
+      </c>
+      <c r="G44" s="4" t="inlineStr">
+        <is>
+          <t>Robert Koch Institute</t>
+        </is>
+      </c>
+      <c r="H44" s="5" t="inlineStr">
+        <is>
+          <t>https://www.rki.de/DE/Home/homepage_node.html</t>
+        </is>
+      </c>
+      <c r="I44" s="5" t="inlineStr">
+        <is>
+          <t>https://www.rki.de/EN/Home/homepage_node.html</t>
+        </is>
+      </c>
+      <c r="J44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L44" s="4" t="inlineStr">
+        <is>
+          <t>rki</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="4" t="inlineStr">
+        <is>
+          <t>Q_SVWS</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>Stifterverband Wissenschaftsstatistik</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>des Stifterverbands Wissenschaftsstatistik</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>Stifterverband Wissenschaftsstatistik</t>
+        </is>
+      </c>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>the Stifterverband Wissenschaftsstatistik</t>
+        </is>
+      </c>
+      <c r="F45" s="4" t="inlineStr">
+        <is>
+          <t>Stifterverband Wissenschaftsstatistik</t>
+        </is>
+      </c>
+      <c r="G45" s="4" t="inlineStr">
+        <is>
+          <t>Stifterverband Wissenschaftsstatistik</t>
+        </is>
+      </c>
+      <c r="H45" s="5" t="inlineStr">
+        <is>
+          <t>https://www.stifterverband.org/</t>
+        </is>
+      </c>
+      <c r="I45" s="5" t="inlineStr">
+        <is>
+          <t>https://www.stifterverband.org/english</t>
+        </is>
+      </c>
+      <c r="J45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L45" s="4" t="inlineStr">
+        <is>
+          <t>svws</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="4" t="inlineStr">
+        <is>
+          <t>Q_TA</t>
+        </is>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Transparency International e.V.</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>von Transparency International</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="inlineStr">
+        <is>
+          <t>Transparency International e.V.</t>
+        </is>
+      </c>
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t>Transparency International</t>
+        </is>
+      </c>
+      <c r="F46" s="4" t="inlineStr">
+        <is>
+          <t>Transparency International e.V.</t>
+        </is>
+      </c>
+      <c r="G46" s="4" t="inlineStr">
+        <is>
+          <t>Transparency International e.V.</t>
+        </is>
+      </c>
+      <c r="H46" s="5" t="inlineStr">
+        <is>
+          <t>https://www.transparency.de/</t>
+        </is>
+      </c>
+      <c r="I46" s="5" t="inlineStr">
+        <is>
+          <t>https://www.transparency.de/en/</t>
+        </is>
+      </c>
+      <c r="J46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L46" s="4" t="inlineStr">
+        <is>
+          <t>ta</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt (UBA)</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>des Umweltbundesamts</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>German Environment Agency</t>
+        </is>
+      </c>
+      <c r="E47" s="4" t="inlineStr">
+        <is>
+          <t>the German Environment Agency</t>
+        </is>
+      </c>
+      <c r="F47" s="4" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt</t>
+        </is>
+      </c>
+      <c r="G47" s="4" t="inlineStr">
+        <is>
+          <t>German Environment Agency</t>
+        </is>
+      </c>
+      <c r="H47" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/</t>
+        </is>
+      </c>
+      <c r="I47" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en</t>
+        </is>
+      </c>
+      <c r="J47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L47" s="4" t="inlineStr">
+        <is>
+          <t>uba</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA_1</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>des Umweltbundesamts</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions)</t>
+        </is>
+      </c>
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>the German Environment Agency</t>
+        </is>
+      </c>
+      <c r="F48" s="4" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+        </is>
+      </c>
+      <c r="G48" s="4" t="inlineStr">
+        <is>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
+        </is>
+      </c>
+      <c r="H48" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/</t>
+        </is>
+      </c>
+      <c r="I48" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en</t>
+        </is>
+      </c>
+      <c r="J48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L48" s="4" t="inlineStr">
+        <is>
+          <t>uba</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBALAWA</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>des Umweltbundesamts</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
+        </is>
+      </c>
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>the German Environment Agency</t>
+        </is>
+      </c>
+      <c r="F49" s="4" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser</t>
+        </is>
+      </c>
+      <c r="G49" s="4" t="inlineStr">
+        <is>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government</t>
+        </is>
+      </c>
+      <c r="H49" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/</t>
+        </is>
+      </c>
+      <c r="I49" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en</t>
+        </is>
+      </c>
+      <c r="J49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L49" s="4" t="inlineStr">
+        <is>
+          <t>uba</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="4" t="inlineStr">
+        <is>
+          <t>Q_UG</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>der Universität Gießen</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
+        </is>
+      </c>
+      <c r="E50" s="4" t="inlineStr">
+        <is>
+          <t>the University of Giessen</t>
+        </is>
+      </c>
+      <c r="F50" s="4" t="inlineStr">
+        <is>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+        </is>
+      </c>
+      <c r="G50" s="4" t="inlineStr">
+        <is>
+          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
+        </is>
+      </c>
+      <c r="H50" s="5" t="inlineStr">
+        <is>
+          <t>https://www.uni-giessen.de/fbz/fb09/institute/ilr</t>
+        </is>
+      </c>
+      <c r="I50" s="5" t="inlineStr">
+        <is>
+          <t>https://www.uni-giessen.de/faculties/f09/institutes/landscape?set_language=en</t>
+        </is>
+      </c>
+      <c r="J50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L50" s="4" t="inlineStr">
+        <is>
+          <t>ug</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="4" t="inlineStr">
+        <is>
+          <t>Q_VCD</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>Verkehrsclub Deutschland e.V. (VCD)</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>des Verkehrsclub Deutschlands</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>Verkehrsclub Deutschland e.V.</t>
+        </is>
+      </c>
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t>the Verkehrsclub Deutschland e.V.</t>
+        </is>
+      </c>
+      <c r="F51" s="4" t="inlineStr">
+        <is>
+          <t>Verkehrsclub Deutschland e.V.</t>
+        </is>
+      </c>
+      <c r="G51" s="4" t="inlineStr">
+        <is>
+          <t>Verkehrsclub Deutschland e.V.</t>
+        </is>
+      </c>
+      <c r="H51" s="5" t="inlineStr">
+        <is>
+          <t>https://www.vcd.org/startseite/</t>
+        </is>
+      </c>
+      <c r="I51" s="5" t="inlineStr">
+        <is>
+          <t>https://www.vcd.org/startseite/</t>
+        </is>
+      </c>
+      <c r="J51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L51" s="4" t="inlineStr">
+        <is>
+          <t>vcd</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>Q_VWGDL</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>der Statistischen Ämter der Länder</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="E52" s="4" t="inlineStr">
+        <is>
+          <t>the Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="F52" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="G52" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="H52" s="5" t="inlineStr">
+        <is>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+        </is>
+      </c>
+      <c r="I52" s="5" t="inlineStr">
+        <is>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+        </is>
+      </c>
+      <c r="J52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L52" s="4" t="inlineStr">
+        <is>
+          <t>vwgdl</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>Q_WHO</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Weltgesundheitsorganisation (WHO)</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>der Weltgesundheitsorganisation</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>World Health Organization</t>
+        </is>
+      </c>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>the World Health Organization</t>
+        </is>
+      </c>
+      <c r="F53" s="4" t="inlineStr">
+        <is>
+          <t>Weltgesundheitsorganisation</t>
+        </is>
+      </c>
+      <c r="G53" s="4" t="inlineStr">
+        <is>
+          <t>World Health Organization</t>
+        </is>
+      </c>
+      <c r="H53" s="5" t="inlineStr">
+        <is>
+          <t>http://www.euro.who.int/de/home</t>
+        </is>
+      </c>
+      <c r="I53" s="5" t="inlineStr">
+        <is>
+          <t>http://www.euro.who.int/en/home</t>
+        </is>
+      </c>
+      <c r="J53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L53" s="4" t="inlineStr">
+        <is>
+          <t>who</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I8" r:id="rId3"/>
+    <hyperlink ref="H12" r:id="rId4"/>
+    <hyperlink ref="I12" r:id="rId5"/>
+    <hyperlink ref="H14" r:id="rId6"/>
+    <hyperlink ref="I14" r:id="rId7"/>
+    <hyperlink ref="H19" r:id="rId8"/>
+    <hyperlink ref="I19" r:id="rId9"/>
+    <hyperlink ref="H23" r:id="rId10"/>
+    <hyperlink ref="I23" r:id="rId11"/>
+    <hyperlink ref="H24" r:id="rId12"/>
+    <hyperlink ref="I24" r:id="rId13"/>
+    <hyperlink ref="H45" r:id="rId14"/>
+    <hyperlink ref="I45" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Bildung und Frschung (BMBF)</t>
+          <t>Bundesministerium für Bildung und Forschung (BMBF)</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
@@ -1482,47 +1482,47 @@
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Q_BMG</t>
+          <t>Q_BMFSFJ</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Gesundheit (BMG)</t>
+          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Gesundheit</t>
+          <t>des Bundesministeriums für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Health</t>
+          <t>Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry of Health</t>
+          <t>the Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Gesundheit</t>
+          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
         </is>
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Health</t>
+          <t>Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
         </is>
       </c>
       <c r="H17" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesgesundheitsministerium.de/</t>
+          <t>https://www.bmfsfj.de/</t>
         </is>
       </c>
       <c r="I17" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesgesundheitsministerium.de/en/</t>
+          <t>https://www.bmfsfj.de/en</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
@@ -1537,54 +1537,54 @@
       </c>
       <c r="L17" s="4" t="inlineStr">
         <is>
-          <t>bmg</t>
+          <t>bmfsfj</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Q_BMWK</t>
+          <t>Q_BMG</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Wirtschaft und Klimaschutz (BMWK)</t>
+          <t>Bundesministerium für Gesundheit (BMG)</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Wirtschaft und Klimaschutz</t>
+          <t>des Bundesministeriums für Gesundheit</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Affairs and Climate Action</t>
+          <t>Federal Ministry of Health</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry for Economic Affairs and Climate Action</t>
+          <t>the Federal Ministry of Health</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Wirtschaft und Klimaschutz</t>
+          <t>Bundesministerium für Gesundheit</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Affairs and Climate Action</t>
+          <t>Federal Ministry of Health</t>
         </is>
       </c>
       <c r="H18" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmwi.de/Navigation/DE/Home/home.html</t>
+          <t>https://www.bundesgesundheitsministerium.de/</t>
         </is>
       </c>
       <c r="I18" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmwi.de/Navigation/EN/Home/home.html</t>
+          <t>https://www.bundesgesundheitsministerium.de/en/</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
@@ -1599,54 +1599,54 @@
       </c>
       <c r="L18" s="4" t="inlineStr">
         <is>
-          <t>bmwk</t>
+          <t>bmg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_BMWK</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ)</t>
+          <t>Bundesministerium für Wirtschaft und Klimaschutz (BMWK)</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>des Bundesministeriums für Wirtschaft und Klimaschutz</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t>Federal Ministry for Economic Affairs and Climate Action</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry for Economic Cooperation and Development</t>
+          <t>the Federal Ministry for Economic Affairs and Climate Action</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Bundesministerium für Wirtschaft und Klimaschutz</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t>Federal Ministry for Economic Affairs and Climate Action</t>
         </is>
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de</t>
+          <t>https://www.bmwi.de/Navigation/DE/Home/home.html</t>
         </is>
       </c>
       <c r="I19" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/en</t>
+          <t>https://www.bmwi.de/Navigation/EN/Home/home.html</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1661,54 +1661,54 @@
       </c>
       <c r="L19" s="4" t="inlineStr">
         <is>
-          <t>bmz</t>
+          <t>bmwk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Q_BOLW</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Bund Ökologische Lebensmittelwirtschaft e. V. (BÖLW)</t>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ)</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>des Bunds Ökologische Lebensmittelwirtschaft e. V.</t>
+          <t>des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>Organic Food Production Alliance</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>the Organic Food Production Alliance</t>
+          <t>the Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>Bund Ökologische Lebensmittelwirtschaft e. V.</t>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>Organic Food Production Alliance</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
       <c r="H20" s="5" t="inlineStr">
         <is>
-          <t>https://www.boelw.de/</t>
+          <t>https://www.bmz.de/de</t>
         </is>
       </c>
       <c r="I20" s="5" t="inlineStr">
         <is>
-          <t>https://www.boelw.de/</t>
+          <t>https://www.bmz.de/en</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -1723,54 +1723,54 @@
       </c>
       <c r="L20" s="4" t="inlineStr">
         <is>
-          <t>bolw</t>
+          <t>bmz</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Q_BUNDESBANK</t>
+          <t>Q_BOLW</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Bundesbank (BBk)</t>
+          <t>Bund Ökologische Lebensmittelwirtschaft e. V. (BÖLW)</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>der Deutschen Bundesbank</t>
+          <t>des Bunds Ökologische Lebensmittelwirtschaft e. V.</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>German Federal Bank</t>
+          <t>Organic Food Production Alliance</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>the German Federal Bank</t>
+          <t>the Organic Food Production Alliance</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Bundesbank</t>
+          <t>Bund Ökologische Lebensmittelwirtschaft e. V.</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>German Federal Bank</t>
+          <t>Organic Food Production Alliance</t>
         </is>
       </c>
       <c r="H21" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesbank.de/de/</t>
+          <t>https://www.boelw.de/</t>
         </is>
       </c>
       <c r="I21" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesbank.de/en</t>
+          <t>https://www.boelw.de/</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1785,54 +1785,54 @@
       </c>
       <c r="L21" s="4" t="inlineStr">
         <is>
-          <t>bundesbank</t>
+          <t>bolw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Q_BZGA</t>
+          <t>Q_BUNDESBANK</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Bundeszentrale für gesundheitliche Aufklärung (BZGA)</t>
+          <t>Deutsche Bundesbank (BBk)</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>der Bundeszentrale für gesundheitliche Aufklärung</t>
+          <t>der Deutschen Bundesbank</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>Federal Centre for Health Education</t>
+          <t>German Federal Bank</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>the Federal Centre for Health Education</t>
+          <t>the German Federal Bank</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>Bundeszentrale für gesundheitliche Aufklärung</t>
+          <t>Deutsche Bundesbank</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>Federal Centre for Health Education</t>
+          <t>German Federal Bank</t>
         </is>
       </c>
       <c r="H22" s="5" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/</t>
+          <t>https://www.bundesbank.de/de/</t>
         </is>
       </c>
       <c r="I22" s="5" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/home/bzga/</t>
+          <t>https://www.bundesbank.de/en</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -1847,54 +1847,54 @@
       </c>
       <c r="L22" s="4" t="inlineStr">
         <is>
-          <t>bzga</t>
+          <t>bundesbank</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Q_CEVAL</t>
+          <t>Q_BZGA</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Bundeszentrale für gesundheitliche Aufklärung (BZGA)</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>der CEval GmbH</t>
+          <t>der Bundeszentrale für gesundheitliche Aufklärung</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>the CEval GmbH</t>
+          <t>the Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Bundeszentrale für gesundheitliche Aufklärung</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="H23" s="5" t="inlineStr">
         <is>
-          <t>https://ceval.de/</t>
+          <t>https://www.bzga.de/</t>
         </is>
       </c>
       <c r="I23" s="5" t="inlineStr">
         <is>
-          <t>https://ceval.de/en/</t>
+          <t>https://www.bzga.de/home/bzga/</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
@@ -1909,54 +1909,54 @@
       </c>
       <c r="L23" s="4" t="inlineStr">
         <is>
-          <t>ceval</t>
+          <t>bzga</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Q_DDB</t>
+          <t>Q_CEVAL</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>der deutschen digitalen Bibliothek</t>
+          <t>der CEval GmbH</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>the Deutsche Digitale Bibliothek</t>
+          <t>the CEval GmbH</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="H24" s="5" t="inlineStr">
         <is>
-          <t>https://www.deutsche-digitale-bibliothek.de/</t>
+          <t>https://ceval.de/</t>
         </is>
       </c>
       <c r="I24" s="5" t="inlineStr">
         <is>
-          <t>https://www.deutsche-digitale-bibliothek.de/?lang=en</t>
+          <t>https://ceval.de/en/</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
@@ -1971,54 +1971,54 @@
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>ddb</t>
+          <t>ceval</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_DDB</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Statistisches Bundesamt (Destatis)</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>der deutschen digitalen Bibliothek</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Federal Statistical Office</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>Statistisches Bundesamt</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>Federal Statistical Office</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="H25" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Home/_inhalt.html</t>
+          <t>https://www.deutsche-digitale-bibliothek.de/</t>
         </is>
       </c>
       <c r="I25" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Home/_node.html</t>
+          <t>https://www.deutsche-digitale-bibliothek.de/?lang=en</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
@@ -2033,54 +2033,54 @@
       </c>
       <c r="L25" s="4" t="inlineStr">
         <is>
-          <t>destatis</t>
+          <t>ddb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Q_DIHK</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V. (DIHK)</t>
+          <t>Statistisches Bundesamt (Destatis)</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>des Deutschen Industrie- und Handelskammertages</t>
+          <t/>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
+          <t>Federal Statistical Office</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>the German EMAS Advisory Board</t>
+          <t/>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V.</t>
+          <t>Statistisches Bundesamt</t>
         </is>
       </c>
       <c r="G26" s="4" t="inlineStr">
         <is>
-          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
+          <t>Federal Statistical Office</t>
         </is>
       </c>
       <c r="H26" s="5" t="inlineStr">
         <is>
-          <t>https://www.dihk.de/de</t>
+          <t>https://www.destatis.de/DE/Home/_inhalt.html</t>
         </is>
       </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
-          <t>https://www.dihk.de/de</t>
+          <t>https://www.destatis.de/EN/Home/_node.html</t>
         </is>
       </c>
       <c r="J26" s="4" t="inlineStr">
@@ -2095,54 +2095,54 @@
       </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t>dihk</t>
+          <t>destatis</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Q_DIW</t>
+          <t>Q_DIHK</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Wirtschaftsforschung (DIW)</t>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V. (DIHK)</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>des Deutschen Instituts für Wirtschaftsforschung</t>
+          <t>des Deutschen Industrie- und Handelskammertages</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Economic Research</t>
+          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>the German Institute for Economic Research</t>
+          <t>the German EMAS Advisory Board</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Wirtschaftsforschung</t>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V.</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Economic Research</t>
+          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
         </is>
       </c>
       <c r="H27" s="5" t="inlineStr">
         <is>
-          <t>https://www.diw.de/deutsch</t>
+          <t>https://www.dihk.de/de</t>
         </is>
       </c>
       <c r="I27" s="5" t="inlineStr">
         <is>
-          <t>https://www.diw.de/en</t>
+          <t>https://www.dihk.de/de</t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
@@ -2157,54 +2157,54 @@
       </c>
       <c r="L27" s="4" t="inlineStr">
         <is>
-          <t>diw</t>
+          <t>dihk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROPEANCOMMISSION</t>
+          <t>Q_DIW</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Europäische Kommission</t>
+          <t>Deutsches Institut für Wirtschaftsforschung (DIW)</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>der Europäischen Kommission</t>
+          <t>des Deutschen Instituts für Wirtschaftsforschung</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>European Commission</t>
+          <t>German Institute for Economic Research</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>the European Commission</t>
+          <t>the German Institute for Economic Research</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>Europäische Kommission</t>
+          <t>Deutsches Institut für Wirtschaftsforschung</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>European Commission</t>
+          <t>German Institute for Economic Research</t>
         </is>
       </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
-          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_de</t>
+          <t>https://www.diw.de/deutsch</t>
         </is>
       </c>
       <c r="I28" s="5" t="inlineStr">
         <is>
-          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_en</t>
+          <t>https://www.diw.de/en</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
@@ -2219,54 +2219,54 @@
       </c>
       <c r="L28" s="4" t="inlineStr">
         <is>
-          <t>europeancommission</t>
+          <t>diw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_EUROPEANCOMMISSION</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>Europäische Kommission</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>von Eurostat</t>
+          <t>der Europäischen Kommission</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>European Commission</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>the European Commission</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>Europäische Kommission</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>European Commission</t>
         </is>
       </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/de/home</t>
+          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_de</t>
         </is>
       </c>
       <c r="I29" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/home</t>
+          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_en</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
@@ -2281,54 +2281,54 @@
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>eurostat</t>
+          <t>europeancommission</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Q_EZB</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank (EZB)</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>der Europäischen Zentralbank</t>
+          <t>von Eurostat</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>the European Central Bank</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="H30" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/home/html/index.de.html</t>
+          <t>https://ec.europa.eu/eurostat/de/home</t>
         </is>
       </c>
       <c r="I30" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/home/languagepolicy/html/index.en.html</t>
+          <t>https://ec.europa.eu/eurostat/home</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
@@ -2343,54 +2343,54 @@
       </c>
       <c r="L30" s="4" t="inlineStr">
         <is>
-          <t>ezb</t>
+          <t>eurostat</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_EZB</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V. (FidAR)</t>
+          <t>Europäische Zentralbank (EZB)</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>vom Frauen in die Aufsichtsräte e.V.</t>
+          <t>der Europäischen Zentralbank</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>European Central Bank</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>the Frauen in die Aufsichtsräte e.V.</t>
+          <t>the European Central Bank</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>Europäische Zentralbank</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>European Central Bank</t>
         </is>
       </c>
       <c r="H31" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/</t>
+          <t>https://www.ecb.europa.eu/home/html/index.de.html</t>
         </is>
       </c>
       <c r="I31" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/</t>
+          <t>https://www.ecb.europa.eu/home/languagepolicy/html/index.en.html</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
@@ -2405,54 +2405,54 @@
       </c>
       <c r="L31" s="4" t="inlineStr">
         <is>
-          <t>fidar</t>
+          <t>ezb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Q_GBE</t>
+          <t>Q_FIDAR</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Gesundheitsberichterstattung des Bundes (GBE)</t>
+          <t>Frauen in die Aufsichtsräte e.V. (FidAR)</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>der Gesundheitsberichterstattung des Bundes</t>
+          <t>vom Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Federal Health Monitoring</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>the Federal Health Monitoring</t>
+          <t>the Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>Gesundheitsberichterstattung des Bundes</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>Federal Health Monitoring</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="H32" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/</t>
+          <t>https://www.fidar.de/</t>
         </is>
       </c>
       <c r="I32" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_isgbe?p_uid=gast&amp;p_aid=50554816&amp;p_sprache=E</t>
+          <t>https://www.fidar.de/</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
@@ -2467,54 +2467,54 @@
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>gbe</t>
+          <t>fidar</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Q_GFK</t>
+          <t>Q_GBE</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung (GfK)</t>
+          <t>Gesundheitsberichterstattung des Bundes (GBE)</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>der Gesellschaft für Konsumforschung</t>
+          <t>der Gesundheitsberichterstattung des Bundes</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Federal Health Monitoring</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>the Gesellschaft für Konsumforschung</t>
+          <t>the Federal Health Monitoring</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Gesundheitsberichterstattung des Bundes</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Federal Health Monitoring</t>
         </is>
       </c>
       <c r="H33" s="5" t="inlineStr">
         <is>
-          <t>https://www.gfk.com/de/</t>
+          <t>https://www.gbe-bund.de/gbe/</t>
         </is>
       </c>
       <c r="I33" s="5" t="inlineStr">
         <is>
-          <t>https://www.gfk.com/</t>
+          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_isgbe?p_uid=gast&amp;p_aid=50554816&amp;p_sprache=E</t>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr">
@@ -2529,54 +2529,54 @@
       </c>
       <c r="L33" s="4" t="inlineStr">
         <is>
-          <t>gfk</t>
+          <t>gbe</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Q_GIZ</t>
+          <t>Q_GFK</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ)</t>
+          <t>Gesellschaft für Konsumforschung (GfK)</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>der Deutschen Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>der Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH(GIZ)</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>the Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>the Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="H34" s="5" t="inlineStr">
         <is>
-          <t>https://www.giz.de/de/html/index.html</t>
+          <t>https://www.gfk.com/de/</t>
         </is>
       </c>
       <c r="I34" s="5" t="inlineStr">
         <is>
-          <t>https://www.giz.de/en/html/index.html</t>
+          <t>https://www.gfk.com/</t>
         </is>
       </c>
       <c r="J34" s="4" t="inlineStr">
@@ -2591,54 +2591,54 @@
       </c>
       <c r="L34" s="4" t="inlineStr">
         <is>
-          <t>giz</t>
+          <t>gfk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>Q_GHSI</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH (ifeu)</t>
+          <t>Global Health Security Index (GHSI)</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>des Instituts für Energie- und Umweltforschung Heidelberg gGmbH</t>
+          <t>vom GHSI</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Institute for Energy and Environmental Research</t>
+          <t>Global Health Security Index (GHSI)</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>the Institute for Energy and Environmental Research</t>
+          <t>the GHSI</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
+          <t>Global Health Security Index</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>Institute for Energy and Environmental Research</t>
+          <t>Global Health Security Index</t>
         </is>
       </c>
       <c r="H35" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/</t>
+          <t>https://ghsindex.org/</t>
         </is>
       </c>
       <c r="I35" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/en/</t>
+          <t>https://ghsindex.org/</t>
         </is>
       </c>
       <c r="J35" s="4" t="inlineStr">
@@ -2653,54 +2653,54 @@
       </c>
       <c r="L35" s="4" t="inlineStr">
         <is>
-          <t>ifeu</t>
+          <t>ghsi</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Q_JHT</t>
+          <t>Q_GIZ</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen-Institut (TI)</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ)</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>des Johann Heinrich von Thünen-Instituts</t>
+          <t>der Deutschen Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen Institute</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH(GIZ)</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>the Johann Heinrich von Thünen Institute</t>
+          <t>the Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen-Institut</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen Institute</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="H36" s="5" t="inlineStr">
         <is>
-          <t>https://www.thuenen.de/de/</t>
+          <t>https://www.giz.de/de/html/index.html</t>
         </is>
       </c>
       <c r="I36" s="5" t="inlineStr">
         <is>
-          <t>https://www.thuenen.de/en/</t>
+          <t>https://www.giz.de/en/html/index.html</t>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr">
@@ -2715,54 +2715,54 @@
       </c>
       <c r="L36" s="4" t="inlineStr">
         <is>
-          <t>jht</t>
+          <t>giz</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Q_JKI</t>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut (JKI)</t>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH (ifeu)</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>des Instituts für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
+          <t>des Instituts für Energie- und Umweltforschung Heidelberg gGmbH</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>the Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>the Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="H37" s="5" t="inlineStr">
         <is>
-          <t>https://www.julius-kuehn.de/pb/</t>
+          <t>https://www.ifeu.de/</t>
         </is>
       </c>
       <c r="I37" s="5" t="inlineStr">
         <is>
-          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
+          <t>https://www.ifeu.de/en/</t>
         </is>
       </c>
       <c r="J37" s="4" t="inlineStr">
@@ -2777,54 +2777,54 @@
       </c>
       <c r="L37" s="4" t="inlineStr">
         <is>
-          <t>jki</t>
+          <t>ifeu</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Q_KBA</t>
+          <t>Q_JHT</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrt-Bundesamt (KBA)</t>
+          <t>Johann Heinrich von Thünen-Institut (TI)</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>des Kraftfahrt-Bundesamts</t>
+          <t>des Johann Heinrich von Thünen-Instituts</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Federal Motor Transport Authority</t>
+          <t>Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>the Federal Motor Transport Authority</t>
+          <t>the Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrt-Bundesamt</t>
+          <t>Johann Heinrich von Thünen-Institut</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
-          <t>Federal Motor Transport Authority</t>
+          <t>Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="H38" s="5" t="inlineStr">
         <is>
-          <t>https://www.kba.de/DE/Home/home_node.html</t>
+          <t>https://www.thuenen.de/de/</t>
         </is>
       </c>
       <c r="I38" s="5" t="inlineStr">
         <is>
-          <t>https://www.kba.de/EN/Home/home_node.html</t>
+          <t>https://www.thuenen.de/en/</t>
         </is>
       </c>
       <c r="J38" s="4" t="inlineStr">
@@ -2839,54 +2839,54 @@
       </c>
       <c r="L38" s="4" t="inlineStr">
         <is>
-          <t>kba</t>
+          <t>jht</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Q_KFW</t>
+          <t>Q_JKI</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut (JKI)</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>der Kreditanstalt für Wiederaufbau</t>
+          <t>des Instituts für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>the Kreditanstalt für Wiederaufbau</t>
+          <t>the Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau</t>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="H39" s="5" t="inlineStr">
         <is>
-          <t>https://www.kfw.de/kfw.de.html</t>
+          <t>https://www.julius-kuehn.de/pb/</t>
         </is>
       </c>
       <c r="I39" s="5" t="inlineStr">
         <is>
-          <t>https://www.kfw.de/kfw.de-2.html</t>
+          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr">
@@ -2901,54 +2901,54 @@
       </c>
       <c r="L39" s="4" t="inlineStr">
         <is>
-          <t>kfw</t>
+          <t>jki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Q_KNB</t>
+          <t>Q_KBA</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern (KNB) </t>
+          <t>Kraftfahrt-Bundesamt (KBA)</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>der Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern</t>
+          <t>des Kraftfahrt-Bundesamts</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Center of Excellence for Sustainable Procurement</t>
+          <t>Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>the Center of Excellence for Sustainable Procurement</t>
+          <t>the Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
+          <t>Kraftfahrt-Bundesamt</t>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>Competence Center for Sustainable Procurement</t>
+          <t>Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="H40" s="5" t="inlineStr">
         <is>
-          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
+          <t>https://www.kba.de/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="I40" s="5" t="inlineStr">
         <is>
-          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
+          <t>https://www.kba.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
@@ -2963,54 +2963,54 @@
       </c>
       <c r="L40" s="4" t="inlineStr">
         <is>
-          <t>knb</t>
+          <t>kba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_KFW</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis (LAK) Energiebilanzen</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>des Länderarbeitskreises Energiebilanzen</t>
+          <t>der Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis Energiebilanzen</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis Energiebilanzen</t>
+          <t>Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>LAK Energiebilanzen</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="H41" s="5" t="inlineStr">
         <is>
-          <t>http://www.lak-energiebilanzen.de/</t>
+          <t>https://www.kfw.de/kfw.de.html</t>
         </is>
       </c>
       <c r="I41" s="5" t="inlineStr">
         <is>
-          <t>http://www.lak-energiebilanzen.de/</t>
+          <t>https://www.kfw.de/kfw.de-2.html</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
@@ -3025,54 +3025,54 @@
       </c>
       <c r="L41" s="4" t="inlineStr">
         <is>
-          <t>lakeb</t>
+          <t>kfw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_KMLHE</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren (LIKI)</t>
+          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>der Länderinitiative Kernindikatoren</t>
+          <t>x</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>the Länderinitiative Kernindikatoren</t>
+          <t>x</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="H42" s="5" t="inlineStr">
         <is>
-          <t>https://www.lanuv.nrw.de/liki/index.php</t>
+          <t/>
         </is>
       </c>
       <c r="I42" s="5" t="inlineStr">
         <is>
-          <t>https://www.lanuv.nrw.de/liki/index.php</t>
+          <t/>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr">
@@ -3087,54 +3087,54 @@
       </c>
       <c r="L42" s="4" t="inlineStr">
         <is>
-          <t>liki</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_KNB</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD)</t>
+          <t>Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern (KNB) </t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>der Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>Center of Excellence for Sustainable Procurement</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>the Organisation for Economic Co-operation and Development</t>
+          <t>the Center of Excellence for Sustainable Procurement</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>Competence Center for Sustainable Procurement</t>
         </is>
       </c>
       <c r="H43" s="5" t="inlineStr">
         <is>
-          <t>https://www.oecd.org/</t>
+          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="I43" s="5" t="inlineStr">
         <is>
-          <t>https://www.oecd.org/</t>
+          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr">
@@ -3149,54 +3149,54 @@
       </c>
       <c r="L43" s="4" t="inlineStr">
         <is>
-          <t>oecd</t>
+          <t>knb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Q_RKI</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut (RKI)</t>
+          <t>Länderarbeitskreis (LAK) Energiebilanzen</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>des Robert Koch-Instituts</t>
+          <t>des Länderarbeitskreises Energiebilanzen</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch Institute</t>
+          <t>Länderarbeitskreis Energiebilanzen</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>the Robert Koch Institute</t>
+          <t/>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut</t>
+          <t>Länderarbeitskreis Energiebilanzen</t>
         </is>
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch Institute</t>
+          <t>LAK Energiebilanzen</t>
         </is>
       </c>
       <c r="H44" s="5" t="inlineStr">
         <is>
-          <t>https://www.rki.de/DE/Home/homepage_node.html</t>
+          <t>http://www.lak-energiebilanzen.de/</t>
         </is>
       </c>
       <c r="I44" s="5" t="inlineStr">
         <is>
-          <t>https://www.rki.de/EN/Home/homepage_node.html</t>
+          <t>http://www.lak-energiebilanzen.de/</t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
@@ -3211,54 +3211,54 @@
       </c>
       <c r="L44" s="4" t="inlineStr">
         <is>
-          <t>rki</t>
+          <t>lakeb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Länderinitiative Kernindikatoren (LIKI)</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>des Stifterverbands Wissenschaftsstatistik</t>
+          <t>der Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>the Stifterverband Wissenschaftsstatistik</t>
+          <t>the Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="H45" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/</t>
+          <t>https://www.lanuv.nrw.de/liki/index.php</t>
         </is>
       </c>
       <c r="I45" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/english</t>
+          <t>https://www.lanuv.nrw.de/liki/index.php</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr">
@@ -3273,54 +3273,54 @@
       </c>
       <c r="L45" s="4" t="inlineStr">
         <is>
-          <t>svws</t>
+          <t>liki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD)</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>von Transparency International</t>
+          <t>der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>Transparency International</t>
+          <t>the Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="H46" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.de/</t>
+          <t>https://www.oecd.org/</t>
         </is>
       </c>
       <c r="I46" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.de/en/</t>
+          <t>https://www.oecd.org/</t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">
@@ -3335,54 +3335,54 @@
       </c>
       <c r="L46" s="4" t="inlineStr">
         <is>
-          <t>ta</t>
+          <t>oecd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_RKI</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt (UBA)</t>
+          <t>Robert Koch-Institut (RKI)</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>des Umweltbundesamts</t>
+          <t>des Robert Koch-Instituts</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency</t>
+          <t>Robert Koch Institute</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>the German Environment Agency</t>
+          <t>the Robert Koch Institute</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt</t>
+          <t>Robert Koch-Institut</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency</t>
+          <t>Robert Koch Institute</t>
         </is>
       </c>
       <c r="H47" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/</t>
+          <t>https://www.rki.de/DE/Home/homepage_node.html</t>
         </is>
       </c>
       <c r="I47" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en</t>
+          <t>https://www.rki.de/EN/Home/homepage_node.html</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
@@ -3397,54 +3397,54 @@
       </c>
       <c r="L47" s="4" t="inlineStr">
         <is>
-          <t>uba</t>
+          <t>rki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA_1</t>
+          <t>Q_SVWS</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>des Umweltbundesamts</t>
+          <t>des Stifterverbands Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency (as reported by the Länder and by river basin commissions)</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>the German Environment Agency</t>
+          <t>the Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="H48" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/</t>
+          <t>https://www.stifterverband.org/</t>
         </is>
       </c>
       <c r="I48" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en</t>
+          <t>https://www.stifterverband.org/english</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
@@ -3459,54 +3459,54 @@
       </c>
       <c r="L48" s="4" t="inlineStr">
         <is>
-          <t>uba</t>
+          <t>svws</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Q_UBALAWA</t>
+          <t>Q_TA</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>des Umweltbundesamts</t>
+          <t>von Transparency International</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>the German Environment Agency</t>
+          <t>Transparency International</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="H49" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/</t>
+          <t>https://www.transparency.de/</t>
         </is>
       </c>
       <c r="I49" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en</t>
+          <t>https://www.transparency.de/en/</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
@@ -3521,54 +3521,54 @@
       </c>
       <c r="L49" s="4" t="inlineStr">
         <is>
-          <t>uba</t>
+          <t>ta</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Q_UG</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+          <t>Umweltbundesamt (UBA)</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>der Universität Gießen</t>
+          <t>des Umweltbundesamts</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
+          <t>German Environment Agency</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>the University of Giessen</t>
+          <t>the German Environment Agency</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+          <t>Umweltbundesamt</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
+          <t>German Environment Agency</t>
         </is>
       </c>
       <c r="H50" s="5" t="inlineStr">
         <is>
-          <t>https://www.uni-giessen.de/fbz/fb09/institute/ilr</t>
+          <t>https://www.umweltbundesamt.de/</t>
         </is>
       </c>
       <c r="I50" s="5" t="inlineStr">
         <is>
-          <t>https://www.uni-giessen.de/faculties/f09/institutes/landscape?set_language=en</t>
+          <t>https://www.umweltbundesamt.de/en</t>
         </is>
       </c>
       <c r="J50" s="4" t="inlineStr">
@@ -3583,54 +3583,54 @@
       </c>
       <c r="L50" s="4" t="inlineStr">
         <is>
-          <t>ug</t>
+          <t>uba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Q_VCD</t>
+          <t>Q_UBA_1</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V. (VCD)</t>
+          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>des Verkehrsclub Deutschlands</t>
+          <t>des Umweltbundesamts</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions)</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>the Verkehrsclub Deutschland e.V.</t>
+          <t>the German Environment Agency</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
         </is>
       </c>
       <c r="H51" s="5" t="inlineStr">
         <is>
-          <t>https://www.vcd.org/startseite/</t>
+          <t>https://www.umweltbundesamt.de/</t>
         </is>
       </c>
       <c r="I51" s="5" t="inlineStr">
         <is>
-          <t>https://www.vcd.org/startseite/</t>
+          <t>https://www.umweltbundesamt.de/en</t>
         </is>
       </c>
       <c r="J51" s="4" t="inlineStr">
@@ -3645,54 +3645,54 @@
       </c>
       <c r="L51" s="4" t="inlineStr">
         <is>
-          <t>vcd</t>
+          <t>uba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_UBALAWA</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>der Statistischen Ämter der Länder</t>
+          <t>des Umweltbundesamts</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>the Statistische Ämter des Bundes und der Länder</t>
+          <t>the German Environment Agency</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser</t>
         </is>
       </c>
       <c r="G52" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government</t>
         </is>
       </c>
       <c r="H52" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+          <t>https://www.umweltbundesamt.de/</t>
         </is>
       </c>
       <c r="I52" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+          <t>https://www.umweltbundesamt.de/en</t>
         </is>
       </c>
       <c r="J52" s="4" t="inlineStr">
@@ -3707,67 +3707,253 @@
       </c>
       <c r="L52" s="4" t="inlineStr">
         <is>
-          <t>vwgdl</t>
+          <t>uba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
+          <t>Q_UG</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>der Universität Gießen</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
+        </is>
+      </c>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>the University of Giessen</t>
+        </is>
+      </c>
+      <c r="F53" s="4" t="inlineStr">
+        <is>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+        </is>
+      </c>
+      <c r="G53" s="4" t="inlineStr">
+        <is>
+          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
+        </is>
+      </c>
+      <c r="H53" s="5" t="inlineStr">
+        <is>
+          <t>https://www.uni-giessen.de/fbz/fb09/institute/ilr</t>
+        </is>
+      </c>
+      <c r="I53" s="5" t="inlineStr">
+        <is>
+          <t>https://www.uni-giessen.de/faculties/f09/institutes/landscape?set_language=en</t>
+        </is>
+      </c>
+      <c r="J53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L53" s="4" t="inlineStr">
+        <is>
+          <t>ug</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>Q_VCD</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>Verkehrsclub Deutschland e.V. (VCD)</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>des Verkehrsclub Deutschlands</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>Verkehrsclub Deutschland e.V.</t>
+        </is>
+      </c>
+      <c r="E54" s="4" t="inlineStr">
+        <is>
+          <t>the Verkehrsclub Deutschland e.V.</t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>Verkehrsclub Deutschland e.V.</t>
+        </is>
+      </c>
+      <c r="G54" s="4" t="inlineStr">
+        <is>
+          <t>Verkehrsclub Deutschland e.V.</t>
+        </is>
+      </c>
+      <c r="H54" s="5" t="inlineStr">
+        <is>
+          <t>https://www.vcd.org/startseite/</t>
+        </is>
+      </c>
+      <c r="I54" s="5" t="inlineStr">
+        <is>
+          <t>https://www.vcd.org/startseite/</t>
+        </is>
+      </c>
+      <c r="J54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L54" s="4" t="inlineStr">
+        <is>
+          <t>vcd</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>Q_VWGDL</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>der Statistischen Ämter der Länder</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>the Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="F55" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="G55" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="H55" s="5" t="inlineStr">
+        <is>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+        </is>
+      </c>
+      <c r="I55" s="5" t="inlineStr">
+        <is>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+        </is>
+      </c>
+      <c r="J55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L55" s="4" t="inlineStr">
+        <is>
+          <t>vwgdl</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="4" t="inlineStr">
+        <is>
           <t>Q_WHO</t>
         </is>
       </c>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="B56" s="4" t="inlineStr">
         <is>
           <t>Weltgesundheitsorganisation (WHO)</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="C56" s="4" t="inlineStr">
         <is>
           <t>der Weltgesundheitsorganisation</t>
         </is>
       </c>
-      <c r="D53" s="4" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>World Health Organization</t>
         </is>
       </c>
-      <c r="E53" s="4" t="inlineStr">
+      <c r="E56" s="4" t="inlineStr">
         <is>
           <t>the World Health Organization</t>
         </is>
       </c>
-      <c r="F53" s="4" t="inlineStr">
+      <c r="F56" s="4" t="inlineStr">
         <is>
           <t>Weltgesundheitsorganisation</t>
         </is>
       </c>
-      <c r="G53" s="4" t="inlineStr">
+      <c r="G56" s="4" t="inlineStr">
         <is>
           <t>World Health Organization</t>
         </is>
       </c>
-      <c r="H53" s="5" t="inlineStr">
+      <c r="H56" s="5" t="inlineStr">
         <is>
           <t>http://www.euro.who.int/de/home</t>
         </is>
       </c>
-      <c r="I53" s="5" t="inlineStr">
+      <c r="I56" s="5" t="inlineStr">
         <is>
           <t>http://www.euro.who.int/en/home</t>
         </is>
       </c>
-      <c r="J53" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K53" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L53" s="4" t="inlineStr">
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L56" s="4" t="inlineStr">
         <is>
           <t>who</t>
         </is>
@@ -3782,14 +3968,18 @@
     <hyperlink ref="I12" r:id="rId5"/>
     <hyperlink ref="H14" r:id="rId6"/>
     <hyperlink ref="I14" r:id="rId7"/>
-    <hyperlink ref="H19" r:id="rId8"/>
-    <hyperlink ref="I19" r:id="rId9"/>
-    <hyperlink ref="H23" r:id="rId10"/>
-    <hyperlink ref="I23" r:id="rId11"/>
+    <hyperlink ref="H17" r:id="rId8"/>
+    <hyperlink ref="I17" r:id="rId9"/>
+    <hyperlink ref="H20" r:id="rId10"/>
+    <hyperlink ref="I20" r:id="rId11"/>
     <hyperlink ref="H24" r:id="rId12"/>
     <hyperlink ref="I24" r:id="rId13"/>
-    <hyperlink ref="H45" r:id="rId14"/>
-    <hyperlink ref="I45" r:id="rId15"/>
+    <hyperlink ref="H25" r:id="rId14"/>
+    <hyperlink ref="I25" r:id="rId15"/>
+    <hyperlink ref="H35" r:id="rId16"/>
+    <hyperlink ref="I35" r:id="rId17"/>
+    <hyperlink ref="H48" r:id="rId18"/>
+    <hyperlink ref="I48" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2722,47 +2722,47 @@
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>Q_IAB</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH (ifeu)</t>
+          <t>Institut für Arbeitsmarkt- und Berufsforschung (IAB)</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>des Instituts für Energie- und Umweltforschung Heidelberg gGmbH</t>
+          <t>des Instituts für Arbeitsmarkt- und Berufsforschung</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Institute for Energy and Environmental Research</t>
+          <t>Institut for Employment Research</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>the Institute for Energy and Environmental Research</t>
+          <t>the Institut for Employment Research</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
+          <t>Institut für Arbeitsmarkt- und Berufsforschung</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>Institute for Energy and Environmental Research</t>
+          <t>Institut for Employment Research</t>
         </is>
       </c>
       <c r="H37" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/</t>
+          <t>https://iab.de/</t>
         </is>
       </c>
       <c r="I37" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/en/</t>
+          <t>https://iab.de/en/</t>
         </is>
       </c>
       <c r="J37" s="4" t="inlineStr">
@@ -2777,54 +2777,54 @@
       </c>
       <c r="L37" s="4" t="inlineStr">
         <is>
-          <t>ifeu</t>
+          <t>iab</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Q_JHT</t>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen-Institut (TI)</t>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH (ifeu)</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>des Johann Heinrich von Thünen-Instituts</t>
+          <t>des Instituts für Energie- und Umweltforschung Heidelberg gGmbH</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen Institute</t>
+          <t>Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>the Johann Heinrich von Thünen Institute</t>
+          <t>the Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen-Institut</t>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen Institute</t>
+          <t>Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="H38" s="5" t="inlineStr">
         <is>
-          <t>https://www.thuenen.de/de/</t>
+          <t>https://www.ifeu.de/</t>
         </is>
       </c>
       <c r="I38" s="5" t="inlineStr">
         <is>
-          <t>https://www.thuenen.de/en/</t>
+          <t>https://www.ifeu.de/en/</t>
         </is>
       </c>
       <c r="J38" s="4" t="inlineStr">
@@ -2839,54 +2839,54 @@
       </c>
       <c r="L38" s="4" t="inlineStr">
         <is>
-          <t>jht</t>
+          <t>ifeu</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Q_JKI</t>
+          <t>Q_JHT</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut (JKI)</t>
+          <t>Johann Heinrich von Thünen-Institut (TI)</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>des Instituts für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
+          <t>des Johann Heinrich von Thünen-Instituts</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>the Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>the Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
+          <t>Johann Heinrich von Thünen-Institut</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="H39" s="5" t="inlineStr">
         <is>
-          <t>https://www.julius-kuehn.de/pb/</t>
+          <t>https://www.thuenen.de/de/</t>
         </is>
       </c>
       <c r="I39" s="5" t="inlineStr">
         <is>
-          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
+          <t>https://www.thuenen.de/en/</t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr">
@@ -2901,54 +2901,54 @@
       </c>
       <c r="L39" s="4" t="inlineStr">
         <is>
-          <t>jki</t>
+          <t>jht</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Q_KBA</t>
+          <t>Q_JKI</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrt-Bundesamt (KBA)</t>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut (JKI)</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>des Kraftfahrt-Bundesamts</t>
+          <t>des Instituts für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Federal Motor Transport Authority</t>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>the Federal Motor Transport Authority</t>
+          <t>the Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrt-Bundesamt</t>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>Federal Motor Transport Authority</t>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="H40" s="5" t="inlineStr">
         <is>
-          <t>https://www.kba.de/DE/Home/home_node.html</t>
+          <t>https://www.julius-kuehn.de/pb/</t>
         </is>
       </c>
       <c r="I40" s="5" t="inlineStr">
         <is>
-          <t>https://www.kba.de/EN/Home/home_node.html</t>
+          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
@@ -2963,54 +2963,54 @@
       </c>
       <c r="L40" s="4" t="inlineStr">
         <is>
-          <t>kba</t>
+          <t>jki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Q_KFW</t>
+          <t>Q_KBA</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Kraftfahrt-Bundesamt (KBA)</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>der Kreditanstalt für Wiederaufbau</t>
+          <t>des Kraftfahrt-Bundesamts</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>the Kreditanstalt für Wiederaufbau</t>
+          <t>the Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau</t>
+          <t>Kraftfahrt-Bundesamt</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="H41" s="5" t="inlineStr">
         <is>
-          <t>https://www.kfw.de/kfw.de.html</t>
+          <t>https://www.kba.de/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="I41" s="5" t="inlineStr">
         <is>
-          <t>https://www.kfw.de/kfw.de-2.html</t>
+          <t>https://www.kba.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
@@ -3025,54 +3025,54 @@
       </c>
       <c r="L41" s="4" t="inlineStr">
         <is>
-          <t>kfw</t>
+          <t>kba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Q_KMLHE</t>
+          <t>Q_KFW</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>der Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>the Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t>Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="H42" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.kfw.de/kfw.de.html</t>
         </is>
       </c>
       <c r="I42" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.kfw.de/kfw.de-2.html</t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr">
@@ -3087,54 +3087,54 @@
       </c>
       <c r="L42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>kfw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Q_KNB</t>
+          <t>Q_KMLHE</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern (KNB) </t>
+          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>der Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern</t>
+          <t>x</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Center of Excellence for Sustainable Procurement</t>
+          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>the Center of Excellence for Sustainable Procurement</t>
+          <t>x</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
+          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>Competence Center for Sustainable Procurement</t>
+          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="H43" s="5" t="inlineStr">
         <is>
-          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
+          <t/>
         </is>
       </c>
       <c r="I43" s="5" t="inlineStr">
         <is>
-          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
+          <t/>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr">
@@ -3149,54 +3149,54 @@
       </c>
       <c r="L43" s="4" t="inlineStr">
         <is>
-          <t>knb</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_KNB</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis (LAK) Energiebilanzen</t>
+          <t>Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern (KNB) </t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>des Länderarbeitskreises Energiebilanzen</t>
+          <t>der Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis Energiebilanzen</t>
+          <t>Center of Excellence for Sustainable Procurement</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Center of Excellence for Sustainable Procurement</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis Energiebilanzen</t>
+          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
         </is>
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>LAK Energiebilanzen</t>
+          <t>Competence Center for Sustainable Procurement</t>
         </is>
       </c>
       <c r="H44" s="5" t="inlineStr">
         <is>
-          <t>http://www.lak-energiebilanzen.de/</t>
+          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="I44" s="5" t="inlineStr">
         <is>
-          <t>http://www.lak-energiebilanzen.de/</t>
+          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
@@ -3211,54 +3211,54 @@
       </c>
       <c r="L44" s="4" t="inlineStr">
         <is>
-          <t>lakeb</t>
+          <t>knb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren (LIKI)</t>
+          <t>Länderarbeitskreis (LAK) Energiebilanzen</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>der Länderinitiative Kernindikatoren</t>
+          <t>des Länderarbeitskreises Energiebilanzen</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>Länderarbeitskreis Energiebilanzen</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>the Länderinitiative Kernindikatoren</t>
+          <t/>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>Länderarbeitskreis Energiebilanzen</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>LAK Energiebilanzen</t>
         </is>
       </c>
       <c r="H45" s="5" t="inlineStr">
         <is>
-          <t>https://www.lanuv.nrw.de/liki/index.php</t>
+          <t>http://www.lak-energiebilanzen.de/</t>
         </is>
       </c>
       <c r="I45" s="5" t="inlineStr">
         <is>
-          <t>https://www.lanuv.nrw.de/liki/index.php</t>
+          <t>http://www.lak-energiebilanzen.de/</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr">
@@ -3273,54 +3273,54 @@
       </c>
       <c r="L45" s="4" t="inlineStr">
         <is>
-          <t>liki</t>
+          <t>lakeb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD)</t>
+          <t>Länderinitiative Kernindikatoren (LIKI)</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>der Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>the Organisation for Economic Co-operation and Development</t>
+          <t>the Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="H46" s="5" t="inlineStr">
         <is>
-          <t>https://www.oecd.org/</t>
+          <t>https://www.lanuv.nrw.de/liki/index.php</t>
         </is>
       </c>
       <c r="I46" s="5" t="inlineStr">
         <is>
-          <t>https://www.oecd.org/</t>
+          <t>https://www.lanuv.nrw.de/liki/index.php</t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">
@@ -3335,54 +3335,54 @@
       </c>
       <c r="L46" s="4" t="inlineStr">
         <is>
-          <t>oecd</t>
+          <t>liki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Q_RKI</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut (RKI)</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD)</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>des Robert Koch-Instituts</t>
+          <t>der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch Institute</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>the Robert Koch Institute</t>
+          <t>the Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch Institute</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="H47" s="5" t="inlineStr">
         <is>
-          <t>https://www.rki.de/DE/Home/homepage_node.html</t>
+          <t>https://www.oecd.org/</t>
         </is>
       </c>
       <c r="I47" s="5" t="inlineStr">
         <is>
-          <t>https://www.rki.de/EN/Home/homepage_node.html</t>
+          <t>https://www.oecd.org/</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
@@ -3397,54 +3397,54 @@
       </c>
       <c r="L47" s="4" t="inlineStr">
         <is>
-          <t>rki</t>
+          <t>oecd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>Q_RKI</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Robert Koch-Institut (RKI)</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>des Stifterverbands Wissenschaftsstatistik</t>
+          <t>des Robert Koch-Instituts</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Robert Koch Institute</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>the Stifterverband Wissenschaftsstatistik</t>
+          <t>the Robert Koch Institute</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Robert Koch-Institut</t>
         </is>
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Robert Koch Institute</t>
         </is>
       </c>
       <c r="H48" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/</t>
+          <t>https://www.rki.de/DE/Home/homepage_node.html</t>
         </is>
       </c>
       <c r="I48" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/english</t>
+          <t>https://www.rki.de/EN/Home/homepage_node.html</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
@@ -3459,54 +3459,54 @@
       </c>
       <c r="L48" s="4" t="inlineStr">
         <is>
-          <t>svws</t>
+          <t>rki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_SVWS</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>von Transparency International</t>
+          <t>des Stifterverbands Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>Transparency International</t>
+          <t>the Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="H49" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.de/</t>
+          <t>https://www.stifterverband.org/</t>
         </is>
       </c>
       <c r="I49" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.de/en/</t>
+          <t>https://www.stifterverband.org/english</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
@@ -3521,54 +3521,54 @@
       </c>
       <c r="L49" s="4" t="inlineStr">
         <is>
-          <t>ta</t>
+          <t>svws</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_TA</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt (UBA)</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>des Umweltbundesamts</t>
+          <t>von Transparency International</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>the German Environment Agency</t>
+          <t>Transparency International</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="H50" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/</t>
+          <t>https://www.transparency.de/</t>
         </is>
       </c>
       <c r="I50" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en</t>
+          <t>https://www.transparency.de/en/</t>
         </is>
       </c>
       <c r="J50" s="4" t="inlineStr">
@@ -3583,19 +3583,19 @@
       </c>
       <c r="L50" s="4" t="inlineStr">
         <is>
-          <t>uba</t>
+          <t>ta</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA_1</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+          <t>Umweltbundesamt (UBA)</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency (as reported by the Länder and by river basin commissions)</t>
+          <t>German Environment Agency</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
@@ -3615,12 +3615,12 @@
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+          <t>Umweltbundesamt</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
+          <t>German Environment Agency</t>
         </is>
       </c>
       <c r="H51" s="5" t="inlineStr">
@@ -3652,12 +3652,12 @@
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Q_UBALAWA</t>
+          <t>Q_UBA_1</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
+          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions)</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
@@ -3677,12 +3677,12 @@
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser</t>
+          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
         </is>
       </c>
       <c r="G52" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government</t>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
         </is>
       </c>
       <c r="H52" s="5" t="inlineStr">
@@ -3714,47 +3714,47 @@
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Q_UG</t>
+          <t>Q_UBALAWA</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>der Universität Gießen</t>
+          <t>des Umweltbundesamts</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>the University of Giessen</t>
+          <t>the German Environment Agency</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government</t>
         </is>
       </c>
       <c r="H53" s="5" t="inlineStr">
         <is>
-          <t>https://www.uni-giessen.de/fbz/fb09/institute/ilr</t>
+          <t>https://www.umweltbundesamt.de/</t>
         </is>
       </c>
       <c r="I53" s="5" t="inlineStr">
         <is>
-          <t>https://www.uni-giessen.de/faculties/f09/institutes/landscape?set_language=en</t>
+          <t>https://www.umweltbundesamt.de/en</t>
         </is>
       </c>
       <c r="J53" s="4" t="inlineStr">
@@ -3769,54 +3769,54 @@
       </c>
       <c r="L53" s="4" t="inlineStr">
         <is>
-          <t>ug</t>
+          <t>uba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Q_VCD</t>
+          <t>Q_UG</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V. (VCD)</t>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>des Verkehrsclub Deutschlands</t>
+          <t>der Universität Gießen</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>the Verkehrsclub Deutschland e.V.</t>
+          <t>the University of Giessen</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
         </is>
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
         </is>
       </c>
       <c r="H54" s="5" t="inlineStr">
         <is>
-          <t>https://www.vcd.org/startseite/</t>
+          <t>https://www.uni-giessen.de/fbz/fb09/institute/ilr</t>
         </is>
       </c>
       <c r="I54" s="5" t="inlineStr">
         <is>
-          <t>https://www.vcd.org/startseite/</t>
+          <t>https://www.uni-giessen.de/faculties/f09/institutes/landscape?set_language=en</t>
         </is>
       </c>
       <c r="J54" s="4" t="inlineStr">
@@ -3831,54 +3831,54 @@
       </c>
       <c r="L54" s="4" t="inlineStr">
         <is>
-          <t>vcd</t>
+          <t>ug</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_VCD</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Verkehrsclub Deutschland e.V. (VCD)</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>der Statistischen Ämter der Länder</t>
+          <t>des Verkehrsclub Deutschlands</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>the Statistische Ämter des Bundes und der Länder</t>
+          <t>the Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="G55" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="H55" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+          <t>https://www.vcd.org/startseite/</t>
         </is>
       </c>
       <c r="I55" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+          <t>https://www.vcd.org/startseite/</t>
         </is>
       </c>
       <c r="J55" s="4" t="inlineStr">
@@ -3893,67 +3893,129 @@
       </c>
       <c r="L55" s="4" t="inlineStr">
         <is>
-          <t>vwgdl</t>
+          <t>vcd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
+          <t>Q_VWGDL</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>der Statistischen Ämter der Länder</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t>the Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="F56" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="G56" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="H56" s="5" t="inlineStr">
+        <is>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+        </is>
+      </c>
+      <c r="I56" s="5" t="inlineStr">
+        <is>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+        </is>
+      </c>
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L56" s="4" t="inlineStr">
+        <is>
+          <t>vwgdl</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
           <t>Q_WHO</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t>Weltgesundheitsorganisation (WHO)</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>der Weltgesundheitsorganisation</t>
         </is>
       </c>
-      <c r="D56" s="4" t="inlineStr">
+      <c r="D57" s="4" t="inlineStr">
         <is>
           <t>World Health Organization</t>
         </is>
       </c>
-      <c r="E56" s="4" t="inlineStr">
+      <c r="E57" s="4" t="inlineStr">
         <is>
           <t>the World Health Organization</t>
         </is>
       </c>
-      <c r="F56" s="4" t="inlineStr">
+      <c r="F57" s="4" t="inlineStr">
         <is>
           <t>Weltgesundheitsorganisation</t>
         </is>
       </c>
-      <c r="G56" s="4" t="inlineStr">
+      <c r="G57" s="4" t="inlineStr">
         <is>
           <t>World Health Organization</t>
         </is>
       </c>
-      <c r="H56" s="5" t="inlineStr">
+      <c r="H57" s="5" t="inlineStr">
         <is>
           <t>http://www.euro.who.int/de/home</t>
         </is>
       </c>
-      <c r="I56" s="5" t="inlineStr">
+      <c r="I57" s="5" t="inlineStr">
         <is>
           <t>http://www.euro.who.int/en/home</t>
         </is>
       </c>
-      <c r="J56" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K56" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L56" s="4" t="inlineStr">
+      <c r="J57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L57" s="4" t="inlineStr">
         <is>
           <t>who</t>
         </is>
@@ -3978,8 +4040,10 @@
     <hyperlink ref="I25" r:id="rId15"/>
     <hyperlink ref="H35" r:id="rId16"/>
     <hyperlink ref="I35" r:id="rId17"/>
-    <hyperlink ref="H48" r:id="rId18"/>
-    <hyperlink ref="I48" r:id="rId19"/>
+    <hyperlink ref="H37" r:id="rId18"/>
+    <hyperlink ref="I37" r:id="rId19"/>
+    <hyperlink ref="H49" r:id="rId20"/>
+    <hyperlink ref="I49" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -473,7 +473,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" min="1" max="1" width="13.8359375"/>
+    <col customWidth="true" min="1" max="1" width="19.62890625"/>
     <col customWidth="true" min="2" max="2" width="65.91796875"/>
     <col customWidth="true" min="3" max="3" width="44.3828125"/>
     <col customWidth="true" min="4" max="4" width="78.80859375"/>
@@ -1172,47 +1172,47 @@
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Q_BKM</t>
+          <t>Q_BKG</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
+          <t>Bundesamt für Kartographie und Geodäsie (BKG)</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>der Beauftragten der Bundesregierung für Kultur und Medien</t>
+          <t>vom BKG</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Federal Government Commissioner for Culture and the Media</t>
+          <t>Federal Agency for Cartography and Geodesy</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>the Federal Government Commissioner for Culture and the Media</t>
+          <t>the BKG</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
+          <t>Bundesamt für Kartographie und Geodäsie</t>
         </is>
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>Federal Government Commissioner for Culture and the Media</t>
+          <t>Federal Agency for Cartography and Geodesy</t>
         </is>
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>https://www.kulturstaatsministerin.de/DE/startseite/startseite_node.html</t>
+          <t>https://www.bkg.bund.de/DE/Home/home.html</t>
         </is>
       </c>
       <c r="I12" s="5" t="inlineStr">
         <is>
-          <t>https://www.kulturstaatsministerin.de/DE/startseite/startseite_node.html</t>
+          <t>https://www.bkg.bund.de/EN/Home/</t>
         </is>
       </c>
       <c r="J12" s="4" t="inlineStr">
@@ -1227,54 +1227,54 @@
       </c>
       <c r="L12" s="4" t="inlineStr">
         <is>
-          <t>bkm</t>
+          <t>bkg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Q_BMBF</t>
+          <t>Q_BKM</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Bildung und Forschung (BMBF)</t>
+          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Bildung und Frschung</t>
+          <t>der Beauftragten der Bundesregierung für Kultur und Medien</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Education and Research</t>
+          <t>Federal Government Commissioner for Culture and the Media</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry of Education and Research</t>
+          <t>the Federal Government Commissioner for Culture and the Media</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Bildung und Forschung</t>
+          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Education and Research</t>
+          <t>Federal Government Commissioner for Culture and the Media</t>
         </is>
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmbf.de/</t>
+          <t>https://www.kulturstaatsministerin.de/DE/startseite/startseite_node.html</t>
         </is>
       </c>
       <c r="I13" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmbf.de/bmbf/en/</t>
+          <t>https://www.kulturstaatsministerin.de/DE/startseite/startseite_node.html</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
@@ -1289,54 +1289,54 @@
       </c>
       <c r="L13" s="4" t="inlineStr">
         <is>
-          <t>bmbf</t>
+          <t>bkm</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Q_BMDV</t>
+          <t>Q_BMBF</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Digitales und Verkehr (BMDV)</t>
+          <t>Bundesministerium für Bildung und Forschung (BMBF)</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Digitales und Verkehr</t>
+          <t>des Bundesministeriums für Bildung und Frschung</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Digital and Transport</t>
+          <t>Federal Ministry of Education and Research</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry for Digital and Transport</t>
+          <t>the Federal Ministry of Education and Research</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Digitales und Verkehr</t>
+          <t>Bundesministerium für Bildung und Forschung</t>
         </is>
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Digital and Transport</t>
+          <t>Federal Ministry of Education and Research</t>
         </is>
       </c>
       <c r="H14" s="5" t="inlineStr">
         <is>
-          <t>https://bmdv.bund.de/DE/Home/home.html</t>
+          <t>https://www.bmbf.de/</t>
         </is>
       </c>
       <c r="I14" s="5" t="inlineStr">
         <is>
-          <t>https://bmdv.bund.de/EN/Home/home.html</t>
+          <t>https://www.bmbf.de/bmbf/en/</t>
         </is>
       </c>
       <c r="J14" s="4" t="inlineStr">
@@ -1351,54 +1351,54 @@
       </c>
       <c r="L14" s="4" t="inlineStr">
         <is>
-          <t>bmdv</t>
+          <t>bmbf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Q_BMEL</t>
+          <t>Q_BMDV</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Ernährung und Landwirtschaft (BMEL)</t>
+          <t>Bundesministerium für Digitales und Verkehr (BMDV)</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Ernährung und Landwirtschaft</t>
+          <t>des Bundesministeriums für Digitales und Verkehr</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>Federal Ministry for Digital and Transport</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry of Food and Agriculture</t>
+          <t>the Federal Ministry for Digital and Transport</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
+          <t>Bundesministerium für Digitales und Verkehr</t>
         </is>
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>Federal Ministry for Digital and Transport</t>
         </is>
       </c>
       <c r="H15" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmel.de/DE/Startseite/startseite_node.html</t>
+          <t>https://bmdv.bund.de/DE/Home/home.html</t>
         </is>
       </c>
       <c r="I15" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmel.de/EN/Home/home_node.html</t>
+          <t>https://bmdv.bund.de/EN/Home/home.html</t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
@@ -1413,54 +1413,54 @@
       </c>
       <c r="L15" s="4" t="inlineStr">
         <is>
-          <t>bmel</t>
+          <t>bmdv</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Q_BMF</t>
+          <t>Q_BMEL</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Finanzen (BMF)</t>
+          <t>Bundesministerium für Ernährung und Landwirtschaft (BMEL)</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums der Finanzen</t>
+          <t>des Bundesministeriums für Ernährung und Landwirtschaft</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Finance</t>
+          <t>Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry of Finance</t>
+          <t>the Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Finanzen</t>
+          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
         </is>
       </c>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Finance</t>
+          <t>Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
       <c r="H16" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesfinanzministerium.de/Web/DE/Home/home.html</t>
+          <t>https://www.bmel.de/DE/Startseite/startseite_node.html</t>
         </is>
       </c>
       <c r="I16" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesfinanzministerium.de/Web/EN/Home/home.html</t>
+          <t>https://www.bmel.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
@@ -1475,54 +1475,54 @@
       </c>
       <c r="L16" s="4" t="inlineStr">
         <is>
-          <t>bmf</t>
+          <t>bmel</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Q_BMFSFJ</t>
+          <t>Q_BMF</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
+          <t>Bundesministerium der Finanzen (BMF)</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
+          <t>des Bundesministeriums der Finanzen</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
+          <t>Federal Ministry of Finance</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
+          <t>the Federal Ministry of Finance</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
+          <t>Bundesministerium der Finanzen</t>
         </is>
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
+          <t>Federal Ministry of Finance</t>
         </is>
       </c>
       <c r="H17" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmfsfj.de/</t>
+          <t>https://www.bundesfinanzministerium.de/Web/DE/Home/home.html</t>
         </is>
       </c>
       <c r="I17" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmfsfj.de/en</t>
+          <t>https://www.bundesfinanzministerium.de/Web/EN/Home/home.html</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
@@ -1537,54 +1537,54 @@
       </c>
       <c r="L17" s="4" t="inlineStr">
         <is>
-          <t>bmfsfj</t>
+          <t>bmf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Q_BMG</t>
+          <t>Q_BMFSFJ</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Gesundheit (BMG)</t>
+          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Gesundheit</t>
+          <t>des Bundesministeriums für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Health</t>
+          <t>Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry of Health</t>
+          <t>the Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Gesundheit</t>
+          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Health</t>
+          <t>Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
         </is>
       </c>
       <c r="H18" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesgesundheitsministerium.de/</t>
+          <t>https://www.bmfsfj.de/</t>
         </is>
       </c>
       <c r="I18" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesgesundheitsministerium.de/en/</t>
+          <t>https://www.bmfsfj.de/en</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
@@ -1599,54 +1599,54 @@
       </c>
       <c r="L18" s="4" t="inlineStr">
         <is>
-          <t>bmg</t>
+          <t>bmfsfj</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Q_BMWK</t>
+          <t>Q_BMG</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Wirtschaft und Klimaschutz (BMWK)</t>
+          <t>Bundesministerium für Gesundheit (BMG)</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Wirtschaft und Klimaschutz</t>
+          <t>des Bundesministeriums für Gesundheit</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Affairs and Climate Action</t>
+          <t>Federal Ministry of Health</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry for Economic Affairs and Climate Action</t>
+          <t>the Federal Ministry of Health</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Wirtschaft und Klimaschutz</t>
+          <t>Bundesministerium für Gesundheit</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Affairs and Climate Action</t>
+          <t>Federal Ministry of Health</t>
         </is>
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmwi.de/Navigation/DE/Home/home.html</t>
+          <t>https://www.bundesgesundheitsministerium.de/</t>
         </is>
       </c>
       <c r="I19" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmwi.de/Navigation/EN/Home/home.html</t>
+          <t>https://www.bundesgesundheitsministerium.de/en/</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1661,54 +1661,54 @@
       </c>
       <c r="L19" s="4" t="inlineStr">
         <is>
-          <t>bmwk</t>
+          <t>bmg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_BMWK</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ)</t>
+          <t>Bundesministerium für Wirtschaft und Klimaschutz (BMWK)</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>des Bundesministeriums für Wirtschaft und Klimaschutz</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t>Federal Ministry for Economic Affairs and Climate Action</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry for Economic Cooperation and Development</t>
+          <t>the Federal Ministry for Economic Affairs and Climate Action</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Bundesministerium für Wirtschaft und Klimaschutz</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t>Federal Ministry for Economic Affairs and Climate Action</t>
         </is>
       </c>
       <c r="H20" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de</t>
+          <t>https://www.bmwi.de/Navigation/DE/Home/home.html</t>
         </is>
       </c>
       <c r="I20" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/en</t>
+          <t>https://www.bmwi.de/Navigation/EN/Home/home.html</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -1723,54 +1723,54 @@
       </c>
       <c r="L20" s="4" t="inlineStr">
         <is>
-          <t>bmz</t>
+          <t>bmwk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Q_BOLW</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Bund Ökologische Lebensmittelwirtschaft e. V. (BÖLW)</t>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ)</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>des Bunds Ökologische Lebensmittelwirtschaft e. V.</t>
+          <t>des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>Organic Food Production Alliance</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>the Organic Food Production Alliance</t>
+          <t>the Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>Bund Ökologische Lebensmittelwirtschaft e. V.</t>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>Organic Food Production Alliance</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
       <c r="H21" s="5" t="inlineStr">
         <is>
-          <t>https://www.boelw.de/</t>
+          <t>https://www.bmz.de/de</t>
         </is>
       </c>
       <c r="I21" s="5" t="inlineStr">
         <is>
-          <t>https://www.boelw.de/</t>
+          <t>https://www.bmz.de/en</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1785,54 +1785,54 @@
       </c>
       <c r="L21" s="4" t="inlineStr">
         <is>
-          <t>bolw</t>
+          <t>bmz</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Q_BUNDESBANK</t>
+          <t>Q_BOLW</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Bundesbank (BBk)</t>
+          <t>Bund Ökologische Lebensmittelwirtschaft e. V. (BÖLW)</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>der Deutschen Bundesbank</t>
+          <t>des Bunds Ökologische Lebensmittelwirtschaft e. V.</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>German Federal Bank</t>
+          <t>Organic Food Production Alliance</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>the German Federal Bank</t>
+          <t>the Organic Food Production Alliance</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Bundesbank</t>
+          <t>Bund Ökologische Lebensmittelwirtschaft e. V.</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>German Federal Bank</t>
+          <t>Organic Food Production Alliance</t>
         </is>
       </c>
       <c r="H22" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesbank.de/de/</t>
+          <t>https://www.boelw.de/</t>
         </is>
       </c>
       <c r="I22" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesbank.de/en</t>
+          <t>https://www.boelw.de/</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -1847,54 +1847,54 @@
       </c>
       <c r="L22" s="4" t="inlineStr">
         <is>
-          <t>bundesbank</t>
+          <t>bolw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Q_BZGA</t>
+          <t>Q_BREG</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Bundeszentrale für gesundheitliche Aufklärung (BZGA)</t>
+          <t>Bundesregierung (Monitoringbericht Maßnahmeprogramm Nachhaltigkeit)</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>der Bundeszentrale für gesundheitliche Aufklärung</t>
+          <t>der Bundesregierung</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Federal Centre for Health Education</t>
+          <t/>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>the Federal Centre for Health Education</t>
+          <t/>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>Bundeszentrale für gesundheitliche Aufklärung</t>
+          <t>Bundesregierung (Monitoringbericht Maßnahmeprogramm Nachhaltigkeit)</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>Federal Centre for Health Education</t>
+          <t/>
         </is>
       </c>
       <c r="H23" s="5" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/</t>
+          <t/>
         </is>
       </c>
       <c r="I23" s="5" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/home/bzga/</t>
+          <t/>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
@@ -1909,54 +1909,54 @@
       </c>
       <c r="L23" s="4" t="inlineStr">
         <is>
-          <t>bzga</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Q_CEVAL</t>
+          <t>Q_BUNDESBANK</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Deutsche Bundesbank (BBk)</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>der CEval GmbH</t>
+          <t>der Deutschen Bundesbank</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>German Federal Bank</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>the CEval GmbH</t>
+          <t>the German Federal Bank</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Deutsche Bundesbank</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>German Federal Bank</t>
         </is>
       </c>
       <c r="H24" s="5" t="inlineStr">
         <is>
-          <t>https://ceval.de/</t>
+          <t>https://www.bundesbank.de/de/</t>
         </is>
       </c>
       <c r="I24" s="5" t="inlineStr">
         <is>
-          <t>https://ceval.de/en/</t>
+          <t>https://www.bundesbank.de/en</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
@@ -1971,54 +1971,54 @@
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>ceval</t>
+          <t>bundesbank</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Q_DDB</t>
+          <t>Q_BZGA</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Bundeszentrale für gesundheitliche Aufklärung (BZGA)</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>der deutschen digitalen Bibliothek</t>
+          <t>der Bundeszentrale für gesundheitliche Aufklärung</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>the Deutsche Digitale Bibliothek</t>
+          <t>the Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Bundeszentrale für gesundheitliche Aufklärung</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="H25" s="5" t="inlineStr">
         <is>
-          <t>https://www.deutsche-digitale-bibliothek.de/</t>
+          <t>https://www.bzga.de/</t>
         </is>
       </c>
       <c r="I25" s="5" t="inlineStr">
         <is>
-          <t>https://www.deutsche-digitale-bibliothek.de/?lang=en</t>
+          <t>https://www.bzga.de/home/bzga/</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
@@ -2033,54 +2033,54 @@
       </c>
       <c r="L25" s="4" t="inlineStr">
         <is>
-          <t>ddb</t>
+          <t>bzga</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_CEVAL</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Statistisches Bundesamt (Destatis)</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>der CEval GmbH</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Federal Statistical Office</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the CEval GmbH</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>Statistisches Bundesamt</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="G26" s="4" t="inlineStr">
         <is>
-          <t>Federal Statistical Office</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="H26" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Home/_inhalt.html</t>
+          <t>https://ceval.de/</t>
         </is>
       </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Home/_node.html</t>
+          <t>https://ceval.de/en/</t>
         </is>
       </c>
       <c r="J26" s="4" t="inlineStr">
@@ -2095,54 +2095,54 @@
       </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t>destatis</t>
+          <t>ceval</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Q_DIHK</t>
+          <t>Q_COPERNICUS</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V. (DIHK)</t>
+          <t>Europäisches Copernikus-Programm</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>des Deutschen Industrie- und Handelskammertages</t>
+          <t/>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
+          <t/>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>the German EMAS Advisory Board</t>
+          <t/>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V.</t>
+          <t>Europäisches Copernikus-Programm</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
+          <t/>
         </is>
       </c>
       <c r="H27" s="5" t="inlineStr">
         <is>
-          <t>https://www.dihk.de/de</t>
+          <t>https://www.copernicus.eu/de/ueber-copernicus</t>
         </is>
       </c>
       <c r="I27" s="5" t="inlineStr">
         <is>
-          <t>https://www.dihk.de/de</t>
+          <t>https://www.copernicus.eu/de/ueber-copernicus</t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
@@ -2157,54 +2157,54 @@
       </c>
       <c r="L27" s="4" t="inlineStr">
         <is>
-          <t>dihk</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Q_DIW</t>
+          <t>Q_DDB</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Wirtschaftsforschung (DIW)</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>des Deutschen Instituts für Wirtschaftsforschung</t>
+          <t>der deutschen digitalen Bibliothek</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Economic Research</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>the German Institute for Economic Research</t>
+          <t>the Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Wirtschaftsforschung</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Economic Research</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
-          <t>https://www.diw.de/deutsch</t>
+          <t>https://www.deutsche-digitale-bibliothek.de/</t>
         </is>
       </c>
       <c r="I28" s="5" t="inlineStr">
         <is>
-          <t>https://www.diw.de/en</t>
+          <t>https://www.deutsche-digitale-bibliothek.de/?lang=en</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
@@ -2219,54 +2219,54 @@
       </c>
       <c r="L28" s="4" t="inlineStr">
         <is>
-          <t>diw</t>
+          <t>ddb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROPEANCOMMISSION</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Europäische Kommission</t>
+          <t>Statistisches Bundesamt (Destatis)</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>der Europäischen Kommission</t>
+          <t/>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>European Commission</t>
+          <t>Federal Statistical Office</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>the European Commission</t>
+          <t/>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>Europäische Kommission</t>
+          <t>Statistisches Bundesamt</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>European Commission</t>
+          <t>Federal Statistical Office</t>
         </is>
       </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
-          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_de</t>
+          <t>https://www.destatis.de/DE/Home/_inhalt.html</t>
         </is>
       </c>
       <c r="I29" s="5" t="inlineStr">
         <is>
-          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_en</t>
+          <t>https://www.destatis.de/EN/Home/_node.html</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
@@ -2281,54 +2281,54 @@
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>europeancommission</t>
+          <t>destatis</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DIHK</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V. (DIHK)</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>von Eurostat</t>
+          <t>des Deutschen Industrie- und Handelskammertages</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>the German EMAS Advisory Board</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V.</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
         </is>
       </c>
       <c r="H30" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/de/home</t>
+          <t>https://www.dihk.de/de</t>
         </is>
       </c>
       <c r="I30" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/home</t>
+          <t>https://www.dihk.de/de</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
@@ -2343,54 +2343,54 @@
       </c>
       <c r="L30" s="4" t="inlineStr">
         <is>
-          <t>eurostat</t>
+          <t>dihk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Q_EZB</t>
+          <t>Q_DIW</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank (EZB)</t>
+          <t>Deutsches Institut für Wirtschaftsforschung (DIW)</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>der Europäischen Zentralbank</t>
+          <t>des Deutschen Instituts für Wirtschaftsforschung</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
+          <t>German Institute for Economic Research</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>the European Central Bank</t>
+          <t>the German Institute for Economic Research</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank</t>
+          <t>Deutsches Institut für Wirtschaftsforschung</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
+          <t>German Institute for Economic Research</t>
         </is>
       </c>
       <c r="H31" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/home/html/index.de.html</t>
+          <t>https://www.diw.de/deutsch</t>
         </is>
       </c>
       <c r="I31" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/home/languagepolicy/html/index.en.html</t>
+          <t>https://www.diw.de/en</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
@@ -2405,54 +2405,54 @@
       </c>
       <c r="L31" s="4" t="inlineStr">
         <is>
-          <t>ezb</t>
+          <t>diw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_DNK</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V. (FidAR)</t>
+          <t>Deutscher Nachhaltigkeitskodex (DNK)</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>vom Frauen in die Aufsichtsräte e.V.</t>
+          <t>vom DNK</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t/>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>the Frauen in die Aufsichtsräte e.V.</t>
+          <t/>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>Deutscher Nachhaltigkeitskodex (DNK)</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t/>
         </is>
       </c>
       <c r="H32" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/</t>
+          <t>https://www.deutscher-nachhaltigkeitskodex.de/</t>
         </is>
       </c>
       <c r="I32" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/</t>
+          <t>https://www.deutscher-nachhaltigkeitskodex.de/en/</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
@@ -2467,54 +2467,54 @@
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>fidar</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Q_GBE</t>
+          <t>Q_EMAS</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Gesundheitsberichterstattung des Bundes (GBE)</t>
+          <t>Umweltmanagementsystem (EMAS)</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>der Gesundheitsberichterstattung des Bundes</t>
+          <t>von EMAS</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Federal Health Monitoring</t>
+          <t/>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>the Federal Health Monitoring</t>
+          <t/>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>Gesundheitsberichterstattung des Bundes</t>
+          <t>Umweltmanagementsystem (EMAS)</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>Federal Health Monitoring</t>
+          <t/>
         </is>
       </c>
       <c r="H33" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/</t>
+          <t>https://www.emas.de/was-ist-emas</t>
         </is>
       </c>
       <c r="I33" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_isgbe?p_uid=gast&amp;p_aid=50554816&amp;p_sprache=E</t>
+          <t>https://www.emas.de/en</t>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr">
@@ -2529,54 +2529,54 @@
       </c>
       <c r="L33" s="4" t="inlineStr">
         <is>
-          <t>gbe</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Q_GFK</t>
+          <t>Q_EUROPEANCOMMISSION</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung (GfK)</t>
+          <t>Europäische Kommission</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>der Gesellschaft für Konsumforschung</t>
+          <t>der Europäischen Kommission</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>European Commission</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>the Gesellschaft für Konsumforschung</t>
+          <t>the European Commission</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Europäische Kommission</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>European Commission</t>
         </is>
       </c>
       <c r="H34" s="5" t="inlineStr">
         <is>
-          <t>https://www.gfk.com/de/</t>
+          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_de</t>
         </is>
       </c>
       <c r="I34" s="5" t="inlineStr">
         <is>
-          <t>https://www.gfk.com/</t>
+          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_en</t>
         </is>
       </c>
       <c r="J34" s="4" t="inlineStr">
@@ -2591,54 +2591,54 @@
       </c>
       <c r="L34" s="4" t="inlineStr">
         <is>
-          <t>gfk</t>
+          <t>europeancommission</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Q_GHSI</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Global Health Security Index (GHSI)</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>vom GHSI</t>
+          <t>von Eurostat</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Global Health Security Index (GHSI)</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>the GHSI</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>Global Health Security Index</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>Global Health Security Index</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="H35" s="5" t="inlineStr">
         <is>
-          <t>https://ghsindex.org/</t>
+          <t>https://ec.europa.eu/eurostat/de/home</t>
         </is>
       </c>
       <c r="I35" s="5" t="inlineStr">
         <is>
-          <t>https://ghsindex.org/</t>
+          <t>https://ec.europa.eu/eurostat/home</t>
         </is>
       </c>
       <c r="J35" s="4" t="inlineStr">
@@ -2653,54 +2653,54 @@
       </c>
       <c r="L35" s="4" t="inlineStr">
         <is>
-          <t>ghsi</t>
+          <t>eurostat</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Q_GIZ</t>
+          <t>Q_EZB</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ)</t>
+          <t>Europäische Zentralbank (EZB)</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>der Deutschen Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>der Europäischen Zentralbank</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH(GIZ)</t>
+          <t>European Central Bank</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>the Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>the European Central Bank</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>Europäische Zentralbank</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>European Central Bank</t>
         </is>
       </c>
       <c r="H36" s="5" t="inlineStr">
         <is>
-          <t>https://www.giz.de/de/html/index.html</t>
+          <t>https://www.ecb.europa.eu/home/html/index.de.html</t>
         </is>
       </c>
       <c r="I36" s="5" t="inlineStr">
         <is>
-          <t>https://www.giz.de/en/html/index.html</t>
+          <t>https://www.ecb.europa.eu/home/languagepolicy/html/index.en.html</t>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr">
@@ -2715,54 +2715,54 @@
       </c>
       <c r="L36" s="4" t="inlineStr">
         <is>
-          <t>giz</t>
+          <t>ezb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Q_IAB</t>
+          <t>Q_FATF</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Institut für Arbeitsmarkt- und Berufsforschung (IAB)</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>des Instituts für Arbeitsmarkt- und Berufsforschung</t>
+          <t>vom FATF</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Institut for Employment Research</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>the Institut for Employment Research</t>
+          <t>the FATF</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>Institut für Arbeitsmarkt- und Berufsforschung</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>Institut for Employment Research</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
       <c r="H37" s="5" t="inlineStr">
         <is>
-          <t>https://iab.de/</t>
+          <t>https://www.fatf-gafi.org/en/home.html</t>
         </is>
       </c>
       <c r="I37" s="5" t="inlineStr">
         <is>
-          <t>https://iab.de/en/</t>
+          <t>https://www.fatf-gafi.org/en/home.html</t>
         </is>
       </c>
       <c r="J37" s="4" t="inlineStr">
@@ -2777,54 +2777,54 @@
       </c>
       <c r="L37" s="4" t="inlineStr">
         <is>
-          <t>iab</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>Q_FIDAR</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH (ifeu)</t>
+          <t>Frauen in die Aufsichtsräte e.V. (FidAR)</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>des Instituts für Energie- und Umweltforschung Heidelberg gGmbH</t>
+          <t>vom Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Institute for Energy and Environmental Research</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>the Institute for Energy and Environmental Research</t>
+          <t>the Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
-          <t>Institute for Energy and Environmental Research</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="H38" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/</t>
+          <t>https://www.fidar.de/</t>
         </is>
       </c>
       <c r="I38" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/en/</t>
+          <t>https://www.fidar.de/</t>
         </is>
       </c>
       <c r="J38" s="4" t="inlineStr">
@@ -2839,54 +2839,54 @@
       </c>
       <c r="L38" s="4" t="inlineStr">
         <is>
-          <t>ifeu</t>
+          <t>fidar</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Q_JHT</t>
+          <t>Q_GBE</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen-Institut (TI)</t>
+          <t>Gesundheitsberichterstattung des Bundes (GBE)</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>des Johann Heinrich von Thünen-Instituts</t>
+          <t>der Gesundheitsberichterstattung des Bundes</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen Institute</t>
+          <t>Federal Health Monitoring</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>the Johann Heinrich von Thünen Institute</t>
+          <t>the Federal Health Monitoring</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen-Institut</t>
+          <t>Gesundheitsberichterstattung des Bundes</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen Institute</t>
+          <t>Federal Health Monitoring</t>
         </is>
       </c>
       <c r="H39" s="5" t="inlineStr">
         <is>
-          <t>https://www.thuenen.de/de/</t>
+          <t>https://www.gbe-bund.de/gbe/</t>
         </is>
       </c>
       <c r="I39" s="5" t="inlineStr">
         <is>
-          <t>https://www.thuenen.de/en/</t>
+          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_isgbe?p_uid=gast&amp;p_aid=50554816&amp;p_sprache=E</t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr">
@@ -2901,54 +2901,54 @@
       </c>
       <c r="L39" s="4" t="inlineStr">
         <is>
-          <t>jht</t>
+          <t>gbe</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Q_JKI</t>
+          <t>Q_GFK</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut (JKI)</t>
+          <t>Gesellschaft für Konsumforschung (GfK)</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>des Instituts für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
+          <t>der Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>the Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>the Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="H40" s="5" t="inlineStr">
         <is>
-          <t>https://www.julius-kuehn.de/pb/</t>
+          <t>https://www.gfk.com/de/</t>
         </is>
       </c>
       <c r="I40" s="5" t="inlineStr">
         <is>
-          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
+          <t>https://www.gfk.com/</t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
@@ -2963,54 +2963,54 @@
       </c>
       <c r="L40" s="4" t="inlineStr">
         <is>
-          <t>jki</t>
+          <t>gfk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Q_KBA</t>
+          <t>Q_GHSI</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrt-Bundesamt (KBA)</t>
+          <t>Global Health Security Index (GHSI)</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>des Kraftfahrt-Bundesamts</t>
+          <t>vom GHSI</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Federal Motor Transport Authority</t>
+          <t>Global Health Security Index (GHSI)</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>the Federal Motor Transport Authority</t>
+          <t>the GHSI</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrt-Bundesamt</t>
+          <t>Global Health Security Index</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>Federal Motor Transport Authority</t>
+          <t>Global Health Security Index</t>
         </is>
       </c>
       <c r="H41" s="5" t="inlineStr">
         <is>
-          <t>https://www.kba.de/DE/Home/home_node.html</t>
+          <t>https://ghsindex.org/</t>
         </is>
       </c>
       <c r="I41" s="5" t="inlineStr">
         <is>
-          <t>https://www.kba.de/EN/Home/home_node.html</t>
+          <t>https://ghsindex.org/</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
@@ -3025,54 +3025,54 @@
       </c>
       <c r="L41" s="4" t="inlineStr">
         <is>
-          <t>kba</t>
+          <t>ghsi</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Q_KFW</t>
+          <t>Q_GIZ</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ)</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>der Kreditanstalt für Wiederaufbau</t>
+          <t>der Deutschen Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH(GIZ)</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>the Kreditanstalt für Wiederaufbau</t>
+          <t>the Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="H42" s="5" t="inlineStr">
         <is>
-          <t>https://www.kfw.de/kfw.de.html</t>
+          <t>https://www.giz.de/de/html/index.html</t>
         </is>
       </c>
       <c r="I42" s="5" t="inlineStr">
         <is>
-          <t>https://www.kfw.de/kfw.de-2.html</t>
+          <t>https://www.giz.de/en/html/index.html</t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr">
@@ -3087,54 +3087,54 @@
       </c>
       <c r="L42" s="4" t="inlineStr">
         <is>
-          <t>kfw</t>
+          <t>giz</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Q_KMLHE</t>
+          <t>Q_GMWOEKNM</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t>Gemeinwohl-Ökonomie</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>der Gemeinwohl-Ökonomie</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t/>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t/>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t>Gemeinwohl-Ökonomie</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t/>
         </is>
       </c>
       <c r="H43" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://germany.econgood.org/</t>
         </is>
       </c>
       <c r="I43" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://germany.econgood.org/</t>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr">
@@ -3156,47 +3156,47 @@
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Q_KNB</t>
+          <t>Q_IAB</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern (KNB) </t>
+          <t>Institut für Arbeitsmarkt- und Berufsforschung (IAB)</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>der Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern</t>
+          <t>des Instituts für Arbeitsmarkt- und Berufsforschung</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Center of Excellence for Sustainable Procurement</t>
+          <t>Institut for Employment Research</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>the Center of Excellence for Sustainable Procurement</t>
+          <t>the Institut for Employment Research</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
+          <t>Institut für Arbeitsmarkt- und Berufsforschung</t>
         </is>
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>Competence Center for Sustainable Procurement</t>
+          <t>Institut for Employment Research</t>
         </is>
       </c>
       <c r="H44" s="5" t="inlineStr">
         <is>
-          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
+          <t>https://iab.de/</t>
         </is>
       </c>
       <c r="I44" s="5" t="inlineStr">
         <is>
-          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
+          <t>https://iab.de/en/</t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
@@ -3211,54 +3211,54 @@
       </c>
       <c r="L44" s="4" t="inlineStr">
         <is>
-          <t>knb</t>
+          <t>iab</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis (LAK) Energiebilanzen</t>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH (ifeu)</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>des Länderarbeitskreises Energiebilanzen</t>
+          <t>des Instituts für Energie- und Umweltforschung Heidelberg gGmbH</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis Energiebilanzen</t>
+          <t>Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>the Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis Energiebilanzen</t>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>LAK Energiebilanzen</t>
+          <t>Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="H45" s="5" t="inlineStr">
         <is>
-          <t>http://www.lak-energiebilanzen.de/</t>
+          <t>https://www.ifeu.de/</t>
         </is>
       </c>
       <c r="I45" s="5" t="inlineStr">
         <is>
-          <t>http://www.lak-energiebilanzen.de/</t>
+          <t>https://www.ifeu.de/en/</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr">
@@ -3273,54 +3273,54 @@
       </c>
       <c r="L45" s="4" t="inlineStr">
         <is>
-          <t>lakeb</t>
+          <t>ifeu</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_JHT</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren (LIKI)</t>
+          <t>Johann Heinrich von Thünen-Institut (TI)</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>der Länderinitiative Kernindikatoren</t>
+          <t>des Johann Heinrich von Thünen-Instituts</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>the Länderinitiative Kernindikatoren</t>
+          <t>the Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>Johann Heinrich von Thünen-Institut</t>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="H46" s="5" t="inlineStr">
         <is>
-          <t>https://www.lanuv.nrw.de/liki/index.php</t>
+          <t>https://www.thuenen.de/de/</t>
         </is>
       </c>
       <c r="I46" s="5" t="inlineStr">
         <is>
-          <t>https://www.lanuv.nrw.de/liki/index.php</t>
+          <t>https://www.thuenen.de/en/</t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">
@@ -3335,54 +3335,54 @@
       </c>
       <c r="L46" s="4" t="inlineStr">
         <is>
-          <t>liki</t>
+          <t>jht</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_JKI</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD)</t>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut (JKI)</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>des Instituts für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>the Organisation for Economic Co-operation and Development</t>
+          <t>the Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="H47" s="5" t="inlineStr">
         <is>
-          <t>https://www.oecd.org/</t>
+          <t>https://www.julius-kuehn.de/pb/</t>
         </is>
       </c>
       <c r="I47" s="5" t="inlineStr">
         <is>
-          <t>https://www.oecd.org/</t>
+          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
@@ -3397,54 +3397,54 @@
       </c>
       <c r="L47" s="4" t="inlineStr">
         <is>
-          <t>oecd</t>
+          <t>jki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Q_RKI</t>
+          <t>Q_KBA</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut (RKI)</t>
+          <t>Kraftfahrt-Bundesamt (KBA)</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>des Robert Koch-Instituts</t>
+          <t>des Kraftfahrt-Bundesamts</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch Institute</t>
+          <t>Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>the Robert Koch Institute</t>
+          <t>the Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut</t>
+          <t>Kraftfahrt-Bundesamt</t>
         </is>
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch Institute</t>
+          <t>Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="H48" s="5" t="inlineStr">
         <is>
-          <t>https://www.rki.de/DE/Home/homepage_node.html</t>
+          <t>https://www.kba.de/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="I48" s="5" t="inlineStr">
         <is>
-          <t>https://www.rki.de/EN/Home/homepage_node.html</t>
+          <t>https://www.kba.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
@@ -3459,54 +3459,54 @@
       </c>
       <c r="L48" s="4" t="inlineStr">
         <is>
-          <t>rki</t>
+          <t>kba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>Q_KBK</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>KlimaBilanzKultur und KlimaBilanzKultur+</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>des Stifterverbands Wissenschaftsstatistik</t>
+          <t>von KlimaBilanzKultur</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t/>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>the Stifterverband Wissenschaftsstatistik</t>
+          <t/>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>KlimaBilanzKultur und KlimaBilanzKultur+</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t/>
         </is>
       </c>
       <c r="H49" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/</t>
+          <t/>
         </is>
       </c>
       <c r="I49" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/english</t>
+          <t/>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
@@ -3521,54 +3521,54 @@
       </c>
       <c r="L49" s="4" t="inlineStr">
         <is>
-          <t>svws</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_KFW</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>von Transparency International</t>
+          <t>der Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>Transparency International</t>
+          <t>the Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="H50" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.de/</t>
+          <t>https://www.kfw.de/kfw.de.html</t>
         </is>
       </c>
       <c r="I50" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.de/en/</t>
+          <t>https://www.kfw.de/kfw.de-2.html</t>
         </is>
       </c>
       <c r="J50" s="4" t="inlineStr">
@@ -3583,54 +3583,54 @@
       </c>
       <c r="L50" s="4" t="inlineStr">
         <is>
-          <t>ta</t>
+          <t>kfw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_KINO</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt (UBA)</t>
+          <t>Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>des Umweltbundesamts</t>
+          <t>von Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency</t>
+          <t/>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>the German Environment Agency</t>
+          <t/>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt</t>
+          <t>Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency</t>
+          <t/>
         </is>
       </c>
       <c r="H51" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/</t>
+          <t>https://www.green-motion.org/files/16_green_motion/Dokumente/20241209_OEkologische_Standards_UEbergangsfassung_Januar_2025.pdf</t>
         </is>
       </c>
       <c r="I51" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en</t>
+          <t>https://www.green-motion.org/files/16_green_motion/Dokumente/20241209_OEkologische_Standards_UEbergangsfassung_Januar_2025.pdf</t>
         </is>
       </c>
       <c r="J51" s="4" t="inlineStr">
@@ -3645,54 +3645,54 @@
       </c>
       <c r="L51" s="4" t="inlineStr">
         <is>
-          <t>uba</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA_1</t>
+          <t>Q_KMLHE</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>des Umweltbundesamts</t>
+          <t>x</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency (as reported by the Länder and by river basin commissions)</t>
+          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>the German Environment Agency</t>
+          <t>x</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="G52" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
+          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="H52" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/</t>
+          <t/>
         </is>
       </c>
       <c r="I52" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en</t>
+          <t/>
         </is>
       </c>
       <c r="J52" s="4" t="inlineStr">
@@ -3707,54 +3707,54 @@
       </c>
       <c r="L52" s="4" t="inlineStr">
         <is>
-          <t>uba</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Q_UBALAWA</t>
+          <t>Q_KNB</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
+          <t>Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern (KNB) </t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>des Umweltbundesamts</t>
+          <t>der Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
+          <t>Center of Excellence for Sustainable Procurement</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>the German Environment Agency</t>
+          <t>the Center of Excellence for Sustainable Procurement</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser</t>
+          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government</t>
+          <t>Competence Center for Sustainable Procurement</t>
         </is>
       </c>
       <c r="H53" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/</t>
+          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="I53" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en</t>
+          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="J53" s="4" t="inlineStr">
@@ -3769,54 +3769,54 @@
       </c>
       <c r="L53" s="4" t="inlineStr">
         <is>
-          <t>uba</t>
+          <t>knb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Q_UG</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+          <t>Länderarbeitskreis (LAK) Energiebilanzen</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>der Universität Gießen</t>
+          <t>des Länderarbeitskreises Energiebilanzen</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
+          <t>Länderarbeitskreis Energiebilanzen</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>the University of Giessen</t>
+          <t/>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+          <t>Länderarbeitskreis Energiebilanzen</t>
         </is>
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
+          <t>LAK Energiebilanzen</t>
         </is>
       </c>
       <c r="H54" s="5" t="inlineStr">
         <is>
-          <t>https://www.uni-giessen.de/fbz/fb09/institute/ilr</t>
+          <t>http://www.lak-energiebilanzen.de/</t>
         </is>
       </c>
       <c r="I54" s="5" t="inlineStr">
         <is>
-          <t>https://www.uni-giessen.de/faculties/f09/institutes/landscape?set_language=en</t>
+          <t>http://www.lak-energiebilanzen.de/</t>
         </is>
       </c>
       <c r="J54" s="4" t="inlineStr">
@@ -3831,54 +3831,54 @@
       </c>
       <c r="L54" s="4" t="inlineStr">
         <is>
-          <t>ug</t>
+          <t>lakeb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Q_VCD</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V. (VCD)</t>
+          <t>Länderinitiative Kernindikatoren (LIKI)</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>des Verkehrsclub Deutschlands</t>
+          <t>der Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>the Verkehrsclub Deutschland e.V.</t>
+          <t>the Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="G55" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="H55" s="5" t="inlineStr">
         <is>
-          <t>https://www.vcd.org/startseite/</t>
+          <t>https://www.lanuv.nrw.de/liki/index.php</t>
         </is>
       </c>
       <c r="I55" s="5" t="inlineStr">
         <is>
-          <t>https://www.vcd.org/startseite/</t>
+          <t>https://www.lanuv.nrw.de/liki/index.php</t>
         </is>
       </c>
       <c r="J55" s="4" t="inlineStr">
@@ -3893,54 +3893,54 @@
       </c>
       <c r="L55" s="4" t="inlineStr">
         <is>
-          <t>vcd</t>
+          <t>liki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD)</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>der Statistischen Ämter der Länder</t>
+          <t>der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>the Statistische Ämter des Bundes und der Länder</t>
+          <t>the Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="G56" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="H56" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+          <t>https://www.oecd.org/</t>
         </is>
       </c>
       <c r="I56" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+          <t>https://www.oecd.org/</t>
         </is>
       </c>
       <c r="J56" s="4" t="inlineStr">
@@ -3955,67 +3955,687 @@
       </c>
       <c r="L56" s="4" t="inlineStr">
         <is>
-          <t>vwgdl</t>
+          <t>oecd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
+          <t>Q_OEKPFT</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>Ökoprofit</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>von Ökoprofit</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F57" s="4" t="inlineStr">
+        <is>
+          <t>Ökoprofit</t>
+        </is>
+      </c>
+      <c r="G57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H57" s="5" t="inlineStr">
+        <is>
+          <t>https://www.oekoprofit.info/</t>
+        </is>
+      </c>
+      <c r="I57" s="5" t="inlineStr">
+        <is>
+          <t>https://www.oekoprofit.info/</t>
+        </is>
+      </c>
+      <c r="J57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="4" t="inlineStr">
+        <is>
+          <t>Q_RKI</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>Robert Koch-Institut (RKI)</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>des Robert Koch-Instituts</t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t>Robert Koch Institute</t>
+        </is>
+      </c>
+      <c r="E58" s="4" t="inlineStr">
+        <is>
+          <t>the Robert Koch Institute</t>
+        </is>
+      </c>
+      <c r="F58" s="4" t="inlineStr">
+        <is>
+          <t>Robert Koch-Institut</t>
+        </is>
+      </c>
+      <c r="G58" s="4" t="inlineStr">
+        <is>
+          <t>Robert Koch Institute</t>
+        </is>
+      </c>
+      <c r="H58" s="5" t="inlineStr">
+        <is>
+          <t>https://www.rki.de/DE/Home/homepage_node.html</t>
+        </is>
+      </c>
+      <c r="I58" s="5" t="inlineStr">
+        <is>
+          <t>https://www.rki.de/EN/Home/homepage_node.html</t>
+        </is>
+      </c>
+      <c r="J58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L58" s="4" t="inlineStr">
+        <is>
+          <t>rki</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="4" t="inlineStr">
+        <is>
+          <t>Q_SVWS</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>Stifterverband Wissenschaftsstatistik</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>des Stifterverbands Wissenschaftsstatistik</t>
+        </is>
+      </c>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t>Stifterverband Wissenschaftsstatistik</t>
+        </is>
+      </c>
+      <c r="E59" s="4" t="inlineStr">
+        <is>
+          <t>the Stifterverband Wissenschaftsstatistik</t>
+        </is>
+      </c>
+      <c r="F59" s="4" t="inlineStr">
+        <is>
+          <t>Stifterverband Wissenschaftsstatistik</t>
+        </is>
+      </c>
+      <c r="G59" s="4" t="inlineStr">
+        <is>
+          <t>Stifterverband Wissenschaftsstatistik</t>
+        </is>
+      </c>
+      <c r="H59" s="5" t="inlineStr">
+        <is>
+          <t>https://www.stifterverband.org/</t>
+        </is>
+      </c>
+      <c r="I59" s="5" t="inlineStr">
+        <is>
+          <t>https://www.stifterverband.org/english</t>
+        </is>
+      </c>
+      <c r="J59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L59" s="4" t="inlineStr">
+        <is>
+          <t>svws</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="4" t="inlineStr">
+        <is>
+          <t>Q_TA</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>Transparency International e.V.</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>von Transparency International</t>
+        </is>
+      </c>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t>Transparency International e.V.</t>
+        </is>
+      </c>
+      <c r="E60" s="4" t="inlineStr">
+        <is>
+          <t>Transparency International</t>
+        </is>
+      </c>
+      <c r="F60" s="4" t="inlineStr">
+        <is>
+          <t>Transparency International e.V.</t>
+        </is>
+      </c>
+      <c r="G60" s="4" t="inlineStr">
+        <is>
+          <t>Transparency International e.V.</t>
+        </is>
+      </c>
+      <c r="H60" s="5" t="inlineStr">
+        <is>
+          <t>https://www.transparency.de/</t>
+        </is>
+      </c>
+      <c r="I60" s="5" t="inlineStr">
+        <is>
+          <t>https://www.transparency.de/en/</t>
+        </is>
+      </c>
+      <c r="J60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L60" s="4" t="inlineStr">
+        <is>
+          <t>ta</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt (UBA)</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>des Umweltbundesamts</t>
+        </is>
+      </c>
+      <c r="D61" s="4" t="inlineStr">
+        <is>
+          <t>German Environment Agency</t>
+        </is>
+      </c>
+      <c r="E61" s="4" t="inlineStr">
+        <is>
+          <t>the German Environment Agency</t>
+        </is>
+      </c>
+      <c r="F61" s="4" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt</t>
+        </is>
+      </c>
+      <c r="G61" s="4" t="inlineStr">
+        <is>
+          <t>German Environment Agency</t>
+        </is>
+      </c>
+      <c r="H61" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/</t>
+        </is>
+      </c>
+      <c r="I61" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en</t>
+        </is>
+      </c>
+      <c r="J61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L61" s="4" t="inlineStr">
+        <is>
+          <t>uba</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA_1</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>des Umweltbundesamts</t>
+        </is>
+      </c>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions)</t>
+        </is>
+      </c>
+      <c r="E62" s="4" t="inlineStr">
+        <is>
+          <t>the German Environment Agency</t>
+        </is>
+      </c>
+      <c r="F62" s="4" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+        </is>
+      </c>
+      <c r="G62" s="4" t="inlineStr">
+        <is>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
+        </is>
+      </c>
+      <c r="H62" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/</t>
+        </is>
+      </c>
+      <c r="I62" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en</t>
+        </is>
+      </c>
+      <c r="J62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L62" s="4" t="inlineStr">
+        <is>
+          <t>uba</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBALAWA</t>
+        </is>
+      </c>
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t>des Umweltbundesamts</t>
+        </is>
+      </c>
+      <c r="D63" s="4" t="inlineStr">
+        <is>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
+        </is>
+      </c>
+      <c r="E63" s="4" t="inlineStr">
+        <is>
+          <t>the German Environment Agency</t>
+        </is>
+      </c>
+      <c r="F63" s="4" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser</t>
+        </is>
+      </c>
+      <c r="G63" s="4" t="inlineStr">
+        <is>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government</t>
+        </is>
+      </c>
+      <c r="H63" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/</t>
+        </is>
+      </c>
+      <c r="I63" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en</t>
+        </is>
+      </c>
+      <c r="J63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L63" s="4" t="inlineStr">
+        <is>
+          <t>uba</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="4" t="inlineStr">
+        <is>
+          <t>Q_UG</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>der Universität Gießen</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="inlineStr">
+        <is>
+          <t>the University of Giessen</t>
+        </is>
+      </c>
+      <c r="F64" s="4" t="inlineStr">
+        <is>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+        </is>
+      </c>
+      <c r="G64" s="4" t="inlineStr">
+        <is>
+          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
+        </is>
+      </c>
+      <c r="H64" s="5" t="inlineStr">
+        <is>
+          <t>https://www.uni-giessen.de/fbz/fb09/institute/ilr</t>
+        </is>
+      </c>
+      <c r="I64" s="5" t="inlineStr">
+        <is>
+          <t>https://www.uni-giessen.de/faculties/f09/institutes/landscape?set_language=en</t>
+        </is>
+      </c>
+      <c r="J64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L64" s="4" t="inlineStr">
+        <is>
+          <t>ug</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="4" t="inlineStr">
+        <is>
+          <t>Q_VCD</t>
+        </is>
+      </c>
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>Verkehrsclub Deutschland e.V. (VCD)</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t>des Verkehrsclub Deutschlands</t>
+        </is>
+      </c>
+      <c r="D65" s="4" t="inlineStr">
+        <is>
+          <t>Verkehrsclub Deutschland e.V.</t>
+        </is>
+      </c>
+      <c r="E65" s="4" t="inlineStr">
+        <is>
+          <t>the Verkehrsclub Deutschland e.V.</t>
+        </is>
+      </c>
+      <c r="F65" s="4" t="inlineStr">
+        <is>
+          <t>Verkehrsclub Deutschland e.V.</t>
+        </is>
+      </c>
+      <c r="G65" s="4" t="inlineStr">
+        <is>
+          <t>Verkehrsclub Deutschland e.V.</t>
+        </is>
+      </c>
+      <c r="H65" s="5" t="inlineStr">
+        <is>
+          <t>https://www.vcd.org/startseite/</t>
+        </is>
+      </c>
+      <c r="I65" s="5" t="inlineStr">
+        <is>
+          <t>https://www.vcd.org/startseite/</t>
+        </is>
+      </c>
+      <c r="J65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L65" s="4" t="inlineStr">
+        <is>
+          <t>vcd</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="4" t="inlineStr">
+        <is>
+          <t>Q_VWGDL</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t>der Statistischen Ämter der Länder</t>
+        </is>
+      </c>
+      <c r="D66" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="E66" s="4" t="inlineStr">
+        <is>
+          <t>the Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="F66" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="G66" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="H66" s="5" t="inlineStr">
+        <is>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+        </is>
+      </c>
+      <c r="I66" s="5" t="inlineStr">
+        <is>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+        </is>
+      </c>
+      <c r="J66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L66" s="4" t="inlineStr">
+        <is>
+          <t>vwgdl</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="4" t="inlineStr">
+        <is>
           <t>Q_WHO</t>
         </is>
       </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="B67" s="4" t="inlineStr">
         <is>
           <t>Weltgesundheitsorganisation (WHO)</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="C67" s="4" t="inlineStr">
         <is>
           <t>der Weltgesundheitsorganisation</t>
         </is>
       </c>
-      <c r="D57" s="4" t="inlineStr">
+      <c r="D67" s="4" t="inlineStr">
         <is>
           <t>World Health Organization</t>
         </is>
       </c>
-      <c r="E57" s="4" t="inlineStr">
+      <c r="E67" s="4" t="inlineStr">
         <is>
           <t>the World Health Organization</t>
         </is>
       </c>
-      <c r="F57" s="4" t="inlineStr">
+      <c r="F67" s="4" t="inlineStr">
         <is>
           <t>Weltgesundheitsorganisation</t>
         </is>
       </c>
-      <c r="G57" s="4" t="inlineStr">
+      <c r="G67" s="4" t="inlineStr">
         <is>
           <t>World Health Organization</t>
         </is>
       </c>
-      <c r="H57" s="5" t="inlineStr">
+      <c r="H67" s="5" t="inlineStr">
         <is>
           <t>http://www.euro.who.int/de/home</t>
         </is>
       </c>
-      <c r="I57" s="5" t="inlineStr">
+      <c r="I67" s="5" t="inlineStr">
         <is>
           <t>http://www.euro.who.int/en/home</t>
         </is>
       </c>
-      <c r="J57" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K57" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L57" s="4" t="inlineStr">
+      <c r="J67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L67" s="4" t="inlineStr">
         <is>
           <t>who</t>
         </is>
@@ -4028,22 +4648,38 @@
     <hyperlink ref="I8" r:id="rId3"/>
     <hyperlink ref="H12" r:id="rId4"/>
     <hyperlink ref="I12" r:id="rId5"/>
-    <hyperlink ref="H14" r:id="rId6"/>
-    <hyperlink ref="I14" r:id="rId7"/>
-    <hyperlink ref="H17" r:id="rId8"/>
-    <hyperlink ref="I17" r:id="rId9"/>
-    <hyperlink ref="H20" r:id="rId10"/>
-    <hyperlink ref="I20" r:id="rId11"/>
-    <hyperlink ref="H24" r:id="rId12"/>
-    <hyperlink ref="I24" r:id="rId13"/>
-    <hyperlink ref="H25" r:id="rId14"/>
-    <hyperlink ref="I25" r:id="rId15"/>
-    <hyperlink ref="H35" r:id="rId16"/>
-    <hyperlink ref="I35" r:id="rId17"/>
-    <hyperlink ref="H37" r:id="rId18"/>
-    <hyperlink ref="I37" r:id="rId19"/>
-    <hyperlink ref="H49" r:id="rId20"/>
-    <hyperlink ref="I49" r:id="rId21"/>
+    <hyperlink ref="H13" r:id="rId6"/>
+    <hyperlink ref="I13" r:id="rId7"/>
+    <hyperlink ref="H15" r:id="rId8"/>
+    <hyperlink ref="I15" r:id="rId9"/>
+    <hyperlink ref="H18" r:id="rId10"/>
+    <hyperlink ref="I18" r:id="rId11"/>
+    <hyperlink ref="H21" r:id="rId12"/>
+    <hyperlink ref="I21" r:id="rId13"/>
+    <hyperlink ref="H26" r:id="rId14"/>
+    <hyperlink ref="I26" r:id="rId15"/>
+    <hyperlink ref="H27" r:id="rId16"/>
+    <hyperlink ref="I27" r:id="rId17"/>
+    <hyperlink ref="H28" r:id="rId18"/>
+    <hyperlink ref="I28" r:id="rId19"/>
+    <hyperlink ref="H32" r:id="rId20"/>
+    <hyperlink ref="I32" r:id="rId21"/>
+    <hyperlink ref="H33" r:id="rId22"/>
+    <hyperlink ref="I33" r:id="rId23"/>
+    <hyperlink ref="H37" r:id="rId24"/>
+    <hyperlink ref="I37" r:id="rId25"/>
+    <hyperlink ref="H41" r:id="rId26"/>
+    <hyperlink ref="I41" r:id="rId27"/>
+    <hyperlink ref="H43" r:id="rId28"/>
+    <hyperlink ref="I43" r:id="rId29"/>
+    <hyperlink ref="H44" r:id="rId30"/>
+    <hyperlink ref="I44" r:id="rId31"/>
+    <hyperlink ref="H51" r:id="rId32"/>
+    <hyperlink ref="I51" r:id="rId33"/>
+    <hyperlink ref="H57" r:id="rId34"/>
+    <hyperlink ref="I57" r:id="rId35"/>
+    <hyperlink ref="H59" r:id="rId36"/>
+    <hyperlink ref="I59" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -8,7 +8,11 @@
   </bookViews>
   <sheets>
     <sheet sheetId="1" r:id="rId1" name="Tab_7a_Quellen"/>
+    <sheet r:id="rId4" name="Tab_7a_Quellen1" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Tab_7a_Quellen">'Tab_7a_Quellen1'!$A$1:$L$67</definedName>
+  </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
@@ -4683,4 +4687,3473 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>QNr</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Bezeichnung lang De</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Bezeichnung lang En</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Bezeichnung De</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Bezeichnung En</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>Homepage De</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>Homepage En</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>Logo De</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>Logo En</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>imgId</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>LinkMeldungDe</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
+          <t>LinkMeldungEn</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Q_AA</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Auswärtiges Amt (AA)</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>Federal Foreign Office</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>Auswärtiges Amt</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>Federal Foreign Office</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>https://www.auswaertiges-amt.de/de/</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>https://www.auswaertiges-amt.de/en</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>des Auswärtigen Amtes</t>
+        </is>
+      </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>the Federal Foreign Office</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Q_AGEB</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>AG Energiebilanzen e.V.</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>AG Energiebilanzen e.V.</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>AG Energiebilanzen e.V.</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>AG Energiebilanzen e.V.</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>#https://ag-energiebilanzen.de/#</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>#https://ag-energiebilanzen.de/en/#</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>ageb</t>
+        </is>
+      </c>
+      <c r="K3" s="0" t="inlineStr">
+        <is>
+          <t>des AG Energiebilanzen e.V.</t>
+        </is>
+      </c>
+      <c r="L3" s="0" t="inlineStr">
+        <is>
+          <t>the AG Energiebilanzen e.V.</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Q_AGEESTAT</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik (AGEE-Stat)</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Working Group on Renewable Energy Statistics</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>Working Group on Renewable Energy Statistics</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>ageestat</t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t>der Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+        </is>
+      </c>
+      <c r="L4" s="0" t="inlineStr">
+        <is>
+          <t>the Working Group on Renewable Energy Statistics</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Q_AGNE</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>Sustainable Development Working Group</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>Sustainable Development Working Group</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>agne</t>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t>der Arbeitsgruppe Nachhaltige Entwicklung</t>
+        </is>
+      </c>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t>the Sustainable Development Working Group</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Q_AKUGRDL</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder (AK UGRdL)</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>AK UGRdL</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>akugrdl</t>
+        </is>
+      </c>
+      <c r="K6" s="0" t="inlineStr">
+        <is>
+          <t>des Arbeitskreises der Umweltökonomischen Gesamtrechnungen der Länder</t>
+        </is>
+      </c>
+      <c r="L6" s="0" t="inlineStr">
+        <is>
+          <t>the Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Q_AMI</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Agrarmarkt Informations-Gesellschaft mbH (AMI)</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>Agricultural Market Information Company</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>Agrarmarkt Informations-Gesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>Agricultural Market Information Company</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>https://www.ami-informiert.de/ami-maerkte</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>https://www.ami-informiert.de/ami-english/ami-about-us/about-us</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>ami</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>der Agrarmarkt Informations-Gesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>the Agricultural Market Information Company</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Q_BBSR</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung (BBSR)</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>https://www.bbsr.bund.de/BBSR/DE/startseite/_node.html</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.bbsr.bund.de/BBSR/EN/home/_node.html#</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>bbsr</t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="inlineStr">
+        <is>
+          <t>des Bundesinstituts für Bau-, Stadt- und Raumforschung</t>
+        </is>
+      </c>
+      <c r="L8" s="0" t="inlineStr">
+        <is>
+          <t>the Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Q_BFN</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>Bundesamt für Naturschutz (BfN)</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>Federal Agency for Nature Conservation</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>Bundesamt für Naturschutz</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>https://www.bfn.de/</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>https://www.bfn.de/en.html</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>bfn</t>
+        </is>
+      </c>
+      <c r="K9" s="0" t="inlineStr">
+        <is>
+          <t>des Bundesamts für Naturschutz</t>
+        </is>
+      </c>
+      <c r="L9" s="0" t="inlineStr">
+        <is>
+          <t>the Federal Agency for Nature Conservation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Q_BKA</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>Bundeskriminalamt (BKA)</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>Federal Criminal Police Office</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Bundeskriminalamt</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>Federal Criminal Police Office</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>https://www.bka.de/DE/Home/home_node.html</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>https://www.bka.de/EN/Home/home_node.html</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>bka</t>
+        </is>
+      </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>des Bundeskriminalamts</t>
+        </is>
+      </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>the Federal Criminal Police Office</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Q_BKAMT</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Bundeskanzleramt</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>Federal Chancellery</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Bundeskanzleramt</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>Federal Chancellery</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>https://www.bundesregierung.de/breg-de/bundesregierung/bundeskanzleramt</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>https://www.bundesregierung.de/breg-en/federal-government</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>bkamt</t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t>des Bundeskanzleramts</t>
+        </is>
+      </c>
+      <c r="L11" s="0" t="inlineStr">
+        <is>
+          <t>the Federal Chancellery</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Q_BKG</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Bundesamt für Kartographie und Geodäsie (BKG)</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>Federal Agency for Cartography and Geodesy</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Bundesamt für Kartographie und Geodäsie</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>Federal Agency for Cartography and Geodesy</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.bkg.bund.de/DE/Home/home.html#</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.bkg.bund.de/EN/Home/#</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>bkg</t>
+        </is>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>vom BKG</t>
+        </is>
+      </c>
+      <c r="L12" s="0" t="inlineStr">
+        <is>
+          <t>the BKG</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Q_BKM</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>Federal Government Commissioner for Culture and the Media</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>Federal Government Commissioner for Culture and the Media</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.kulturstaatsministerin.de/DE/startseite/startseite_node.html#</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.kulturstaatsministerin.de/DE/startseite/startseite_node.html#</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>bkm</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t>der Beauftragten der Bundesregierung für Kultur und Medien</t>
+        </is>
+      </c>
+      <c r="L13" s="0" t="inlineStr">
+        <is>
+          <t>the Federal Government Commissioner for Culture and the Media</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Q_BMBF</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Bildung und Forschung (BMBF)</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Education and Research</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Bildung und Forschung</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Education and Research</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>https://www.bmbf.de/</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>https://www.bmbf.de/bmbf/en/</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>bmbf</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>des Bundesministeriums für Bildung und Frschung</t>
+        </is>
+      </c>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>the Federal Ministry of Education and Research</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Q_BMDV</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Digitales und Verkehr (BMDV)</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>Federal Ministry for Digital and Transport</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Digitales und Verkehr</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>Federal Ministry for Digital and Transport</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>#https://bmdv.bund.de/DE/Home/home.html#</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>#https://bmdv.bund.de/EN/Home/home.html#</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>bmdv</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>des Bundesministeriums für Digitales und Verkehr</t>
+        </is>
+      </c>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>the Federal Ministry for Digital and Transport</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Q_BMEL</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Ernährung und Landwirtschaft (BMEL)</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Food and Agriculture</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Food and Agriculture</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>https://www.bmel.de/DE/Startseite/startseite_node.html</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>https://www.bmel.de/EN/Home/home_node.html</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>bmel</t>
+        </is>
+      </c>
+      <c r="K16" s="0" t="inlineStr">
+        <is>
+          <t>des Bundesministeriums für Ernährung und Landwirtschaft</t>
+        </is>
+      </c>
+      <c r="L16" s="0" t="inlineStr">
+        <is>
+          <t>the Federal Ministry of Food and Agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Q_BMF</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Bundesministerium der Finanzen (BMF)</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Finance</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Bundesministerium der Finanzen</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Finance</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>https://www.bundesfinanzministerium.de/Web/DE/Home/home.html</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>https://www.bundesfinanzministerium.de/Web/EN/Home/home.html</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>bmf</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>des Bundesministeriums der Finanzen</t>
+        </is>
+      </c>
+      <c r="L17" s="0" t="inlineStr">
+        <is>
+          <t>the Federal Ministry of Finance</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Q_BMFSFJ</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.bmfsfj.de/#</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.bmfsfj.de/en#</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>bmfsfj</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>des Bundesministeriums für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
+        </is>
+      </c>
+      <c r="L18" s="0" t="inlineStr">
+        <is>
+          <t>the Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Q_BMG</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Gesundheit (BMG)</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Health</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Gesundheit</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Health</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>https://www.bundesgesundheitsministerium.de/</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>https://www.bundesgesundheitsministerium.de/en/</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>bmg</t>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>des Bundesministeriums für Gesundheit</t>
+        </is>
+      </c>
+      <c r="L19" s="0" t="inlineStr">
+        <is>
+          <t>the Federal Ministry of Health</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Q_BMWK</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Wirtschaft und Klimaschutz (BMWK)</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>Federal Ministry for Economic Affairs and Climate Action</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Wirtschaft und Klimaschutz</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>Federal Ministry for Economic Affairs and Climate Action</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>https://www.bmwi.de/Navigation/DE/Home/home.html</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>https://www.bmwi.de/Navigation/EN/Home/home.html</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>bmwk</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="inlineStr">
+        <is>
+          <t>des Bundesministeriums für Wirtschaft und Klimaschutz</t>
+        </is>
+      </c>
+      <c r="L20" s="0" t="inlineStr">
+        <is>
+          <t>the Federal Ministry for Economic Affairs and Climate Action</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Q_BMZ</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ)</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.bmz.de/de#</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.bmz.de/en#</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>bmz</t>
+        </is>
+      </c>
+      <c r="K21" s="0" t="inlineStr">
+        <is>
+          <t>des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+        </is>
+      </c>
+      <c r="L21" s="0" t="inlineStr">
+        <is>
+          <t>the Federal Ministry for Economic Cooperation and Development</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Q_BOLW</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>Bund Ökologische Lebensmittelwirtschaft e. V. (BÖLW)</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>Organic Food Production Alliance</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>Bund Ökologische Lebensmittelwirtschaft e. V.</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>Organic Food Production Alliance</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>https://www.boelw.de/</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>https://www.boelw.de/</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
+        <is>
+          <t>bolw</t>
+        </is>
+      </c>
+      <c r="K22" s="0" t="inlineStr">
+        <is>
+          <t>des Bunds Ökologische Lebensmittelwirtschaft e. V.</t>
+        </is>
+      </c>
+      <c r="L22" s="0" t="inlineStr">
+        <is>
+          <t>the Organic Food Production Alliance</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Q_BREG</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>Bundesregierung (Monitoringbericht Maßnahmeprogramm Nachhaltigkeit)</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>Bundesregierung (Monitoringbericht Maßnahmeprogramm Nachhaltigkeit)</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>X#http://X#</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>X#http://X#</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>der Bundesregierung</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Q_BUNDESBANK</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Deutsche Bundesbank (BBk)</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>German Federal Bank</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>Deutsche Bundesbank</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>German Federal Bank</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>https://www.bundesbank.de/de/</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>https://www.bundesbank.de/en</t>
+        </is>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t>bundesbank</t>
+        </is>
+      </c>
+      <c r="K24" s="0" t="inlineStr">
+        <is>
+          <t>der Deutschen Bundesbank</t>
+        </is>
+      </c>
+      <c r="L24" s="0" t="inlineStr">
+        <is>
+          <t>the German Federal Bank</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Q_BZGA</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Bundeszentrale für gesundheitliche Aufklärung (BZGA)</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>Federal Centre for Health Education</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>Bundeszentrale für gesundheitliche Aufklärung</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>Federal Centre for Health Education</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>https://www.bzga.de/</t>
+        </is>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>https://www.bzga.de/home/bzga/</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>bzga</t>
+        </is>
+      </c>
+      <c r="K25" s="0" t="inlineStr">
+        <is>
+          <t>der Bundeszentrale für gesundheitliche Aufklärung</t>
+        </is>
+      </c>
+      <c r="L25" s="0" t="inlineStr">
+        <is>
+          <t>the Federal Centre for Health Education</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Q_CEVAL</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>CEval GmbH</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>CEval GmbH</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>CEval GmbH</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>CEval GmbH</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>#https://ceval.de/#</t>
+        </is>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>#https://ceval.de/en/#</t>
+        </is>
+      </c>
+      <c r="J26" s="0" t="inlineStr">
+        <is>
+          <t>ceval</t>
+        </is>
+      </c>
+      <c r="K26" s="0" t="inlineStr">
+        <is>
+          <t>der CEval GmbH</t>
+        </is>
+      </c>
+      <c r="L26" s="0" t="inlineStr">
+        <is>
+          <t>the CEval GmbH</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Q_COPERNICUS</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Europäisches Copernikus-Programm</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>Europäisches Copernikus-Programm</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.copernicus.eu/de/ueber-copernicus#</t>
+        </is>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.copernicus.eu/de/ueber-copernicus#</t>
+        </is>
+      </c>
+      <c r="J27" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K27" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Q_DDB</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Deutsche Digitale Bibliothek</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>Deutsche Digitale Bibliothek</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>Deutsche Digitale Bibliothek</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>Deutsche Digitale Bibliothek</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.deutsche-digitale-bibliothek.de/#</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.deutsche-digitale-bibliothek.de/?lang=en#</t>
+        </is>
+      </c>
+      <c r="J28" s="0" t="inlineStr">
+        <is>
+          <t>ddb</t>
+        </is>
+      </c>
+      <c r="K28" s="0" t="inlineStr">
+        <is>
+          <t>der deutschen digitalen Bibliothek</t>
+        </is>
+      </c>
+      <c r="L28" s="0" t="inlineStr">
+        <is>
+          <t>the Deutsche Digitale Bibliothek</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Statistisches Bundesamt (Destatis)</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>Federal Statistical Office</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>Statistisches Bundesamt</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>Federal Statistical Office</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Home/_inhalt.html</t>
+        </is>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/EN/Home/_node.html</t>
+        </is>
+      </c>
+      <c r="J29" s="0" t="inlineStr">
+        <is>
+          <t>destatis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Q_DIHK</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V. (DIHK)</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V.</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>https://www.dihk.de/de</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>https://www.dihk.de/de</t>
+        </is>
+      </c>
+      <c r="J30" s="0" t="inlineStr">
+        <is>
+          <t>dihk</t>
+        </is>
+      </c>
+      <c r="K30" s="0" t="inlineStr">
+        <is>
+          <t>des Deutschen Industrie- und Handelskammertages</t>
+        </is>
+      </c>
+      <c r="L30" s="0" t="inlineStr">
+        <is>
+          <t>the German EMAS Advisory Board</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Q_DIW</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>Deutsches Institut für Wirtschaftsforschung (DIW)</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>German Institute for Economic Research</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>Deutsches Institut für Wirtschaftsforschung</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>German Institute for Economic Research</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>https://www.diw.de/deutsch</t>
+        </is>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>https://www.diw.de/en</t>
+        </is>
+      </c>
+      <c r="J31" s="0" t="inlineStr">
+        <is>
+          <t>diw</t>
+        </is>
+      </c>
+      <c r="K31" s="0" t="inlineStr">
+        <is>
+          <t>des Deutschen Instituts für Wirtschaftsforschung</t>
+        </is>
+      </c>
+      <c r="L31" s="0" t="inlineStr">
+        <is>
+          <t>the German Institute for Economic Research</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Q_DNK</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Deutscher Nachhaltigkeitskodex (DNK)</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>Deutscher Nachhaltigkeitskodex (DNK)</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.deutscher-nachhaltigkeitskodex.de/#</t>
+        </is>
+      </c>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.deutscher-nachhaltigkeitskodex.de/en/#</t>
+        </is>
+      </c>
+      <c r="J32" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K32" s="0" t="inlineStr">
+        <is>
+          <t>vom DNK</t>
+        </is>
+      </c>
+      <c r="L32" s="0" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Q_EMAS</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>Umweltmanagementsystem (EMAS)</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>Umweltmanagementsystem (EMAS)</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.emas.de/was-ist-emas#</t>
+        </is>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.emas.de/en#</t>
+        </is>
+      </c>
+      <c r="J33" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K33" s="0" t="inlineStr">
+        <is>
+          <t>von EMAS</t>
+        </is>
+      </c>
+      <c r="L33" s="0" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>Q_EUROPEANCOMMISSION</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>Europäische Kommission</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>European Commission</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>Europäische Kommission</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>European Commission</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_de</t>
+        </is>
+      </c>
+      <c r="G34" s="0" t="inlineStr">
+        <is>
+          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_en</t>
+        </is>
+      </c>
+      <c r="J34" s="0" t="inlineStr">
+        <is>
+          <t>europeancommission</t>
+        </is>
+      </c>
+      <c r="K34" s="0" t="inlineStr">
+        <is>
+          <t>der Europäischen Kommission</t>
+        </is>
+      </c>
+      <c r="L34" s="0" t="inlineStr">
+        <is>
+          <t>the European Commission</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>Q_EUROSTAT</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>Eurostat</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>Eurostat</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>Eurostat</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>Eurostat</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/de/home</t>
+        </is>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/home</t>
+        </is>
+      </c>
+      <c r="J35" s="0" t="inlineStr">
+        <is>
+          <t>eurostat</t>
+        </is>
+      </c>
+      <c r="K35" s="0" t="inlineStr">
+        <is>
+          <t>von Eurostat</t>
+        </is>
+      </c>
+      <c r="L35" s="0" t="inlineStr">
+        <is>
+          <t>Eurostat</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>Q_EZB</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>Europäische Zentralbank (EZB)</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>European Central Bank</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>Europäische Zentralbank</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>European Central Bank</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>https://www.ecb.europa.eu/home/html/index.de.html</t>
+        </is>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
+        <is>
+          <t>https://www.ecb.europa.eu/home/languagepolicy/html/index.en.html</t>
+        </is>
+      </c>
+      <c r="J36" s="0" t="inlineStr">
+        <is>
+          <t>ezb</t>
+        </is>
+      </c>
+      <c r="K36" s="0" t="inlineStr">
+        <is>
+          <t>der Europäischen Zentralbank</t>
+        </is>
+      </c>
+      <c r="L36" s="0" t="inlineStr">
+        <is>
+          <t>the European Central Bank</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Q_FATF</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>Financial Action Task Force</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>Financial Action Task Force</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>Financial Action Task Force</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>Financial Action Task Force</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.fatf-gafi.org/en/home.html#</t>
+        </is>
+      </c>
+      <c r="G37" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.fatf-gafi.org/en/home.html#</t>
+        </is>
+      </c>
+      <c r="J37" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K37" s="0" t="inlineStr">
+        <is>
+          <t>vom FATF</t>
+        </is>
+      </c>
+      <c r="L37" s="0" t="inlineStr">
+        <is>
+          <t>the FATF</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>Q_FIDAR</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>Frauen in die Aufsichtsräte e.V. (FidAR)</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>https://www.fidar.de/</t>
+        </is>
+      </c>
+      <c r="G38" s="0" t="inlineStr">
+        <is>
+          <t>https://www.fidar.de/</t>
+        </is>
+      </c>
+      <c r="J38" s="0" t="inlineStr">
+        <is>
+          <t>fidar</t>
+        </is>
+      </c>
+      <c r="K38" s="0" t="inlineStr">
+        <is>
+          <t>vom Frauen in die Aufsichtsräte e.V.</t>
+        </is>
+      </c>
+      <c r="L38" s="0" t="inlineStr">
+        <is>
+          <t>the Frauen in die Aufsichtsräte e.V.</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>Q_GBE</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>Gesundheitsberichterstattung des Bundes (GBE)</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>Federal Health Monitoring</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>Gesundheitsberichterstattung des Bundes</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>Federal Health Monitoring</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>https://www.gbe-bund.de/gbe/</t>
+        </is>
+      </c>
+      <c r="G39" s="0" t="inlineStr">
+        <is>
+          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_isgbe?p_uid=gast&amp;p_aid=50554816&amp;p_sprache=E</t>
+        </is>
+      </c>
+      <c r="J39" s="0" t="inlineStr">
+        <is>
+          <t>gbe</t>
+        </is>
+      </c>
+      <c r="K39" s="0" t="inlineStr">
+        <is>
+          <t>der Gesundheitsberichterstattung des Bundes</t>
+        </is>
+      </c>
+      <c r="L39" s="0" t="inlineStr">
+        <is>
+          <t>the Federal Health Monitoring</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>Q_GFK</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>Gesellschaft für Konsumforschung (GfK)</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>Gesellschaft für Konsumforschung</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>Gesellschaft für Konsumforschung</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>Gesellschaft für Konsumforschung</t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>https://www.gfk.com/de/</t>
+        </is>
+      </c>
+      <c r="G40" s="0" t="inlineStr">
+        <is>
+          <t>https://www.gfk.com/</t>
+        </is>
+      </c>
+      <c r="J40" s="0" t="inlineStr">
+        <is>
+          <t>gfk</t>
+        </is>
+      </c>
+      <c r="K40" s="0" t="inlineStr">
+        <is>
+          <t>der Gesellschaft für Konsumforschung</t>
+        </is>
+      </c>
+      <c r="L40" s="0" t="inlineStr">
+        <is>
+          <t>the Gesellschaft für Konsumforschung</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>Q_GHSI</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>Global Health Security Index (GHSI)</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>Global Health Security Index (GHSI)</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>Global Health Security Index</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>Global Health Security Index</t>
+        </is>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>#https://ghsindex.org/#</t>
+        </is>
+      </c>
+      <c r="G41" s="0" t="inlineStr">
+        <is>
+          <t>#https://ghsindex.org/#</t>
+        </is>
+      </c>
+      <c r="J41" s="0" t="inlineStr">
+        <is>
+          <t>ghsi</t>
+        </is>
+      </c>
+      <c r="K41" s="0" t="inlineStr">
+        <is>
+          <t>vom GHSI</t>
+        </is>
+      </c>
+      <c r="L41" s="0" t="inlineStr">
+        <is>
+          <t>the GHSI</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>Q_GIZ</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ)</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH(GIZ)</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>https://www.giz.de/de/html/index.html</t>
+        </is>
+      </c>
+      <c r="G42" s="0" t="inlineStr">
+        <is>
+          <t>https://www.giz.de/en/html/index.html</t>
+        </is>
+      </c>
+      <c r="J42" s="0" t="inlineStr">
+        <is>
+          <t>giz</t>
+        </is>
+      </c>
+      <c r="K42" s="0" t="inlineStr">
+        <is>
+          <t>der Deutschen Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+        </is>
+      </c>
+      <c r="L42" s="0" t="inlineStr">
+        <is>
+          <t>the Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>Q_GMWOEKNM</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>Gemeinwohl-Ökonomie</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>Gemeinwohl-Ökonomie</t>
+        </is>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
+          <t>#https://germany.econgood.org/#</t>
+        </is>
+      </c>
+      <c r="G43" s="0" t="inlineStr">
+        <is>
+          <t>#https://germany.econgood.org/#</t>
+        </is>
+      </c>
+      <c r="J43" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K43" s="0" t="inlineStr">
+        <is>
+          <t>der Gemeinwohl-Ökonomie</t>
+        </is>
+      </c>
+      <c r="L43" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>Q_IAB</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>Institut für Arbeitsmarkt- und Berufsforschung (IAB)</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>Institut for Employment Research</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>Institut für Arbeitsmarkt- und Berufsforschung</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>Institut for Employment Research</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>#https://iab.de/#</t>
+        </is>
+      </c>
+      <c r="G44" s="0" t="inlineStr">
+        <is>
+          <t>#https://iab.de/en/#</t>
+        </is>
+      </c>
+      <c r="J44" s="0" t="inlineStr">
+        <is>
+          <t>iab</t>
+        </is>
+      </c>
+      <c r="K44" s="0" t="inlineStr">
+        <is>
+          <t>des Instituts für Arbeitsmarkt- und Berufsforschung</t>
+        </is>
+      </c>
+      <c r="L44" s="0" t="inlineStr">
+        <is>
+          <t>the Institut for Employment Research</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>Q_IFEU</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH (ifeu)</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>Institute for Energy and Environmental Research</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t>Institute for Energy and Environmental Research</t>
+        </is>
+      </c>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>https://www.ifeu.de/</t>
+        </is>
+      </c>
+      <c r="G45" s="0" t="inlineStr">
+        <is>
+          <t>https://www.ifeu.de/en/</t>
+        </is>
+      </c>
+      <c r="J45" s="0" t="inlineStr">
+        <is>
+          <t>ifeu</t>
+        </is>
+      </c>
+      <c r="K45" s="0" t="inlineStr">
+        <is>
+          <t>des Instituts für Energie- und Umweltforschung Heidelberg gGmbH</t>
+        </is>
+      </c>
+      <c r="L45" s="0" t="inlineStr">
+        <is>
+          <t>the Institute for Energy and Environmental Research</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>Q_JHT</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>Johann Heinrich von Thünen-Institut (TI)</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>Johann Heinrich von Thünen Institute</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>Johann Heinrich von Thünen-Institut</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>Johann Heinrich von Thünen Institute</t>
+        </is>
+      </c>
+      <c r="F46" s="0" t="inlineStr">
+        <is>
+          <t>https://www.thuenen.de/de/</t>
+        </is>
+      </c>
+      <c r="G46" s="0" t="inlineStr">
+        <is>
+          <t>https://www.thuenen.de/en/</t>
+        </is>
+      </c>
+      <c r="J46" s="0" t="inlineStr">
+        <is>
+          <t>jht</t>
+        </is>
+      </c>
+      <c r="K46" s="0" t="inlineStr">
+        <is>
+          <t>des Johann Heinrich von Thünen-Instituts</t>
+        </is>
+      </c>
+      <c r="L46" s="0" t="inlineStr">
+        <is>
+          <t>the Johann Heinrich von Thünen Institute</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>Q_JKI</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut (JKI)</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
+        </is>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+        </is>
+      </c>
+      <c r="F47" s="0" t="inlineStr">
+        <is>
+          <t>https://www.julius-kuehn.de/pb/</t>
+        </is>
+      </c>
+      <c r="G47" s="0" t="inlineStr">
+        <is>
+          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
+        </is>
+      </c>
+      <c r="J47" s="0" t="inlineStr">
+        <is>
+          <t>jki</t>
+        </is>
+      </c>
+      <c r="K47" s="0" t="inlineStr">
+        <is>
+          <t>des Instituts für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
+        </is>
+      </c>
+      <c r="L47" s="0" t="inlineStr">
+        <is>
+          <t>the Institute for Crop and Soil Science, Julius Kühn Institute</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>Q_KBA</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>Kraftfahrt-Bundesamt (KBA)</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>Federal Motor Transport Authority</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>Kraftfahrt-Bundesamt</t>
+        </is>
+      </c>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t>Federal Motor Transport Authority</t>
+        </is>
+      </c>
+      <c r="F48" s="0" t="inlineStr">
+        <is>
+          <t>https://www.kba.de/DE/Home/home_node.html</t>
+        </is>
+      </c>
+      <c r="G48" s="0" t="inlineStr">
+        <is>
+          <t>https://www.kba.de/EN/Home/home_node.html</t>
+        </is>
+      </c>
+      <c r="J48" s="0" t="inlineStr">
+        <is>
+          <t>kba</t>
+        </is>
+      </c>
+      <c r="K48" s="0" t="inlineStr">
+        <is>
+          <t>des Kraftfahrt-Bundesamts</t>
+        </is>
+      </c>
+      <c r="L48" s="0" t="inlineStr">
+        <is>
+          <t>the Federal Motor Transport Authority</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>Q_KBK</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>KlimaBilanzKultur und KlimaBilanzKultur+</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>KlimaBilanzKultur und KlimaBilanzKultur+</t>
+        </is>
+      </c>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F49" s="0" t="inlineStr">
+        <is>
+          <t>X#http://X#</t>
+        </is>
+      </c>
+      <c r="G49" s="0" t="inlineStr">
+        <is>
+          <t>X#http://X#</t>
+        </is>
+      </c>
+      <c r="J49" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K49" s="0" t="inlineStr">
+        <is>
+          <t>von KlimaBilanzKultur</t>
+        </is>
+      </c>
+      <c r="L49" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>Q_KFW</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>Kreditanstalt für Wiederaufbau</t>
+        </is>
+      </c>
+      <c r="E50" s="0" t="inlineStr">
+        <is>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+        </is>
+      </c>
+      <c r="F50" s="0" t="inlineStr">
+        <is>
+          <t>https://www.kfw.de/kfw.de.html</t>
+        </is>
+      </c>
+      <c r="G50" s="0" t="inlineStr">
+        <is>
+          <t>https://www.kfw.de/kfw.de-2.html</t>
+        </is>
+      </c>
+      <c r="J50" s="0" t="inlineStr">
+        <is>
+          <t>kfw</t>
+        </is>
+      </c>
+      <c r="K50" s="0" t="inlineStr">
+        <is>
+          <t>der Kreditanstalt für Wiederaufbau</t>
+        </is>
+      </c>
+      <c r="L50" s="0" t="inlineStr">
+        <is>
+          <t>the Kreditanstalt für Wiederaufbau</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>Q_KINO</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
+        </is>
+      </c>
+      <c r="E51" s="0" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="F51" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.green-motion.org/files/16_green_motion/Dokumente/20241209_OEkologische_Standards_UEbergangsfassung_Januar_2025.pdf#</t>
+        </is>
+      </c>
+      <c r="G51" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.green-motion.org/files/16_green_motion/Dokumente/20241209_OEkologische_Standards_UEbergangsfassung_Januar_2025.pdf#</t>
+        </is>
+      </c>
+      <c r="J51" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K51" s="0" t="inlineStr">
+        <is>
+          <t>von Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
+        </is>
+      </c>
+      <c r="L51" s="0" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>Q_KMLHE</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+        </is>
+      </c>
+      <c r="E52" s="0" t="inlineStr">
+        <is>
+          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+        </is>
+      </c>
+      <c r="F52" s="0" t="inlineStr">
+        <is>
+          <t>X#http://X#</t>
+        </is>
+      </c>
+      <c r="G52" s="0" t="inlineStr">
+        <is>
+          <t>X#http://X#</t>
+        </is>
+      </c>
+      <c r="J52" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K52" s="0" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L52" s="0" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>Q_KNB</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern (KNB) </t>
+        </is>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>Center of Excellence for Sustainable Procurement</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
+        </is>
+      </c>
+      <c r="E53" s="0" t="inlineStr">
+        <is>
+          <t>Competence Center for Sustainable Procurement</t>
+        </is>
+      </c>
+      <c r="F53" s="0" t="inlineStr">
+        <is>
+          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
+        </is>
+      </c>
+      <c r="G53" s="0" t="inlineStr">
+        <is>
+          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
+        </is>
+      </c>
+      <c r="J53" s="0" t="inlineStr">
+        <is>
+          <t>knb</t>
+        </is>
+      </c>
+      <c r="K53" s="0" t="inlineStr">
+        <is>
+          <t>der Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern</t>
+        </is>
+      </c>
+      <c r="L53" s="0" t="inlineStr">
+        <is>
+          <t>the Center of Excellence for Sustainable Procurement</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>Q_LAKEB</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>Länderarbeitskreis (LAK) Energiebilanzen</t>
+        </is>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>Länderarbeitskreis Energiebilanzen</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>Länderarbeitskreis Energiebilanzen</t>
+        </is>
+      </c>
+      <c r="E54" s="0" t="inlineStr">
+        <is>
+          <t>LAK Energiebilanzen</t>
+        </is>
+      </c>
+      <c r="F54" s="0" t="inlineStr">
+        <is>
+          <t>http://www.lak-energiebilanzen.de/</t>
+        </is>
+      </c>
+      <c r="G54" s="0" t="inlineStr">
+        <is>
+          <t>http://www.lak-energiebilanzen.de/</t>
+        </is>
+      </c>
+      <c r="J54" s="0" t="inlineStr">
+        <is>
+          <t>lakeb</t>
+        </is>
+      </c>
+      <c r="K54" s="0" t="inlineStr">
+        <is>
+          <t>des Länderarbeitskreises Energiebilanzen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>Q_LIKI</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>Länderinitiative Kernindikatoren (LIKI)</t>
+        </is>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>Länderinitiative Kernindikatoren</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>Länderinitiative Kernindikatoren</t>
+        </is>
+      </c>
+      <c r="E55" s="0" t="inlineStr">
+        <is>
+          <t>Länderinitiative Kernindikatoren</t>
+        </is>
+      </c>
+      <c r="F55" s="0" t="inlineStr">
+        <is>
+          <t>https://www.lanuv.nrw.de/liki/index.php</t>
+        </is>
+      </c>
+      <c r="G55" s="0" t="inlineStr">
+        <is>
+          <t>https://www.lanuv.nrw.de/liki/index.php</t>
+        </is>
+      </c>
+      <c r="J55" s="0" t="inlineStr">
+        <is>
+          <t>liki</t>
+        </is>
+      </c>
+      <c r="K55" s="0" t="inlineStr">
+        <is>
+          <t>der Länderinitiative Kernindikatoren</t>
+        </is>
+      </c>
+      <c r="L55" s="0" t="inlineStr">
+        <is>
+          <t>the Länderinitiative Kernindikatoren</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>Q_OECD</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD)</t>
+        </is>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>Organisation for Economic Co-operation and Development</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+        </is>
+      </c>
+      <c r="E56" s="0" t="inlineStr">
+        <is>
+          <t>Organisation for Economic Co-operation and Development</t>
+        </is>
+      </c>
+      <c r="F56" s="0" t="inlineStr">
+        <is>
+          <t>https://www.oecd.org/</t>
+        </is>
+      </c>
+      <c r="G56" s="0" t="inlineStr">
+        <is>
+          <t>https://www.oecd.org/</t>
+        </is>
+      </c>
+      <c r="J56" s="0" t="inlineStr">
+        <is>
+          <t>oecd</t>
+        </is>
+      </c>
+      <c r="K56" s="0" t="inlineStr">
+        <is>
+          <t>der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+        </is>
+      </c>
+      <c r="L56" s="0" t="inlineStr">
+        <is>
+          <t>the Organisation for Economic Co-operation and Development</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>Q_OEKPFT</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>Ökoprofit</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>Ökoprofit</t>
+        </is>
+      </c>
+      <c r="F57" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.oekoprofit.info/#</t>
+        </is>
+      </c>
+      <c r="G57" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.oekoprofit.info/#</t>
+        </is>
+      </c>
+      <c r="J57" s="0" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K57" s="0" t="inlineStr">
+        <is>
+          <t>von Ökoprofit</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>Q_RKI</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>Robert Koch-Institut (RKI)</t>
+        </is>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>Robert Koch Institute</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>Robert Koch-Institut</t>
+        </is>
+      </c>
+      <c r="E58" s="0" t="inlineStr">
+        <is>
+          <t>Robert Koch Institute</t>
+        </is>
+      </c>
+      <c r="F58" s="0" t="inlineStr">
+        <is>
+          <t>https://www.rki.de/DE/Home/homepage_node.html</t>
+        </is>
+      </c>
+      <c r="G58" s="0" t="inlineStr">
+        <is>
+          <t>https://www.rki.de/EN/Home/homepage_node.html</t>
+        </is>
+      </c>
+      <c r="J58" s="0" t="inlineStr">
+        <is>
+          <t>rki</t>
+        </is>
+      </c>
+      <c r="K58" s="0" t="inlineStr">
+        <is>
+          <t>des Robert Koch-Instituts</t>
+        </is>
+      </c>
+      <c r="L58" s="0" t="inlineStr">
+        <is>
+          <t>the Robert Koch Institute</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>Q_SVWS</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>Stifterverband Wissenschaftsstatistik</t>
+        </is>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>Stifterverband Wissenschaftsstatistik</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>Stifterverband Wissenschaftsstatistik</t>
+        </is>
+      </c>
+      <c r="E59" s="0" t="inlineStr">
+        <is>
+          <t>Stifterverband Wissenschaftsstatistik</t>
+        </is>
+      </c>
+      <c r="F59" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.stifterverband.org/#</t>
+        </is>
+      </c>
+      <c r="G59" s="0" t="inlineStr">
+        <is>
+          <t>#https://www.stifterverband.org/english#</t>
+        </is>
+      </c>
+      <c r="J59" s="0" t="inlineStr">
+        <is>
+          <t>svws</t>
+        </is>
+      </c>
+      <c r="K59" s="0" t="inlineStr">
+        <is>
+          <t>des Stifterverbands Wissenschaftsstatistik</t>
+        </is>
+      </c>
+      <c r="L59" s="0" t="inlineStr">
+        <is>
+          <t>the Stifterverband Wissenschaftsstatistik</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>Q_TA</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>Transparency International e.V.</t>
+        </is>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>Transparency International e.V.</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>Transparency International e.V.</t>
+        </is>
+      </c>
+      <c r="E60" s="0" t="inlineStr">
+        <is>
+          <t>Transparency International e.V.</t>
+        </is>
+      </c>
+      <c r="F60" s="0" t="inlineStr">
+        <is>
+          <t>https://www.transparency.de/</t>
+        </is>
+      </c>
+      <c r="G60" s="0" t="inlineStr">
+        <is>
+          <t>https://www.transparency.de/en/</t>
+        </is>
+      </c>
+      <c r="J60" s="0" t="inlineStr">
+        <is>
+          <t>ta</t>
+        </is>
+      </c>
+      <c r="K60" s="0" t="inlineStr">
+        <is>
+          <t>von Transparency International</t>
+        </is>
+      </c>
+      <c r="L60" s="0" t="inlineStr">
+        <is>
+          <t>Transparency International</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt (UBA)</t>
+        </is>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>German Environment Agency</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt</t>
+        </is>
+      </c>
+      <c r="E61" s="0" t="inlineStr">
+        <is>
+          <t>German Environment Agency</t>
+        </is>
+      </c>
+      <c r="F61" s="0" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/</t>
+        </is>
+      </c>
+      <c r="G61" s="0" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en</t>
+        </is>
+      </c>
+      <c r="J61" s="0" t="inlineStr">
+        <is>
+          <t>uba</t>
+        </is>
+      </c>
+      <c r="K61" s="0" t="inlineStr">
+        <is>
+          <t>des Umweltbundesamts</t>
+        </is>
+      </c>
+      <c r="L61" s="0" t="inlineStr">
+        <is>
+          <t>the German Environment Agency</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>Q_UBA_1</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+        </is>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions)</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+        </is>
+      </c>
+      <c r="E62" s="0" t="inlineStr">
+        <is>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
+        </is>
+      </c>
+      <c r="F62" s="0" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/</t>
+        </is>
+      </c>
+      <c r="G62" s="0" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en</t>
+        </is>
+      </c>
+      <c r="J62" s="0" t="inlineStr">
+        <is>
+          <t>uba</t>
+        </is>
+      </c>
+      <c r="K62" s="0" t="inlineStr">
+        <is>
+          <t>des Umweltbundesamts</t>
+        </is>
+      </c>
+      <c r="L62" s="0" t="inlineStr">
+        <is>
+          <t>the German Environment Agency</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>Q_UBALAWA</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
+        </is>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser</t>
+        </is>
+      </c>
+      <c r="E63" s="0" t="inlineStr">
+        <is>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government</t>
+        </is>
+      </c>
+      <c r="F63" s="0" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/</t>
+        </is>
+      </c>
+      <c r="G63" s="0" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en</t>
+        </is>
+      </c>
+      <c r="J63" s="0" t="inlineStr">
+        <is>
+          <t>uba</t>
+        </is>
+      </c>
+      <c r="K63" s="0" t="inlineStr">
+        <is>
+          <t>des Umweltbundesamts</t>
+        </is>
+      </c>
+      <c r="L63" s="0" t="inlineStr">
+        <is>
+          <t>the German Environment Agency</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>Q_UG</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+        </is>
+      </c>
+      <c r="E64" s="0" t="inlineStr">
+        <is>
+          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
+        </is>
+      </c>
+      <c r="F64" s="0" t="inlineStr">
+        <is>
+          <t>https://www.uni-giessen.de/fbz/fb09/institute/ilr</t>
+        </is>
+      </c>
+      <c r="G64" s="0" t="inlineStr">
+        <is>
+          <t>https://www.uni-giessen.de/faculties/f09/institutes/landscape?set_language=en</t>
+        </is>
+      </c>
+      <c r="J64" s="0" t="inlineStr">
+        <is>
+          <t>ug</t>
+        </is>
+      </c>
+      <c r="K64" s="0" t="inlineStr">
+        <is>
+          <t>der Universität Gießen</t>
+        </is>
+      </c>
+      <c r="L64" s="0" t="inlineStr">
+        <is>
+          <t>the University of Giessen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>Q_VCD</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>Verkehrsclub Deutschland e.V. (VCD)</t>
+        </is>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>Verkehrsclub Deutschland e.V.</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>Verkehrsclub Deutschland e.V.</t>
+        </is>
+      </c>
+      <c r="E65" s="0" t="inlineStr">
+        <is>
+          <t>Verkehrsclub Deutschland e.V.</t>
+        </is>
+      </c>
+      <c r="F65" s="0" t="inlineStr">
+        <is>
+          <t>https://www.vcd.org/startseite/</t>
+        </is>
+      </c>
+      <c r="G65" s="0" t="inlineStr">
+        <is>
+          <t>https://www.vcd.org/startseite/</t>
+        </is>
+      </c>
+      <c r="J65" s="0" t="inlineStr">
+        <is>
+          <t>vcd</t>
+        </is>
+      </c>
+      <c r="K65" s="0" t="inlineStr">
+        <is>
+          <t>des Verkehrsclub Deutschlands</t>
+        </is>
+      </c>
+      <c r="L65" s="0" t="inlineStr">
+        <is>
+          <t>the Verkehrsclub Deutschland e.V.</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>Q_VWGDL</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="E66" s="0" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="F66" s="0" t="inlineStr">
+        <is>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+        </is>
+      </c>
+      <c r="G66" s="0" t="inlineStr">
+        <is>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+        </is>
+      </c>
+      <c r="J66" s="0" t="inlineStr">
+        <is>
+          <t>vwgdl</t>
+        </is>
+      </c>
+      <c r="K66" s="0" t="inlineStr">
+        <is>
+          <t>der Statistischen Ämter der Länder</t>
+        </is>
+      </c>
+      <c r="L66" s="0" t="inlineStr">
+        <is>
+          <t>the Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>Q_WHO</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>Weltgesundheitsorganisation (WHO)</t>
+        </is>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>World Health Organization</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>Weltgesundheitsorganisation</t>
+        </is>
+      </c>
+      <c r="E67" s="0" t="inlineStr">
+        <is>
+          <t>World Health Organization</t>
+        </is>
+      </c>
+      <c r="F67" s="0" t="inlineStr">
+        <is>
+          <t>http://www.euro.who.int/de/home</t>
+        </is>
+      </c>
+      <c r="G67" s="0" t="inlineStr">
+        <is>
+          <t>http://www.euro.who.int/en/home</t>
+        </is>
+      </c>
+      <c r="J67" s="0" t="inlineStr">
+        <is>
+          <t>who</t>
+        </is>
+      </c>
+      <c r="K67" s="0" t="inlineStr">
+        <is>
+          <t>der Weltgesundheitsorganisation</t>
+        </is>
+      </c>
+      <c r="L67" s="0" t="inlineStr">
+        <is>
+          <t>the World Health Organization</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -552,47 +552,47 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Q_AA</t>
+          <t>Q_KBK</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Auswärtiges Amt (AA)</t>
+          <t>KlimaBilanzKultur und KlimaBilanzKultur+</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>des Auswärtigen Amtes</t>
+          <t>von KlimaBilanzKultur</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>Federal Foreign Office </t>
+          <t>X</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>the Federal Foreign Office </t>
+          <t>X</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>Auswärtiges Amt</t>
+          <t>KlimaBilanzKultur und KlimaBilanzKultur+</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>Federal Foreign Office </t>
+          <t>X</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>https://www.auswaertiges-amt.de/de/</t>
+          <t>https://www.kmk.org/fileadmin/pdf/PresseUndAktuelles/2023/Anleitung_zum_CO2-Kulturrechner.pdf</t>
         </is>
       </c>
       <c r="I2" s="5" t="inlineStr">
         <is>
-          <t>https://www.auswaertiges-amt.de/en</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J2" s="4" t="inlineStr">
@@ -607,54 +607,54 @@
       </c>
       <c r="L2" s="4" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>Q_AGEB</t>
+          <t>Q_KINO</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>AG Energiebilanzen e.V.</t>
+          <t>Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>des AG Energiebilanzen e.V.</t>
+          <t>von Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>AG Energiebilanzen e.V.</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>the AG Energiebilanzen e.V.</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>AG Energiebilanzen e.V.</t>
+          <t>Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>AG Energiebilanzen e.V.</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
-          <t>https://ag-energiebilanzen.de/</t>
+          <t>https://www.green-motion.org/files/16_green_motion/Dokumente/20241209_OEkologische_Standards_UEbergangsfassung_Januar_2025.pdf</t>
         </is>
       </c>
       <c r="I3" s="5" t="inlineStr">
         <is>
-          <t>https://ag-energiebilanzen.de/en/</t>
+          <t>https://www.green-motion.org/files/16_green_motion/Dokumente/20241209_OEkologische_Standards_UEbergangsfassung_Januar_2025.pdf</t>
         </is>
       </c>
       <c r="J3" s="4" t="inlineStr">
@@ -669,54 +669,54 @@
       </c>
       <c r="L3" s="4" t="inlineStr">
         <is>
-          <t>ageb</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Q_AGEESTAT</t>
+          <t>Q_KMLHE</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik (AGEE-Stat)</t>
+          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>der Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>x</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>the Working Group on Renewable Energy Statistics</t>
+          <t>x</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
+          <t>https://www.bildungsserver.de/kultusministerien-580-de.html</t>
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
         <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
@@ -731,54 +731,54 @@
       </c>
       <c r="L4" s="4" t="inlineStr">
         <is>
-          <t>ageestat</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Q_AGNE</t>
+          <t>Q_AA</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
+          <t>Auswärtiges Amt (AA)</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>der Arbeitsgruppe Nachhaltige Entwicklung</t>
+          <t>des Auswärtigen Amtes</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Working Group</t>
+          <t>Federal Foreign Office </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>the Sustainable Development Working Group</t>
+          <t>the Federal Foreign Office </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
+          <t>Auswärtiges Amt</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Working Group</t>
+          <t>Federal Foreign Office </t>
         </is>
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
+          <t>https://www.auswaertiges-amt.de/de/</t>
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
+          <t>https://www.auswaertiges-amt.de/en</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
@@ -793,54 +793,54 @@
       </c>
       <c r="L5" s="4" t="inlineStr">
         <is>
-          <t>agne</t>
+          <t>aa</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Q_AKUGRDL</t>
+          <t>Q_AGEB</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder (AK UGRdL)</t>
+          <t>AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>des Arbeitskreises der Umweltökonomischen Gesamtrechnungen der Länder</t>
+          <t>des AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
+          <t>AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>the Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
+          <t>the AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
+          <t>AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>AK UGRdL</t>
+          <t>AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
+          <t>https://ag-energiebilanzen.de/</t>
         </is>
       </c>
       <c r="I6" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
+          <t>https://ag-energiebilanzen.de/en/</t>
         </is>
       </c>
       <c r="J6" s="4" t="inlineStr">
@@ -855,54 +855,54 @@
       </c>
       <c r="L6" s="4" t="inlineStr">
         <is>
-          <t>akugrdl</t>
+          <t>ageb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Q_AMI</t>
+          <t>Q_AGEESTAT</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Agrarmarkt Informations-Gesellschaft mbH (AMI)</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik (AGEE-Stat)</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>der Agrarmarkt Informations-Gesellschaft mbH</t>
+          <t>der Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>Agricultural Market Information Company</t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>the Agricultural Market Information Company</t>
+          <t>the Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>Agrarmarkt Informations-Gesellschaft mbH</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>Agricultural Market Information Company</t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>https://www.ami-informiert.de/ami-maerkte</t>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
-          <t>https://www.ami-informiert.de/ami-english/ami-about-us/about-us</t>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
@@ -917,54 +917,54 @@
       </c>
       <c r="L7" s="4" t="inlineStr">
         <is>
-          <t>ami</t>
+          <t>ageestat</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Q_BBSR</t>
+          <t>Q_AGNE</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung (BBSR)</t>
+          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>des Bundesinstituts für Bau-, Stadt- und Raumforschung</t>
+          <t>der Arbeitsgruppe Nachhaltige Entwicklung</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+          <t>Sustainable Development Working Group</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>the Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+          <t>the Sustainable Development Working Group</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
+          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+          <t>Sustainable Development Working Group</t>
         </is>
       </c>
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>https://www.bbsr.bund.de/BBSR/DE/startseite/_node.html</t>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
         </is>
       </c>
       <c r="I8" s="5" t="inlineStr">
         <is>
-          <t>https://www.bbsr.bund.de/BBSR/EN/home/_node.html</t>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
@@ -979,54 +979,54 @@
       </c>
       <c r="L8" s="4" t="inlineStr">
         <is>
-          <t>bbsr</t>
+          <t>agne</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Q_BFN</t>
+          <t>Q_AKUGRDL</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Naturschutz (BfN)</t>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder (AK UGRdL)</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>des Bundesamts für Naturschutz</t>
+          <t>des Arbeitskreises der Umweltökonomischen Gesamtrechnungen der Länder</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Nature Conservation </t>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>the Federal Agency for Nature Conservation </t>
+          <t>the Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Naturschutz</t>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+          <t>AK UGRdL</t>
         </is>
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>https://www.bfn.de/</t>
+          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
         </is>
       </c>
       <c r="I9" s="5" t="inlineStr">
         <is>
-          <t>https://www.bfn.de/en.html</t>
+          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
         </is>
       </c>
       <c r="J9" s="4" t="inlineStr">
@@ -1041,54 +1041,54 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>bfn</t>
+          <t>akugrdl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Q_BKA</t>
+          <t>Q_AMI</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Bundeskriminalamt (BKA)</t>
+          <t>Agrarmarkt Informations-Gesellschaft mbH (AMI)</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>des Bundeskriminalamts</t>
+          <t>der Agrarmarkt Informations-Gesellschaft mbH</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>Federal Criminal Police Office</t>
+          <t>Agricultural Market Information Company</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>the Federal Criminal Police Office</t>
+          <t>the Agricultural Market Information Company</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>Bundeskriminalamt</t>
+          <t>Agrarmarkt Informations-Gesellschaft mbH</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>Federal Criminal Police Office</t>
+          <t>Agricultural Market Information Company</t>
         </is>
       </c>
       <c r="H10" s="5" t="inlineStr">
         <is>
-          <t>https://www.bka.de/DE/Home/home_node.html</t>
+          <t>https://www.ami-informiert.de/ami-maerkte</t>
         </is>
       </c>
       <c r="I10" s="5" t="inlineStr">
         <is>
-          <t>https://www.bka.de/EN/Home/home_node.html</t>
+          <t>https://www.ami-informiert.de/ami-english/ami-about-us/about-us</t>
         </is>
       </c>
       <c r="J10" s="4" t="inlineStr">
@@ -1103,54 +1103,54 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>bka</t>
+          <t>ami</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Q_BKAMT</t>
+          <t>Q_BBSR</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Bundeskanzleramt</t>
+          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung (BBSR)</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>des Bundeskanzleramts</t>
+          <t>des Bundesinstituts für Bau-, Stadt- und Raumforschung</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>Federal Chancellery</t>
+          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>the Federal Chancellery</t>
+          <t>the Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>Bundeskanzleramt</t>
+          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
         </is>
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>Federal Chancellery</t>
+          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
       <c r="H11" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesregierung.de/breg-de/bundesregierung/bundeskanzleramt</t>
+          <t>https://www.bbsr.bund.de/BBSR/DE/startseite/_node.html</t>
         </is>
       </c>
       <c r="I11" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesregierung.de/breg-en/federal-government</t>
+          <t>https://www.bbsr.bund.de/BBSR/EN/home/_node.html</t>
         </is>
       </c>
       <c r="J11" s="4" t="inlineStr">
@@ -1165,54 +1165,54 @@
       </c>
       <c r="L11" s="4" t="inlineStr">
         <is>
-          <t>bkamt</t>
+          <t>bbsr</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Q_BKG</t>
+          <t>Q_BFN</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Kartographie und Geodäsie (BKG)</t>
+          <t>Bundesamt für Naturschutz (BfN)</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>vom BKG</t>
+          <t>des Bundesamts für Naturschutz</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Cartography and Geodesy</t>
+          <t>Federal Agency for Nature Conservation </t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>the BKG</t>
+          <t>the Federal Agency for Nature Conservation </t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Kartographie und Geodäsie</t>
+          <t>Bundesamt für Naturschutz</t>
         </is>
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Cartography and Geodesy</t>
+          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>https://www.bkg.bund.de/DE/Home/home.html</t>
+          <t>https://www.bfn.de/</t>
         </is>
       </c>
       <c r="I12" s="5" t="inlineStr">
         <is>
-          <t>https://www.bkg.bund.de/EN/Home/</t>
+          <t>https://www.bfn.de/en.html</t>
         </is>
       </c>
       <c r="J12" s="4" t="inlineStr">
@@ -1227,54 +1227,54 @@
       </c>
       <c r="L12" s="4" t="inlineStr">
         <is>
-          <t>bkg</t>
+          <t>bfn</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Q_BKM</t>
+          <t>Q_BKA</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
+          <t>Bundeskriminalamt (BKA)</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>der Beauftragten der Bundesregierung für Kultur und Medien</t>
+          <t>des Bundeskriminalamts</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>Federal Government Commissioner for Culture and the Media</t>
+          <t>Federal Criminal Police Office</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>the Federal Government Commissioner for Culture and the Media</t>
+          <t>the Federal Criminal Police Office</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
+          <t>Bundeskriminalamt</t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>Federal Government Commissioner for Culture and the Media</t>
+          <t>Federal Criminal Police Office</t>
         </is>
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>https://www.kulturstaatsministerin.de/DE/startseite/startseite_node.html</t>
+          <t>https://www.bka.de/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="I13" s="5" t="inlineStr">
         <is>
-          <t>https://www.kulturstaatsministerin.de/DE/startseite/startseite_node.html</t>
+          <t>https://www.bka.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
@@ -1289,54 +1289,54 @@
       </c>
       <c r="L13" s="4" t="inlineStr">
         <is>
-          <t>bkm</t>
+          <t>bka</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Q_BMBF</t>
+          <t>Q_BKAMT</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Bildung und Forschung (BMBF)</t>
+          <t>Bundeskanzleramt</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Bildung und Frschung</t>
+          <t>des Bundeskanzleramts</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Education and Research</t>
+          <t>Federal Chancellery</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry of Education and Research</t>
+          <t>the Federal Chancellery</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Bildung und Forschung</t>
+          <t>Bundeskanzleramt</t>
         </is>
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Education and Research</t>
+          <t>Federal Chancellery</t>
         </is>
       </c>
       <c r="H14" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmbf.de/</t>
+          <t>https://www.bundesregierung.de/breg-de/bundesregierung/bundeskanzleramt</t>
         </is>
       </c>
       <c r="I14" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmbf.de/bmbf/en/</t>
+          <t>https://www.bundesregierung.de/breg-en/federal-government</t>
         </is>
       </c>
       <c r="J14" s="4" t="inlineStr">
@@ -1351,54 +1351,54 @@
       </c>
       <c r="L14" s="4" t="inlineStr">
         <is>
-          <t>bmbf</t>
+          <t>bkamt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Q_BMDV</t>
+          <t>Q_BKG</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Digitales und Verkehr (BMDV)</t>
+          <t>Bundesamt für Kartographie und Geodäsie (BKG)</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Digitales und Verkehr</t>
+          <t>vom BKG</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Digital and Transport</t>
+          <t>Federal Agency for Cartography and Geodesy</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry for Digital and Transport</t>
+          <t>the BKG</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Digitales und Verkehr</t>
+          <t>Bundesamt für Kartographie und Geodäsie</t>
         </is>
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Digital and Transport</t>
+          <t>Federal Agency for Cartography and Geodesy</t>
         </is>
       </c>
       <c r="H15" s="5" t="inlineStr">
         <is>
-          <t>https://bmdv.bund.de/DE/Home/home.html</t>
+          <t>https://www.bkg.bund.de/DE/Home/home.html</t>
         </is>
       </c>
       <c r="I15" s="5" t="inlineStr">
         <is>
-          <t>https://bmdv.bund.de/EN/Home/home.html</t>
+          <t>https://www.bkg.bund.de/EN/Home/</t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
@@ -1413,54 +1413,54 @@
       </c>
       <c r="L15" s="4" t="inlineStr">
         <is>
-          <t>bmdv</t>
+          <t>bkg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Q_BMEL</t>
+          <t>Q_BKM</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Ernährung und Landwirtschaft (BMEL)</t>
+          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Ernährung und Landwirtschaft</t>
+          <t>der Beauftragten der Bundesregierung für Kultur und Medien</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>Federal Government Commissioner for Culture and the Media</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry of Food and Agriculture</t>
+          <t>the Federal Government Commissioner for Culture and the Media</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
+          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
         </is>
       </c>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>Federal Government Commissioner for Culture and the Media</t>
         </is>
       </c>
       <c r="H16" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmel.de/DE/Startseite/startseite_node.html</t>
+          <t>https://www.kulturstaatsministerin.de/DE/startseite/startseite_node.html</t>
         </is>
       </c>
       <c r="I16" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmel.de/EN/Home/home_node.html</t>
+          <t>https://www.kulturstaatsministerin.de/DE/startseite/startseite_node.html</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
@@ -1475,54 +1475,54 @@
       </c>
       <c r="L16" s="4" t="inlineStr">
         <is>
-          <t>bmel</t>
+          <t>bkm</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Q_BMF</t>
+          <t>Q_BMBF</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Finanzen (BMF)</t>
+          <t>Bundesministerium für Bildung und Forschung (BMBF)</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums der Finanzen</t>
+          <t>des Bundesministeriums für Bildung und Frschung</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Finance</t>
+          <t>Federal Ministry of Education and Research</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry of Finance</t>
+          <t>the Federal Ministry of Education and Research</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Finanzen</t>
+          <t>Bundesministerium für Bildung und Forschung</t>
         </is>
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Finance</t>
+          <t>Federal Ministry of Education and Research</t>
         </is>
       </c>
       <c r="H17" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesfinanzministerium.de/Web/DE/Home/home.html</t>
+          <t>https://www.bmbf.de/</t>
         </is>
       </c>
       <c r="I17" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesfinanzministerium.de/Web/EN/Home/home.html</t>
+          <t>https://www.bmbf.de/bmbf/en/</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
@@ -1537,54 +1537,54 @@
       </c>
       <c r="L17" s="4" t="inlineStr">
         <is>
-          <t>bmf</t>
+          <t>bmbf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Q_BMFSFJ</t>
+          <t>Q_BMDV</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
+          <t>Bundesministerium für Digitales und Verkehr (BMDV)</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
+          <t>des Bundesministeriums für Digitales und Verkehr</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
+          <t>Federal Ministry for Digital and Transport</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
+          <t>the Federal Ministry for Digital and Transport</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
+          <t>Bundesministerium für Digitales und Verkehr</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
+          <t>Federal Ministry for Digital and Transport</t>
         </is>
       </c>
       <c r="H18" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmfsfj.de/</t>
+          <t>https://bmdv.bund.de/DE/Home/home.html</t>
         </is>
       </c>
       <c r="I18" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmfsfj.de/en</t>
+          <t>https://bmdv.bund.de/EN/Home/home.html</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
@@ -1599,54 +1599,54 @@
       </c>
       <c r="L18" s="4" t="inlineStr">
         <is>
-          <t>bmfsfj</t>
+          <t>bmdv</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Q_BMG</t>
+          <t>Q_BMEL</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Gesundheit (BMG)</t>
+          <t>Bundesministerium für Ernährung und Landwirtschaft (BMEL)</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Gesundheit</t>
+          <t>des Bundesministeriums für Ernährung und Landwirtschaft</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Health</t>
+          <t>Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry of Health</t>
+          <t>the Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Gesundheit</t>
+          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Health</t>
+          <t>Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesgesundheitsministerium.de/</t>
+          <t>https://www.bmel.de/DE/Startseite/startseite_node.html</t>
         </is>
       </c>
       <c r="I19" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesgesundheitsministerium.de/en/</t>
+          <t>https://www.bmel.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1661,54 +1661,54 @@
       </c>
       <c r="L19" s="4" t="inlineStr">
         <is>
-          <t>bmg</t>
+          <t>bmel</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Q_BMVG</t>
+          <t>Q_BMF</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Verteidigung (BMvG)</t>
+          <t>Bundesministerium der Finanzen (BMF)</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>vom BMvG</t>
+          <t>des Bundesministeriums der Finanzen</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>XXXBundesministerium der Verteidigung</t>
+          <t>Federal Ministry of Finance</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>the Federal Ministry of Finance</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Verteidigung</t>
+          <t>Bundesministerium der Finanzen</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>XXXBundesministerium der Verteidigung</t>
+          <t>Federal Ministry of Finance</t>
         </is>
       </c>
       <c r="H20" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmvg.de/de</t>
+          <t>https://www.bundesfinanzministerium.de/Web/DE/Home/home.html</t>
         </is>
       </c>
       <c r="I20" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmvg.de/de</t>
+          <t>https://www.bundesfinanzministerium.de/Web/EN/Home/home.html</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -1723,54 +1723,54 @@
       </c>
       <c r="L20" s="4" t="inlineStr">
         <is>
-          <t>bmvg</t>
+          <t>bmf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Q_BMWK</t>
+          <t>Q_BMFSFJ</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Wirtschaft und Klimaschutz (BMWK)</t>
+          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Wirtschaft und Klimaschutz</t>
+          <t>des Bundesministeriums für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Affairs and Climate Action</t>
+          <t>Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry for Economic Affairs and Climate Action</t>
+          <t>the Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Wirtschaft und Klimaschutz</t>
+          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Affairs and Climate Action</t>
+          <t>Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
         </is>
       </c>
       <c r="H21" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmwi.de/Navigation/DE/Home/home.html</t>
+          <t>https://www.bmfsfj.de/</t>
         </is>
       </c>
       <c r="I21" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmwi.de/Navigation/EN/Home/home.html</t>
+          <t>https://www.bmfsfj.de/en</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1785,54 +1785,54 @@
       </c>
       <c r="L21" s="4" t="inlineStr">
         <is>
-          <t>bmwk</t>
+          <t>bmfsfj</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_BMG</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ)</t>
+          <t>Bundesministerium für Gesundheit (BMG)</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>des Bundesministeriums für Gesundheit</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t>Federal Ministry of Health</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry for Economic Cooperation and Development</t>
+          <t>the Federal Ministry of Health</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Bundesministerium für Gesundheit</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t>Federal Ministry of Health</t>
         </is>
       </c>
       <c r="H22" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de</t>
+          <t>https://www.bundesgesundheitsministerium.de/</t>
         </is>
       </c>
       <c r="I22" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/en</t>
+          <t>https://www.bundesgesundheitsministerium.de/en/</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -1847,54 +1847,54 @@
       </c>
       <c r="L22" s="4" t="inlineStr">
         <is>
-          <t>bmz</t>
+          <t>bmg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Q_BOLW</t>
+          <t>Q_BMVG</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Bund Ökologische Lebensmittelwirtschaft e. V. (BÖLW)</t>
+          <t>Bundesministerium der Verteidigung (BMvG)</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>des Bunds Ökologische Lebensmittelwirtschaft e. V.</t>
+          <t>vom BMvG</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Organic Food Production Alliance</t>
+          <t>XXXBundesministerium der Verteidigung</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>the Organic Food Production Alliance</t>
+          <t>x</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>Bund Ökologische Lebensmittelwirtschaft e. V.</t>
+          <t>Bundesministerium der Verteidigung</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>Organic Food Production Alliance</t>
+          <t>XXXBundesministerium der Verteidigung</t>
         </is>
       </c>
       <c r="H23" s="5" t="inlineStr">
         <is>
-          <t>https://www.boelw.de/</t>
+          <t>https://www.bmvg.de/de</t>
         </is>
       </c>
       <c r="I23" s="5" t="inlineStr">
         <is>
-          <t>https://www.boelw.de/</t>
+          <t>https://www.bmvg.de/de</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
@@ -1909,54 +1909,54 @@
       </c>
       <c r="L23" s="4" t="inlineStr">
         <is>
-          <t>bolw</t>
+          <t>bmvg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Q_BREG</t>
+          <t>Q_BMWK</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Bundesregierung (Monitoringbericht Maßnahmeprogramm Nachhaltigkeit)</t>
+          <t>Bundesministerium für Wirtschaft und Klimaschutz (BMWK)</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>der Bundesregierung</t>
+          <t>des Bundesministeriums für Wirtschaft und Klimaschutz</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Federal Ministry for Economic Affairs and Climate Action</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the Federal Ministry for Economic Affairs and Climate Action</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>Bundesregierung (Monitoringbericht Maßnahmeprogramm Nachhaltigkeit)</t>
+          <t>Bundesministerium für Wirtschaft und Klimaschutz</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Federal Ministry for Economic Affairs and Climate Action</t>
         </is>
       </c>
       <c r="H24" s="5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>https://www.bmwi.de/Navigation/DE/Home/home.html</t>
         </is>
       </c>
       <c r="I24" s="5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>https://www.bmwi.de/Navigation/EN/Home/home.html</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
@@ -1971,54 +1971,54 @@
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>bmwk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Q_BUNDESBANK</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Bundesbank (BBk)</t>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ)</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>der Deutschen Bundesbank</t>
+          <t>des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>German Federal Bank</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>the German Federal Bank</t>
+          <t>the Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Bundesbank</t>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>German Federal Bank</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
       <c r="H25" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesbank.de/de/</t>
+          <t>https://www.bmz.de/de</t>
         </is>
       </c>
       <c r="I25" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesbank.de/en</t>
+          <t>https://www.bmz.de/en</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
@@ -2033,54 +2033,54 @@
       </c>
       <c r="L25" s="4" t="inlineStr">
         <is>
-          <t>bundesbank</t>
+          <t>bmz</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Q_BZGA</t>
+          <t>Q_BOLW</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Bundeszentrale für gesundheitliche Aufklärung (BZGA)</t>
+          <t>Bund Ökologische Lebensmittelwirtschaft e. V. (BÖLW)</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>der Bundeszentrale für gesundheitliche Aufklärung</t>
+          <t>des Bunds Ökologische Lebensmittelwirtschaft e. V.</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Federal Centre for Health Education</t>
+          <t>Organic Food Production Alliance</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>the Federal Centre for Health Education</t>
+          <t>the Organic Food Production Alliance</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>Bundeszentrale für gesundheitliche Aufklärung</t>
+          <t>Bund Ökologische Lebensmittelwirtschaft e. V.</t>
         </is>
       </c>
       <c r="G26" s="4" t="inlineStr">
         <is>
-          <t>Federal Centre for Health Education</t>
+          <t>Organic Food Production Alliance</t>
         </is>
       </c>
       <c r="H26" s="5" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/</t>
+          <t>https://www.boelw.de/</t>
         </is>
       </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/home/bzga/</t>
+          <t>https://www.boelw.de/</t>
         </is>
       </c>
       <c r="J26" s="4" t="inlineStr">
@@ -2095,54 +2095,54 @@
       </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t>bzga</t>
+          <t>bolw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Q_CEVAL</t>
+          <t>Q_BREG</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Bundesregierung (Monitoringbericht Maßnahmeprogramm Nachhaltigkeit)</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>der CEval GmbH</t>
+          <t>der Bundesregierung</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>the CEval GmbH</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Bundesregierung (Monitoringbericht Maßnahmeprogramm Nachhaltigkeit)</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H27" s="5" t="inlineStr">
         <is>
-          <t>https://ceval.de/</t>
+          <t>https://www.bundesregierung.de/breg-de/schwerpunkte-der-bundesregierung/nachhaltigkeitspolitik/massnahmenprogramm-nachhaltigkeit-der-bundesregierung-427896</t>
         </is>
       </c>
       <c r="I27" s="5" t="inlineStr">
         <is>
-          <t>https://ceval.de/en/</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
@@ -2157,54 +2157,54 @@
       </c>
       <c r="L27" s="4" t="inlineStr">
         <is>
-          <t>ceval</t>
+          <t>breg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Q_COPERNICUS</t>
+          <t>Q_BUNDESBANK</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Europäisches Copernikus-Programm</t>
+          <t>Deutsche Bundesbank (BBk)</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>der Deutschen Bundesbank</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>German Federal Bank</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the German Federal Bank</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>Europäisches Copernikus-Programm</t>
+          <t>Deutsche Bundesbank</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>German Federal Bank</t>
         </is>
       </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
-          <t>https://www.copernicus.eu/de/ueber-copernicus</t>
+          <t>https://www.bundesbank.de/de/</t>
         </is>
       </c>
       <c r="I28" s="5" t="inlineStr">
         <is>
-          <t>https://www.copernicus.eu/de/ueber-copernicus</t>
+          <t>https://www.bundesbank.de/en</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
@@ -2219,54 +2219,54 @@
       </c>
       <c r="L28" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>bundesbank</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Q_DDB</t>
+          <t>Q_BZGA</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Bundeszentrale für gesundheitliche Aufklärung (BZGA)</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>der deutschen digitalen Bibliothek</t>
+          <t>der Bundeszentrale für gesundheitliche Aufklärung</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>the Deutsche Digitale Bibliothek</t>
+          <t>the Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Bundeszentrale für gesundheitliche Aufklärung</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
-          <t>https://www.deutsche-digitale-bibliothek.de/</t>
+          <t>https://www.bzga.de/</t>
         </is>
       </c>
       <c r="I29" s="5" t="inlineStr">
         <is>
-          <t>https://www.deutsche-digitale-bibliothek.de/?lang=en</t>
+          <t>https://www.bzga.de/home/bzga/</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
@@ -2281,54 +2281,54 @@
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>ddb</t>
+          <t>bzga</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_CEVAL</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Statistisches Bundesamt (Destatis)</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>der CEval GmbH</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Federal Statistical Office</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the CEval GmbH</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>Statistisches Bundesamt</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>Federal Statistical Office</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="H30" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Home/_inhalt.html</t>
+          <t>https://ceval.de/</t>
         </is>
       </c>
       <c r="I30" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Home/_node.html</t>
+          <t>https://ceval.de/en/</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
@@ -2343,54 +2343,54 @@
       </c>
       <c r="L30" s="4" t="inlineStr">
         <is>
-          <t>destatis</t>
+          <t>ceval</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Q_DIHK</t>
+          <t>Q_COPERNICUS</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V. (DIHK)</t>
+          <t>Europäisches Copernikus-Programm</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>des Deutschen Industrie- und Handelskammertages</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>the German EMAS Advisory Board</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V.</t>
+          <t>Europäisches Copernikus-Programm</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H31" s="5" t="inlineStr">
         <is>
-          <t>https://www.dihk.de/de</t>
+          <t>https://www.copernicus.eu/de/ueber-copernicus</t>
         </is>
       </c>
       <c r="I31" s="5" t="inlineStr">
         <is>
-          <t>https://www.dihk.de/de</t>
+          <t>https://www.copernicus.eu/de/ueber-copernicus</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
@@ -2405,54 +2405,54 @@
       </c>
       <c r="L31" s="4" t="inlineStr">
         <is>
-          <t>dihk</t>
+          <t>cop</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Q_DIW</t>
+          <t>Q_DDB</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Wirtschaftsforschung (DIW)</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>des Deutschen Instituts für Wirtschaftsforschung</t>
+          <t>der deutschen digitalen Bibliothek</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Economic Research</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>the German Institute for Economic Research</t>
+          <t>the Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Wirtschaftsforschung</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Economic Research</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="H32" s="5" t="inlineStr">
         <is>
-          <t>https://www.diw.de/deutsch</t>
+          <t>https://www.deutsche-digitale-bibliothek.de/</t>
         </is>
       </c>
       <c r="I32" s="5" t="inlineStr">
         <is>
-          <t>https://www.diw.de/en</t>
+          <t>https://www.deutsche-digitale-bibliothek.de/?lang=en</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
@@ -2467,54 +2467,54 @@
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>diw</t>
+          <t>ddb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Q_DNK</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Deutscher Nachhaltigkeitskodex (DNK)</t>
+          <t>Statistisches Bundesamt (Destatis)</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>vom DNK</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Federal Statistical Office</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>Deutscher Nachhaltigkeitskodex (DNK)</t>
+          <t>Statistisches Bundesamt</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Federal Statistical Office</t>
         </is>
       </c>
       <c r="H33" s="5" t="inlineStr">
         <is>
-          <t>https://www.deutscher-nachhaltigkeitskodex.de/</t>
+          <t>https://www.destatis.de/DE/Home/_inhalt.html</t>
         </is>
       </c>
       <c r="I33" s="5" t="inlineStr">
         <is>
-          <t>https://www.deutscher-nachhaltigkeitskodex.de/en/</t>
+          <t>https://www.destatis.de/EN/Home/_node.html</t>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr">
@@ -2529,54 +2529,54 @@
       </c>
       <c r="L33" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>destatis</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Q_EMAS</t>
+          <t>Q_DIHK</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagementsystem (EMAS)</t>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V. (DIHK)</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>von EMAS</t>
+          <t>des Deutschen Industrie- und Handelskammertages</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>the German EMAS Advisory Board</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagementsystem (EMAS)</t>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V.</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
         </is>
       </c>
       <c r="H34" s="5" t="inlineStr">
         <is>
-          <t>https://www.emas.de/was-ist-emas</t>
+          <t>https://www.dihk.de/de</t>
         </is>
       </c>
       <c r="I34" s="5" t="inlineStr">
         <is>
-          <t>https://www.emas.de/en</t>
+          <t>https://www.dihk.de/de</t>
         </is>
       </c>
       <c r="J34" s="4" t="inlineStr">
@@ -2591,54 +2591,54 @@
       </c>
       <c r="L34" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>dihk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROPEANCOMMISSION</t>
+          <t>Q_DIW</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Europäische Kommission</t>
+          <t>Deutsches Institut für Wirtschaftsforschung (DIW)</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>der Europäischen Kommission</t>
+          <t>des Deutschen Instituts für Wirtschaftsforschung</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>European Commission</t>
+          <t>German Institute for Economic Research</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>the European Commission</t>
+          <t>the German Institute for Economic Research</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>Europäische Kommission</t>
+          <t>Deutsches Institut für Wirtschaftsforschung</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>European Commission</t>
+          <t>German Institute for Economic Research</t>
         </is>
       </c>
       <c r="H35" s="5" t="inlineStr">
         <is>
-          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_de</t>
+          <t>https://www.diw.de/deutsch</t>
         </is>
       </c>
       <c r="I35" s="5" t="inlineStr">
         <is>
-          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_en</t>
+          <t>https://www.diw.de/en</t>
         </is>
       </c>
       <c r="J35" s="4" t="inlineStr">
@@ -2653,54 +2653,54 @@
       </c>
       <c r="L35" s="4" t="inlineStr">
         <is>
-          <t>europeancommission</t>
+          <t>diw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DNK</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>Deutscher Nachhaltigkeitskodex (DNK)</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>von Eurostat</t>
+          <t>vom DNK</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>Deutscher Nachhaltigkeitskodex (DNK)</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="H36" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/de/home</t>
+          <t>https://www.deutscher-nachhaltigkeitskodex.de/</t>
         </is>
       </c>
       <c r="I36" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/home</t>
+          <t>https://www.deutscher-nachhaltigkeitskodex.de/en/</t>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr">
@@ -2715,54 +2715,54 @@
       </c>
       <c r="L36" s="4" t="inlineStr">
         <is>
-          <t>eurostat</t>
+          <t>dnk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Q_EZB</t>
+          <t>Q_EMAS</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank (EZB)</t>
+          <t>Umweltmanagementsystem (EMAS)</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>der Europäischen Zentralbank</t>
+          <t>von EMAS</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>the European Central Bank</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank</t>
+          <t>Umweltmanagementsystem (EMAS)</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="H37" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/home/html/index.de.html</t>
+          <t>https://www.emas.de/was-ist-emas</t>
         </is>
       </c>
       <c r="I37" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/home/languagepolicy/html/index.en.html</t>
+          <t>https://www.emas.de/en</t>
         </is>
       </c>
       <c r="J37" s="4" t="inlineStr">
@@ -2777,54 +2777,54 @@
       </c>
       <c r="L37" s="4" t="inlineStr">
         <is>
-          <t>ezb</t>
+          <t>emas</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Q_FATF</t>
+          <t>Q_EUROPEANCOMMISSION</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force</t>
+          <t>Europäische Kommission</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>vom FATF</t>
+          <t>der Europäischen Kommission</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force</t>
+          <t>European Commission</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>the FATF</t>
+          <t>the European Commission</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force</t>
+          <t>Europäische Kommission</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force</t>
+          <t>European Commission</t>
         </is>
       </c>
       <c r="H38" s="5" t="inlineStr">
         <is>
-          <t>https://www.fatf-gafi.org/en/home.html</t>
+          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_de</t>
         </is>
       </c>
       <c r="I38" s="5" t="inlineStr">
         <is>
-          <t>https://www.fatf-gafi.org/en/home.html</t>
+          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_en</t>
         </is>
       </c>
       <c r="J38" s="4" t="inlineStr">
@@ -2839,54 +2839,54 @@
       </c>
       <c r="L38" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>europeancommission</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V. (FidAR)</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>vom Frauen in die Aufsichtsräte e.V.</t>
+          <t>von Eurostat</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>the Frauen in die Aufsichtsräte e.V.</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="H39" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/</t>
+          <t>https://ec.europa.eu/eurostat/de/home</t>
         </is>
       </c>
       <c r="I39" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/</t>
+          <t>https://ec.europa.eu/eurostat/home</t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr">
@@ -2901,54 +2901,54 @@
       </c>
       <c r="L39" s="4" t="inlineStr">
         <is>
-          <t>fidar</t>
+          <t>eurostat</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Q_GBE</t>
+          <t>Q_EZB</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Gesundheitsberichterstattung des Bundes (GBE)</t>
+          <t>Europäische Zentralbank (EZB)</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>der Gesundheitsberichterstattung des Bundes</t>
+          <t>der Europäischen Zentralbank</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Federal Health Monitoring</t>
+          <t>European Central Bank</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>the Federal Health Monitoring</t>
+          <t>the European Central Bank</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>Gesundheitsberichterstattung des Bundes</t>
+          <t>Europäische Zentralbank</t>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>Federal Health Monitoring</t>
+          <t>European Central Bank</t>
         </is>
       </c>
       <c r="H40" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/</t>
+          <t>https://www.ecb.europa.eu/home/html/index.de.html</t>
         </is>
       </c>
       <c r="I40" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_isgbe?p_uid=gast&amp;p_aid=50554816&amp;p_sprache=E</t>
+          <t>https://www.ecb.europa.eu/home/languagepolicy/html/index.en.html</t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
@@ -2963,54 +2963,54 @@
       </c>
       <c r="L40" s="4" t="inlineStr">
         <is>
-          <t>gbe</t>
+          <t>ezb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Q_GFK</t>
+          <t>Q_FATF</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung (GfK)</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>der Gesellschaft für Konsumforschung</t>
+          <t>vom FATF</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>the Gesellschaft für Konsumforschung</t>
+          <t>the FATF</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
       <c r="H41" s="5" t="inlineStr">
         <is>
-          <t>https://www.gfk.com/de/</t>
+          <t>https://www.fatf-gafi.org/en/home.html</t>
         </is>
       </c>
       <c r="I41" s="5" t="inlineStr">
         <is>
-          <t>https://www.gfk.com/</t>
+          <t>https://www.fatf-gafi.org/en/home.html</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
@@ -3025,54 +3025,54 @@
       </c>
       <c r="L41" s="4" t="inlineStr">
         <is>
-          <t>gfk</t>
+          <t>fatf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Q_GHSI</t>
+          <t>Q_FIDAR</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Global Health Security Index (GHSI)</t>
+          <t>Frauen in die Aufsichtsräte e.V. (FidAR)</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>vom GHSI</t>
+          <t>vom Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Global Health Security Index (GHSI)</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>the GHSI</t>
+          <t>the Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>Global Health Security Index</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t>Global Health Security Index</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="H42" s="5" t="inlineStr">
         <is>
-          <t>https://ghsindex.org/</t>
+          <t>https://www.fidar.de/</t>
         </is>
       </c>
       <c r="I42" s="5" t="inlineStr">
         <is>
-          <t>https://ghsindex.org/</t>
+          <t>https://www.fidar.de/</t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr">
@@ -3087,54 +3087,54 @@
       </c>
       <c r="L42" s="4" t="inlineStr">
         <is>
-          <t>ghsi</t>
+          <t>fidar</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Q_GIZ</t>
+          <t>Q_GBE</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ)</t>
+          <t>Gesundheitsberichterstattung des Bundes (GBE)</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>der Deutschen Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>der Gesundheitsberichterstattung des Bundes</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH(GIZ)</t>
+          <t>Federal Health Monitoring</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>the Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>the Federal Health Monitoring</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>Gesundheitsberichterstattung des Bundes</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>Federal Health Monitoring</t>
         </is>
       </c>
       <c r="H43" s="5" t="inlineStr">
         <is>
-          <t>https://www.giz.de/de/html/index.html</t>
+          <t>https://www.gbe-bund.de/gbe/</t>
         </is>
       </c>
       <c r="I43" s="5" t="inlineStr">
         <is>
-          <t>https://www.giz.de/en/html/index.html</t>
+          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_isgbe?p_uid=gast&amp;p_aid=50554816&amp;p_sprache=E</t>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr">
@@ -3149,54 +3149,54 @@
       </c>
       <c r="L43" s="4" t="inlineStr">
         <is>
-          <t>giz</t>
+          <t>gbe</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Q_GMWOEKNM</t>
+          <t>Q_GFK</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Gemeinwohl-Ökonomie</t>
+          <t>Gesellschaft für Konsumforschung (GfK)</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>der Gemeinwohl-Ökonomie</t>
+          <t>der Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>Gemeinwohl-Ökonomie</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="H44" s="5" t="inlineStr">
         <is>
-          <t>https://germany.econgood.org/</t>
+          <t>https://www.gfk.com/de/</t>
         </is>
       </c>
       <c r="I44" s="5" t="inlineStr">
         <is>
-          <t>https://germany.econgood.org/</t>
+          <t>https://www.gfk.com/</t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
@@ -3211,54 +3211,54 @@
       </c>
       <c r="L44" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>gfk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Q_IAB</t>
+          <t>Q_GHSI</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Institut für Arbeitsmarkt- und Berufsforschung (IAB)</t>
+          <t>Global Health Security Index (GHSI)</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>des Instituts für Arbeitsmarkt- und Berufsforschung</t>
+          <t>vom GHSI</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Institut for Employment Research</t>
+          <t>Global Health Security Index (GHSI)</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>the Institut for Employment Research</t>
+          <t>the GHSI</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Institut für Arbeitsmarkt- und Berufsforschung</t>
+          <t>Global Health Security Index</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>Institut for Employment Research</t>
+          <t>Global Health Security Index</t>
         </is>
       </c>
       <c r="H45" s="5" t="inlineStr">
         <is>
-          <t>https://iab.de/</t>
+          <t>https://ghsindex.org/</t>
         </is>
       </c>
       <c r="I45" s="5" t="inlineStr">
         <is>
-          <t>https://iab.de/en/</t>
+          <t>https://ghsindex.org/</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr">
@@ -3273,54 +3273,54 @@
       </c>
       <c r="L45" s="4" t="inlineStr">
         <is>
-          <t>iab</t>
+          <t>ghsi</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>Q_GIZ</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH (ifeu)</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ)</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>des Instituts für Energie- und Umweltforschung Heidelberg gGmbH</t>
+          <t>der Deutschen Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Institute for Energy and Environmental Research</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH(GIZ)</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>the Institute for Energy and Environmental Research</t>
+          <t>the Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
         <is>
-          <t>Institute for Energy and Environmental Research</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="H46" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/</t>
+          <t>https://www.giz.de/de/html/index.html</t>
         </is>
       </c>
       <c r="I46" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/en/</t>
+          <t>https://www.giz.de/en/html/index.html</t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">
@@ -3335,54 +3335,54 @@
       </c>
       <c r="L46" s="4" t="inlineStr">
         <is>
-          <t>ifeu</t>
+          <t>giz</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Q_JHT</t>
+          <t>Q_GMWOEKNM</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen-Institut (TI)</t>
+          <t>Gemeinwohl-Ökonomie</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>des Johann Heinrich von Thünen-Instituts</t>
+          <t>der Gemeinwohl-Ökonomie</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen Institute</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>the Johann Heinrich von Thünen Institute</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen-Institut</t>
+          <t>Gemeinwohl-Ökonomie</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen Institute</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H47" s="5" t="inlineStr">
         <is>
-          <t>https://www.thuenen.de/de/</t>
+          <t>https://germany.econgood.org/</t>
         </is>
       </c>
       <c r="I47" s="5" t="inlineStr">
         <is>
-          <t>https://www.thuenen.de/en/</t>
+          <t>https://germany.econgood.org/</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
@@ -3397,54 +3397,54 @@
       </c>
       <c r="L47" s="4" t="inlineStr">
         <is>
-          <t>jht</t>
+          <t>gwoe</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Q_JKI</t>
+          <t>Q_IAB</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut (JKI)</t>
+          <t>Institut für Arbeitsmarkt- und Berufsforschung (IAB)</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>des Instituts für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
+          <t>des Instituts für Arbeitsmarkt- und Berufsforschung</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>Institut for Employment Research</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>the Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>the Institut for Employment Research</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
+          <t>Institut für Arbeitsmarkt- und Berufsforschung</t>
         </is>
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>Institut for Employment Research</t>
         </is>
       </c>
       <c r="H48" s="5" t="inlineStr">
         <is>
-          <t>https://www.julius-kuehn.de/pb/</t>
+          <t>https://iab.de/</t>
         </is>
       </c>
       <c r="I48" s="5" t="inlineStr">
         <is>
-          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
+          <t>https://iab.de/en/</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
@@ -3459,54 +3459,54 @@
       </c>
       <c r="L48" s="4" t="inlineStr">
         <is>
-          <t>jki</t>
+          <t>iab</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Q_KBA</t>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrt-Bundesamt (KBA)</t>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH (ifeu)</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>des Kraftfahrt-Bundesamts</t>
+          <t>des Instituts für Energie- und Umweltforschung Heidelberg gGmbH</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Federal Motor Transport Authority</t>
+          <t>Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>the Federal Motor Transport Authority</t>
+          <t>the Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrt-Bundesamt</t>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t>Federal Motor Transport Authority</t>
+          <t>Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="H49" s="5" t="inlineStr">
         <is>
-          <t>https://www.kba.de/DE/Home/home_node.html</t>
+          <t>https://www.ifeu.de/</t>
         </is>
       </c>
       <c r="I49" s="5" t="inlineStr">
         <is>
-          <t>https://www.kba.de/EN/Home/home_node.html</t>
+          <t>https://www.ifeu.de/en/</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
@@ -3521,54 +3521,54 @@
       </c>
       <c r="L49" s="4" t="inlineStr">
         <is>
-          <t>kba</t>
+          <t>ifeu</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Q_KBK</t>
+          <t>Q_JHT</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>KlimaBilanzKultur und KlimaBilanzKultur+</t>
+          <t>Johann Heinrich von Thünen-Institut (TI)</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>von KlimaBilanzKultur</t>
+          <t>des Johann Heinrich von Thünen-Instituts</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>KlimaBilanzKultur und KlimaBilanzKultur+</t>
+          <t>Johann Heinrich von Thünen-Institut</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="H50" s="5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>https://www.thuenen.de/de/</t>
         </is>
       </c>
       <c r="I50" s="5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>https://www.thuenen.de/en/</t>
         </is>
       </c>
       <c r="J50" s="4" t="inlineStr">
@@ -3583,54 +3583,54 @@
       </c>
       <c r="L50" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>jht</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Q_KFW</t>
+          <t>Q_JKI</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut (JKI)</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>der Kreditanstalt für Wiederaufbau</t>
+          <t>des Instituts für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>the Kreditanstalt für Wiederaufbau</t>
+          <t>the Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau</t>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="H51" s="5" t="inlineStr">
         <is>
-          <t>https://www.kfw.de/kfw.de.html</t>
+          <t>https://www.julius-kuehn.de/pb/</t>
         </is>
       </c>
       <c r="I51" s="5" t="inlineStr">
         <is>
-          <t>https://www.kfw.de/kfw.de-2.html</t>
+          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
         </is>
       </c>
       <c r="J51" s="4" t="inlineStr">
@@ -3645,54 +3645,54 @@
       </c>
       <c r="L51" s="4" t="inlineStr">
         <is>
-          <t>kfw</t>
+          <t>jki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Q_KINO</t>
+          <t>Q_KBA</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
+          <t>Kraftfahrt-Bundesamt (KBA)</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>von Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
+          <t>des Kraftfahrt-Bundesamts</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>the Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
+          <t>Kraftfahrt-Bundesamt</t>
         </is>
       </c>
       <c r="G52" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="H52" s="5" t="inlineStr">
         <is>
-          <t>https://www.green-motion.org/files/16_green_motion/Dokumente/20241209_OEkologische_Standards_UEbergangsfassung_Januar_2025.pdf</t>
+          <t>https://www.kba.de/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="I52" s="5" t="inlineStr">
         <is>
-          <t>https://www.green-motion.org/files/16_green_motion/Dokumente/20241209_OEkologische_Standards_UEbergangsfassung_Januar_2025.pdf</t>
+          <t>https://www.kba.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="J52" s="4" t="inlineStr">
@@ -3707,54 +3707,54 @@
       </c>
       <c r="L52" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>kba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Q_KMLHE</t>
+          <t>Q_KFW</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>der Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>the Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t>Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="H53" s="5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>https://www.kfw.de/kfw.de.html</t>
         </is>
       </c>
       <c r="I53" s="5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>https://www.kfw.de/kfw.de-2.html</t>
         </is>
       </c>
       <c r="J53" s="4" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="L53" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>kfw</t>
         </is>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="L58" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>oeko</t>
         </is>
       </c>
     </row>
@@ -4767,47 +4767,47 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I8" r:id="rId3"/>
-    <hyperlink ref="H12" r:id="rId4"/>
-    <hyperlink ref="I12" r:id="rId5"/>
-    <hyperlink ref="H13" r:id="rId6"/>
-    <hyperlink ref="I13" r:id="rId7"/>
-    <hyperlink ref="H15" r:id="rId8"/>
-    <hyperlink ref="I15" r:id="rId9"/>
-    <hyperlink ref="H18" r:id="rId10"/>
-    <hyperlink ref="I18" r:id="rId11"/>
-    <hyperlink ref="H20" r:id="rId12"/>
-    <hyperlink ref="I20" r:id="rId13"/>
-    <hyperlink ref="H22" r:id="rId14"/>
-    <hyperlink ref="I22" r:id="rId15"/>
-    <hyperlink ref="H24" r:id="rId16"/>
-    <hyperlink ref="I24" r:id="rId17"/>
-    <hyperlink ref="H27" r:id="rId18"/>
-    <hyperlink ref="I27" r:id="rId19"/>
-    <hyperlink ref="H28" r:id="rId20"/>
-    <hyperlink ref="I28" r:id="rId21"/>
-    <hyperlink ref="H29" r:id="rId22"/>
-    <hyperlink ref="I29" r:id="rId23"/>
-    <hyperlink ref="H33" r:id="rId24"/>
-    <hyperlink ref="I33" r:id="rId25"/>
-    <hyperlink ref="H34" r:id="rId26"/>
-    <hyperlink ref="I34" r:id="rId27"/>
-    <hyperlink ref="H38" r:id="rId28"/>
-    <hyperlink ref="I38" r:id="rId29"/>
-    <hyperlink ref="H42" r:id="rId30"/>
-    <hyperlink ref="I42" r:id="rId31"/>
-    <hyperlink ref="H44" r:id="rId32"/>
-    <hyperlink ref="I44" r:id="rId33"/>
-    <hyperlink ref="H45" r:id="rId34"/>
-    <hyperlink ref="I45" r:id="rId35"/>
-    <hyperlink ref="H50" r:id="rId36"/>
-    <hyperlink ref="I50" r:id="rId37"/>
-    <hyperlink ref="H52" r:id="rId38"/>
-    <hyperlink ref="I52" r:id="rId39"/>
-    <hyperlink ref="H53" r:id="rId40"/>
-    <hyperlink ref="I53" r:id="rId41"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="H3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="H4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="H6" r:id="rId7"/>
+    <hyperlink ref="I6" r:id="rId8"/>
+    <hyperlink ref="I11" r:id="rId9"/>
+    <hyperlink ref="H15" r:id="rId10"/>
+    <hyperlink ref="I15" r:id="rId11"/>
+    <hyperlink ref="H16" r:id="rId12"/>
+    <hyperlink ref="I16" r:id="rId13"/>
+    <hyperlink ref="H18" r:id="rId14"/>
+    <hyperlink ref="I18" r:id="rId15"/>
+    <hyperlink ref="H21" r:id="rId16"/>
+    <hyperlink ref="I21" r:id="rId17"/>
+    <hyperlink ref="H23" r:id="rId18"/>
+    <hyperlink ref="I23" r:id="rId19"/>
+    <hyperlink ref="H25" r:id="rId20"/>
+    <hyperlink ref="I25" r:id="rId21"/>
+    <hyperlink ref="H27" r:id="rId22"/>
+    <hyperlink ref="I27" r:id="rId23"/>
+    <hyperlink ref="H30" r:id="rId24"/>
+    <hyperlink ref="I30" r:id="rId25"/>
+    <hyperlink ref="H31" r:id="rId26"/>
+    <hyperlink ref="I31" r:id="rId27"/>
+    <hyperlink ref="H32" r:id="rId28"/>
+    <hyperlink ref="I32" r:id="rId29"/>
+    <hyperlink ref="H36" r:id="rId30"/>
+    <hyperlink ref="I36" r:id="rId31"/>
+    <hyperlink ref="H37" r:id="rId32"/>
+    <hyperlink ref="I37" r:id="rId33"/>
+    <hyperlink ref="H41" r:id="rId34"/>
+    <hyperlink ref="I41" r:id="rId35"/>
+    <hyperlink ref="H45" r:id="rId36"/>
+    <hyperlink ref="I45" r:id="rId37"/>
+    <hyperlink ref="H47" r:id="rId38"/>
+    <hyperlink ref="I47" r:id="rId39"/>
+    <hyperlink ref="H48" r:id="rId40"/>
+    <hyperlink ref="I48" r:id="rId41"/>
     <hyperlink ref="H58" r:id="rId42"/>
     <hyperlink ref="I58" r:id="rId43"/>
     <hyperlink ref="H60" r:id="rId44"/>

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -4121,12 +4121,12 @@
       </c>
       <c r="H59" s="5" t="inlineStr">
         <is>
-          <t>https://www.rki.de/DE/Home/homepage_node.html</t>
+          <t>https://www.rki.de/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="I59" s="5" t="inlineStr">
         <is>
-          <t>https://www.rki.de/EN/Home/homepage_node.html</t>
+          <t>https://www.rki.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="J59" s="4" t="inlineStr">
@@ -4810,10 +4810,12 @@
     <hyperlink ref="I48" r:id="rId41"/>
     <hyperlink ref="H58" r:id="rId42"/>
     <hyperlink ref="I58" r:id="rId43"/>
-    <hyperlink ref="H60" r:id="rId44"/>
-    <hyperlink ref="I60" r:id="rId45"/>
-    <hyperlink ref="H69" r:id="rId46"/>
-    <hyperlink ref="I69" r:id="rId47"/>
+    <hyperlink ref="H59" r:id="rId44"/>
+    <hyperlink ref="I59" r:id="rId45"/>
+    <hyperlink ref="H60" r:id="rId46"/>
+    <hyperlink ref="I60" r:id="rId47"/>
+    <hyperlink ref="H69" r:id="rId48"/>
+    <hyperlink ref="I69" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -2226,47 +2226,47 @@
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Q_BZGA</t>
+          <t>Q_ZVB</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Bundeszentrale für gesundheitliche Aufklärung (BZGA)</t>
+          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>der Bundeszentrale für gesundheitliche Aufklärung</t>
+          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Federal Centre for Health Education</t>
+          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>the Federal Centre for Health Education</t>
+          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>Bundeszentrale für gesundheitliche Aufklärung</t>
+          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>Federal Centre for Health Education</t>
+          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/</t>
+          <t>https://www.bundeswehr.de/de/organisation/streitkraeftebasis/organisation/streitkraefteamt/zentrum-fuer-verifikationsaufgaben-der-bundeswehr</t>
         </is>
       </c>
       <c r="I29" s="5" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/home/bzga/</t>
+          <t>https://www.bundeswehr.de/de/organisation/streitkraeftebasis/organisation/streitkraefteamt/zentrum-fuer-verifikationsaufgaben-der-bundeswehr</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
@@ -2281,54 +2281,54 @@
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>bzga</t>
+          <t>bw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Q_CEVAL</t>
+          <t>Q_BZGA</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Bundeszentrale für gesundheitliche Aufklärung (BZGA)</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>der CEval GmbH</t>
+          <t>der Bundeszentrale für gesundheitliche Aufklärung</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>the CEval GmbH</t>
+          <t>the Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Bundeszentrale für gesundheitliche Aufklärung</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="H30" s="5" t="inlineStr">
         <is>
-          <t>https://ceval.de/</t>
+          <t>https://www.bzga.de/</t>
         </is>
       </c>
       <c r="I30" s="5" t="inlineStr">
         <is>
-          <t>https://ceval.de/en/</t>
+          <t>https://www.bzga.de/home/bzga/</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
@@ -2343,54 +2343,54 @@
       </c>
       <c r="L30" s="4" t="inlineStr">
         <is>
-          <t>ceval</t>
+          <t>bzga</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Q_COPERNICUS</t>
+          <t>Q_CEVAL</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Europäisches Copernikus-Programm</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>der CEval GmbH</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the CEval GmbH</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>Europäisches Copernikus-Programm</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="H31" s="5" t="inlineStr">
         <is>
-          <t>https://www.copernicus.eu/de/ueber-copernicus</t>
+          <t>https://ceval.de/</t>
         </is>
       </c>
       <c r="I31" s="5" t="inlineStr">
         <is>
-          <t>https://www.copernicus.eu/de/ueber-copernicus</t>
+          <t>https://ceval.de/en/</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
@@ -2405,54 +2405,54 @@
       </c>
       <c r="L31" s="4" t="inlineStr">
         <is>
-          <t>cop</t>
+          <t>ceval</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Q_DDB</t>
+          <t>Q_COPERNICUS</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Europäisches Copernikus-Programm</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>der deutschen digitalen Bibliothek</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>the Deutsche Digitale Bibliothek</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Europäisches Copernikus-Programm</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H32" s="5" t="inlineStr">
         <is>
-          <t>https://www.deutsche-digitale-bibliothek.de/</t>
+          <t>https://www.copernicus.eu/de/ueber-copernicus</t>
         </is>
       </c>
       <c r="I32" s="5" t="inlineStr">
         <is>
-          <t>https://www.deutsche-digitale-bibliothek.de/?lang=en</t>
+          <t>https://www.copernicus.eu/de/ueber-copernicus</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
@@ -2467,54 +2467,54 @@
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>ddb</t>
+          <t>cop</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_DDB</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Statistisches Bundesamt (Destatis)</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>der deutschen digitalen Bibliothek</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Federal Statistical Office</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>Statistisches Bundesamt</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>Federal Statistical Office</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="H33" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Home/_inhalt.html</t>
+          <t>https://www.deutsche-digitale-bibliothek.de/</t>
         </is>
       </c>
       <c r="I33" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Home/_node.html</t>
+          <t>https://www.deutsche-digitale-bibliothek.de/?lang=en</t>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr">
@@ -2529,54 +2529,54 @@
       </c>
       <c r="L33" s="4" t="inlineStr">
         <is>
-          <t>destatis</t>
+          <t>ddb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Q_DIHK</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V. (DIHK)</t>
+          <t>Statistisches Bundesamt (Destatis)</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>des Deutschen Industrie- und Handelskammertages</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
+          <t>Federal Statistical Office</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>the German EMAS Advisory Board</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V.</t>
+          <t>Statistisches Bundesamt</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
+          <t>Federal Statistical Office</t>
         </is>
       </c>
       <c r="H34" s="5" t="inlineStr">
         <is>
-          <t>https://www.dihk.de/de</t>
+          <t>https://www.destatis.de/DE/Home/_inhalt.html</t>
         </is>
       </c>
       <c r="I34" s="5" t="inlineStr">
         <is>
-          <t>https://www.dihk.de/de</t>
+          <t>https://www.destatis.de/EN/Home/_node.html</t>
         </is>
       </c>
       <c r="J34" s="4" t="inlineStr">
@@ -2591,54 +2591,54 @@
       </c>
       <c r="L34" s="4" t="inlineStr">
         <is>
-          <t>dihk</t>
+          <t>destatis</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Q_DIW</t>
+          <t>Q_DIHK</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Wirtschaftsforschung (DIW)</t>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V. (DIHK)</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>des Deutschen Instituts für Wirtschaftsforschung</t>
+          <t>des Deutschen Industrie- und Handelskammertages</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Economic Research</t>
+          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>the German Institute for Economic Research</t>
+          <t>the German EMAS Advisory Board</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Wirtschaftsforschung</t>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V.</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Economic Research</t>
+          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
         </is>
       </c>
       <c r="H35" s="5" t="inlineStr">
         <is>
-          <t>https://www.diw.de/deutsch</t>
+          <t>https://www.dihk.de/de</t>
         </is>
       </c>
       <c r="I35" s="5" t="inlineStr">
         <is>
-          <t>https://www.diw.de/en</t>
+          <t>https://www.dihk.de/de</t>
         </is>
       </c>
       <c r="J35" s="4" t="inlineStr">
@@ -2653,54 +2653,54 @@
       </c>
       <c r="L35" s="4" t="inlineStr">
         <is>
-          <t>diw</t>
+          <t>dihk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Q_DNK</t>
+          <t>Q_DIW</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Deutscher Nachhaltigkeitskodex (DNK)</t>
+          <t>Deutsches Institut für Wirtschaftsforschung (DIW)</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>vom DNK</t>
+          <t>des Deutschen Instituts für Wirtschaftsforschung</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>German Institute for Economic Research</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>the German Institute for Economic Research</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>Deutscher Nachhaltigkeitskodex (DNK)</t>
+          <t>Deutsches Institut für Wirtschaftsforschung</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>German Institute for Economic Research</t>
         </is>
       </c>
       <c r="H36" s="5" t="inlineStr">
         <is>
-          <t>https://www.deutscher-nachhaltigkeitskodex.de/</t>
+          <t>https://www.diw.de/deutsch</t>
         </is>
       </c>
       <c r="I36" s="5" t="inlineStr">
         <is>
-          <t>https://www.deutscher-nachhaltigkeitskodex.de/en/</t>
+          <t>https://www.diw.de/en</t>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr">
@@ -2715,24 +2715,24 @@
       </c>
       <c r="L36" s="4" t="inlineStr">
         <is>
-          <t>dnk</t>
+          <t>diw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Q_EMAS</t>
+          <t>Q_DNK</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagementsystem (EMAS)</t>
+          <t>Deutscher Nachhaltigkeitskodex (DNK)</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>von EMAS</t>
+          <t>vom DNK</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagementsystem (EMAS)</t>
+          <t>Deutscher Nachhaltigkeitskodex (DNK)</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
@@ -2757,12 +2757,12 @@
       </c>
       <c r="H37" s="5" t="inlineStr">
         <is>
-          <t>https://www.emas.de/was-ist-emas</t>
+          <t>https://www.deutscher-nachhaltigkeitskodex.de/</t>
         </is>
       </c>
       <c r="I37" s="5" t="inlineStr">
         <is>
-          <t>https://www.emas.de/en</t>
+          <t>https://www.deutscher-nachhaltigkeitskodex.de/en/</t>
         </is>
       </c>
       <c r="J37" s="4" t="inlineStr">
@@ -2777,54 +2777,54 @@
       </c>
       <c r="L37" s="4" t="inlineStr">
         <is>
-          <t>emas</t>
+          <t>dnk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROPEANCOMMISSION</t>
+          <t>Q_EMAS</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Europäische Kommission</t>
+          <t>Umweltmanagementsystem (EMAS)</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>der Europäischen Kommission</t>
+          <t>von EMAS</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>European Commission</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>the European Commission</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>Europäische Kommission</t>
+          <t>Umweltmanagementsystem (EMAS)</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
-          <t>European Commission</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="H38" s="5" t="inlineStr">
         <is>
-          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_de</t>
+          <t>https://www.emas.de/was-ist-emas</t>
         </is>
       </c>
       <c r="I38" s="5" t="inlineStr">
         <is>
-          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_en</t>
+          <t>https://www.emas.de/en</t>
         </is>
       </c>
       <c r="J38" s="4" t="inlineStr">
@@ -2839,54 +2839,54 @@
       </c>
       <c r="L38" s="4" t="inlineStr">
         <is>
-          <t>europeancommission</t>
+          <t>emas</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_EUROPEANCOMMISSION</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>Europäische Kommission</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>von Eurostat</t>
+          <t>der Europäischen Kommission</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>European Commission</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>the European Commission</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>Europäische Kommission</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>European Commission</t>
         </is>
       </c>
       <c r="H39" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/de/home</t>
+          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_de</t>
         </is>
       </c>
       <c r="I39" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/home</t>
+          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_en</t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr">
@@ -2901,54 +2901,54 @@
       </c>
       <c r="L39" s="4" t="inlineStr">
         <is>
-          <t>eurostat</t>
+          <t>europeancommission</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Q_EZB</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank (EZB)</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>der Europäischen Zentralbank</t>
+          <t>von Eurostat</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>the European Central Bank</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="H40" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/home/html/index.de.html</t>
+          <t>https://ec.europa.eu/eurostat/de/home</t>
         </is>
       </c>
       <c r="I40" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/home/languagepolicy/html/index.en.html</t>
+          <t>https://ec.europa.eu/eurostat/home</t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
@@ -2963,54 +2963,54 @@
       </c>
       <c r="L40" s="4" t="inlineStr">
         <is>
-          <t>ezb</t>
+          <t>eurostat</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Q_FATF</t>
+          <t>Q_EZB</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force</t>
+          <t>Europäische Zentralbank (EZB)</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>vom FATF</t>
+          <t>der Europäischen Zentralbank</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force</t>
+          <t>European Central Bank</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>the FATF</t>
+          <t>the European Central Bank</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force</t>
+          <t>Europäische Zentralbank</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force</t>
+          <t>European Central Bank</t>
         </is>
       </c>
       <c r="H41" s="5" t="inlineStr">
         <is>
-          <t>https://www.fatf-gafi.org/en/home.html</t>
+          <t>https://www.ecb.europa.eu/home/html/index.de.html</t>
         </is>
       </c>
       <c r="I41" s="5" t="inlineStr">
         <is>
-          <t>https://www.fatf-gafi.org/en/home.html</t>
+          <t>https://www.ecb.europa.eu/home/languagepolicy/html/index.en.html</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
@@ -3025,54 +3025,54 @@
       </c>
       <c r="L41" s="4" t="inlineStr">
         <is>
-          <t>fatf</t>
+          <t>ezb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_FATF</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V. (FidAR)</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>vom Frauen in die Aufsichtsräte e.V.</t>
+          <t>vom FATF</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>the Frauen in die Aufsichtsräte e.V.</t>
+          <t>the FATF</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
       <c r="H42" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/</t>
+          <t>https://www.fatf-gafi.org/en/home.html</t>
         </is>
       </c>
       <c r="I42" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/</t>
+          <t>https://www.fatf-gafi.org/en/home.html</t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr">
@@ -3087,54 +3087,54 @@
       </c>
       <c r="L42" s="4" t="inlineStr">
         <is>
-          <t>fidar</t>
+          <t>fatf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Q_GBE</t>
+          <t>Q_FIDAR</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Gesundheitsberichterstattung des Bundes (GBE)</t>
+          <t>Frauen in die Aufsichtsräte e.V. (FidAR)</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>der Gesundheitsberichterstattung des Bundes</t>
+          <t>vom Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Federal Health Monitoring</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>the Federal Health Monitoring</t>
+          <t>the Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>Gesundheitsberichterstattung des Bundes</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>Federal Health Monitoring</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="H43" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/</t>
+          <t>https://www.fidar.de/</t>
         </is>
       </c>
       <c r="I43" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_isgbe?p_uid=gast&amp;p_aid=50554816&amp;p_sprache=E</t>
+          <t>https://www.fidar.de/</t>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr">
@@ -3149,54 +3149,54 @@
       </c>
       <c r="L43" s="4" t="inlineStr">
         <is>
-          <t>gbe</t>
+          <t>fidar</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Q_GFK</t>
+          <t>Q_GBE</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung (GfK)</t>
+          <t>Gesundheitsberichterstattung des Bundes (GBE)</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>der Gesellschaft für Konsumforschung</t>
+          <t>der Gesundheitsberichterstattung des Bundes</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Federal Health Monitoring</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>the Gesellschaft für Konsumforschung</t>
+          <t>the Federal Health Monitoring</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Gesundheitsberichterstattung des Bundes</t>
         </is>
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Federal Health Monitoring</t>
         </is>
       </c>
       <c r="H44" s="5" t="inlineStr">
         <is>
-          <t>https://www.gfk.com/de/</t>
+          <t>https://www.gbe-bund.de/gbe/</t>
         </is>
       </c>
       <c r="I44" s="5" t="inlineStr">
         <is>
-          <t>https://www.gfk.com/</t>
+          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_isgbe?p_uid=gast&amp;p_aid=50554816&amp;p_sprache=E</t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
@@ -3211,54 +3211,54 @@
       </c>
       <c r="L44" s="4" t="inlineStr">
         <is>
-          <t>gfk</t>
+          <t>gbe</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Q_GHSI</t>
+          <t>Q_GFK</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Global Health Security Index (GHSI)</t>
+          <t>Gesellschaft für Konsumforschung (GfK)</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>vom GHSI</t>
+          <t>der Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Global Health Security Index (GHSI)</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>the GHSI</t>
+          <t>the Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Global Health Security Index</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>Global Health Security Index</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="H45" s="5" t="inlineStr">
         <is>
-          <t>https://ghsindex.org/</t>
+          <t>https://www.gfk.com/de/</t>
         </is>
       </c>
       <c r="I45" s="5" t="inlineStr">
         <is>
-          <t>https://ghsindex.org/</t>
+          <t>https://www.gfk.com/</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr">
@@ -3273,54 +3273,54 @@
       </c>
       <c r="L45" s="4" t="inlineStr">
         <is>
-          <t>ghsi</t>
+          <t>gfk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Q_GIZ</t>
+          <t>Q_GHSI</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ)</t>
+          <t>Global Health Security Index (GHSI)</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>der Deutschen Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>vom GHSI</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH(GIZ)</t>
+          <t>Global Health Security Index (GHSI)</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>the Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>the GHSI</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>Global Health Security Index</t>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>Global Health Security Index</t>
         </is>
       </c>
       <c r="H46" s="5" t="inlineStr">
         <is>
-          <t>https://www.giz.de/de/html/index.html</t>
+          <t>https://ghsindex.org/</t>
         </is>
       </c>
       <c r="I46" s="5" t="inlineStr">
         <is>
-          <t>https://www.giz.de/en/html/index.html</t>
+          <t>https://ghsindex.org/</t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">
@@ -3335,54 +3335,54 @@
       </c>
       <c r="L46" s="4" t="inlineStr">
         <is>
-          <t>giz</t>
+          <t>ghsi</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Q_GMWOEKNM</t>
+          <t>Q_GIZ</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Gemeinwohl-Ökonomie</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ)</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>der Gemeinwohl-Ökonomie</t>
+          <t>der Deutschen Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH(GIZ)</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Gemeinwohl-Ökonomie</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="H47" s="5" t="inlineStr">
         <is>
-          <t>https://germany.econgood.org/</t>
+          <t>https://www.giz.de/de/html/index.html</t>
         </is>
       </c>
       <c r="I47" s="5" t="inlineStr">
         <is>
-          <t>https://germany.econgood.org/</t>
+          <t>https://www.giz.de/en/html/index.html</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
@@ -3397,54 +3397,54 @@
       </c>
       <c r="L47" s="4" t="inlineStr">
         <is>
-          <t>gwoe</t>
+          <t>giz</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Q_IAB</t>
+          <t>Q_GMWOEKNM</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Institut für Arbeitsmarkt- und Berufsforschung (IAB)</t>
+          <t>Gemeinwohl-Ökonomie</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>des Instituts für Arbeitsmarkt- und Berufsforschung</t>
+          <t>der Gemeinwohl-Ökonomie</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Institut for Employment Research</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>the Institut for Employment Research</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>Institut für Arbeitsmarkt- und Berufsforschung</t>
+          <t>Gemeinwohl-Ökonomie</t>
         </is>
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>Institut for Employment Research</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H48" s="5" t="inlineStr">
         <is>
-          <t>https://iab.de/</t>
+          <t>https://germany.econgood.org/</t>
         </is>
       </c>
       <c r="I48" s="5" t="inlineStr">
         <is>
-          <t>https://iab.de/en/</t>
+          <t>https://germany.econgood.org/</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
@@ -3459,54 +3459,54 @@
       </c>
       <c r="L48" s="4" t="inlineStr">
         <is>
-          <t>iab</t>
+          <t>gwoe</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>Q_IAB</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH (ifeu)</t>
+          <t>Institut für Arbeitsmarkt- und Berufsforschung (IAB)</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>des Instituts für Energie- und Umweltforschung Heidelberg gGmbH</t>
+          <t>des Instituts für Arbeitsmarkt- und Berufsforschung</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Institute for Energy and Environmental Research</t>
+          <t>Institut for Employment Research</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>the Institute for Energy and Environmental Research</t>
+          <t>the Institut for Employment Research</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
+          <t>Institut für Arbeitsmarkt- und Berufsforschung</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t>Institute for Energy and Environmental Research</t>
+          <t>Institut for Employment Research</t>
         </is>
       </c>
       <c r="H49" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/</t>
+          <t>https://iab.de/</t>
         </is>
       </c>
       <c r="I49" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/en/</t>
+          <t>https://iab.de/en/</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
@@ -3521,54 +3521,54 @@
       </c>
       <c r="L49" s="4" t="inlineStr">
         <is>
-          <t>ifeu</t>
+          <t>iab</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Q_JHT</t>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen-Institut (TI)</t>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH (ifeu)</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>des Johann Heinrich von Thünen-Instituts</t>
+          <t>des Instituts für Energie- und Umweltforschung Heidelberg gGmbH</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen Institute</t>
+          <t>Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>the Johann Heinrich von Thünen Institute</t>
+          <t>the Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen-Institut</t>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen Institute</t>
+          <t>Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="H50" s="5" t="inlineStr">
         <is>
-          <t>https://www.thuenen.de/de/</t>
+          <t>https://www.ifeu.de/</t>
         </is>
       </c>
       <c r="I50" s="5" t="inlineStr">
         <is>
-          <t>https://www.thuenen.de/en/</t>
+          <t>https://www.ifeu.de/en/</t>
         </is>
       </c>
       <c r="J50" s="4" t="inlineStr">
@@ -3583,54 +3583,54 @@
       </c>
       <c r="L50" s="4" t="inlineStr">
         <is>
-          <t>jht</t>
+          <t>ifeu</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Q_JKI</t>
+          <t>Q_JHT</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut (JKI)</t>
+          <t>Johann Heinrich von Thünen-Institut (TI)</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>des Instituts für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
+          <t>des Johann Heinrich von Thünen-Instituts</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>the Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>the Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
+          <t>Johann Heinrich von Thünen-Institut</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
-          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="H51" s="5" t="inlineStr">
         <is>
-          <t>https://www.julius-kuehn.de/pb/</t>
+          <t>https://www.thuenen.de/de/</t>
         </is>
       </c>
       <c r="I51" s="5" t="inlineStr">
         <is>
-          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
+          <t>https://www.thuenen.de/en/</t>
         </is>
       </c>
       <c r="J51" s="4" t="inlineStr">
@@ -3645,54 +3645,54 @@
       </c>
       <c r="L51" s="4" t="inlineStr">
         <is>
-          <t>jki</t>
+          <t>jht</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Q_KBA</t>
+          <t>Q_JKI</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrt-Bundesamt (KBA)</t>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut (JKI)</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>des Kraftfahrt-Bundesamts</t>
+          <t>des Instituts für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Federal Motor Transport Authority</t>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>the Federal Motor Transport Authority</t>
+          <t>the Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrt-Bundesamt</t>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
         </is>
       </c>
       <c r="G52" s="4" t="inlineStr">
         <is>
-          <t>Federal Motor Transport Authority</t>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="H52" s="5" t="inlineStr">
         <is>
-          <t>https://www.kba.de/DE/Home/home_node.html</t>
+          <t>https://www.julius-kuehn.de/pb/</t>
         </is>
       </c>
       <c r="I52" s="5" t="inlineStr">
         <is>
-          <t>https://www.kba.de/EN/Home/home_node.html</t>
+          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
         </is>
       </c>
       <c r="J52" s="4" t="inlineStr">
@@ -3707,54 +3707,54 @@
       </c>
       <c r="L52" s="4" t="inlineStr">
         <is>
-          <t>kba</t>
+          <t>jki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Q_KFW</t>
+          <t>Q_KBA</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Kraftfahrt-Bundesamt (KBA)</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>der Kreditanstalt für Wiederaufbau</t>
+          <t>des Kraftfahrt-Bundesamts</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>the Kreditanstalt für Wiederaufbau</t>
+          <t>the Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau</t>
+          <t>Kraftfahrt-Bundesamt</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="H53" s="5" t="inlineStr">
         <is>
-          <t>https://www.kfw.de/kfw.de.html</t>
+          <t>https://www.kba.de/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="I53" s="5" t="inlineStr">
         <is>
-          <t>https://www.kfw.de/kfw.de-2.html</t>
+          <t>https://www.kba.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="J53" s="4" t="inlineStr">
@@ -3769,54 +3769,54 @@
       </c>
       <c r="L53" s="4" t="inlineStr">
         <is>
-          <t>kfw</t>
+          <t>kba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Q_KNB</t>
+          <t>Q_KFW</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern (KNB) </t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>der Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern</t>
+          <t>der Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Center of Excellence for Sustainable Procurement</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>the Center of Excellence for Sustainable Procurement</t>
+          <t>the Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
+          <t>Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t>Competence Center for Sustainable Procurement</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="H54" s="5" t="inlineStr">
         <is>
-          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
+          <t>https://www.kfw.de/kfw.de.html</t>
         </is>
       </c>
       <c r="I54" s="5" t="inlineStr">
         <is>
-          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
+          <t>https://www.kfw.de/kfw.de-2.html</t>
         </is>
       </c>
       <c r="J54" s="4" t="inlineStr">
@@ -3831,54 +3831,54 @@
       </c>
       <c r="L54" s="4" t="inlineStr">
         <is>
-          <t>knb</t>
+          <t>kfw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_KNB</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis (LAK) Energiebilanzen</t>
+          <t>Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern (KNB) </t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>des Länderarbeitskreises Energiebilanzen</t>
+          <t>der Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis Energiebilanzen</t>
+          <t>Center of Excellence for Sustainable Procurement</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the Center of Excellence for Sustainable Procurement</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis Energiebilanzen</t>
+          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
         </is>
       </c>
       <c r="G55" s="4" t="inlineStr">
         <is>
-          <t>LAK Energiebilanzen</t>
+          <t>Competence Center for Sustainable Procurement</t>
         </is>
       </c>
       <c r="H55" s="5" t="inlineStr">
         <is>
-          <t>http://www.lak-energiebilanzen.de/</t>
+          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="I55" s="5" t="inlineStr">
         <is>
-          <t>http://www.lak-energiebilanzen.de/</t>
+          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="J55" s="4" t="inlineStr">
@@ -3893,54 +3893,54 @@
       </c>
       <c r="L55" s="4" t="inlineStr">
         <is>
-          <t>lakeb</t>
+          <t>knb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren (LIKI)</t>
+          <t>Länderarbeitskreis (LAK) Energiebilanzen</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>der Länderinitiative Kernindikatoren</t>
+          <t>des Länderarbeitskreises Energiebilanzen</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>Länderarbeitskreis Energiebilanzen</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>the Länderinitiative Kernindikatoren</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>Länderarbeitskreis Energiebilanzen</t>
         </is>
       </c>
       <c r="G56" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>LAK Energiebilanzen</t>
         </is>
       </c>
       <c r="H56" s="5" t="inlineStr">
         <is>
-          <t>https://www.lanuv.nrw.de/liki/index.php</t>
+          <t>http://www.lak-energiebilanzen.de/</t>
         </is>
       </c>
       <c r="I56" s="5" t="inlineStr">
         <is>
-          <t>https://www.lanuv.nrw.de/liki/index.php</t>
+          <t>http://www.lak-energiebilanzen.de/</t>
         </is>
       </c>
       <c r="J56" s="4" t="inlineStr">
@@ -3955,54 +3955,54 @@
       </c>
       <c r="L56" s="4" t="inlineStr">
         <is>
-          <t>liki</t>
+          <t>lakeb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD)</t>
+          <t>Länderinitiative Kernindikatoren (LIKI)</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>der Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>the Organisation for Economic Co-operation and Development</t>
+          <t>the Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="G57" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="H57" s="5" t="inlineStr">
         <is>
-          <t>https://www.oecd.org/</t>
+          <t>https://www.lanuv.nrw.de/liki/index.php</t>
         </is>
       </c>
       <c r="I57" s="5" t="inlineStr">
         <is>
-          <t>https://www.oecd.org/</t>
+          <t>https://www.lanuv.nrw.de/liki/index.php</t>
         </is>
       </c>
       <c r="J57" s="4" t="inlineStr">
@@ -4017,54 +4017,54 @@
       </c>
       <c r="L57" s="4" t="inlineStr">
         <is>
-          <t>oecd</t>
+          <t>liki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>Q_OEKPFT</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Ökoprofit</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD)</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>von Ökoprofit</t>
+          <t>der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>Ökoprofit</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="G58" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="H58" s="5" t="inlineStr">
         <is>
-          <t>https://www.oekoprofit.info/</t>
+          <t>https://www.oecd.org/</t>
         </is>
       </c>
       <c r="I58" s="5" t="inlineStr">
         <is>
-          <t>https://www.oekoprofit.info/</t>
+          <t>https://www.oecd.org/</t>
         </is>
       </c>
       <c r="J58" s="4" t="inlineStr">
@@ -4079,54 +4079,54 @@
       </c>
       <c r="L58" s="4" t="inlineStr">
         <is>
-          <t>oeko</t>
+          <t>oecd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>Q_RKI</t>
+          <t>Q_OEKPFT</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut (RKI)</t>
+          <t>Ökoprofit</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>des Robert Koch-Instituts</t>
+          <t>von Ökoprofit</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch Institute</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>the Robert Koch Institute</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut</t>
+          <t>Ökoprofit</t>
         </is>
       </c>
       <c r="G59" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch Institute</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H59" s="5" t="inlineStr">
         <is>
-          <t>https://www.rki.de/DE/Home/home_node.html</t>
+          <t>https://www.oekoprofit.info/</t>
         </is>
       </c>
       <c r="I59" s="5" t="inlineStr">
         <is>
-          <t>https://www.rki.de/EN/Home/home_node.html</t>
+          <t>https://www.oekoprofit.info/</t>
         </is>
       </c>
       <c r="J59" s="4" t="inlineStr">
@@ -4141,54 +4141,54 @@
       </c>
       <c r="L59" s="4" t="inlineStr">
         <is>
-          <t>rki</t>
+          <t>oeko</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>Q_RKI</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Robert Koch-Institut (RKI)</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>des Stifterverbands Wissenschaftsstatistik</t>
+          <t>des Robert Koch-Instituts</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Robert Koch Institute</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>the Stifterverband Wissenschaftsstatistik</t>
+          <t>the Robert Koch Institute</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Robert Koch-Institut</t>
         </is>
       </c>
       <c r="G60" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Robert Koch Institute</t>
         </is>
       </c>
       <c r="H60" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/</t>
+          <t>https://www.rki.de/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="I60" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/english</t>
+          <t>https://www.rki.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="J60" s="4" t="inlineStr">
@@ -4203,54 +4203,54 @@
       </c>
       <c r="L60" s="4" t="inlineStr">
         <is>
-          <t>svws</t>
+          <t>rki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_SVWS</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>von Transparency International</t>
+          <t>des Stifterverbands Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>Transparency International</t>
+          <t>the Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="G61" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="H61" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.de/</t>
+          <t>https://www.stifterverband.org/</t>
         </is>
       </c>
       <c r="I61" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.de/en/</t>
+          <t>https://www.stifterverband.org/english</t>
         </is>
       </c>
       <c r="J61" s="4" t="inlineStr">
@@ -4265,54 +4265,54 @@
       </c>
       <c r="L61" s="4" t="inlineStr">
         <is>
-          <t>ta</t>
+          <t>svws</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_TA</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt (UBA)</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>des Umweltbundesamts</t>
+          <t>von Transparency International</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>the German Environment Agency</t>
+          <t>Transparency International</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="G62" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="H62" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/</t>
+          <t>https://www.transparency.de/</t>
         </is>
       </c>
       <c r="I62" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en</t>
+          <t>https://www.transparency.de/en/</t>
         </is>
       </c>
       <c r="J62" s="4" t="inlineStr">
@@ -4327,19 +4327,19 @@
       </c>
       <c r="L62" s="4" t="inlineStr">
         <is>
-          <t>uba</t>
+          <t>ta</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA_1</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+          <t>Umweltbundesamt (UBA)</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency (as reported by the Länder and by river basin commissions)</t>
+          <t>German Environment Agency</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
@@ -4359,12 +4359,12 @@
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+          <t>Umweltbundesamt</t>
         </is>
       </c>
       <c r="G63" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
+          <t>German Environment Agency</t>
         </is>
       </c>
       <c r="H63" s="5" t="inlineStr">
@@ -4396,12 +4396,12 @@
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>Q_UBALAWA</t>
+          <t>Q_UBA_1</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
+          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions)</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
@@ -4421,12 +4421,12 @@
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser</t>
+          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
         </is>
       </c>
       <c r="G64" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government</t>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
         </is>
       </c>
       <c r="H64" s="5" t="inlineStr">
@@ -4458,47 +4458,47 @@
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>Q_UG</t>
+          <t>Q_UBALAWA</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>der Universität Gießen</t>
+          <t>des Umweltbundesamts</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>the University of Giessen</t>
+          <t>the German Environment Agency</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser</t>
         </is>
       </c>
       <c r="G65" s="4" t="inlineStr">
         <is>
-          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government</t>
         </is>
       </c>
       <c r="H65" s="5" t="inlineStr">
         <is>
-          <t>https://www.uni-giessen.de/fbz/fb09/institute/ilr</t>
+          <t>https://www.umweltbundesamt.de/</t>
         </is>
       </c>
       <c r="I65" s="5" t="inlineStr">
         <is>
-          <t>https://www.uni-giessen.de/faculties/f09/institutes/landscape?set_language=en</t>
+          <t>https://www.umweltbundesamt.de/en</t>
         </is>
       </c>
       <c r="J65" s="4" t="inlineStr">
@@ -4513,54 +4513,54 @@
       </c>
       <c r="L65" s="4" t="inlineStr">
         <is>
-          <t>ug</t>
+          <t>uba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>Q_VCD</t>
+          <t>Q_UG</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V. (VCD)</t>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>des Verkehrsclub Deutschlands</t>
+          <t>der Universität Gießen</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>the Verkehrsclub Deutschland e.V.</t>
+          <t>the University of Giessen</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
         </is>
       </c>
       <c r="G66" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
         </is>
       </c>
       <c r="H66" s="5" t="inlineStr">
         <is>
-          <t>https://www.vcd.org/startseite/</t>
+          <t>https://www.uni-giessen.de/fbz/fb09/institute/ilr</t>
         </is>
       </c>
       <c r="I66" s="5" t="inlineStr">
         <is>
-          <t>https://www.vcd.org/startseite/</t>
+          <t>https://www.uni-giessen.de/faculties/f09/institutes/landscape?set_language=en</t>
         </is>
       </c>
       <c r="J66" s="4" t="inlineStr">
@@ -4575,54 +4575,54 @@
       </c>
       <c r="L66" s="4" t="inlineStr">
         <is>
-          <t>vcd</t>
+          <t>ug</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_VCD</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Verkehrsclub Deutschland e.V. (VCD)</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>der Statistischen Ämter der Länder</t>
+          <t>des Verkehrsclub Deutschlands</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>the Statistische Ämter des Bundes und der Länder</t>
+          <t>the Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="G67" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="H67" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+          <t>https://www.vcd.org/startseite/</t>
         </is>
       </c>
       <c r="I67" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+          <t>https://www.vcd.org/startseite/</t>
         </is>
       </c>
       <c r="J67" s="4" t="inlineStr">
@@ -4637,54 +4637,54 @@
       </c>
       <c r="L67" s="4" t="inlineStr">
         <is>
-          <t>vwgdl</t>
+          <t>vcd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>Q_WHO</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Weltgesundheitsorganisation (WHO)</t>
+          <t>Statistische Ämter des Bundes und der Länder</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>der Weltgesundheitsorganisation</t>
+          <t>der Statistischen Ämter der Länder</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>World Health Organization</t>
+          <t>Statistische Ämter des Bundes und der Länder</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>the World Health Organization</t>
+          <t>the Statistische Ämter des Bundes und der Länder</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>Weltgesundheitsorganisation</t>
+          <t>Statistische Ämter des Bundes und der Länder</t>
         </is>
       </c>
       <c r="G68" s="4" t="inlineStr">
         <is>
-          <t>World Health Organization</t>
+          <t>Statistische Ämter des Bundes und der Länder</t>
         </is>
       </c>
       <c r="H68" s="5" t="inlineStr">
         <is>
-          <t>http://www.euro.who.int/de/home</t>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
         </is>
       </c>
       <c r="I68" s="5" t="inlineStr">
         <is>
-          <t>http://www.euro.who.int/en/home</t>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
         </is>
       </c>
       <c r="J68" s="4" t="inlineStr">
@@ -4699,54 +4699,54 @@
       </c>
       <c r="L68" s="4" t="inlineStr">
         <is>
-          <t>who</t>
+          <t>vwgdl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>Q_ZVB</t>
+          <t>Q_WHO</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
+          <t>Weltgesundheitsorganisation (WHO)</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
+          <t>der Weltgesundheitsorganisation</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
+          <t>World Health Organization</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
+          <t>the World Health Organization</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
+          <t>Weltgesundheitsorganisation</t>
         </is>
       </c>
       <c r="G69" s="4" t="inlineStr">
         <is>
-          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
+          <t>World Health Organization</t>
         </is>
       </c>
       <c r="H69" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundeswehr.de/de/organisation/streitkraeftebasis/organisation/streitkraefteamt/zentrum-fuer-verifikationsaufgaben-der-bundeswehr</t>
+          <t>http://www.euro.who.int/de/home</t>
         </is>
       </c>
       <c r="I69" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundeswehr.de/de/organisation/streitkraeftebasis/organisation/streitkraefteamt/zentrum-fuer-verifikationsaufgaben-der-bundeswehr</t>
+          <t>http://www.euro.who.int/en/home</t>
         </is>
       </c>
       <c r="J69" s="4" t="inlineStr">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="L69" s="4" t="inlineStr">
         <is>
-          <t>zvb</t>
+          <t>who</t>
         </is>
       </c>
     </row>
@@ -4790,32 +4790,32 @@
     <hyperlink ref="I25" r:id="rId21"/>
     <hyperlink ref="H27" r:id="rId22"/>
     <hyperlink ref="I27" r:id="rId23"/>
-    <hyperlink ref="H30" r:id="rId24"/>
-    <hyperlink ref="I30" r:id="rId25"/>
+    <hyperlink ref="H29" r:id="rId24"/>
+    <hyperlink ref="I29" r:id="rId25"/>
     <hyperlink ref="H31" r:id="rId26"/>
     <hyperlink ref="I31" r:id="rId27"/>
     <hyperlink ref="H32" r:id="rId28"/>
     <hyperlink ref="I32" r:id="rId29"/>
-    <hyperlink ref="H36" r:id="rId30"/>
-    <hyperlink ref="I36" r:id="rId31"/>
+    <hyperlink ref="H33" r:id="rId30"/>
+    <hyperlink ref="I33" r:id="rId31"/>
     <hyperlink ref="H37" r:id="rId32"/>
     <hyperlink ref="I37" r:id="rId33"/>
-    <hyperlink ref="H41" r:id="rId34"/>
-    <hyperlink ref="I41" r:id="rId35"/>
-    <hyperlink ref="H45" r:id="rId36"/>
-    <hyperlink ref="I45" r:id="rId37"/>
-    <hyperlink ref="H47" r:id="rId38"/>
-    <hyperlink ref="I47" r:id="rId39"/>
+    <hyperlink ref="H38" r:id="rId34"/>
+    <hyperlink ref="I38" r:id="rId35"/>
+    <hyperlink ref="H42" r:id="rId36"/>
+    <hyperlink ref="I42" r:id="rId37"/>
+    <hyperlink ref="H46" r:id="rId38"/>
+    <hyperlink ref="I46" r:id="rId39"/>
     <hyperlink ref="H48" r:id="rId40"/>
     <hyperlink ref="I48" r:id="rId41"/>
-    <hyperlink ref="H58" r:id="rId42"/>
-    <hyperlink ref="I58" r:id="rId43"/>
+    <hyperlink ref="H49" r:id="rId42"/>
+    <hyperlink ref="I49" r:id="rId43"/>
     <hyperlink ref="H59" r:id="rId44"/>
     <hyperlink ref="I59" r:id="rId45"/>
     <hyperlink ref="H60" r:id="rId46"/>
     <hyperlink ref="I60" r:id="rId47"/>
-    <hyperlink ref="H69" r:id="rId48"/>
-    <hyperlink ref="I69" r:id="rId49"/>
+    <hyperlink ref="H61" r:id="rId48"/>
+    <hyperlink ref="I61" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -676,47 +676,47 @@
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Q_KMLHE</t>
+          <t>Q_AA</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t>Auswärtiges Amt (AA)</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>des Auswärtigen Amtes</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t>Federal Foreign Office </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>the Federal Foreign Office </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t>Auswärtiges Amt</t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t>Federal Foreign Office </t>
         </is>
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>https://www.bildungsserver.de/kultusministerien-580-de.html</t>
+          <t>https://www.auswaertiges-amt.de/de/</t>
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>https://www.auswaertiges-amt.de/en</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
@@ -731,54 +731,54 @@
       </c>
       <c r="L4" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>aa</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Q_AA</t>
+          <t>Q_AGEB</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Auswärtiges Amt (AA)</t>
+          <t>AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>des Auswärtigen Amtes</t>
+          <t>des AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>Federal Foreign Office </t>
+          <t>AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>the Federal Foreign Office </t>
+          <t>the AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>Auswärtiges Amt</t>
+          <t>AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>Federal Foreign Office </t>
+          <t>AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>https://www.auswaertiges-amt.de/de/</t>
+          <t>https://ag-energiebilanzen.de/</t>
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>https://www.auswaertiges-amt.de/en</t>
+          <t>https://ag-energiebilanzen.de/en/</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
@@ -793,54 +793,54 @@
       </c>
       <c r="L5" s="4" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ageb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Q_AGEB</t>
+          <t>Q_AGEESTAT</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>AG Energiebilanzen e.V.</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik (AGEE-Stat)</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>des AG Energiebilanzen e.V.</t>
+          <t>der Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>AG Energiebilanzen e.V.</t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>the AG Energiebilanzen e.V.</t>
+          <t>the Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>AG Energiebilanzen e.V.</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>AG Energiebilanzen e.V.</t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>https://ag-energiebilanzen.de/</t>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
         </is>
       </c>
       <c r="I6" s="5" t="inlineStr">
         <is>
-          <t>https://ag-energiebilanzen.de/en/</t>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
         </is>
       </c>
       <c r="J6" s="4" t="inlineStr">
@@ -855,54 +855,54 @@
       </c>
       <c r="L6" s="4" t="inlineStr">
         <is>
-          <t>ageb</t>
+          <t>ageestat</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Q_AGEESTAT</t>
+          <t>Q_AGNE</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik (AGEE-Stat)</t>
+          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>der Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>der Arbeitsgruppe Nachhaltige Entwicklung</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>Sustainable Development Working Group</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>the Working Group on Renewable Energy Statistics</t>
+          <t>the Sustainable Development Working Group</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>Sustainable Development Working Group</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
@@ -917,54 +917,54 @@
       </c>
       <c r="L7" s="4" t="inlineStr">
         <is>
-          <t>ageestat</t>
+          <t>agne</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Q_AGNE</t>
+          <t>Q_AKUGRDL</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder (AK UGRdL)</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>der Arbeitsgruppe Nachhaltige Entwicklung</t>
+          <t>des Arbeitskreises der Umweltökonomischen Gesamtrechnungen der Länder</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Working Group</t>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>the Sustainable Development Working Group</t>
+          <t>the Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Working Group</t>
+          <t>AK UGRdL</t>
         </is>
       </c>
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
+          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
         </is>
       </c>
       <c r="I8" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
+          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
@@ -979,54 +979,54 @@
       </c>
       <c r="L8" s="4" t="inlineStr">
         <is>
-          <t>agne</t>
+          <t>akugrdl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Q_AKUGRDL</t>
+          <t>Q_AMI</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder (AK UGRdL)</t>
+          <t>Agrarmarkt Informations-Gesellschaft mbH (AMI)</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>des Arbeitskreises der Umweltökonomischen Gesamtrechnungen der Länder</t>
+          <t>der Agrarmarkt Informations-Gesellschaft mbH</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
+          <t>Agricultural Market Information Company</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>the Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
+          <t>the Agricultural Market Information Company</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
+          <t>Agrarmarkt Informations-Gesellschaft mbH</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>AK UGRdL</t>
+          <t>Agricultural Market Information Company</t>
         </is>
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
+          <t>https://www.ami-informiert.de/ami-maerkte</t>
         </is>
       </c>
       <c r="I9" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
+          <t>https://www.ami-informiert.de/ami-english/ami-about-us/about-us</t>
         </is>
       </c>
       <c r="J9" s="4" t="inlineStr">
@@ -1041,54 +1041,54 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>akugrdl</t>
+          <t>ami</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Q_AMI</t>
+          <t>Q_BBSR</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Agrarmarkt Informations-Gesellschaft mbH (AMI)</t>
+          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung (BBSR)</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>der Agrarmarkt Informations-Gesellschaft mbH</t>
+          <t>des Bundesinstituts für Bau-, Stadt- und Raumforschung</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>Agricultural Market Information Company</t>
+          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>the Agricultural Market Information Company</t>
+          <t>the Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>Agrarmarkt Informations-Gesellschaft mbH</t>
+          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>Agricultural Market Information Company</t>
+          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
       <c r="H10" s="5" t="inlineStr">
         <is>
-          <t>https://www.ami-informiert.de/ami-maerkte</t>
+          <t>https://www.bbsr.bund.de/BBSR/DE/startseite/_node.html</t>
         </is>
       </c>
       <c r="I10" s="5" t="inlineStr">
         <is>
-          <t>https://www.ami-informiert.de/ami-english/ami-about-us/about-us</t>
+          <t>https://www.bbsr.bund.de/BBSR/EN/home/_node.html</t>
         </is>
       </c>
       <c r="J10" s="4" t="inlineStr">
@@ -1103,54 +1103,54 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>ami</t>
+          <t>bbsr</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Q_BBSR</t>
+          <t>Q_BFN</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung (BBSR)</t>
+          <t>Bundesamt für Naturschutz (BfN)</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>des Bundesinstituts für Bau-, Stadt- und Raumforschung</t>
+          <t>des Bundesamts für Naturschutz</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
+          <t>Federal Agency for Nature Conservation </t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>the Federal Agency for Nature Conservation </t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>Bundesamt für Naturschutz</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
           <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>the Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
-        </is>
-      </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
-        </is>
-      </c>
-      <c r="G11" s="4" t="inlineStr">
-        <is>
-          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
-        </is>
-      </c>
       <c r="H11" s="5" t="inlineStr">
         <is>
-          <t>https://www.bbsr.bund.de/BBSR/DE/startseite/_node.html</t>
+          <t>https://www.bfn.de/</t>
         </is>
       </c>
       <c r="I11" s="5" t="inlineStr">
         <is>
-          <t>https://www.bbsr.bund.de/BBSR/EN/home/_node.html</t>
+          <t>https://www.bfn.de/en.html</t>
         </is>
       </c>
       <c r="J11" s="4" t="inlineStr">
@@ -1165,54 +1165,54 @@
       </c>
       <c r="L11" s="4" t="inlineStr">
         <is>
-          <t>bbsr</t>
+          <t>bfn</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Q_BFN</t>
+          <t>Q_BKA</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Naturschutz (BfN)</t>
+          <t>Bundeskriminalamt (BKA)</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>des Bundesamts für Naturschutz</t>
+          <t>des Bundeskriminalamts</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Nature Conservation </t>
+          <t>Federal Criminal Police Office</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>the Federal Agency for Nature Conservation </t>
+          <t>the Federal Criminal Police Office</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Naturschutz</t>
+          <t>Bundeskriminalamt</t>
         </is>
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+          <t>Federal Criminal Police Office</t>
         </is>
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>https://www.bfn.de/</t>
+          <t>https://www.bka.de/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="I12" s="5" t="inlineStr">
         <is>
-          <t>https://www.bfn.de/en.html</t>
+          <t>https://www.bka.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="J12" s="4" t="inlineStr">
@@ -1227,54 +1227,54 @@
       </c>
       <c r="L12" s="4" t="inlineStr">
         <is>
-          <t>bfn</t>
+          <t>bka</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Q_BKA</t>
+          <t>Q_BKAMT</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Bundeskriminalamt (BKA)</t>
+          <t>Bundeskanzleramt</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>des Bundeskriminalamts</t>
+          <t>des Bundeskanzleramts</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>Federal Criminal Police Office</t>
+          <t>Federal Chancellery</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>the Federal Criminal Police Office</t>
+          <t>the Federal Chancellery</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>Bundeskriminalamt</t>
+          <t>Bundeskanzleramt</t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>Federal Criminal Police Office</t>
+          <t>Federal Chancellery</t>
         </is>
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>https://www.bka.de/DE/Home/home_node.html</t>
+          <t>https://www.bundesregierung.de/breg-de/bundesregierung/bundeskanzleramt</t>
         </is>
       </c>
       <c r="I13" s="5" t="inlineStr">
         <is>
-          <t>https://www.bka.de/EN/Home/home_node.html</t>
+          <t>https://www.bundesregierung.de/breg-en/federal-government</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
@@ -1289,54 +1289,54 @@
       </c>
       <c r="L13" s="4" t="inlineStr">
         <is>
-          <t>bka</t>
+          <t>bkamt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Q_BKAMT</t>
+          <t>Q_BKG</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Bundeskanzleramt</t>
+          <t>Bundesamt für Kartographie und Geodäsie (BKG)</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>des Bundeskanzleramts</t>
+          <t>vom BKG</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Federal Chancellery</t>
+          <t>Federal Agency for Cartography and Geodesy</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>the Federal Chancellery</t>
+          <t>the BKG</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>Bundeskanzleramt</t>
+          <t>Bundesamt für Kartographie und Geodäsie</t>
         </is>
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>Federal Chancellery</t>
+          <t>Federal Agency for Cartography and Geodesy</t>
         </is>
       </c>
       <c r="H14" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesregierung.de/breg-de/bundesregierung/bundeskanzleramt</t>
+          <t>https://www.bkg.bund.de/DE/Home/home.html</t>
         </is>
       </c>
       <c r="I14" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesregierung.de/breg-en/federal-government</t>
+          <t>https://www.bkg.bund.de/EN/Home/</t>
         </is>
       </c>
       <c r="J14" s="4" t="inlineStr">
@@ -1351,54 +1351,54 @@
       </c>
       <c r="L14" s="4" t="inlineStr">
         <is>
-          <t>bkamt</t>
+          <t>bkg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Q_BKG</t>
+          <t>Q_BKM</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Kartographie und Geodäsie (BKG)</t>
+          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>vom BKG</t>
+          <t>der Beauftragten der Bundesregierung für Kultur und Medien</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Cartography and Geodesy</t>
+          <t>Federal Government Commissioner for Culture and the Media</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>the BKG</t>
+          <t>the Federal Government Commissioner for Culture and the Media</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Kartographie und Geodäsie</t>
+          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
         </is>
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Cartography and Geodesy</t>
+          <t>Federal Government Commissioner for Culture and the Media</t>
         </is>
       </c>
       <c r="H15" s="5" t="inlineStr">
         <is>
-          <t>https://www.bkg.bund.de/DE/Home/home.html</t>
+          <t>https://www.kulturstaatsministerin.de/DE/startseite/startseite_node.html</t>
         </is>
       </c>
       <c r="I15" s="5" t="inlineStr">
         <is>
-          <t>https://www.bkg.bund.de/EN/Home/</t>
+          <t>https://www.kulturstaatsministerin.de/DE/startseite/startseite_node.html</t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
@@ -1413,54 +1413,54 @@
       </c>
       <c r="L15" s="4" t="inlineStr">
         <is>
-          <t>bkg</t>
+          <t>bkm</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Q_BKM</t>
+          <t>Q_BMBF</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
+          <t>Bundesministerium für Bildung und Forschung (BMBF)</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>der Beauftragten der Bundesregierung für Kultur und Medien</t>
+          <t>des Bundesministeriums für Bildung und Frschung</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Federal Government Commissioner for Culture and the Media</t>
+          <t>Federal Ministry of Education and Research</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>the Federal Government Commissioner for Culture and the Media</t>
+          <t>the Federal Ministry of Education and Research</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
+          <t>Bundesministerium für Bildung und Forschung</t>
         </is>
       </c>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>Federal Government Commissioner for Culture and the Media</t>
+          <t>Federal Ministry of Education and Research</t>
         </is>
       </c>
       <c r="H16" s="5" t="inlineStr">
         <is>
-          <t>https://www.kulturstaatsministerin.de/DE/startseite/startseite_node.html</t>
+          <t>https://www.bmbf.de/</t>
         </is>
       </c>
       <c r="I16" s="5" t="inlineStr">
         <is>
-          <t>https://www.kulturstaatsministerin.de/DE/startseite/startseite_node.html</t>
+          <t>https://www.bmbf.de/bmbf/en/</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
@@ -1475,54 +1475,54 @@
       </c>
       <c r="L16" s="4" t="inlineStr">
         <is>
-          <t>bkm</t>
+          <t>bmbf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Q_BMBF</t>
+          <t>Q_BMDV</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Bildung und Forschung (BMBF)</t>
+          <t>Bundesministerium für Digitales und Verkehr (BMDV)</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Bildung und Frschung</t>
+          <t>des Bundesministeriums für Digitales und Verkehr</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Education and Research</t>
+          <t>Federal Ministry for Digital and Transport</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry of Education and Research</t>
+          <t>the Federal Ministry for Digital and Transport</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Bildung und Forschung</t>
+          <t>Bundesministerium für Digitales und Verkehr</t>
         </is>
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Education and Research</t>
+          <t>Federal Ministry for Digital and Transport</t>
         </is>
       </c>
       <c r="H17" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmbf.de/</t>
+          <t>https://bmdv.bund.de/DE/Home/home.html</t>
         </is>
       </c>
       <c r="I17" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmbf.de/bmbf/en/</t>
+          <t>https://bmdv.bund.de/EN/Home/home.html</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
@@ -1537,54 +1537,54 @@
       </c>
       <c r="L17" s="4" t="inlineStr">
         <is>
-          <t>bmbf</t>
+          <t>bmdv</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Q_BMDV</t>
+          <t>Q_BMEL</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Digitales und Verkehr (BMDV)</t>
+          <t>Bundesministerium für Ernährung und Landwirtschaft (BMEL)</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Digitales und Verkehr</t>
+          <t>des Bundesministeriums für Ernährung und Landwirtschaft</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Digital and Transport</t>
+          <t>Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry for Digital and Transport</t>
+          <t>the Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Digitales und Verkehr</t>
+          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Digital and Transport</t>
+          <t>Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
       <c r="H18" s="5" t="inlineStr">
         <is>
-          <t>https://bmdv.bund.de/DE/Home/home.html</t>
+          <t>https://www.bmel.de/DE/Startseite/startseite_node.html</t>
         </is>
       </c>
       <c r="I18" s="5" t="inlineStr">
         <is>
-          <t>https://bmdv.bund.de/EN/Home/home.html</t>
+          <t>https://www.bmel.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
@@ -1599,54 +1599,54 @@
       </c>
       <c r="L18" s="4" t="inlineStr">
         <is>
-          <t>bmdv</t>
+          <t>bmel</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Q_BMEL</t>
+          <t>Q_BMF</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Ernährung und Landwirtschaft (BMEL)</t>
+          <t>Bundesministerium der Finanzen (BMF)</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Ernährung und Landwirtschaft</t>
+          <t>des Bundesministeriums der Finanzen</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>Federal Ministry of Finance</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry of Food and Agriculture</t>
+          <t>the Federal Ministry of Finance</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
+          <t>Bundesministerium der Finanzen</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>Federal Ministry of Finance</t>
         </is>
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmel.de/DE/Startseite/startseite_node.html</t>
+          <t>https://www.bundesfinanzministerium.de/Web/DE/Home/home.html</t>
         </is>
       </c>
       <c r="I19" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmel.de/EN/Home/home_node.html</t>
+          <t>https://www.bundesfinanzministerium.de/Web/EN/Home/home.html</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1661,54 +1661,54 @@
       </c>
       <c r="L19" s="4" t="inlineStr">
         <is>
-          <t>bmel</t>
+          <t>bmf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Q_BMF</t>
+          <t>Q_BMFSFJ</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Finanzen (BMF)</t>
+          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums der Finanzen</t>
+          <t>des Bundesministeriums für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Finance</t>
+          <t>Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry of Finance</t>
+          <t>the Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Finanzen</t>
+          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Finance</t>
+          <t>Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
         </is>
       </c>
       <c r="H20" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesfinanzministerium.de/Web/DE/Home/home.html</t>
+          <t>https://www.bmfsfj.de/</t>
         </is>
       </c>
       <c r="I20" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesfinanzministerium.de/Web/EN/Home/home.html</t>
+          <t>https://www.bmfsfj.de/en</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -1723,54 +1723,54 @@
       </c>
       <c r="L20" s="4" t="inlineStr">
         <is>
-          <t>bmf</t>
+          <t>bmfsfj</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Q_BMFSFJ</t>
+          <t>Q_BMG</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
+          <t>Bundesministerium für Gesundheit (BMG)</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
+          <t>des Bundesministeriums für Gesundheit</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
+          <t>Federal Ministry of Health</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
+          <t>the Federal Ministry of Health</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
+          <t>Bundesministerium für Gesundheit</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
+          <t>Federal Ministry of Health</t>
         </is>
       </c>
       <c r="H21" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmfsfj.de/</t>
+          <t>https://www.bundesgesundheitsministerium.de/</t>
         </is>
       </c>
       <c r="I21" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmfsfj.de/en</t>
+          <t>https://www.bundesgesundheitsministerium.de/en/</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1785,54 +1785,54 @@
       </c>
       <c r="L21" s="4" t="inlineStr">
         <is>
-          <t>bmfsfj</t>
+          <t>bmg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Q_BMG</t>
+          <t>Q_BMVG</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Gesundheit (BMG)</t>
+          <t>Bundesministerium der Verteidigung (BMvG)</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Gesundheit</t>
+          <t>vom BMvG</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Health</t>
+          <t>XXXBundesministerium der Verteidigung</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry of Health</t>
+          <t>x</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Gesundheit</t>
+          <t>Bundesministerium der Verteidigung</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Health</t>
+          <t>XXXBundesministerium der Verteidigung</t>
         </is>
       </c>
       <c r="H22" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesgesundheitsministerium.de/</t>
+          <t>https://www.bmvg.de/de</t>
         </is>
       </c>
       <c r="I22" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesgesundheitsministerium.de/en/</t>
+          <t>https://www.bmvg.de/de</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -1847,54 +1847,54 @@
       </c>
       <c r="L22" s="4" t="inlineStr">
         <is>
-          <t>bmg</t>
+          <t>bmvg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Q_BMVG</t>
+          <t>Q_BMWK</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Verteidigung (BMvG)</t>
+          <t>Bundesministerium für Wirtschaft und Klimaschutz (BMWK)</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>vom BMvG</t>
+          <t>des Bundesministeriums für Wirtschaft und Klimaschutz</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>XXXBundesministerium der Verteidigung</t>
+          <t>Federal Ministry for Economic Affairs and Climate Action</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>the Federal Ministry for Economic Affairs and Climate Action</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Verteidigung</t>
+          <t>Bundesministerium für Wirtschaft und Klimaschutz</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>XXXBundesministerium der Verteidigung</t>
+          <t>Federal Ministry for Economic Affairs and Climate Action</t>
         </is>
       </c>
       <c r="H23" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmvg.de/de</t>
+          <t>https://www.bmwi.de/Navigation/DE/Home/home.html</t>
         </is>
       </c>
       <c r="I23" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmvg.de/de</t>
+          <t>https://www.bmwi.de/Navigation/EN/Home/home.html</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
@@ -1909,54 +1909,54 @@
       </c>
       <c r="L23" s="4" t="inlineStr">
         <is>
-          <t>bmvg</t>
+          <t>bmwk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Q_BMWK</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Wirtschaft und Klimaschutz (BMWK)</t>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ)</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Wirtschaft und Klimaschutz</t>
+          <t>des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Affairs and Climate Action</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry for Economic Affairs and Climate Action</t>
+          <t>the Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Wirtschaft und Klimaschutz</t>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Affairs and Climate Action</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
       <c r="H24" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmwi.de/Navigation/DE/Home/home.html</t>
+          <t>https://www.bmz.de/de</t>
         </is>
       </c>
       <c r="I24" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmwi.de/Navigation/EN/Home/home.html</t>
+          <t>https://www.bmz.de/en</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
@@ -1971,54 +1971,54 @@
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>bmwk</t>
+          <t>bmz</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_BOLW</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ)</t>
+          <t>Bund Ökologische Lebensmittelwirtschaft e. V. (BÖLW)</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>des Bunds Ökologische Lebensmittelwirtschaft e. V.</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t>Organic Food Production Alliance</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry for Economic Cooperation and Development</t>
+          <t>the Organic Food Production Alliance</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Bund Ökologische Lebensmittelwirtschaft e. V.</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t>Organic Food Production Alliance</t>
         </is>
       </c>
       <c r="H25" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de</t>
+          <t>https://www.boelw.de/</t>
         </is>
       </c>
       <c r="I25" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/en</t>
+          <t>https://www.boelw.de/</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
@@ -2033,54 +2033,54 @@
       </c>
       <c r="L25" s="4" t="inlineStr">
         <is>
-          <t>bmz</t>
+          <t>bolw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Q_BOLW</t>
+          <t>Q_BREG</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Bund Ökologische Lebensmittelwirtschaft e. V. (BÖLW)</t>
+          <t>Bundesregierung (Monitoringbericht Maßnahmeprogramm Nachhaltigkeit)</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>des Bunds Ökologische Lebensmittelwirtschaft e. V.</t>
+          <t>der Bundesregierung</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Organic Food Production Alliance</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>the Organic Food Production Alliance</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>Bund Ökologische Lebensmittelwirtschaft e. V.</t>
+          <t>Bundesregierung (Monitoringbericht Maßnahmeprogramm Nachhaltigkeit)</t>
         </is>
       </c>
       <c r="G26" s="4" t="inlineStr">
         <is>
-          <t>Organic Food Production Alliance</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H26" s="5" t="inlineStr">
         <is>
-          <t>https://www.boelw.de/</t>
+          <t>https://www.bundesregierung.de/breg-de/schwerpunkte-der-bundesregierung/nachhaltigkeitspolitik/massnahmenprogramm-nachhaltigkeit-der-bundesregierung-427896</t>
         </is>
       </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
-          <t>https://www.boelw.de/</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J26" s="4" t="inlineStr">
@@ -2095,54 +2095,54 @@
       </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t>bolw</t>
+          <t>breg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Q_BREG</t>
+          <t>Q_BUNDESBANK</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Bundesregierung (Monitoringbericht Maßnahmeprogramm Nachhaltigkeit)</t>
+          <t>Deutsche Bundesbank (BBk)</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>der Bundesregierung</t>
+          <t>der Deutschen Bundesbank</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>German Federal Bank</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the German Federal Bank</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>Bundesregierung (Monitoringbericht Maßnahmeprogramm Nachhaltigkeit)</t>
+          <t>Deutsche Bundesbank</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>German Federal Bank</t>
         </is>
       </c>
       <c r="H27" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesregierung.de/breg-de/schwerpunkte-der-bundesregierung/nachhaltigkeitspolitik/massnahmenprogramm-nachhaltigkeit-der-bundesregierung-427896</t>
+          <t>https://www.bundesbank.de/de/</t>
         </is>
       </c>
       <c r="I27" s="5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>https://www.bundesbank.de/en</t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
@@ -2157,54 +2157,54 @@
       </c>
       <c r="L27" s="4" t="inlineStr">
         <is>
-          <t>breg</t>
+          <t>bundesbank</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Q_BUNDESBANK</t>
+          <t>Q_ZVB</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Bundesbank (BBk)</t>
+          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>der Deutschen Bundesbank</t>
+          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>German Federal Bank</t>
+          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>the German Federal Bank</t>
+          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Bundesbank</t>
+          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>German Federal Bank</t>
+          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesbank.de/de/</t>
+          <t>https://www.bundeswehr.de/de/organisation/streitkraeftebasis/organisation/streitkraefteamt/zentrum-fuer-verifikationsaufgaben-der-bundeswehr</t>
         </is>
       </c>
       <c r="I28" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesbank.de/en</t>
+          <t>https://www.bundeswehr.de/de/organisation/streitkraeftebasis/organisation/streitkraefteamt/zentrum-fuer-verifikationsaufgaben-der-bundeswehr</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
@@ -2219,54 +2219,54 @@
       </c>
       <c r="L28" s="4" t="inlineStr">
         <is>
-          <t>bundesbank</t>
+          <t>bw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Q_ZVB</t>
+          <t>Q_BZGA</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
+          <t>Bundeszentrale für gesundheitliche Aufklärung (BZGA)</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
+          <t>der Bundeszentrale für gesundheitliche Aufklärung</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
+          <t>Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
+          <t>the Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
+          <t>Bundeszentrale für gesundheitliche Aufklärung</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
+          <t>Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundeswehr.de/de/organisation/streitkraeftebasis/organisation/streitkraefteamt/zentrum-fuer-verifikationsaufgaben-der-bundeswehr</t>
+          <t>https://www.bzga.de/</t>
         </is>
       </c>
       <c r="I29" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundeswehr.de/de/organisation/streitkraeftebasis/organisation/streitkraefteamt/zentrum-fuer-verifikationsaufgaben-der-bundeswehr</t>
+          <t>https://www.bzga.de/home/bzga/</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
@@ -2281,54 +2281,54 @@
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>bw</t>
+          <t>bzga</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Q_BZGA</t>
+          <t>Q_CEVAL</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Bundeszentrale für gesundheitliche Aufklärung (BZGA)</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>der Bundeszentrale für gesundheitliche Aufklärung</t>
+          <t>der CEval GmbH</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Federal Centre for Health Education</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>the Federal Centre for Health Education</t>
+          <t>the CEval GmbH</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>Bundeszentrale für gesundheitliche Aufklärung</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>Federal Centre for Health Education</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="H30" s="5" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/</t>
+          <t>https://ceval.de/</t>
         </is>
       </c>
       <c r="I30" s="5" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/home/bzga/</t>
+          <t>https://ceval.de/en/</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
@@ -2343,54 +2343,54 @@
       </c>
       <c r="L30" s="4" t="inlineStr">
         <is>
-          <t>bzga</t>
+          <t>ceval</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Q_CEVAL</t>
+          <t>Q_COPERNICUS</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Europäisches Copernikus-Programm</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>der CEval GmbH</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>the CEval GmbH</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Europäisches Copernikus-Programm</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H31" s="5" t="inlineStr">
         <is>
-          <t>https://ceval.de/</t>
+          <t>https://www.copernicus.eu/de/ueber-copernicus</t>
         </is>
       </c>
       <c r="I31" s="5" t="inlineStr">
         <is>
-          <t>https://ceval.de/en/</t>
+          <t>https://www.copernicus.eu/de/ueber-copernicus</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
@@ -2405,54 +2405,54 @@
       </c>
       <c r="L31" s="4" t="inlineStr">
         <is>
-          <t>ceval</t>
+          <t>cop</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Q_COPERNICUS</t>
+          <t>Q_DDB</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Europäisches Copernikus-Programm</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>der deutschen digitalen Bibliothek</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>Europäisches Copernikus-Programm</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="H32" s="5" t="inlineStr">
         <is>
-          <t>https://www.copernicus.eu/de/ueber-copernicus</t>
+          <t>https://www.deutsche-digitale-bibliothek.de/</t>
         </is>
       </c>
       <c r="I32" s="5" t="inlineStr">
         <is>
-          <t>https://www.copernicus.eu/de/ueber-copernicus</t>
+          <t>https://www.deutsche-digitale-bibliothek.de/?lang=en</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
@@ -2467,54 +2467,54 @@
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>cop</t>
+          <t>ddb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Q_DDB</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Statistisches Bundesamt (Destatis)</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>der deutschen digitalen Bibliothek</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Federal Statistical Office</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>the Deutsche Digitale Bibliothek</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Statistisches Bundesamt</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Federal Statistical Office</t>
         </is>
       </c>
       <c r="H33" s="5" t="inlineStr">
         <is>
-          <t>https://www.deutsche-digitale-bibliothek.de/</t>
+          <t>https://www.destatis.de/DE/Home/_inhalt.html</t>
         </is>
       </c>
       <c r="I33" s="5" t="inlineStr">
         <is>
-          <t>https://www.deutsche-digitale-bibliothek.de/?lang=en</t>
+          <t>https://www.destatis.de/EN/Home/_node.html</t>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr">
@@ -2529,54 +2529,54 @@
       </c>
       <c r="L33" s="4" t="inlineStr">
         <is>
-          <t>ddb</t>
+          <t>destatis</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_DIHK</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Statistisches Bundesamt (Destatis)</t>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V. (DIHK)</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>des Deutschen Industrie- und Handelskammertages</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Federal Statistical Office</t>
+          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the German EMAS Advisory Board</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>Statistisches Bundesamt</t>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V.</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>Federal Statistical Office</t>
+          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
         </is>
       </c>
       <c r="H34" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Home/_inhalt.html</t>
+          <t>https://www.dihk.de/de</t>
         </is>
       </c>
       <c r="I34" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Home/_node.html</t>
+          <t>https://www.dihk.de/de</t>
         </is>
       </c>
       <c r="J34" s="4" t="inlineStr">
@@ -2591,54 +2591,54 @@
       </c>
       <c r="L34" s="4" t="inlineStr">
         <is>
-          <t>destatis</t>
+          <t>dihk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Q_DIHK</t>
+          <t>Q_DIW</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V. (DIHK)</t>
+          <t>Deutsches Institut für Wirtschaftsforschung (DIW)</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>des Deutschen Industrie- und Handelskammertages</t>
+          <t>des Deutschen Instituts für Wirtschaftsforschung</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
+          <t>German Institute for Economic Research</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>the German EMAS Advisory Board</t>
+          <t>the German Institute for Economic Research</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V.</t>
+          <t>Deutsches Institut für Wirtschaftsforschung</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
+          <t>German Institute for Economic Research</t>
         </is>
       </c>
       <c r="H35" s="5" t="inlineStr">
         <is>
-          <t>https://www.dihk.de/de</t>
+          <t>https://www.diw.de/deutsch</t>
         </is>
       </c>
       <c r="I35" s="5" t="inlineStr">
         <is>
-          <t>https://www.dihk.de/de</t>
+          <t>https://www.diw.de/en</t>
         </is>
       </c>
       <c r="J35" s="4" t="inlineStr">
@@ -2653,54 +2653,54 @@
       </c>
       <c r="L35" s="4" t="inlineStr">
         <is>
-          <t>dihk</t>
+          <t>diw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Q_DIW</t>
+          <t>Q_DNK</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Wirtschaftsforschung (DIW)</t>
+          <t>Deutscher Nachhaltigkeitskodex (DNK)</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>des Deutschen Instituts für Wirtschaftsforschung</t>
+          <t>vom DNK</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Economic Research</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>the German Institute for Economic Research</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Wirtschaftsforschung</t>
+          <t>Deutscher Nachhaltigkeitskodex (DNK)</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Economic Research</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="H36" s="5" t="inlineStr">
         <is>
-          <t>https://www.diw.de/deutsch</t>
+          <t>https://www.deutscher-nachhaltigkeitskodex.de/</t>
         </is>
       </c>
       <c r="I36" s="5" t="inlineStr">
         <is>
-          <t>https://www.diw.de/en</t>
+          <t>https://www.deutscher-nachhaltigkeitskodex.de/en/</t>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr">
@@ -2715,24 +2715,24 @@
       </c>
       <c r="L36" s="4" t="inlineStr">
         <is>
-          <t>diw</t>
+          <t>dnk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Q_DNK</t>
+          <t>Q_EMAS</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Deutscher Nachhaltigkeitskodex (DNK)</t>
+          <t>Umweltmanagementsystem (EMAS)</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>vom DNK</t>
+          <t>von EMAS</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>Deutscher Nachhaltigkeitskodex (DNK)</t>
+          <t>Umweltmanagementsystem (EMAS)</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
@@ -2757,12 +2757,12 @@
       </c>
       <c r="H37" s="5" t="inlineStr">
         <is>
-          <t>https://www.deutscher-nachhaltigkeitskodex.de/</t>
+          <t>https://www.emas.de/was-ist-emas</t>
         </is>
       </c>
       <c r="I37" s="5" t="inlineStr">
         <is>
-          <t>https://www.deutscher-nachhaltigkeitskodex.de/en/</t>
+          <t>https://www.emas.de/en</t>
         </is>
       </c>
       <c r="J37" s="4" t="inlineStr">
@@ -2777,54 +2777,54 @@
       </c>
       <c r="L37" s="4" t="inlineStr">
         <is>
-          <t>dnk</t>
+          <t>emas</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Q_EMAS</t>
+          <t>Q_EUROPEANCOMMISSION</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagementsystem (EMAS)</t>
+          <t>Europäische Kommission</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>von EMAS</t>
+          <t>der Europäischen Kommission</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>European Commission</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>the European Commission</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagementsystem (EMAS)</t>
+          <t>Europäische Kommission</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>European Commission</t>
         </is>
       </c>
       <c r="H38" s="5" t="inlineStr">
         <is>
-          <t>https://www.emas.de/was-ist-emas</t>
+          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_de</t>
         </is>
       </c>
       <c r="I38" s="5" t="inlineStr">
         <is>
-          <t>https://www.emas.de/en</t>
+          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_en</t>
         </is>
       </c>
       <c r="J38" s="4" t="inlineStr">
@@ -2839,54 +2839,54 @@
       </c>
       <c r="L38" s="4" t="inlineStr">
         <is>
-          <t>emas</t>
+          <t>europeancommission</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROPEANCOMMISSION</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Europäische Kommission</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>der Europäischen Kommission</t>
+          <t>von Eurostat</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>European Commission</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>the European Commission</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Europäische Kommission</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t>European Commission</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="H39" s="5" t="inlineStr">
         <is>
-          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_de</t>
+          <t>https://ec.europa.eu/eurostat/de/home</t>
         </is>
       </c>
       <c r="I39" s="5" t="inlineStr">
         <is>
-          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_en</t>
+          <t>https://ec.europa.eu/eurostat/home</t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr">
@@ -2901,54 +2901,54 @@
       </c>
       <c r="L39" s="4" t="inlineStr">
         <is>
-          <t>europeancommission</t>
+          <t>eurostat</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_EZB</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>Europäische Zentralbank (EZB)</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>von Eurostat</t>
+          <t>der Europäischen Zentralbank</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>European Central Bank</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>the European Central Bank</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>Europäische Zentralbank</t>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>European Central Bank</t>
         </is>
       </c>
       <c r="H40" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/de/home</t>
+          <t>https://www.ecb.europa.eu/home/html/index.de.html</t>
         </is>
       </c>
       <c r="I40" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/home</t>
+          <t>https://www.ecb.europa.eu/home/languagepolicy/html/index.en.html</t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
@@ -2963,54 +2963,54 @@
       </c>
       <c r="L40" s="4" t="inlineStr">
         <is>
-          <t>eurostat</t>
+          <t>ezb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Q_EZB</t>
+          <t>Q_FATF</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank (EZB)</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>der Europäischen Zentralbank</t>
+          <t>vom FATF</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>the European Central Bank</t>
+          <t>the FATF</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
       <c r="H41" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/home/html/index.de.html</t>
+          <t>https://www.fatf-gafi.org/en/home.html</t>
         </is>
       </c>
       <c r="I41" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/home/languagepolicy/html/index.en.html</t>
+          <t>https://www.fatf-gafi.org/en/home.html</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
@@ -3025,54 +3025,54 @@
       </c>
       <c r="L41" s="4" t="inlineStr">
         <is>
-          <t>ezb</t>
+          <t>fatf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Q_FATF</t>
+          <t>Q_FIDAR</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force</t>
+          <t>Frauen in die Aufsichtsräte e.V. (FidAR)</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>vom FATF</t>
+          <t>vom Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>the FATF</t>
+          <t>the Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="H42" s="5" t="inlineStr">
         <is>
-          <t>https://www.fatf-gafi.org/en/home.html</t>
+          <t>https://www.fidar.de/</t>
         </is>
       </c>
       <c r="I42" s="5" t="inlineStr">
         <is>
-          <t>https://www.fatf-gafi.org/en/home.html</t>
+          <t>https://www.fidar.de/</t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr">
@@ -3087,54 +3087,54 @@
       </c>
       <c r="L42" s="4" t="inlineStr">
         <is>
-          <t>fatf</t>
+          <t>fidar</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_GBE</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V. (FidAR)</t>
+          <t>Gesundheitsberichterstattung des Bundes (GBE)</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>vom Frauen in die Aufsichtsräte e.V.</t>
+          <t>der Gesundheitsberichterstattung des Bundes</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>Federal Health Monitoring</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>the Frauen in die Aufsichtsräte e.V.</t>
+          <t>the Federal Health Monitoring</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>Gesundheitsberichterstattung des Bundes</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>Federal Health Monitoring</t>
         </is>
       </c>
       <c r="H43" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/</t>
+          <t>https://www.gbe-bund.de/gbe/</t>
         </is>
       </c>
       <c r="I43" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/</t>
+          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_isgbe?p_uid=gast&amp;p_aid=50554816&amp;p_sprache=E</t>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr">
@@ -3149,54 +3149,54 @@
       </c>
       <c r="L43" s="4" t="inlineStr">
         <is>
-          <t>fidar</t>
+          <t>gbe</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Q_GBE</t>
+          <t>Q_GFK</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Gesundheitsberichterstattung des Bundes (GBE)</t>
+          <t>Gesellschaft für Konsumforschung (GfK)</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>der Gesundheitsberichterstattung des Bundes</t>
+          <t>der Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Federal Health Monitoring</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>the Federal Health Monitoring</t>
+          <t>the Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>Gesundheitsberichterstattung des Bundes</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>Federal Health Monitoring</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="H44" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/</t>
+          <t>https://www.gfk.com/de/</t>
         </is>
       </c>
       <c r="I44" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_isgbe?p_uid=gast&amp;p_aid=50554816&amp;p_sprache=E</t>
+          <t>https://www.gfk.com/</t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
@@ -3211,54 +3211,54 @@
       </c>
       <c r="L44" s="4" t="inlineStr">
         <is>
-          <t>gbe</t>
+          <t>gfk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Q_GFK</t>
+          <t>Q_GHSI</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung (GfK)</t>
+          <t>Global Health Security Index (GHSI)</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>der Gesellschaft für Konsumforschung</t>
+          <t>vom GHSI</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Global Health Security Index (GHSI)</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>the Gesellschaft für Konsumforschung</t>
+          <t>the GHSI</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Global Health Security Index</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Global Health Security Index</t>
         </is>
       </c>
       <c r="H45" s="5" t="inlineStr">
         <is>
-          <t>https://www.gfk.com/de/</t>
+          <t>https://ghsindex.org/</t>
         </is>
       </c>
       <c r="I45" s="5" t="inlineStr">
         <is>
-          <t>https://www.gfk.com/</t>
+          <t>https://ghsindex.org/</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr">
@@ -3273,54 +3273,54 @@
       </c>
       <c r="L45" s="4" t="inlineStr">
         <is>
-          <t>gfk</t>
+          <t>ghsi</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Q_GHSI</t>
+          <t>Q_GIZ</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Global Health Security Index (GHSI)</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ)</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>vom GHSI</t>
+          <t>der Deutschen Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Global Health Security Index (GHSI)</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH(GIZ)</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>the GHSI</t>
+          <t>the Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>Global Health Security Index</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
         <is>
-          <t>Global Health Security Index</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="H46" s="5" t="inlineStr">
         <is>
-          <t>https://ghsindex.org/</t>
+          <t>https://www.giz.de/de/html/index.html</t>
         </is>
       </c>
       <c r="I46" s="5" t="inlineStr">
         <is>
-          <t>https://ghsindex.org/</t>
+          <t>https://www.giz.de/en/html/index.html</t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">
@@ -3335,54 +3335,54 @@
       </c>
       <c r="L46" s="4" t="inlineStr">
         <is>
-          <t>ghsi</t>
+          <t>giz</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Q_GIZ</t>
+          <t>Q_GMWOEKNM</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ)</t>
+          <t>Gemeinwohl-Ökonomie</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>der Deutschen Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>der Gemeinwohl-Ökonomie</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH(GIZ)</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>the Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>Gemeinwohl-Ökonomie</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H47" s="5" t="inlineStr">
         <is>
-          <t>https://www.giz.de/de/html/index.html</t>
+          <t>https://germany.econgood.org/</t>
         </is>
       </c>
       <c r="I47" s="5" t="inlineStr">
         <is>
-          <t>https://www.giz.de/en/html/index.html</t>
+          <t>https://germany.econgood.org/</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
@@ -3397,54 +3397,54 @@
       </c>
       <c r="L47" s="4" t="inlineStr">
         <is>
-          <t>giz</t>
+          <t>gwoe</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Q_GMWOEKNM</t>
+          <t>Q_IAB</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Gemeinwohl-Ökonomie</t>
+          <t>Institut für Arbeitsmarkt- und Berufsforschung (IAB)</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>der Gemeinwohl-Ökonomie</t>
+          <t>des Instituts für Arbeitsmarkt- und Berufsforschung</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Institut for Employment Research</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the Institut for Employment Research</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>Gemeinwohl-Ökonomie</t>
+          <t>Institut für Arbeitsmarkt- und Berufsforschung</t>
         </is>
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Institut for Employment Research</t>
         </is>
       </c>
       <c r="H48" s="5" t="inlineStr">
         <is>
-          <t>https://germany.econgood.org/</t>
+          <t>https://iab.de/</t>
         </is>
       </c>
       <c r="I48" s="5" t="inlineStr">
         <is>
-          <t>https://germany.econgood.org/</t>
+          <t>https://iab.de/en/</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
@@ -3459,54 +3459,54 @@
       </c>
       <c r="L48" s="4" t="inlineStr">
         <is>
-          <t>gwoe</t>
+          <t>iab</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Q_IAB</t>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Institut für Arbeitsmarkt- und Berufsforschung (IAB)</t>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH (ifeu)</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>des Instituts für Arbeitsmarkt- und Berufsforschung</t>
+          <t>des Instituts für Energie- und Umweltforschung Heidelberg gGmbH</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Institut for Employment Research</t>
+          <t>Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>the Institut for Employment Research</t>
+          <t>the Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Institut für Arbeitsmarkt- und Berufsforschung</t>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t>Institut for Employment Research</t>
+          <t>Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="H49" s="5" t="inlineStr">
         <is>
-          <t>https://iab.de/</t>
+          <t>https://www.ifeu.de/</t>
         </is>
       </c>
       <c r="I49" s="5" t="inlineStr">
         <is>
-          <t>https://iab.de/en/</t>
+          <t>https://www.ifeu.de/en/</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
@@ -3521,54 +3521,54 @@
       </c>
       <c r="L49" s="4" t="inlineStr">
         <is>
-          <t>iab</t>
+          <t>ifeu</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>Q_JHT</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH (ifeu)</t>
+          <t>Johann Heinrich von Thünen-Institut (TI)</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>des Instituts für Energie- und Umweltforschung Heidelberg gGmbH</t>
+          <t>des Johann Heinrich von Thünen-Instituts</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Institute for Energy and Environmental Research</t>
+          <t>Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>the Institute for Energy and Environmental Research</t>
+          <t>the Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
+          <t>Johann Heinrich von Thünen-Institut</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t>Institute for Energy and Environmental Research</t>
+          <t>Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="H50" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/</t>
+          <t>https://www.thuenen.de/de/</t>
         </is>
       </c>
       <c r="I50" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/en/</t>
+          <t>https://www.thuenen.de/en/</t>
         </is>
       </c>
       <c r="J50" s="4" t="inlineStr">
@@ -3583,54 +3583,54 @@
       </c>
       <c r="L50" s="4" t="inlineStr">
         <is>
-          <t>ifeu</t>
+          <t>jht</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Q_JHT</t>
+          <t>Q_JKI</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen-Institut (TI)</t>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut (JKI)</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>des Johann Heinrich von Thünen-Instituts</t>
+          <t>des Instituts für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen Institute</t>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>the Johann Heinrich von Thünen Institute</t>
+          <t>the Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen-Institut</t>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen Institute</t>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="H51" s="5" t="inlineStr">
         <is>
-          <t>https://www.thuenen.de/de/</t>
+          <t>https://www.julius-kuehn.de/pb/</t>
         </is>
       </c>
       <c r="I51" s="5" t="inlineStr">
         <is>
-          <t>https://www.thuenen.de/en/</t>
+          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
         </is>
       </c>
       <c r="J51" s="4" t="inlineStr">
@@ -3645,54 +3645,54 @@
       </c>
       <c r="L51" s="4" t="inlineStr">
         <is>
-          <t>jht</t>
+          <t>jki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Q_JKI</t>
+          <t>Q_KBA</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut (JKI)</t>
+          <t>Kraftfahrt-Bundesamt (KBA)</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>des Instituts für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
+          <t>des Kraftfahrt-Bundesamts</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>the Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>the Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
+          <t>Kraftfahrt-Bundesamt</t>
         </is>
       </c>
       <c r="G52" s="4" t="inlineStr">
         <is>
-          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="H52" s="5" t="inlineStr">
         <is>
-          <t>https://www.julius-kuehn.de/pb/</t>
+          <t>https://www.kba.de/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="I52" s="5" t="inlineStr">
         <is>
-          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
+          <t>https://www.kba.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="J52" s="4" t="inlineStr">
@@ -3707,54 +3707,54 @@
       </c>
       <c r="L52" s="4" t="inlineStr">
         <is>
-          <t>jki</t>
+          <t>kba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Q_KBA</t>
+          <t>Q_KFW</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrt-Bundesamt (KBA)</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>des Kraftfahrt-Bundesamts</t>
+          <t>der Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Federal Motor Transport Authority</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>the Federal Motor Transport Authority</t>
+          <t>the Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrt-Bundesamt</t>
+          <t>Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t>Federal Motor Transport Authority</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="H53" s="5" t="inlineStr">
         <is>
-          <t>https://www.kba.de/DE/Home/home_node.html</t>
+          <t>https://www.kfw.de/kfw.de.html</t>
         </is>
       </c>
       <c r="I53" s="5" t="inlineStr">
         <is>
-          <t>https://www.kba.de/EN/Home/home_node.html</t>
+          <t>https://www.kfw.de/kfw.de-2.html</t>
         </is>
       </c>
       <c r="J53" s="4" t="inlineStr">
@@ -3769,54 +3769,54 @@
       </c>
       <c r="L53" s="4" t="inlineStr">
         <is>
-          <t>kba</t>
+          <t>kfw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Q_KFW</t>
+          <t>Q_KMLHE</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>der Kreditanstalt für Wiederaufbau</t>
+          <t>x</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>the Kreditanstalt für Wiederaufbau</t>
+          <t>x</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau</t>
+          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="H54" s="5" t="inlineStr">
         <is>
-          <t>https://www.kfw.de/kfw.de.html</t>
+          <t>https://www.kmk.org/</t>
         </is>
       </c>
       <c r="I54" s="5" t="inlineStr">
         <is>
-          <t>https://www.kfw.de/kfw.de-2.html</t>
+          <t>https://www.kmk.org/kmk/information-in-english.html</t>
         </is>
       </c>
       <c r="J54" s="4" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="L54" s="4" t="inlineStr">
         <is>
-          <t>kfw</t>
+          <t>kmk</t>
         </is>
       </c>
     </row>
@@ -4771,45 +4771,45 @@
     <hyperlink ref="I2" r:id="rId2"/>
     <hyperlink ref="H3" r:id="rId3"/>
     <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="H4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="H6" r:id="rId7"/>
-    <hyperlink ref="I6" r:id="rId8"/>
-    <hyperlink ref="I11" r:id="rId9"/>
+    <hyperlink ref="H5" r:id="rId5"/>
+    <hyperlink ref="I5" r:id="rId6"/>
+    <hyperlink ref="I10" r:id="rId7"/>
+    <hyperlink ref="H14" r:id="rId8"/>
+    <hyperlink ref="I14" r:id="rId9"/>
     <hyperlink ref="H15" r:id="rId10"/>
     <hyperlink ref="I15" r:id="rId11"/>
-    <hyperlink ref="H16" r:id="rId12"/>
-    <hyperlink ref="I16" r:id="rId13"/>
-    <hyperlink ref="H18" r:id="rId14"/>
-    <hyperlink ref="I18" r:id="rId15"/>
-    <hyperlink ref="H21" r:id="rId16"/>
-    <hyperlink ref="I21" r:id="rId17"/>
-    <hyperlink ref="H23" r:id="rId18"/>
-    <hyperlink ref="I23" r:id="rId19"/>
-    <hyperlink ref="H25" r:id="rId20"/>
-    <hyperlink ref="I25" r:id="rId21"/>
-    <hyperlink ref="H27" r:id="rId22"/>
-    <hyperlink ref="I27" r:id="rId23"/>
-    <hyperlink ref="H29" r:id="rId24"/>
-    <hyperlink ref="I29" r:id="rId25"/>
+    <hyperlink ref="H17" r:id="rId12"/>
+    <hyperlink ref="I17" r:id="rId13"/>
+    <hyperlink ref="H20" r:id="rId14"/>
+    <hyperlink ref="I20" r:id="rId15"/>
+    <hyperlink ref="H22" r:id="rId16"/>
+    <hyperlink ref="I22" r:id="rId17"/>
+    <hyperlink ref="H24" r:id="rId18"/>
+    <hyperlink ref="I24" r:id="rId19"/>
+    <hyperlink ref="H26" r:id="rId20"/>
+    <hyperlink ref="I26" r:id="rId21"/>
+    <hyperlink ref="H28" r:id="rId22"/>
+    <hyperlink ref="I28" r:id="rId23"/>
+    <hyperlink ref="H30" r:id="rId24"/>
+    <hyperlink ref="I30" r:id="rId25"/>
     <hyperlink ref="H31" r:id="rId26"/>
     <hyperlink ref="I31" r:id="rId27"/>
     <hyperlink ref="H32" r:id="rId28"/>
     <hyperlink ref="I32" r:id="rId29"/>
-    <hyperlink ref="H33" r:id="rId30"/>
-    <hyperlink ref="I33" r:id="rId31"/>
+    <hyperlink ref="H36" r:id="rId30"/>
+    <hyperlink ref="I36" r:id="rId31"/>
     <hyperlink ref="H37" r:id="rId32"/>
     <hyperlink ref="I37" r:id="rId33"/>
-    <hyperlink ref="H38" r:id="rId34"/>
-    <hyperlink ref="I38" r:id="rId35"/>
-    <hyperlink ref="H42" r:id="rId36"/>
-    <hyperlink ref="I42" r:id="rId37"/>
-    <hyperlink ref="H46" r:id="rId38"/>
-    <hyperlink ref="I46" r:id="rId39"/>
+    <hyperlink ref="H41" r:id="rId34"/>
+    <hyperlink ref="I41" r:id="rId35"/>
+    <hyperlink ref="H45" r:id="rId36"/>
+    <hyperlink ref="I45" r:id="rId37"/>
+    <hyperlink ref="H47" r:id="rId38"/>
+    <hyperlink ref="I47" r:id="rId39"/>
     <hyperlink ref="H48" r:id="rId40"/>
     <hyperlink ref="I48" r:id="rId41"/>
-    <hyperlink ref="H49" r:id="rId42"/>
-    <hyperlink ref="I49" r:id="rId43"/>
+    <hyperlink ref="H54" r:id="rId42"/>
+    <hyperlink ref="I54" r:id="rId43"/>
     <hyperlink ref="H59" r:id="rId44"/>
     <hyperlink ref="I59" r:id="rId45"/>
     <hyperlink ref="H60" r:id="rId46"/>

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -552,47 +552,47 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Q_KBK</t>
+          <t>Q_AA</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>KlimaBilanzKultur und KlimaBilanzKultur+</t>
+          <t>Auswärtiges Amt (AA)</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>von KlimaBilanzKultur</t>
+          <t>des Auswärtigen Amtes</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Federal Foreign Office </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the Federal Foreign Office </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>KlimaBilanzKultur und KlimaBilanzKultur+</t>
+          <t>Auswärtiges Amt</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Federal Foreign Office </t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>https://www.kmk.org/fileadmin/pdf/PresseUndAktuelles/2023/Anleitung_zum_CO2-Kulturrechner.pdf</t>
+          <t>https://www.auswaertiges-amt.de/de/</t>
         </is>
       </c>
       <c r="I2" s="5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>https://www.auswaertiges-amt.de/en</t>
         </is>
       </c>
       <c r="J2" s="4" t="inlineStr">
@@ -607,54 +607,54 @@
       </c>
       <c r="L2" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>aa</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>Q_KINO</t>
+          <t>Q_AGEB</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
+          <t>AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>von Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
+          <t>des AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>the AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
+          <t>AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>AG Energiebilanzen e.V.</t>
         </is>
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
-          <t>https://www.green-motion.org/files/16_green_motion/Dokumente/20241209_OEkologische_Standards_UEbergangsfassung_Januar_2025.pdf</t>
+          <t>https://ag-energiebilanzen.de/</t>
         </is>
       </c>
       <c r="I3" s="5" t="inlineStr">
         <is>
-          <t>https://www.green-motion.org/files/16_green_motion/Dokumente/20241209_OEkologische_Standards_UEbergangsfassung_Januar_2025.pdf</t>
+          <t>https://ag-energiebilanzen.de/en/</t>
         </is>
       </c>
       <c r="J3" s="4" t="inlineStr">
@@ -669,54 +669,54 @@
       </c>
       <c r="L3" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ageb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Q_AA</t>
+          <t>Q_AGEESTAT</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Auswärtiges Amt (AA)</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik (AGEE-Stat)</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>des Auswärtigen Amtes</t>
+          <t>der Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>Federal Foreign Office </t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>the Federal Foreign Office </t>
+          <t>the Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>Auswärtiges Amt</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>Federal Foreign Office </t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>https://www.auswaertiges-amt.de/de/</t>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
         <is>
-          <t>https://www.auswaertiges-amt.de/en</t>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
@@ -731,54 +731,54 @@
       </c>
       <c r="L4" s="4" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ageestat</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Q_AGEB</t>
+          <t>Q_AGNE</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>AG Energiebilanzen e.V.</t>
+          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>des AG Energiebilanzen e.V.</t>
+          <t>der Arbeitsgruppe Nachhaltige Entwicklung</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>AG Energiebilanzen e.V.</t>
+          <t>Sustainable Development Working Group</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>the AG Energiebilanzen e.V.</t>
+          <t>the Sustainable Development Working Group</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>AG Energiebilanzen e.V.</t>
+          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>AG Energiebilanzen e.V.</t>
+          <t>Sustainable Development Working Group</t>
         </is>
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>https://ag-energiebilanzen.de/</t>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>https://ag-energiebilanzen.de/en/</t>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
@@ -793,54 +793,54 @@
       </c>
       <c r="L5" s="4" t="inlineStr">
         <is>
-          <t>ageb</t>
+          <t>agne</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Q_AGEESTAT</t>
+          <t>Q_AKUGRDL</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik (AGEE-Stat)</t>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder (AK UGRdL)</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>der Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>des Arbeitskreises der Umweltökonomischen Gesamtrechnungen der Länder</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>the Working Group on Renewable Energy Statistics</t>
+          <t>the Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>AK UGRdL</t>
         </is>
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
+          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
         </is>
       </c>
       <c r="I6" s="5" t="inlineStr">
         <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Arbeitsgruppe/arbeitsgruppe_ee.html</t>
+          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
         </is>
       </c>
       <c r="J6" s="4" t="inlineStr">
@@ -855,54 +855,54 @@
       </c>
       <c r="L6" s="4" t="inlineStr">
         <is>
-          <t>ageestat</t>
+          <t>akugrdl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Q_AGNE</t>
+          <t>Q_AMI</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
+          <t>Agrarmarkt Informations-Gesellschaft mbH (AMI)</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>der Arbeitsgruppe Nachhaltige Entwicklung</t>
+          <t>der Agrarmarkt Informations-Gesellschaft mbH</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Working Group</t>
+          <t>Agricultural Market Information Company</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>the Sustainable Development Working Group</t>
+          <t>the Agricultural Market Information Company</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Nachhaltige Entwicklung</t>
+          <t>Agrarmarkt Informations-Gesellschaft mbH</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>Sustainable Development Working Group</t>
+          <t>Agricultural Market Information Company</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
+          <t>https://www.ami-informiert.de/ami-maerkte</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit</t>
+          <t>https://www.ami-informiert.de/ami-english/ami-about-us/about-us</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
@@ -917,54 +917,54 @@
       </c>
       <c r="L7" s="4" t="inlineStr">
         <is>
-          <t>agne</t>
+          <t>ami</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Q_AKUGRDL</t>
+          <t>Q_BBSR</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder (AK UGRdL)</t>
+          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung (BBSR)</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>des Arbeitskreises der Umweltökonomischen Gesamtrechnungen der Länder</t>
+          <t>des Bundesinstituts für Bau-, Stadt- und Raumforschung</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
+          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>the Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
+          <t>the Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>Arbeitskreis der Umweltökonomischen Gesamtrechnungen der Länder</t>
+          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>AK UGRdL</t>
+          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
+          <t>https://www.bbsr.bund.de/BBSR/DE/startseite/_node.html</t>
         </is>
       </c>
       <c r="I8" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/ugrdl/der-ak-ugrdl</t>
+          <t>https://www.bbsr.bund.de/BBSR/EN/home/_node.html</t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
@@ -979,54 +979,54 @@
       </c>
       <c r="L8" s="4" t="inlineStr">
         <is>
-          <t>akugrdl</t>
+          <t>bbsr</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Q_AMI</t>
+          <t>Q_BFN</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Agrarmarkt Informations-Gesellschaft mbH (AMI)</t>
+          <t>Bundesamt für Naturschutz (BfN)</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>der Agrarmarkt Informations-Gesellschaft mbH</t>
+          <t>des Bundesamts für Naturschutz</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>Agricultural Market Information Company</t>
+          <t>Federal Agency for Nature Conservation </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>the Agricultural Market Information Company</t>
+          <t>the Federal Agency for Nature Conservation </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>Agrarmarkt Informations-Gesellschaft mbH</t>
+          <t>Bundesamt für Naturschutz</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>Agricultural Market Information Company</t>
+          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
         </is>
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>https://www.ami-informiert.de/ami-maerkte</t>
+          <t>https://www.bfn.de/</t>
         </is>
       </c>
       <c r="I9" s="5" t="inlineStr">
         <is>
-          <t>https://www.ami-informiert.de/ami-english/ami-about-us/about-us</t>
+          <t>https://www.bfn.de/en.html</t>
         </is>
       </c>
       <c r="J9" s="4" t="inlineStr">
@@ -1041,54 +1041,54 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>ami</t>
+          <t>bfn</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Q_BBSR</t>
+          <t>Q_BKA</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung (BBSR)</t>
+          <t>Bundeskriminalamt (BKA)</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>des Bundesinstituts für Bau-, Stadt- und Raumforschung</t>
+          <t>des Bundeskriminalamts</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+          <t>Federal Criminal Police Office</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>the Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+          <t>the Federal Criminal Police Office</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
+          <t>Bundeskriminalamt</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+          <t>Federal Criminal Police Office</t>
         </is>
       </c>
       <c r="H10" s="5" t="inlineStr">
         <is>
-          <t>https://www.bbsr.bund.de/BBSR/DE/startseite/_node.html</t>
+          <t>https://www.bka.de/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="I10" s="5" t="inlineStr">
         <is>
-          <t>https://www.bbsr.bund.de/BBSR/EN/home/_node.html</t>
+          <t>https://www.bka.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="J10" s="4" t="inlineStr">
@@ -1103,54 +1103,54 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>bbsr</t>
+          <t>bka</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Q_BFN</t>
+          <t>Q_BKAMT</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Naturschutz (BfN)</t>
+          <t>Bundeskanzleramt</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>des Bundesamts für Naturschutz</t>
+          <t>des Bundeskanzleramts</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Nature Conservation </t>
+          <t>Federal Chancellery</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>the Federal Agency for Nature Conservation </t>
+          <t>the Federal Chancellery</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Naturschutz</t>
+          <t>Bundeskanzleramt</t>
         </is>
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>Federal Institute for Research on Building, Urban Affairs and Spatial Development</t>
+          <t>Federal Chancellery</t>
         </is>
       </c>
       <c r="H11" s="5" t="inlineStr">
         <is>
-          <t>https://www.bfn.de/</t>
+          <t>https://www.bundesregierung.de/breg-de/bundesregierung/bundeskanzleramt</t>
         </is>
       </c>
       <c r="I11" s="5" t="inlineStr">
         <is>
-          <t>https://www.bfn.de/en.html</t>
+          <t>https://www.bundesregierung.de/breg-en/federal-government</t>
         </is>
       </c>
       <c r="J11" s="4" t="inlineStr">
@@ -1165,54 +1165,54 @@
       </c>
       <c r="L11" s="4" t="inlineStr">
         <is>
-          <t>bfn</t>
+          <t>bkamt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Q_BKA</t>
+          <t>Q_BKG</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Bundeskriminalamt (BKA)</t>
+          <t>Bundesamt für Kartographie und Geodäsie (BKG)</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>des Bundeskriminalamts</t>
+          <t>vom BKG</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Federal Criminal Police Office</t>
+          <t>Federal Agency for Cartography and Geodesy</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>the Federal Criminal Police Office</t>
+          <t>the BKG</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>Bundeskriminalamt</t>
+          <t>Bundesamt für Kartographie und Geodäsie</t>
         </is>
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>Federal Criminal Police Office</t>
+          <t>Federal Agency for Cartography and Geodesy</t>
         </is>
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>https://www.bka.de/DE/Home/home_node.html</t>
+          <t>https://www.bkg.bund.de/DE/Home/home.html</t>
         </is>
       </c>
       <c r="I12" s="5" t="inlineStr">
         <is>
-          <t>https://www.bka.de/EN/Home/home_node.html</t>
+          <t>https://www.bkg.bund.de/EN/Home/</t>
         </is>
       </c>
       <c r="J12" s="4" t="inlineStr">
@@ -1227,54 +1227,54 @@
       </c>
       <c r="L12" s="4" t="inlineStr">
         <is>
-          <t>bka</t>
+          <t>bkg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Q_BKAMT</t>
+          <t>Q_BKM</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Bundeskanzleramt</t>
+          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>des Bundeskanzleramts</t>
+          <t>der Beauftragten der Bundesregierung für Kultur und Medien</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>Federal Chancellery</t>
+          <t>Federal Government Commissioner for Culture and the Media</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>the Federal Chancellery</t>
+          <t>the Federal Government Commissioner for Culture and the Media</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>Bundeskanzleramt</t>
+          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>Federal Chancellery</t>
+          <t>Federal Government Commissioner for Culture and the Media</t>
         </is>
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesregierung.de/breg-de/bundesregierung/bundeskanzleramt</t>
+          <t>https://www.kulturstaatsministerin.de/DE/startseite/startseite_node.html</t>
         </is>
       </c>
       <c r="I13" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesregierung.de/breg-en/federal-government</t>
+          <t>https://www.kulturstaatsministerin.de/DE/startseite/startseite_node.html</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
@@ -1289,54 +1289,54 @@
       </c>
       <c r="L13" s="4" t="inlineStr">
         <is>
-          <t>bkamt</t>
+          <t>bkm</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Q_BKG</t>
+          <t>Q_BMBF</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Kartographie und Geodäsie (BKG)</t>
+          <t>Bundesministerium für Bildung und Forschung (BMBF)</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>vom BKG</t>
+          <t>des Bundesministeriums für Bildung und Frschung</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Cartography and Geodesy</t>
+          <t>Federal Ministry of Education and Research</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>the BKG</t>
+          <t>the Federal Ministry of Education and Research</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>Bundesamt für Kartographie und Geodäsie</t>
+          <t>Bundesministerium für Bildung und Forschung</t>
         </is>
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>Federal Agency for Cartography and Geodesy</t>
+          <t>Federal Ministry of Education and Research</t>
         </is>
       </c>
       <c r="H14" s="5" t="inlineStr">
         <is>
-          <t>https://www.bkg.bund.de/DE/Home/home.html</t>
+          <t>https://www.bmbf.de/</t>
         </is>
       </c>
       <c r="I14" s="5" t="inlineStr">
         <is>
-          <t>https://www.bkg.bund.de/EN/Home/</t>
+          <t>https://www.bmbf.de/bmbf/en/</t>
         </is>
       </c>
       <c r="J14" s="4" t="inlineStr">
@@ -1351,54 +1351,54 @@
       </c>
       <c r="L14" s="4" t="inlineStr">
         <is>
-          <t>bkg</t>
+          <t>bmbf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Q_BKM</t>
+          <t>Q_BMDV</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
+          <t>Bundesministerium für Digitales und Verkehr (BMDV)</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>der Beauftragten der Bundesregierung für Kultur und Medien</t>
+          <t>des Bundesministeriums für Digitales und Verkehr</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>Federal Government Commissioner for Culture and the Media</t>
+          <t>Federal Ministry for Digital and Transport</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>the Federal Government Commissioner for Culture and the Media</t>
+          <t>the Federal Ministry for Digital and Transport</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>Beauftragte der Bundesregierung für Kultur und Medien</t>
+          <t>Bundesministerium für Digitales und Verkehr</t>
         </is>
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>Federal Government Commissioner for Culture and the Media</t>
+          <t>Federal Ministry for Digital and Transport</t>
         </is>
       </c>
       <c r="H15" s="5" t="inlineStr">
         <is>
-          <t>https://www.kulturstaatsministerin.de/DE/startseite/startseite_node.html</t>
+          <t>https://bmdv.bund.de/DE/Home/home.html</t>
         </is>
       </c>
       <c r="I15" s="5" t="inlineStr">
         <is>
-          <t>https://www.kulturstaatsministerin.de/DE/startseite/startseite_node.html</t>
+          <t>https://bmdv.bund.de/EN/Home/home.html</t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
@@ -1413,54 +1413,54 @@
       </c>
       <c r="L15" s="4" t="inlineStr">
         <is>
-          <t>bkm</t>
+          <t>bmdv</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Q_BMBF</t>
+          <t>Q_BMEL</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Bildung und Forschung (BMBF)</t>
+          <t>Bundesministerium für Ernährung und Landwirtschaft (BMEL)</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Bildung und Frschung</t>
+          <t>des Bundesministeriums für Ernährung und Landwirtschaft</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Education and Research</t>
+          <t>Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry of Education and Research</t>
+          <t>the Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Bildung und Forschung</t>
+          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
         </is>
       </c>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Education and Research</t>
+          <t>Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
       <c r="H16" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmbf.de/</t>
+          <t>https://www.bmel.de/DE/Startseite/startseite_node.html</t>
         </is>
       </c>
       <c r="I16" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmbf.de/bmbf/en/</t>
+          <t>https://www.bmel.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
@@ -1475,54 +1475,54 @@
       </c>
       <c r="L16" s="4" t="inlineStr">
         <is>
-          <t>bmbf</t>
+          <t>bmel</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Q_BMDV</t>
+          <t>Q_BMF</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Digitales und Verkehr (BMDV)</t>
+          <t>Bundesministerium der Finanzen (BMF)</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Digitales und Verkehr</t>
+          <t>des Bundesministeriums der Finanzen</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Digital and Transport</t>
+          <t>Federal Ministry of Finance</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry for Digital and Transport</t>
+          <t>the Federal Ministry of Finance</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Digitales und Verkehr</t>
+          <t>Bundesministerium der Finanzen</t>
         </is>
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Digital and Transport</t>
+          <t>Federal Ministry of Finance</t>
         </is>
       </c>
       <c r="H17" s="5" t="inlineStr">
         <is>
-          <t>https://bmdv.bund.de/DE/Home/home.html</t>
+          <t>https://www.bundesfinanzministerium.de/Web/DE/Home/home.html</t>
         </is>
       </c>
       <c r="I17" s="5" t="inlineStr">
         <is>
-          <t>https://bmdv.bund.de/EN/Home/home.html</t>
+          <t>https://www.bundesfinanzministerium.de/Web/EN/Home/home.html</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
@@ -1537,54 +1537,54 @@
       </c>
       <c r="L17" s="4" t="inlineStr">
         <is>
-          <t>bmdv</t>
+          <t>bmf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Q_BMEL</t>
+          <t>Q_BMFSFJ</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Ernährung und Landwirtschaft (BMEL)</t>
+          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Ernährung und Landwirtschaft</t>
+          <t>des Bundesministeriums für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry of Food and Agriculture</t>
+          <t>the Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Ernährung und Landwirtschaft</t>
+          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Food and Agriculture</t>
+          <t>Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
         </is>
       </c>
       <c r="H18" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmel.de/DE/Startseite/startseite_node.html</t>
+          <t>https://www.bmfsfj.de/</t>
         </is>
       </c>
       <c r="I18" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmel.de/EN/Home/home_node.html</t>
+          <t>https://www.bmfsfj.de/en</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
@@ -1599,54 +1599,54 @@
       </c>
       <c r="L18" s="4" t="inlineStr">
         <is>
-          <t>bmel</t>
+          <t>bmfsfj</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Q_BMF</t>
+          <t>Q_BMG</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Finanzen (BMF)</t>
+          <t>Bundesministerium für Gesundheit (BMG)</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums der Finanzen</t>
+          <t>des Bundesministeriums für Gesundheit</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Finance</t>
+          <t>Federal Ministry of Health</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry of Finance</t>
+          <t>the Federal Ministry of Health</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Finanzen</t>
+          <t>Bundesministerium für Gesundheit</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Finance</t>
+          <t>Federal Ministry of Health</t>
         </is>
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesfinanzministerium.de/Web/DE/Home/home.html</t>
+          <t>https://www.bundesgesundheitsministerium.de/</t>
         </is>
       </c>
       <c r="I19" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesfinanzministerium.de/Web/EN/Home/home.html</t>
+          <t>https://www.bundesgesundheitsministerium.de/en/</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1661,54 +1661,54 @@
       </c>
       <c r="L19" s="4" t="inlineStr">
         <is>
-          <t>bmf</t>
+          <t>bmg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Q_BMFSFJ</t>
+          <t>Q_BMVG</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
+          <t>Bundesministerium der Verteidigung (BMvG)</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
+          <t>vom BMvG</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
+          <t>XXXBundesministerium der Verteidigung</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
+          <t>x</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Familie, Senioren, Frauen und Jugend (BMFSFJ)</t>
+          <t>Bundesministerium der Verteidigung</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Family Affairs,Senior Citizens, Women and Youth</t>
+          <t>XXXBundesministerium der Verteidigung</t>
         </is>
       </c>
       <c r="H20" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmfsfj.de/</t>
+          <t>https://www.bmvg.de/de</t>
         </is>
       </c>
       <c r="I20" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmfsfj.de/en</t>
+          <t>https://www.bmvg.de/de</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -1723,54 +1723,54 @@
       </c>
       <c r="L20" s="4" t="inlineStr">
         <is>
-          <t>bmfsfj</t>
+          <t>bmvg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Q_BMG</t>
+          <t>Q_BMWK</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Gesundheit (BMG)</t>
+          <t>Bundesministerium für Wirtschaft und Klimaschutz (BMWK)</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Gesundheit</t>
+          <t>des Bundesministeriums für Wirtschaft und Klimaschutz</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Health</t>
+          <t>Federal Ministry for Economic Affairs and Climate Action</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry of Health</t>
+          <t>the Federal Ministry for Economic Affairs and Climate Action</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Gesundheit</t>
+          <t>Bundesministerium für Wirtschaft und Klimaschutz</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry of Health</t>
+          <t>Federal Ministry for Economic Affairs and Climate Action</t>
         </is>
       </c>
       <c r="H21" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesgesundheitsministerium.de/</t>
+          <t>https://www.bmwi.de/Navigation/DE/Home/home.html</t>
         </is>
       </c>
       <c r="I21" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesgesundheitsministerium.de/en/</t>
+          <t>https://www.bmwi.de/Navigation/EN/Home/home.html</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1785,54 +1785,54 @@
       </c>
       <c r="L21" s="4" t="inlineStr">
         <is>
-          <t>bmg</t>
+          <t>bmwk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Q_BMVG</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Verteidigung (BMvG)</t>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ)</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>vom BMvG</t>
+          <t>des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>XXXBundesministerium der Verteidigung</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>the Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium der Verteidigung</t>
+          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>XXXBundesministerium der Verteidigung</t>
+          <t>Federal Ministry for Economic Cooperation and Development</t>
         </is>
       </c>
       <c r="H22" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmvg.de/de</t>
+          <t>https://www.bmz.de/de</t>
         </is>
       </c>
       <c r="I22" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmvg.de/de</t>
+          <t>https://www.bmz.de/en</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -1847,54 +1847,54 @@
       </c>
       <c r="L22" s="4" t="inlineStr">
         <is>
-          <t>bmvg</t>
+          <t>bmz</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Q_BMWK</t>
+          <t>Q_BOLW</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Wirtschaft und Klimaschutz (BMWK)</t>
+          <t>Bund Ökologische Lebensmittelwirtschaft e. V. (BÖLW)</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für Wirtschaft und Klimaschutz</t>
+          <t>des Bunds Ökologische Lebensmittelwirtschaft e. V.</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Affairs and Climate Action</t>
+          <t>Organic Food Production Alliance</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry for Economic Affairs and Climate Action</t>
+          <t>the Organic Food Production Alliance</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für Wirtschaft und Klimaschutz</t>
+          <t>Bund Ökologische Lebensmittelwirtschaft e. V.</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Affairs and Climate Action</t>
+          <t>Organic Food Production Alliance</t>
         </is>
       </c>
       <c r="H23" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmwi.de/Navigation/DE/Home/home.html</t>
+          <t>https://www.boelw.de/</t>
         </is>
       </c>
       <c r="I23" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmwi.de/Navigation/EN/Home/home.html</t>
+          <t>https://www.boelw.de/</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
@@ -1909,54 +1909,54 @@
       </c>
       <c r="L23" s="4" t="inlineStr">
         <is>
-          <t>bmwk</t>
+          <t>bolw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_BREG</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ)</t>
+          <t>Bundesregierung (Monitoringbericht Maßnahmeprogramm Nachhaltigkeit)</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>der Bundesregierung</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>the Federal Ministry for Economic Cooperation and Development</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Bundesregierung (Monitoringbericht Maßnahmeprogramm Nachhaltigkeit)</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>Federal Ministry for Economic Cooperation and Development</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H24" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de</t>
+          <t>https://www.bundesregierung.de/breg-de/schwerpunkte-der-bundesregierung/nachhaltigkeitspolitik/massnahmenprogramm-nachhaltigkeit-der-bundesregierung-427896</t>
         </is>
       </c>
       <c r="I24" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/en</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
@@ -1971,54 +1971,54 @@
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>bmz</t>
+          <t>breg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Q_BOLW</t>
+          <t>Q_BUNDESBANK</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Bund Ökologische Lebensmittelwirtschaft e. V. (BÖLW)</t>
+          <t>Deutsche Bundesbank (BBk)</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>des Bunds Ökologische Lebensmittelwirtschaft e. V.</t>
+          <t>der Deutschen Bundesbank</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Organic Food Production Alliance</t>
+          <t>German Federal Bank</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>the Organic Food Production Alliance</t>
+          <t>the German Federal Bank</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>Bund Ökologische Lebensmittelwirtschaft e. V.</t>
+          <t>Deutsche Bundesbank</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>Organic Food Production Alliance</t>
+          <t>German Federal Bank</t>
         </is>
       </c>
       <c r="H25" s="5" t="inlineStr">
         <is>
-          <t>https://www.boelw.de/</t>
+          <t>https://www.bundesbank.de/de/</t>
         </is>
       </c>
       <c r="I25" s="5" t="inlineStr">
         <is>
-          <t>https://www.boelw.de/</t>
+          <t>https://www.bundesbank.de/en</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
@@ -2033,54 +2033,54 @@
       </c>
       <c r="L25" s="4" t="inlineStr">
         <is>
-          <t>bolw</t>
+          <t>bundesbank</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Q_BREG</t>
+          <t>Q_BZGA</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Bundesregierung (Monitoringbericht Maßnahmeprogramm Nachhaltigkeit)</t>
+          <t>Bundesinstitut für Öffentliche Gesundheit (BIÖG)</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>der Bundesregierung</t>
+          <t>des Bundesinstituts für Öffentliche Gesundheit</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>Bundesregierung (Monitoringbericht Maßnahmeprogramm Nachhaltigkeit)</t>
+          <t>Bundeszentrale für gesundheitliche Aufklärung</t>
         </is>
       </c>
       <c r="G26" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Federal Centre for Health Education</t>
         </is>
       </c>
       <c r="H26" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesregierung.de/breg-de/schwerpunkte-der-bundesregierung/nachhaltigkeitspolitik/massnahmenprogramm-nachhaltigkeit-der-bundesregierung-427896</t>
+          <t>https://www.bioeg.de/</t>
         </is>
       </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>https://www.bioeg.de/home/bzga/</t>
         </is>
       </c>
       <c r="J26" s="4" t="inlineStr">
@@ -2095,54 +2095,54 @@
       </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t>breg</t>
+          <t>biög</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Q_BUNDESBANK</t>
+          <t>Q_CEVAL</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Bundesbank (BBk)</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>der Deutschen Bundesbank</t>
+          <t>der CEval GmbH</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>German Federal Bank</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>the German Federal Bank</t>
+          <t>the CEval GmbH</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Bundesbank</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>German Federal Bank</t>
+          <t>CEval GmbH</t>
         </is>
       </c>
       <c r="H27" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesbank.de/de/</t>
+          <t>https://ceval.de/</t>
         </is>
       </c>
       <c r="I27" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesbank.de/en</t>
+          <t>https://ceval.de/en/</t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
@@ -2157,54 +2157,54 @@
       </c>
       <c r="L27" s="4" t="inlineStr">
         <is>
-          <t>bundesbank</t>
+          <t>ceval</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Q_ZVB</t>
+          <t>Q_COPERNICUS</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
+          <t>Europäisches Copernikus-Programm</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
+          <t>Europäisches Copernikus-Programm</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundeswehr.de/de/organisation/streitkraeftebasis/organisation/streitkraefteamt/zentrum-fuer-verifikationsaufgaben-der-bundeswehr</t>
+          <t>https://www.copernicus.eu/de/ueber-copernicus</t>
         </is>
       </c>
       <c r="I28" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundeswehr.de/de/organisation/streitkraeftebasis/organisation/streitkraefteamt/zentrum-fuer-verifikationsaufgaben-der-bundeswehr</t>
+          <t>https://www.copernicus.eu/de/ueber-copernicus</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
@@ -2219,54 +2219,54 @@
       </c>
       <c r="L28" s="4" t="inlineStr">
         <is>
-          <t>bw</t>
+          <t>cop</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Q_BZGA</t>
+          <t>Q_DDB</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Bundeszentrale für gesundheitliche Aufklärung (BZGA)</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>der Bundeszentrale für gesundheitliche Aufklärung</t>
+          <t>der deutschen digitalen Bibliothek</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Federal Centre for Health Education</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>the Federal Centre for Health Education</t>
+          <t>the Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>Bundeszentrale für gesundheitliche Aufklärung</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>Federal Centre for Health Education</t>
+          <t>Deutsche Digitale Bibliothek</t>
         </is>
       </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/</t>
+          <t>https://www.deutsche-digitale-bibliothek.de/</t>
         </is>
       </c>
       <c r="I29" s="5" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/home/bzga/</t>
+          <t>https://www.deutsche-digitale-bibliothek.de/?lang=en</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
@@ -2281,54 +2281,54 @@
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>bzga</t>
+          <t>ddb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Q_CEVAL</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Statistisches Bundesamt (Destatis)</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>der CEval GmbH</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Federal Statistical Office</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>the CEval GmbH</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Statistisches Bundesamt</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>CEval GmbH</t>
+          <t>Federal Statistical Office</t>
         </is>
       </c>
       <c r="H30" s="5" t="inlineStr">
         <is>
-          <t>https://ceval.de/</t>
+          <t>https://www.destatis.de/DE/Home/_inhalt.html</t>
         </is>
       </c>
       <c r="I30" s="5" t="inlineStr">
         <is>
-          <t>https://ceval.de/en/</t>
+          <t>https://www.destatis.de/EN/Home/_node.html</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
@@ -2343,54 +2343,54 @@
       </c>
       <c r="L30" s="4" t="inlineStr">
         <is>
-          <t>ceval</t>
+          <t>destatis</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Q_COPERNICUS</t>
+          <t>Q_DIHK</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Europäisches Copernikus-Programm</t>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V. (DIHK)</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>des Deutschen Industrie- und Handelskammertages</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the German EMAS Advisory Board</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>Europäisches Copernikus-Programm</t>
+          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V.</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
         </is>
       </c>
       <c r="H31" s="5" t="inlineStr">
         <is>
-          <t>https://www.copernicus.eu/de/ueber-copernicus</t>
+          <t>https://www.dihk.de/de</t>
         </is>
       </c>
       <c r="I31" s="5" t="inlineStr">
         <is>
-          <t>https://www.copernicus.eu/de/ueber-copernicus</t>
+          <t>https://www.dihk.de/de</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
@@ -2405,54 +2405,54 @@
       </c>
       <c r="L31" s="4" t="inlineStr">
         <is>
-          <t>cop</t>
+          <t>dihk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Q_DDB</t>
+          <t>Q_DIW</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Deutsches Institut für Wirtschaftsforschung (DIW)</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>der deutschen digitalen Bibliothek</t>
+          <t>des Deutschen Instituts für Wirtschaftsforschung</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>German Institute for Economic Research</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>the Deutsche Digitale Bibliothek</t>
+          <t>the German Institute for Economic Research</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>Deutsches Institut für Wirtschaftsforschung</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Digitale Bibliothek</t>
+          <t>German Institute for Economic Research</t>
         </is>
       </c>
       <c r="H32" s="5" t="inlineStr">
         <is>
-          <t>https://www.deutsche-digitale-bibliothek.de/</t>
+          <t>https://www.diw.de/deutsch</t>
         </is>
       </c>
       <c r="I32" s="5" t="inlineStr">
         <is>
-          <t>https://www.deutsche-digitale-bibliothek.de/?lang=en</t>
+          <t>https://www.diw.de/en</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
@@ -2467,54 +2467,54 @@
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>ddb</t>
+          <t>diw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_DNK</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Statistisches Bundesamt (Destatis)</t>
+          <t>Deutscher Nachhaltigkeitskodex (DNK)</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>vom DNK</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Federal Statistical Office</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>Statistisches Bundesamt</t>
+          <t>Deutscher Nachhaltigkeitskodex (DNK)</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>Federal Statistical Office</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="H33" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Home/_inhalt.html</t>
+          <t>https://www.deutscher-nachhaltigkeitskodex.de/</t>
         </is>
       </c>
       <c r="I33" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Home/_node.html</t>
+          <t>https://www.deutscher-nachhaltigkeitskodex.de/en/</t>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr">
@@ -2529,54 +2529,54 @@
       </c>
       <c r="L33" s="4" t="inlineStr">
         <is>
-          <t>destatis</t>
+          <t>dnk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Q_DIHK</t>
+          <t>Q_EMAS</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V. (DIHK)</t>
+          <t>Umweltmanagementsystem (EMAS)</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>des Deutschen Industrie- und Handelskammertages</t>
+          <t>von EMAS</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>the German EMAS Advisory Board</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>Geschäftsstelle des Umweltgutachterausschusses auf Basis von Daten des Deutschen Industrie- und Handelskammertages e. V.</t>
+          <t>Umweltmanagementsystem (EMAS)</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>German EMAS Advisory Board based on data from the Association of German Chambers of Commerce and Industry</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="H34" s="5" t="inlineStr">
         <is>
-          <t>https://www.dihk.de/de</t>
+          <t>https://www.emas.de/was-ist-emas</t>
         </is>
       </c>
       <c r="I34" s="5" t="inlineStr">
         <is>
-          <t>https://www.dihk.de/de</t>
+          <t>https://www.emas.de/en</t>
         </is>
       </c>
       <c r="J34" s="4" t="inlineStr">
@@ -2591,54 +2591,54 @@
       </c>
       <c r="L34" s="4" t="inlineStr">
         <is>
-          <t>dihk</t>
+          <t>emas</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Q_DIW</t>
+          <t>Q_EUROPEANCOMMISSION</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Wirtschaftsforschung (DIW)</t>
+          <t>Europäische Kommission</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>des Deutschen Instituts für Wirtschaftsforschung</t>
+          <t>der Europäischen Kommission</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Economic Research</t>
+          <t>European Commission</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>the German Institute for Economic Research</t>
+          <t>the European Commission</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>Deutsches Institut für Wirtschaftsforschung</t>
+          <t>Europäische Kommission</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>German Institute for Economic Research</t>
+          <t>European Commission</t>
         </is>
       </c>
       <c r="H35" s="5" t="inlineStr">
         <is>
-          <t>https://www.diw.de/deutsch</t>
+          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_de</t>
         </is>
       </c>
       <c r="I35" s="5" t="inlineStr">
         <is>
-          <t>https://www.diw.de/en</t>
+          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_en</t>
         </is>
       </c>
       <c r="J35" s="4" t="inlineStr">
@@ -2653,54 +2653,54 @@
       </c>
       <c r="L35" s="4" t="inlineStr">
         <is>
-          <t>diw</t>
+          <t>europeancommission</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Q_DNK</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Deutscher Nachhaltigkeitskodex (DNK)</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>vom DNK</t>
+          <t>von Eurostat</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>Deutscher Nachhaltigkeitskodex (DNK)</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Eurostat</t>
         </is>
       </c>
       <c r="H36" s="5" t="inlineStr">
         <is>
-          <t>https://www.deutscher-nachhaltigkeitskodex.de/</t>
+          <t>https://ec.europa.eu/eurostat/de/home</t>
         </is>
       </c>
       <c r="I36" s="5" t="inlineStr">
         <is>
-          <t>https://www.deutscher-nachhaltigkeitskodex.de/en/</t>
+          <t>https://ec.europa.eu/eurostat/home</t>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr">
@@ -2715,54 +2715,54 @@
       </c>
       <c r="L36" s="4" t="inlineStr">
         <is>
-          <t>dnk</t>
+          <t>eurostat</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Q_EMAS</t>
+          <t>Q_EZB</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagementsystem (EMAS)</t>
+          <t>Europäische Zentralbank (EZB)</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>von EMAS</t>
+          <t>der Europäischen Zentralbank</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>European Central Bank</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>the European Central Bank</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagementsystem (EMAS)</t>
+          <t>Europäische Zentralbank</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>European Central Bank</t>
         </is>
       </c>
       <c r="H37" s="5" t="inlineStr">
         <is>
-          <t>https://www.emas.de/was-ist-emas</t>
+          <t>https://www.ecb.europa.eu/home/html/index.de.html</t>
         </is>
       </c>
       <c r="I37" s="5" t="inlineStr">
         <is>
-          <t>https://www.emas.de/en</t>
+          <t>https://www.ecb.europa.eu/home/languagepolicy/html/index.en.html</t>
         </is>
       </c>
       <c r="J37" s="4" t="inlineStr">
@@ -2777,54 +2777,54 @@
       </c>
       <c r="L37" s="4" t="inlineStr">
         <is>
-          <t>emas</t>
+          <t>ezb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROPEANCOMMISSION</t>
+          <t>Q_FATF</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Europäische Kommission</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>der Europäischen Kommission</t>
+          <t>vom FATF</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>European Commission</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>the European Commission</t>
+          <t>the FATF</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>Europäische Kommission</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
-          <t>European Commission</t>
+          <t>Financial Action Task Force</t>
         </is>
       </c>
       <c r="H38" s="5" t="inlineStr">
         <is>
-          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_de</t>
+          <t>https://www.fatf-gafi.org/en/home.html</t>
         </is>
       </c>
       <c r="I38" s="5" t="inlineStr">
         <is>
-          <t>https://europa.eu/european-union/about-eu/institutions-bodies/european-commission_en</t>
+          <t>https://www.fatf-gafi.org/en/home.html</t>
         </is>
       </c>
       <c r="J38" s="4" t="inlineStr">
@@ -2839,54 +2839,54 @@
       </c>
       <c r="L38" s="4" t="inlineStr">
         <is>
-          <t>europeancommission</t>
+          <t>fatf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_FIDAR</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>Frauen in die Aufsichtsräte e.V. (FidAR)</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>von Eurostat</t>
+          <t>vom Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>the Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t>Eurostat</t>
+          <t>Frauen in die Aufsichtsräte e.V.</t>
         </is>
       </c>
       <c r="H39" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/de/home</t>
+          <t>https://www.fidar.de/</t>
         </is>
       </c>
       <c r="I39" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/home</t>
+          <t>https://www.fidar.de/</t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr">
@@ -2901,54 +2901,54 @@
       </c>
       <c r="L39" s="4" t="inlineStr">
         <is>
-          <t>eurostat</t>
+          <t>fidar</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Q_EZB</t>
+          <t>Q_GBE</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank (EZB)</t>
+          <t>Gesundheitsberichterstattung des Bundes (GBE)</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>der Europäischen Zentralbank</t>
+          <t>der Gesundheitsberichterstattung des Bundes</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
+          <t>Federal Health Monitoring</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>the European Central Bank</t>
+          <t>the Federal Health Monitoring</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>Europäische Zentralbank</t>
+          <t>Gesundheitsberichterstattung des Bundes</t>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>European Central Bank</t>
+          <t>Federal Health Monitoring</t>
         </is>
       </c>
       <c r="H40" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/home/html/index.de.html</t>
+          <t>https://www.gbe-bund.de/gbe/</t>
         </is>
       </c>
       <c r="I40" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/home/languagepolicy/html/index.en.html</t>
+          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_isgbe?p_uid=gast&amp;p_aid=50554816&amp;p_sprache=E</t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
@@ -2963,54 +2963,54 @@
       </c>
       <c r="L40" s="4" t="inlineStr">
         <is>
-          <t>ezb</t>
+          <t>gbe</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Q_FATF</t>
+          <t>Q_GFK</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force</t>
+          <t>Gesellschaft für Konsumforschung (GfK)</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>vom FATF</t>
+          <t>der Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>the FATF</t>
+          <t>the Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force</t>
+          <t>Gesellschaft für Konsumforschung</t>
         </is>
       </c>
       <c r="H41" s="5" t="inlineStr">
         <is>
-          <t>https://www.fatf-gafi.org/en/home.html</t>
+          <t>https://www.gfk.com/de/</t>
         </is>
       </c>
       <c r="I41" s="5" t="inlineStr">
         <is>
-          <t>https://www.fatf-gafi.org/en/home.html</t>
+          <t>https://www.gfk.com/</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
@@ -3025,54 +3025,54 @@
       </c>
       <c r="L41" s="4" t="inlineStr">
         <is>
-          <t>fatf</t>
+          <t>gfk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_GHSI</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V. (FidAR)</t>
+          <t>Global Health Security Index (GHSI)</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>vom Frauen in die Aufsichtsräte e.V.</t>
+          <t>vom GHSI</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>Global Health Security Index (GHSI)</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>the Frauen in die Aufsichtsräte e.V.</t>
+          <t>the GHSI</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>Global Health Security Index</t>
         </is>
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t>Frauen in die Aufsichtsräte e.V.</t>
+          <t>Global Health Security Index</t>
         </is>
       </c>
       <c r="H42" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/</t>
+          <t>https://ghsindex.org/</t>
         </is>
       </c>
       <c r="I42" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/</t>
+          <t>https://ghsindex.org/</t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr">
@@ -3087,54 +3087,54 @@
       </c>
       <c r="L42" s="4" t="inlineStr">
         <is>
-          <t>fidar</t>
+          <t>ghsi</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Q_GBE</t>
+          <t>Q_GIZ</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Gesundheitsberichterstattung des Bundes (GBE)</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ)</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>der Gesundheitsberichterstattung des Bundes</t>
+          <t>der Deutschen Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Federal Health Monitoring</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH(GIZ)</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>the Federal Health Monitoring</t>
+          <t>the Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>Gesundheitsberichterstattung des Bundes</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>Federal Health Monitoring</t>
+          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
         </is>
       </c>
       <c r="H43" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/</t>
+          <t>https://www.giz.de/de/html/index.html</t>
         </is>
       </c>
       <c r="I43" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_isgbe?p_uid=gast&amp;p_aid=50554816&amp;p_sprache=E</t>
+          <t>https://www.giz.de/en/html/index.html</t>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr">
@@ -3149,54 +3149,54 @@
       </c>
       <c r="L43" s="4" t="inlineStr">
         <is>
-          <t>gbe</t>
+          <t>giz</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Q_GFK</t>
+          <t>Q_GMWOEKNM</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung (GfK)</t>
+          <t>Gemeinwohl-Ökonomie</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>der Gesellschaft für Konsumforschung</t>
+          <t>der Gemeinwohl-Ökonomie</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>the Gesellschaft für Konsumforschung</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>Gemeinwohl-Ökonomie</t>
         </is>
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>Gesellschaft für Konsumforschung</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H44" s="5" t="inlineStr">
         <is>
-          <t>https://www.gfk.com/de/</t>
+          <t>https://germany.econgood.org/</t>
         </is>
       </c>
       <c r="I44" s="5" t="inlineStr">
         <is>
-          <t>https://www.gfk.com/</t>
+          <t>https://germany.econgood.org/</t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
@@ -3211,54 +3211,54 @@
       </c>
       <c r="L44" s="4" t="inlineStr">
         <is>
-          <t>gfk</t>
+          <t>gwoe</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Q_GHSI</t>
+          <t>Q_IAB</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Global Health Security Index (GHSI)</t>
+          <t>Institut für Arbeitsmarkt- und Berufsforschung (IAB)</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>vom GHSI</t>
+          <t>des Instituts für Arbeitsmarkt- und Berufsforschung</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Global Health Security Index (GHSI)</t>
+          <t>Institut for Employment Research</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>the GHSI</t>
+          <t>the Institut for Employment Research</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Global Health Security Index</t>
+          <t>Institut für Arbeitsmarkt- und Berufsforschung</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>Global Health Security Index</t>
+          <t>Institut for Employment Research</t>
         </is>
       </c>
       <c r="H45" s="5" t="inlineStr">
         <is>
-          <t>https://ghsindex.org/</t>
+          <t>https://iab.de/</t>
         </is>
       </c>
       <c r="I45" s="5" t="inlineStr">
         <is>
-          <t>https://ghsindex.org/</t>
+          <t>https://iab.de/en/</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr">
@@ -3273,54 +3273,54 @@
       </c>
       <c r="L45" s="4" t="inlineStr">
         <is>
-          <t>ghsi</t>
+          <t>iab</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Q_GIZ</t>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ)</t>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH (ifeu)</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>der Deutschen Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>des Instituts für Energie- und Umweltforschung Heidelberg gGmbH</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH(GIZ)</t>
+          <t>Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>the Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>the Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH</t>
+          <t>Institute for Energy and Environmental Research</t>
         </is>
       </c>
       <c r="H46" s="5" t="inlineStr">
         <is>
-          <t>https://www.giz.de/de/html/index.html</t>
+          <t>https://www.ifeu.de/</t>
         </is>
       </c>
       <c r="I46" s="5" t="inlineStr">
         <is>
-          <t>https://www.giz.de/en/html/index.html</t>
+          <t>https://www.ifeu.de/en/</t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">
@@ -3335,54 +3335,54 @@
       </c>
       <c r="L46" s="4" t="inlineStr">
         <is>
-          <t>giz</t>
+          <t>ifeu</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Q_GMWOEKNM</t>
+          <t>Q_JHT</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Gemeinwohl-Ökonomie</t>
+          <t>Johann Heinrich von Thünen-Institut (TI)</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>der Gemeinwohl-Ökonomie</t>
+          <t>des Johann Heinrich von Thünen-Instituts</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Gemeinwohl-Ökonomie</t>
+          <t>Johann Heinrich von Thünen-Institut</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="H47" s="5" t="inlineStr">
         <is>
-          <t>https://germany.econgood.org/</t>
+          <t>https://www.thuenen.de/de/</t>
         </is>
       </c>
       <c r="I47" s="5" t="inlineStr">
         <is>
-          <t>https://germany.econgood.org/</t>
+          <t>https://www.thuenen.de/en/</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
@@ -3397,54 +3397,54 @@
       </c>
       <c r="L47" s="4" t="inlineStr">
         <is>
-          <t>gwoe</t>
+          <t>jht</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Q_IAB</t>
+          <t>Q_JKI</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Institut für Arbeitsmarkt- und Berufsforschung (IAB)</t>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut (JKI)</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>des Instituts für Arbeitsmarkt- und Berufsforschung</t>
+          <t>des Instituts für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Institut for Employment Research</t>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>the Institut for Employment Research</t>
+          <t>the Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>Institut für Arbeitsmarkt- und Berufsforschung</t>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
         </is>
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>Institut for Employment Research</t>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="H48" s="5" t="inlineStr">
         <is>
-          <t>https://iab.de/</t>
+          <t>https://www.julius-kuehn.de/pb/</t>
         </is>
       </c>
       <c r="I48" s="5" t="inlineStr">
         <is>
-          <t>https://iab.de/en/</t>
+          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
@@ -3459,54 +3459,54 @@
       </c>
       <c r="L48" s="4" t="inlineStr">
         <is>
-          <t>iab</t>
+          <t>jki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>Q_KBA</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH (ifeu)</t>
+          <t>Kraftfahrt-Bundesamt (KBA)</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>des Instituts für Energie- und Umweltforschung Heidelberg gGmbH</t>
+          <t>des Kraftfahrt-Bundesamts</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Institute for Energy and Environmental Research</t>
+          <t>Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>the Institute for Energy and Environmental Research</t>
+          <t>the Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Institut für Energie- und Umweltforschung Heidelberg gGmbH</t>
+          <t>Kraftfahrt-Bundesamt</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t>Institute for Energy and Environmental Research</t>
+          <t>Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="H49" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/</t>
+          <t>https://www.kba.de/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="I49" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/en/</t>
+          <t>https://www.kba.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
@@ -3521,54 +3521,54 @@
       </c>
       <c r="L49" s="4" t="inlineStr">
         <is>
-          <t>ifeu</t>
+          <t>kba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Q_JHT</t>
+          <t>Q_KBK</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen-Institut (TI)</t>
+          <t>KlimaBilanzKultur und KlimaBilanzKultur+</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>des Johann Heinrich von Thünen-Instituts</t>
+          <t>von KlimaBilanzKultur</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen Institute</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>the Johann Heinrich von Thünen Institute</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen-Institut</t>
+          <t>KlimaBilanzKultur und KlimaBilanzKultur+</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen Institute</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H50" s="5" t="inlineStr">
         <is>
-          <t>https://www.thuenen.de/de/</t>
+          <t>https://www.kmk.org/fileadmin/pdf/PresseUndAktuelles/2023/Anleitung_zum_CO2-Kulturrechner.pdf</t>
         </is>
       </c>
       <c r="I50" s="5" t="inlineStr">
         <is>
-          <t>https://www.thuenen.de/en/</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J50" s="4" t="inlineStr">
@@ -3583,54 +3583,54 @@
       </c>
       <c r="L50" s="4" t="inlineStr">
         <is>
-          <t>jht</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Q_JKI</t>
+          <t>Q_KFW</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut (JKI)</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>des Instituts für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
+          <t>der Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>the Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>the Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
+          <t>Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
-          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="H51" s="5" t="inlineStr">
         <is>
-          <t>https://www.julius-kuehn.de/pb/</t>
+          <t>https://www.kfw.de/kfw.de.html</t>
         </is>
       </c>
       <c r="I51" s="5" t="inlineStr">
         <is>
-          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
+          <t>https://www.kfw.de/kfw.de-2.html</t>
         </is>
       </c>
       <c r="J51" s="4" t="inlineStr">
@@ -3645,54 +3645,54 @@
       </c>
       <c r="L51" s="4" t="inlineStr">
         <is>
-          <t>jki</t>
+          <t>kfw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Q_KBA</t>
+          <t>Q_KINO</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrt-Bundesamt (KBA)</t>
+          <t>Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>des Kraftfahrt-Bundesamts</t>
+          <t>von Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Federal Motor Transport Authority</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>the Federal Motor Transport Authority</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrt-Bundesamt</t>
+          <t>Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
         </is>
       </c>
       <c r="G52" s="4" t="inlineStr">
         <is>
-          <t>Federal Motor Transport Authority</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="H52" s="5" t="inlineStr">
         <is>
-          <t>https://www.kba.de/DE/Home/home_node.html</t>
+          <t>https://www.green-motion.org/files/16_green_motion/Dokumente/20241209_OEkologische_Standards_UEbergangsfassung_Januar_2025.pdf</t>
         </is>
       </c>
       <c r="I52" s="5" t="inlineStr">
         <is>
-          <t>https://www.kba.de/EN/Home/home_node.html</t>
+          <t>https://www.green-motion.org/files/16_green_motion/Dokumente/20241209_OEkologische_Standards_UEbergangsfassung_Januar_2025.pdf</t>
         </is>
       </c>
       <c r="J52" s="4" t="inlineStr">
@@ -3707,54 +3707,54 @@
       </c>
       <c r="L52" s="4" t="inlineStr">
         <is>
-          <t>kba</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Q_KFW</t>
+          <t>Q_KMLHE</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>der Kreditanstalt für Wiederaufbau</t>
+          <t>x</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>the Kreditanstalt für Wiederaufbau</t>
+          <t>x</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau</t>
+          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="H53" s="5" t="inlineStr">
         <is>
-          <t>https://www.kfw.de/kfw.de.html</t>
+          <t>https://www.kmk.org/</t>
         </is>
       </c>
       <c r="I53" s="5" t="inlineStr">
         <is>
-          <t>https://www.kfw.de/kfw.de-2.html</t>
+          <t>https://www.kmk.org/kmk/information-in-english.html</t>
         </is>
       </c>
       <c r="J53" s="4" t="inlineStr">
@@ -3769,54 +3769,54 @@
       </c>
       <c r="L53" s="4" t="inlineStr">
         <is>
-          <t>kfw</t>
+          <t>kmk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Q_KMLHE</t>
+          <t>Q_KNB</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t>Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern (KNB) </t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>der Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t>Center of Excellence for Sustainable Procurement</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>the Center of Excellence for Sustainable Procurement</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
         </is>
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t>Competence Center for Sustainable Procurement</t>
         </is>
       </c>
       <c r="H54" s="5" t="inlineStr">
         <is>
-          <t>https://www.kmk.org/</t>
+          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="I54" s="5" t="inlineStr">
         <is>
-          <t>https://www.kmk.org/kmk/information-in-english.html</t>
+          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="J54" s="4" t="inlineStr">
@@ -3831,54 +3831,54 @@
       </c>
       <c r="L54" s="4" t="inlineStr">
         <is>
-          <t>kmk</t>
+          <t>knb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Q_KNB</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern (KNB) </t>
+          <t>Länderarbeitskreis (LAK) Energiebilanzen</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>der Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern</t>
+          <t>des Länderarbeitskreises Energiebilanzen</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Center of Excellence for Sustainable Procurement</t>
+          <t>Länderarbeitskreis Energiebilanzen</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>the Center of Excellence for Sustainable Procurement</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
+          <t>Länderarbeitskreis Energiebilanzen</t>
         </is>
       </c>
       <c r="G55" s="4" t="inlineStr">
         <is>
-          <t>Competence Center for Sustainable Procurement</t>
+          <t>LAK Energiebilanzen</t>
         </is>
       </c>
       <c r="H55" s="5" t="inlineStr">
         <is>
-          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
+          <t>http://www.lak-energiebilanzen.de/</t>
         </is>
       </c>
       <c r="I55" s="5" t="inlineStr">
         <is>
-          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
+          <t>http://www.lak-energiebilanzen.de/</t>
         </is>
       </c>
       <c r="J55" s="4" t="inlineStr">
@@ -3893,54 +3893,54 @@
       </c>
       <c r="L55" s="4" t="inlineStr">
         <is>
-          <t>knb</t>
+          <t>lakeb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis (LAK) Energiebilanzen</t>
+          <t>Länderinitiative Kernindikatoren (LIKI)</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>des Länderarbeitskreises Energiebilanzen</t>
+          <t>der Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis Energiebilanzen</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis Energiebilanzen</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="G56" s="4" t="inlineStr">
         <is>
-          <t>LAK Energiebilanzen</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="H56" s="5" t="inlineStr">
         <is>
-          <t>http://www.lak-energiebilanzen.de/</t>
+          <t>https://www.lanuv.nrw.de/liki/index.php</t>
         </is>
       </c>
       <c r="I56" s="5" t="inlineStr">
         <is>
-          <t>http://www.lak-energiebilanzen.de/</t>
+          <t>https://www.lanuv.nrw.de/liki/index.php</t>
         </is>
       </c>
       <c r="J56" s="4" t="inlineStr">
@@ -3955,54 +3955,54 @@
       </c>
       <c r="L56" s="4" t="inlineStr">
         <is>
-          <t>lakeb</t>
+          <t>liki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren (LIKI)</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD)</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>der Länderinitiative Kernindikatoren</t>
+          <t>der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>the Länderinitiative Kernindikatoren</t>
+          <t>the Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="G57" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="H57" s="5" t="inlineStr">
         <is>
-          <t>https://www.lanuv.nrw.de/liki/index.php</t>
+          <t>https://www.oecd.org/</t>
         </is>
       </c>
       <c r="I57" s="5" t="inlineStr">
         <is>
-          <t>https://www.lanuv.nrw.de/liki/index.php</t>
+          <t>https://www.oecd.org/</t>
         </is>
       </c>
       <c r="J57" s="4" t="inlineStr">
@@ -4017,54 +4017,54 @@
       </c>
       <c r="L57" s="4" t="inlineStr">
         <is>
-          <t>liki</t>
+          <t>oecd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_OEKPFT</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD)</t>
+          <t>Ökoprofit</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>von Ökoprofit</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>the Organisation for Economic Co-operation and Development</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Ökoprofit</t>
         </is>
       </c>
       <c r="G58" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H58" s="5" t="inlineStr">
         <is>
-          <t>https://www.oecd.org/</t>
+          <t>https://www.oekoprofit.info/</t>
         </is>
       </c>
       <c r="I58" s="5" t="inlineStr">
         <is>
-          <t>https://www.oecd.org/</t>
+          <t>https://www.oekoprofit.info/</t>
         </is>
       </c>
       <c r="J58" s="4" t="inlineStr">
@@ -4079,54 +4079,54 @@
       </c>
       <c r="L58" s="4" t="inlineStr">
         <is>
-          <t>oecd</t>
+          <t>oeko</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>Q_OEKPFT</t>
+          <t>Q_RKI</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Ökoprofit</t>
+          <t>Robert Koch-Institut (RKI)</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>von Ökoprofit</t>
+          <t>des Robert Koch-Instituts</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Robert Koch Institute</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the Robert Koch Institute</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>Ökoprofit</t>
+          <t>Robert Koch-Institut</t>
         </is>
       </c>
       <c r="G59" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Robert Koch Institute</t>
         </is>
       </c>
       <c r="H59" s="5" t="inlineStr">
         <is>
-          <t>https://www.oekoprofit.info/</t>
+          <t>https://www.rki.de/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="I59" s="5" t="inlineStr">
         <is>
-          <t>https://www.oekoprofit.info/</t>
+          <t>https://www.rki.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="J59" s="4" t="inlineStr">
@@ -4141,54 +4141,54 @@
       </c>
       <c r="L59" s="4" t="inlineStr">
         <is>
-          <t>oeko</t>
+          <t>rki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>Q_RKI</t>
+          <t>Q_SVWS</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut (RKI)</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>des Robert Koch-Instituts</t>
+          <t>des Stifterverbands Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch Institute</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>the Robert Koch Institute</t>
+          <t>the Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="G60" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch Institute</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="H60" s="5" t="inlineStr">
         <is>
-          <t>https://www.rki.de/DE/Home/home_node.html</t>
+          <t>https://www.stifterverband.org/</t>
         </is>
       </c>
       <c r="I60" s="5" t="inlineStr">
         <is>
-          <t>https://www.rki.de/EN/Home/home_node.html</t>
+          <t>https://www.stifterverband.org/english</t>
         </is>
       </c>
       <c r="J60" s="4" t="inlineStr">
@@ -4203,54 +4203,54 @@
       </c>
       <c r="L60" s="4" t="inlineStr">
         <is>
-          <t>rki</t>
+          <t>svws</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>Q_TA</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>des Stifterverbands Wissenschaftsstatistik</t>
+          <t>von Transparency International</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>the Stifterverband Wissenschaftsstatistik</t>
+          <t>Transparency International</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="G61" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="H61" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/</t>
+          <t>https://www.transparency.de/</t>
         </is>
       </c>
       <c r="I61" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/english</t>
+          <t>https://www.transparency.de/en/</t>
         </is>
       </c>
       <c r="J61" s="4" t="inlineStr">
@@ -4265,54 +4265,54 @@
       </c>
       <c r="L61" s="4" t="inlineStr">
         <is>
-          <t>svws</t>
+          <t>ta</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Umweltbundesamt (UBA)</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>von Transparency International</t>
+          <t>des Umweltbundesamts</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>German Environment Agency</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>Transparency International</t>
+          <t>the German Environment Agency</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Umweltbundesamt</t>
         </is>
       </c>
       <c r="G62" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>German Environment Agency</t>
         </is>
       </c>
       <c r="H62" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.de/</t>
+          <t>https://www.umweltbundesamt.de/</t>
         </is>
       </c>
       <c r="I62" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.de/en/</t>
+          <t>https://www.umweltbundesamt.de/en</t>
         </is>
       </c>
       <c r="J62" s="4" t="inlineStr">
@@ -4327,19 +4327,19 @@
       </c>
       <c r="L62" s="4" t="inlineStr">
         <is>
-          <t>ta</t>
+          <t>uba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_UBA_1</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt (UBA)</t>
+          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency</t>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions)</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
@@ -4359,12 +4359,12 @@
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt</t>
+          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
         </is>
       </c>
       <c r="G63" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency</t>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
         </is>
       </c>
       <c r="H63" s="5" t="inlineStr">
@@ -4396,12 +4396,12 @@
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA_1</t>
+          <t>Q_UBALAWA</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency (as reported by the Länder and by river basin commissions)</t>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
@@ -4421,12 +4421,12 @@
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser</t>
         </is>
       </c>
       <c r="G64" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government</t>
         </is>
       </c>
       <c r="H64" s="5" t="inlineStr">
@@ -4458,47 +4458,47 @@
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>Q_UBALAWA</t>
+          <t>Q_UG</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>des Umweltbundesamts</t>
+          <t>der Universität Gießen</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
+          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>the German Environment Agency</t>
+          <t>the University of Giessen</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser</t>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
         </is>
       </c>
       <c r="G65" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government</t>
+          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
         </is>
       </c>
       <c r="H65" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/</t>
+          <t>https://www.uni-giessen.de/fbz/fb09/institute/ilr</t>
         </is>
       </c>
       <c r="I65" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en</t>
+          <t>https://www.uni-giessen.de/faculties/f09/institutes/landscape?set_language=en</t>
         </is>
       </c>
       <c r="J65" s="4" t="inlineStr">
@@ -4513,54 +4513,54 @@
       </c>
       <c r="L65" s="4" t="inlineStr">
         <is>
-          <t>uba</t>
+          <t>ug</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>Q_UG</t>
+          <t>Q_VCD</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+          <t>Verkehrsclub Deutschland e.V. (VCD)</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>der Universität Gießen</t>
+          <t>des Verkehrsclub Deutschlands</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
+          <t>Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>the University of Giessen</t>
+          <t>the Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+          <t>Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="G66" s="4" t="inlineStr">
         <is>
-          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
+          <t>Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="H66" s="5" t="inlineStr">
         <is>
-          <t>https://www.uni-giessen.de/fbz/fb09/institute/ilr</t>
+          <t>https://www.vcd.org/startseite/</t>
         </is>
       </c>
       <c r="I66" s="5" t="inlineStr">
         <is>
-          <t>https://www.uni-giessen.de/faculties/f09/institutes/landscape?set_language=en</t>
+          <t>https://www.vcd.org/startseite/</t>
         </is>
       </c>
       <c r="J66" s="4" t="inlineStr">
@@ -4575,54 +4575,54 @@
       </c>
       <c r="L66" s="4" t="inlineStr">
         <is>
-          <t>ug</t>
+          <t>vcd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>Q_VCD</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V. (VCD)</t>
+          <t>Statistische Ämter des Bundes und der Länder</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>des Verkehrsclub Deutschlands</t>
+          <t>der Statistischen Ämter der Länder</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>Statistische Ämter des Bundes und der Länder</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>the Verkehrsclub Deutschland e.V.</t>
+          <t>the Statistische Ämter des Bundes und der Länder</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>Statistische Ämter des Bundes und der Länder</t>
         </is>
       </c>
       <c r="G67" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>Statistische Ämter des Bundes und der Länder</t>
         </is>
       </c>
       <c r="H67" s="5" t="inlineStr">
         <is>
-          <t>https://www.vcd.org/startseite/</t>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
         </is>
       </c>
       <c r="I67" s="5" t="inlineStr">
         <is>
-          <t>https://www.vcd.org/startseite/</t>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
         </is>
       </c>
       <c r="J67" s="4" t="inlineStr">
@@ -4637,54 +4637,54 @@
       </c>
       <c r="L67" s="4" t="inlineStr">
         <is>
-          <t>vcd</t>
+          <t>vwgdl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_WHO</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Weltgesundheitsorganisation (WHO)</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>der Statistischen Ämter der Länder</t>
+          <t>der Weltgesundheitsorganisation</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>World Health Organization</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>the Statistische Ämter des Bundes und der Länder</t>
+          <t>the World Health Organization</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Weltgesundheitsorganisation</t>
         </is>
       </c>
       <c r="G68" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>World Health Organization</t>
         </is>
       </c>
       <c r="H68" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+          <t>http://www.euro.who.int/de/home</t>
         </is>
       </c>
       <c r="I68" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+          <t>http://www.euro.who.int/en/home</t>
         </is>
       </c>
       <c r="J68" s="4" t="inlineStr">
@@ -4699,54 +4699,54 @@
       </c>
       <c r="L68" s="4" t="inlineStr">
         <is>
-          <t>vwgdl</t>
+          <t>who</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>Q_WHO</t>
+          <t>Q_ZVB</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Weltgesundheitsorganisation (WHO)</t>
+          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>der Weltgesundheitsorganisation</t>
+          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>World Health Organization</t>
+          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>the World Health Organization</t>
+          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>Weltgesundheitsorganisation</t>
+          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
       <c r="G69" s="4" t="inlineStr">
         <is>
-          <t>World Health Organization</t>
+          <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
       <c r="H69" s="5" t="inlineStr">
         <is>
-          <t>http://www.euro.who.int/de/home</t>
+          <t>https://www.bundeswehr.de/de/organisation/streitkraeftebasis/organisation/streitkraefteamt/zentrum-fuer-verifikationsaufgaben-der-bundeswehr</t>
         </is>
       </c>
       <c r="I69" s="5" t="inlineStr">
         <is>
-          <t>http://www.euro.who.int/en/home</t>
+          <t>https://www.bundeswehr.de/de/organisation/streitkraeftebasis/organisation/streitkraefteamt/zentrum-fuer-verifikationsaufgaben-der-bundeswehr</t>
         </is>
       </c>
       <c r="J69" s="4" t="inlineStr">
@@ -4761,61 +4761,63 @@
       </c>
       <c r="L69" s="4" t="inlineStr">
         <is>
-          <t>who</t>
+          <t>bw</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="H3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="H5" r:id="rId5"/>
-    <hyperlink ref="I5" r:id="rId6"/>
-    <hyperlink ref="I10" r:id="rId7"/>
-    <hyperlink ref="H14" r:id="rId8"/>
-    <hyperlink ref="I14" r:id="rId9"/>
-    <hyperlink ref="H15" r:id="rId10"/>
-    <hyperlink ref="I15" r:id="rId11"/>
-    <hyperlink ref="H17" r:id="rId12"/>
-    <hyperlink ref="I17" r:id="rId13"/>
-    <hyperlink ref="H20" r:id="rId14"/>
-    <hyperlink ref="I20" r:id="rId15"/>
-    <hyperlink ref="H22" r:id="rId16"/>
-    <hyperlink ref="I22" r:id="rId17"/>
-    <hyperlink ref="H24" r:id="rId18"/>
-    <hyperlink ref="I24" r:id="rId19"/>
-    <hyperlink ref="H26" r:id="rId20"/>
-    <hyperlink ref="I26" r:id="rId21"/>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I8" r:id="rId3"/>
+    <hyperlink ref="H12" r:id="rId4"/>
+    <hyperlink ref="I12" r:id="rId5"/>
+    <hyperlink ref="H13" r:id="rId6"/>
+    <hyperlink ref="I13" r:id="rId7"/>
+    <hyperlink ref="H15" r:id="rId8"/>
+    <hyperlink ref="I15" r:id="rId9"/>
+    <hyperlink ref="H18" r:id="rId10"/>
+    <hyperlink ref="I18" r:id="rId11"/>
+    <hyperlink ref="H20" r:id="rId12"/>
+    <hyperlink ref="I20" r:id="rId13"/>
+    <hyperlink ref="H22" r:id="rId14"/>
+    <hyperlink ref="I22" r:id="rId15"/>
+    <hyperlink ref="H24" r:id="rId16"/>
+    <hyperlink ref="I24" r:id="rId17"/>
+    <hyperlink ref="H26" r:id="rId18"/>
+    <hyperlink ref="I26" r:id="rId19"/>
+    <hyperlink ref="H27" r:id="rId20"/>
+    <hyperlink ref="I27" r:id="rId21"/>
     <hyperlink ref="H28" r:id="rId22"/>
     <hyperlink ref="I28" r:id="rId23"/>
-    <hyperlink ref="H30" r:id="rId24"/>
-    <hyperlink ref="I30" r:id="rId25"/>
-    <hyperlink ref="H31" r:id="rId26"/>
-    <hyperlink ref="I31" r:id="rId27"/>
-    <hyperlink ref="H32" r:id="rId28"/>
-    <hyperlink ref="I32" r:id="rId29"/>
-    <hyperlink ref="H36" r:id="rId30"/>
-    <hyperlink ref="I36" r:id="rId31"/>
-    <hyperlink ref="H37" r:id="rId32"/>
-    <hyperlink ref="I37" r:id="rId33"/>
-    <hyperlink ref="H41" r:id="rId34"/>
-    <hyperlink ref="I41" r:id="rId35"/>
+    <hyperlink ref="H29" r:id="rId24"/>
+    <hyperlink ref="I29" r:id="rId25"/>
+    <hyperlink ref="H33" r:id="rId26"/>
+    <hyperlink ref="I33" r:id="rId27"/>
+    <hyperlink ref="H34" r:id="rId28"/>
+    <hyperlink ref="I34" r:id="rId29"/>
+    <hyperlink ref="H38" r:id="rId30"/>
+    <hyperlink ref="I38" r:id="rId31"/>
+    <hyperlink ref="H42" r:id="rId32"/>
+    <hyperlink ref="I42" r:id="rId33"/>
+    <hyperlink ref="H44" r:id="rId34"/>
+    <hyperlink ref="I44" r:id="rId35"/>
     <hyperlink ref="H45" r:id="rId36"/>
     <hyperlink ref="I45" r:id="rId37"/>
-    <hyperlink ref="H47" r:id="rId38"/>
-    <hyperlink ref="I47" r:id="rId39"/>
-    <hyperlink ref="H48" r:id="rId40"/>
-    <hyperlink ref="I48" r:id="rId41"/>
-    <hyperlink ref="H54" r:id="rId42"/>
-    <hyperlink ref="I54" r:id="rId43"/>
-    <hyperlink ref="H59" r:id="rId44"/>
-    <hyperlink ref="I59" r:id="rId45"/>
-    <hyperlink ref="H60" r:id="rId46"/>
-    <hyperlink ref="I60" r:id="rId47"/>
-    <hyperlink ref="H61" r:id="rId48"/>
-    <hyperlink ref="I61" r:id="rId49"/>
+    <hyperlink ref="H50" r:id="rId38"/>
+    <hyperlink ref="I50" r:id="rId39"/>
+    <hyperlink ref="H52" r:id="rId40"/>
+    <hyperlink ref="I52" r:id="rId41"/>
+    <hyperlink ref="H53" r:id="rId42"/>
+    <hyperlink ref="I53" r:id="rId43"/>
+    <hyperlink ref="H58" r:id="rId44"/>
+    <hyperlink ref="I58" r:id="rId45"/>
+    <hyperlink ref="H59" r:id="rId46"/>
+    <hyperlink ref="I59" r:id="rId47"/>
+    <hyperlink ref="H60" r:id="rId48"/>
+    <hyperlink ref="I60" r:id="rId49"/>
+    <hyperlink ref="H69" r:id="rId50"/>
+    <hyperlink ref="I69" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -2065,7 +2065,7 @@
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>Bundeszentrale für gesundheitliche Aufklärung</t>
+          <t>Bundesinstitut für Öffentliche Gesundheit (BIÖG)</t>
         </is>
       </c>
       <c r="G26" s="4" t="inlineStr">

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -3342,47 +3342,47 @@
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Q_JHT</t>
+          <t>Q_IOER</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen-Institut (TI)</t>
+          <t>Leibniz-Institut für ökologische Raumentwicklung</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>des Johann Heinrich von Thünen-Instituts</t>
+          <t>des Leibniz-Instituts für ökologische Raumentwicklung</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen Institute</t>
+          <t>Leibniz Institute of Ecological Urban and Regional Development</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>the Johann Heinrich von Thünen Institute</t>
+          <t>the Leibniz Institute of Ecological Urban and Regional Development</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen-Institut</t>
+          <t>Leibniz-Institut für ökologische Raumentwicklung</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>Johann Heinrich von Thünen Institute</t>
+          <t>Leibniz Institute of Ecological Urban and Regional Development</t>
         </is>
       </c>
       <c r="H47" s="5" t="inlineStr">
         <is>
-          <t>https://www.thuenen.de/de/</t>
+          <t>https://www.ioer.de/</t>
         </is>
       </c>
       <c r="I47" s="5" t="inlineStr">
         <is>
-          <t>https://www.thuenen.de/en/</t>
+          <t>https://www.ioer.de/en/</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
@@ -3397,54 +3397,54 @@
       </c>
       <c r="L47" s="4" t="inlineStr">
         <is>
-          <t>jht</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Q_JKI</t>
+          <t>Q_JHT</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut (JKI)</t>
+          <t>Johann Heinrich von Thünen-Institut (TI)</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>des Instituts für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
+          <t>des Johann Heinrich von Thünen-Instituts</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>the Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>the Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
+          <t>Johann Heinrich von Thünen-Institut</t>
         </is>
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
+          <t>Johann Heinrich von Thünen Institute</t>
         </is>
       </c>
       <c r="H48" s="5" t="inlineStr">
         <is>
-          <t>https://www.julius-kuehn.de/pb/</t>
+          <t>https://www.thuenen.de/de/</t>
         </is>
       </c>
       <c r="I48" s="5" t="inlineStr">
         <is>
-          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
+          <t>https://www.thuenen.de/en/</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
@@ -3459,54 +3459,54 @@
       </c>
       <c r="L48" s="4" t="inlineStr">
         <is>
-          <t>jki</t>
+          <t>jht</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Q_KBA</t>
+          <t>Q_JKI</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrt-Bundesamt (KBA)</t>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut (JKI)</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>des Kraftfahrt-Bundesamts</t>
+          <t>des Instituts für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Federal Motor Transport Authority</t>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>the Federal Motor Transport Authority</t>
+          <t>the Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Kraftfahrt-Bundesamt</t>
+          <t>Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Institut</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t>Federal Motor Transport Authority</t>
+          <t>Institute for Crop and Soil Science, Julius Kühn Institute</t>
         </is>
       </c>
       <c r="H49" s="5" t="inlineStr">
         <is>
-          <t>https://www.kba.de/DE/Home/home_node.html</t>
+          <t>https://www.julius-kuehn.de/pb/</t>
         </is>
       </c>
       <c r="I49" s="5" t="inlineStr">
         <is>
-          <t>https://www.kba.de/EN/Home/home_node.html</t>
+          <t>https://www.julius-kuehn.de/en/crop-and-soil-science/</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
@@ -3521,54 +3521,54 @@
       </c>
       <c r="L49" s="4" t="inlineStr">
         <is>
-          <t>kba</t>
+          <t>jki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Q_KBK</t>
+          <t>Q_KBA</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>KlimaBilanzKultur und KlimaBilanzKultur+</t>
+          <t>Kraftfahrt-Bundesamt (KBA)</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>von KlimaBilanzKultur</t>
+          <t>des Kraftfahrt-Bundesamts</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>KlimaBilanzKultur und KlimaBilanzKultur+</t>
+          <t>Kraftfahrt-Bundesamt</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Federal Motor Transport Authority</t>
         </is>
       </c>
       <c r="H50" s="5" t="inlineStr">
         <is>
-          <t>https://www.kmk.org/fileadmin/pdf/PresseUndAktuelles/2023/Anleitung_zum_CO2-Kulturrechner.pdf</t>
+          <t>https://www.kba.de/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="I50" s="5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>https://www.kba.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="J50" s="4" t="inlineStr">
@@ -3583,54 +3583,54 @@
       </c>
       <c r="L50" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>kba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Q_KFW</t>
+          <t>Q_KBK</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>KlimaBilanzKultur und KlimaBilanzKultur+</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>der Kreditanstalt für Wiederaufbau</t>
+          <t>von KlimaBilanzKultur</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>the Kreditanstalt für Wiederaufbau</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau</t>
+          <t>KlimaBilanzKultur und KlimaBilanzKultur+</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
-          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H51" s="5" t="inlineStr">
         <is>
-          <t>https://www.kfw.de/kfw.de.html</t>
+          <t>https://www.kmk.org/fileadmin/pdf/PresseUndAktuelles/2023/Anleitung_zum_CO2-Kulturrechner.pdf</t>
         </is>
       </c>
       <c r="I51" s="5" t="inlineStr">
         <is>
-          <t>https://www.kfw.de/kfw.de-2.html</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J51" s="4" t="inlineStr">
@@ -3645,54 +3645,54 @@
       </c>
       <c r="L51" s="4" t="inlineStr">
         <is>
-          <t>kfw</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Q_KINO</t>
+          <t>Q_KFW</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>von Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
+          <t>der Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>the Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
+          <t>Kreditanstalt für Wiederaufbau</t>
         </is>
       </c>
       <c r="G52" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Kreditanstalt für Wiederaufbau (KfW)</t>
         </is>
       </c>
       <c r="H52" s="5" t="inlineStr">
         <is>
-          <t>https://www.green-motion.org/files/16_green_motion/Dokumente/20241209_OEkologische_Standards_UEbergangsfassung_Januar_2025.pdf</t>
+          <t>https://www.kfw.de/kfw.de.html</t>
         </is>
       </c>
       <c r="I52" s="5" t="inlineStr">
         <is>
-          <t>https://www.green-motion.org/files/16_green_motion/Dokumente/20241209_OEkologische_Standards_UEbergangsfassung_Januar_2025.pdf</t>
+          <t>https://www.kfw.de/kfw.de-2.html</t>
         </is>
       </c>
       <c r="J52" s="4" t="inlineStr">
@@ -3707,54 +3707,54 @@
       </c>
       <c r="L52" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>kfw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Q_KMLHE</t>
+          <t>Q_KINO</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t>Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>von Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t>Ökologische Standards für deutsche Kino-, TV- und Online-/Vod-Produktionen</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="H53" s="5" t="inlineStr">
         <is>
-          <t>https://www.kmk.org/</t>
+          <t>https://www.green-motion.org/files/16_green_motion/Dokumente/20241209_OEkologische_Standards_UEbergangsfassung_Januar_2025.pdf</t>
         </is>
       </c>
       <c r="I53" s="5" t="inlineStr">
         <is>
-          <t>https://www.kmk.org/kmk/information-in-english.html</t>
+          <t>https://www.green-motion.org/files/16_green_motion/Dokumente/20241209_OEkologische_Standards_UEbergangsfassung_Januar_2025.pdf</t>
         </is>
       </c>
       <c r="J53" s="4" t="inlineStr">
@@ -3769,54 +3769,54 @@
       </c>
       <c r="L53" s="4" t="inlineStr">
         <is>
-          <t>kmk</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Q_KNB</t>
+          <t>Q_KMLHE</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern (KNB) </t>
+          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>der Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern</t>
+          <t>x</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Center of Excellence for Sustainable Procurement</t>
+          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>the Center of Excellence for Sustainable Procurement</t>
+          <t>x</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
+          <t>Kultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t>Competence Center for Sustainable Procurement</t>
+          <t>XXXKultusministerien der Länder in Zusammenarbeit mit dem Hessischen Statistischen Landesamt</t>
         </is>
       </c>
       <c r="H54" s="5" t="inlineStr">
         <is>
-          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
+          <t>https://www.kmk.org/</t>
         </is>
       </c>
       <c r="I54" s="5" t="inlineStr">
         <is>
-          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
+          <t>https://www.kmk.org/kmk/information-in-english.html</t>
         </is>
       </c>
       <c r="J54" s="4" t="inlineStr">
@@ -3831,54 +3831,54 @@
       </c>
       <c r="L54" s="4" t="inlineStr">
         <is>
-          <t>knb</t>
+          <t>kmk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_KNB</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis (LAK) Energiebilanzen</t>
+          <t>Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern (KNB) </t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>des Länderarbeitskreises Energiebilanzen</t>
+          <t>der Kompetenzstelle für nachhaltige Beschaffung beim Beschaffungsamt des Bundesministeriums des Innern</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis Energiebilanzen</t>
+          <t>Center of Excellence for Sustainable Procurement</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the Center of Excellence for Sustainable Procurement</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>Länderarbeitskreis Energiebilanzen</t>
+          <t>Kompetenzstelle für nachhaltige Beschaffung</t>
         </is>
       </c>
       <c r="G55" s="4" t="inlineStr">
         <is>
-          <t>LAK Energiebilanzen</t>
+          <t>Competence Center for Sustainable Procurement</t>
         </is>
       </c>
       <c r="H55" s="5" t="inlineStr">
         <is>
-          <t>http://www.lak-energiebilanzen.de/</t>
+          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="I55" s="5" t="inlineStr">
         <is>
-          <t>http://www.lak-energiebilanzen.de/</t>
+          <t>http://www.nachhaltige-beschaffung.info/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="J55" s="4" t="inlineStr">
@@ -3893,54 +3893,54 @@
       </c>
       <c r="L55" s="4" t="inlineStr">
         <is>
-          <t>lakeb</t>
+          <t>knb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren (LIKI)</t>
+          <t>Länderarbeitskreis (LAK) Energiebilanzen</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>der Länderinitiative Kernindikatoren</t>
+          <t>des Länderarbeitskreises Energiebilanzen</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>Länderarbeitskreis Energiebilanzen</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>the Länderinitiative Kernindikatoren</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>Länderarbeitskreis Energiebilanzen</t>
         </is>
       </c>
       <c r="G56" s="4" t="inlineStr">
         <is>
-          <t>Länderinitiative Kernindikatoren</t>
+          <t>LAK Energiebilanzen</t>
         </is>
       </c>
       <c r="H56" s="5" t="inlineStr">
         <is>
-          <t>https://www.lanuv.nrw.de/liki/index.php</t>
+          <t>http://www.lak-energiebilanzen.de/</t>
         </is>
       </c>
       <c r="I56" s="5" t="inlineStr">
         <is>
-          <t>https://www.lanuv.nrw.de/liki/index.php</t>
+          <t>http://www.lak-energiebilanzen.de/</t>
         </is>
       </c>
       <c r="J56" s="4" t="inlineStr">
@@ -3955,54 +3955,54 @@
       </c>
       <c r="L56" s="4" t="inlineStr">
         <is>
-          <t>liki</t>
+          <t>lakeb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD)</t>
+          <t>Länderinitiative Kernindikatoren (LIKI)</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>der Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>the Organisation for Economic Co-operation and Development</t>
+          <t>the Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="G57" s="4" t="inlineStr">
         <is>
-          <t>Organisation for Economic Co-operation and Development</t>
+          <t>Länderinitiative Kernindikatoren</t>
         </is>
       </c>
       <c r="H57" s="5" t="inlineStr">
         <is>
-          <t>https://www.oecd.org/</t>
+          <t>https://www.lanuv.nrw.de/liki/index.php</t>
         </is>
       </c>
       <c r="I57" s="5" t="inlineStr">
         <is>
-          <t>https://www.oecd.org/</t>
+          <t>https://www.lanuv.nrw.de/liki/index.php</t>
         </is>
       </c>
       <c r="J57" s="4" t="inlineStr">
@@ -4017,54 +4017,54 @@
       </c>
       <c r="L57" s="4" t="inlineStr">
         <is>
-          <t>oecd</t>
+          <t>liki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>Q_OEKPFT</t>
+          <t>Q_NB</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Ökoprofit</t>
+          <t>Nationaler Bildungsbericht</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>von Ökoprofit</t>
+          <t>des nationalem Bildungsberichts</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Nationaler Bildungsbericht</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>the Nationaler Bildungsbericht</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>Ökoprofit</t>
+          <t>Nationaler Bildungsbericht</t>
         </is>
       </c>
       <c r="G58" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Nationaler Bildungsbericht</t>
         </is>
       </c>
       <c r="H58" s="5" t="inlineStr">
         <is>
-          <t>https://www.oekoprofit.info/</t>
+          <t>https://www.bildungsbericht.de/de</t>
         </is>
       </c>
       <c r="I58" s="5" t="inlineStr">
         <is>
-          <t>https://www.oekoprofit.info/</t>
+          <t>https://www.bildungsbericht.de/en/the-national-report-on-education/education-in-germany?set_language=en</t>
         </is>
       </c>
       <c r="J58" s="4" t="inlineStr">
@@ -4079,54 +4079,54 @@
       </c>
       <c r="L58" s="4" t="inlineStr">
         <is>
-          <t>oeko</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>Q_RKI</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut (RKI)</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD)</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>des Robert Koch-Instituts</t>
+          <t>der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch Institute</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>the Robert Koch Institute</t>
+          <t>the Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch-Institut</t>
+          <t>Organisation für wirtschaftliche Zusammenarbeit und Entwicklung</t>
         </is>
       </c>
       <c r="G59" s="4" t="inlineStr">
         <is>
-          <t>Robert Koch Institute</t>
+          <t>Organisation for Economic Co-operation and Development</t>
         </is>
       </c>
       <c r="H59" s="5" t="inlineStr">
         <is>
-          <t>https://www.rki.de/DE/Home/home_node.html</t>
+          <t>https://www.oecd.org/</t>
         </is>
       </c>
       <c r="I59" s="5" t="inlineStr">
         <is>
-          <t>https://www.rki.de/EN/Home/home_node.html</t>
+          <t>https://www.oecd.org/</t>
         </is>
       </c>
       <c r="J59" s="4" t="inlineStr">
@@ -4141,54 +4141,54 @@
       </c>
       <c r="L59" s="4" t="inlineStr">
         <is>
-          <t>rki</t>
+          <t>oecd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>Q_OEKPFT</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Ökoprofit</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>des Stifterverbands Wissenschaftsstatistik</t>
+          <t>von Ökoprofit</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>the Stifterverband Wissenschaftsstatistik</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>Ökoprofit</t>
         </is>
       </c>
       <c r="G60" s="4" t="inlineStr">
         <is>
-          <t>Stifterverband Wissenschaftsstatistik</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H60" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/</t>
+          <t>https://www.oekoprofit.info/</t>
         </is>
       </c>
       <c r="I60" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/english</t>
+          <t>https://www.oekoprofit.info/</t>
         </is>
       </c>
       <c r="J60" s="4" t="inlineStr">
@@ -4203,54 +4203,54 @@
       </c>
       <c r="L60" s="4" t="inlineStr">
         <is>
-          <t>svws</t>
+          <t>oeko</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_RKI</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Robert Koch-Institut (RKI)</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>von Transparency International</t>
+          <t>des Robert Koch-Instituts</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Robert Koch Institute</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>Transparency International</t>
+          <t>the Robert Koch Institute</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Robert Koch-Institut</t>
         </is>
       </c>
       <c r="G61" s="4" t="inlineStr">
         <is>
-          <t>Transparency International e.V.</t>
+          <t>Robert Koch Institute</t>
         </is>
       </c>
       <c r="H61" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.de/</t>
+          <t>https://www.rki.de/DE/Home/home_node.html</t>
         </is>
       </c>
       <c r="I61" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.de/en/</t>
+          <t>https://www.rki.de/EN/Home/home_node.html</t>
         </is>
       </c>
       <c r="J61" s="4" t="inlineStr">
@@ -4265,54 +4265,54 @@
       </c>
       <c r="L61" s="4" t="inlineStr">
         <is>
-          <t>ta</t>
+          <t>rki</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_SVWS</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt (UBA)</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>des Umweltbundesamts</t>
+          <t>des Stifterverbands Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>the German Environment Agency</t>
+          <t>the Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="G62" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency</t>
+          <t>Stifterverband Wissenschaftsstatistik</t>
         </is>
       </c>
       <c r="H62" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/</t>
+          <t>https://www.stifterverband.org/</t>
         </is>
       </c>
       <c r="I62" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en</t>
+          <t>https://www.stifterverband.org/english</t>
         </is>
       </c>
       <c r="J62" s="4" t="inlineStr">
@@ -4327,54 +4327,54 @@
       </c>
       <c r="L62" s="4" t="inlineStr">
         <is>
-          <t>uba</t>
+          <t>svws</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA_1</t>
+          <t>Q_TA</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>des Umweltbundesamts</t>
+          <t>von Transparency International</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency (as reported by the Länder and by river basin commissions)</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>the German Environment Agency</t>
+          <t>Transparency International</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="G63" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
+          <t>Transparency International e.V.</t>
         </is>
       </c>
       <c r="H63" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/</t>
+          <t>https://www.transparency.de/</t>
         </is>
       </c>
       <c r="I63" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en</t>
+          <t>https://www.transparency.de/en/</t>
         </is>
       </c>
       <c r="J63" s="4" t="inlineStr">
@@ -4389,19 +4389,19 @@
       </c>
       <c r="L63" s="4" t="inlineStr">
         <is>
-          <t>uba</t>
+          <t>ta</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>Q_UBALAWA</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
+          <t>Umweltbundesamt (UBA)</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
+          <t>German Environment Agency</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
@@ -4421,12 +4421,12 @@
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser</t>
+          <t>Umweltbundesamt</t>
         </is>
       </c>
       <c r="G64" s="4" t="inlineStr">
         <is>
-          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government</t>
+          <t>German Environment Agency</t>
         </is>
       </c>
       <c r="H64" s="5" t="inlineStr">
@@ -4458,47 +4458,47 @@
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>Q_UG</t>
+          <t>Q_UBA_1</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>der Universität Gießen</t>
+          <t>des Umweltbundesamts</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions)</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>the University of Giessen</t>
+          <t>the German Environment Agency</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
+          <t>Umweltbundesamt nach Angaben der Länder und Flussgebietsgemeinschaften</t>
         </is>
       </c>
       <c r="G65" s="4" t="inlineStr">
         <is>
-          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
+          <t>German Environment Agency (as reported by the Länder and by river basin commissions</t>
         </is>
       </c>
       <c r="H65" s="5" t="inlineStr">
         <is>
-          <t>https://www.uni-giessen.de/fbz/fb09/institute/ilr</t>
+          <t>https://www.umweltbundesamt.de/</t>
         </is>
       </c>
       <c r="I65" s="5" t="inlineStr">
         <is>
-          <t>https://www.uni-giessen.de/faculties/f09/institutes/landscape?set_language=en</t>
+          <t>https://www.umweltbundesamt.de/en</t>
         </is>
       </c>
       <c r="J65" s="4" t="inlineStr">
@@ -4513,54 +4513,54 @@
       </c>
       <c r="L65" s="4" t="inlineStr">
         <is>
-          <t>ug</t>
+          <t>uba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>Q_VCD</t>
+          <t>Q_UBALAWA</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V. (VCD)</t>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser (LAWA)</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>des Verkehrsclub Deutschlands</t>
+          <t>des Umweltbundesamts</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA)</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>the Verkehrsclub Deutschland e.V.</t>
+          <t>the German Environment Agency</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>Umweltbundesamt nach Angaben der Bund/Länder Arbeitsgemeinschaft Wasser</t>
         </is>
       </c>
       <c r="G66" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsclub Deutschland e.V.</t>
+          <t>German Environment Agency on the basis of data from the German Working Group on Water Issues of the Länder and the Federal Government</t>
         </is>
       </c>
       <c r="H66" s="5" t="inlineStr">
         <is>
-          <t>https://www.vcd.org/startseite/</t>
+          <t>https://www.umweltbundesamt.de/</t>
         </is>
       </c>
       <c r="I66" s="5" t="inlineStr">
         <is>
-          <t>https://www.vcd.org/startseite/</t>
+          <t>https://www.umweltbundesamt.de/en</t>
         </is>
       </c>
       <c r="J66" s="4" t="inlineStr">
@@ -4575,54 +4575,54 @@
       </c>
       <c r="L66" s="4" t="inlineStr">
         <is>
-          <t>vcd</t>
+          <t>uba</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_UG</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>der Statistischen Ämter der Länder</t>
+          <t>der Universität Gießen</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>the Statistische Ämter des Bundes und der Länder</t>
+          <t>the University of Giessen</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen</t>
         </is>
       </c>
       <c r="G67" s="4" t="inlineStr">
         <is>
-          <t>Statistische Ämter des Bundes und der Länder</t>
+          <t>Institute of Landscape Ecology and Resources Management, University of Giessen</t>
         </is>
       </c>
       <c r="H67" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+          <t>https://www.uni-giessen.de/fbz/fb09/institute/ilr</t>
         </is>
       </c>
       <c r="I67" s="5" t="inlineStr">
         <is>
-          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+          <t>https://www.uni-giessen.de/faculties/f09/institutes/landscape?set_language=en</t>
         </is>
       </c>
       <c r="J67" s="4" t="inlineStr">
@@ -4637,54 +4637,54 @@
       </c>
       <c r="L67" s="4" t="inlineStr">
         <is>
-          <t>vwgdl</t>
+          <t>ug</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>Q_WHO</t>
+          <t>Q_VCD</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Weltgesundheitsorganisation (WHO)</t>
+          <t>Verkehrsclub Deutschland e.V. (VCD)</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>der Weltgesundheitsorganisation</t>
+          <t>des Verkehrsclub Deutschlands</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>World Health Organization</t>
+          <t>Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>the World Health Organization</t>
+          <t>the Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>Weltgesundheitsorganisation</t>
+          <t>Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="G68" s="4" t="inlineStr">
         <is>
-          <t>World Health Organization</t>
+          <t>Verkehrsclub Deutschland e.V.</t>
         </is>
       </c>
       <c r="H68" s="5" t="inlineStr">
         <is>
-          <t>http://www.euro.who.int/de/home</t>
+          <t>https://www.vcd.org/startseite/</t>
         </is>
       </c>
       <c r="I68" s="5" t="inlineStr">
         <is>
-          <t>http://www.euro.who.int/en/home</t>
+          <t>https://www.vcd.org/startseite/</t>
         </is>
       </c>
       <c r="J68" s="4" t="inlineStr">
@@ -4699,67 +4699,191 @@
       </c>
       <c r="L68" s="4" t="inlineStr">
         <is>
-          <t>who</t>
+          <t>vcd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
+          <t>Q_VWGDL</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t>der Statistischen Ämter der Länder</t>
+        </is>
+      </c>
+      <c r="D69" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="E69" s="4" t="inlineStr">
+        <is>
+          <t>the Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="F69" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="G69" s="4" t="inlineStr">
+        <is>
+          <t>Statistische Ämter des Bundes und der Länder</t>
+        </is>
+      </c>
+      <c r="H69" s="5" t="inlineStr">
+        <is>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+        </is>
+      </c>
+      <c r="I69" s="5" t="inlineStr">
+        <is>
+          <t>http://www.statistikportal.de/de/veroeffentlichungen/volkswirtschaftliche-gesamtrechnungen-der-laender</t>
+        </is>
+      </c>
+      <c r="J69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L69" s="4" t="inlineStr">
+        <is>
+          <t>vwgdl</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="4" t="inlineStr">
+        <is>
+          <t>Q_WHO</t>
+        </is>
+      </c>
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>Weltgesundheitsorganisation (WHO)</t>
+        </is>
+      </c>
+      <c r="C70" s="4" t="inlineStr">
+        <is>
+          <t>der Weltgesundheitsorganisation</t>
+        </is>
+      </c>
+      <c r="D70" s="4" t="inlineStr">
+        <is>
+          <t>World Health Organization</t>
+        </is>
+      </c>
+      <c r="E70" s="4" t="inlineStr">
+        <is>
+          <t>the World Health Organization</t>
+        </is>
+      </c>
+      <c r="F70" s="4" t="inlineStr">
+        <is>
+          <t>Weltgesundheitsorganisation</t>
+        </is>
+      </c>
+      <c r="G70" s="4" t="inlineStr">
+        <is>
+          <t>World Health Organization</t>
+        </is>
+      </c>
+      <c r="H70" s="5" t="inlineStr">
+        <is>
+          <t>http://www.euro.who.int/de/home</t>
+        </is>
+      </c>
+      <c r="I70" s="5" t="inlineStr">
+        <is>
+          <t>http://www.euro.who.int/en/home</t>
+        </is>
+      </c>
+      <c r="J70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L70" s="4" t="inlineStr">
+        <is>
+          <t>who</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="4" t="inlineStr">
+        <is>
           <t>Q_ZVB</t>
         </is>
       </c>
-      <c r="B69" s="4" t="inlineStr">
+      <c r="B71" s="4" t="inlineStr">
         <is>
           <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
-      <c r="C69" s="4" t="inlineStr">
+      <c r="C71" s="4" t="inlineStr">
         <is>
           <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
-      <c r="D69" s="4" t="inlineStr">
+      <c r="D71" s="4" t="inlineStr">
         <is>
           <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
-      <c r="E69" s="4" t="inlineStr">
+      <c r="E71" s="4" t="inlineStr">
         <is>
           <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
-      <c r="F69" s="4" t="inlineStr">
+      <c r="F71" s="4" t="inlineStr">
         <is>
           <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
-      <c r="G69" s="4" t="inlineStr">
+      <c r="G71" s="4" t="inlineStr">
         <is>
           <t>Zentrum für Verifikationsaufgaben der Bundeswehr</t>
         </is>
       </c>
-      <c r="H69" s="5" t="inlineStr">
+      <c r="H71" s="5" t="inlineStr">
         <is>
           <t>https://www.bundeswehr.de/de/organisation/streitkraeftebasis/organisation/streitkraefteamt/zentrum-fuer-verifikationsaufgaben-der-bundeswehr</t>
         </is>
       </c>
-      <c r="I69" s="5" t="inlineStr">
+      <c r="I71" s="5" t="inlineStr">
         <is>
           <t>https://www.bundeswehr.de/de/organisation/streitkraeftebasis/organisation/streitkraefteamt/zentrum-fuer-verifikationsaufgaben-der-bundeswehr</t>
         </is>
       </c>
-      <c r="J69" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K69" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L69" s="4" t="inlineStr">
+      <c r="J71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L71" s="4" t="inlineStr">
         <is>
           <t>bw</t>
         </is>
@@ -4804,20 +4928,24 @@
     <hyperlink ref="I44" r:id="rId35"/>
     <hyperlink ref="H45" r:id="rId36"/>
     <hyperlink ref="I45" r:id="rId37"/>
-    <hyperlink ref="H50" r:id="rId38"/>
-    <hyperlink ref="I50" r:id="rId39"/>
-    <hyperlink ref="H52" r:id="rId40"/>
-    <hyperlink ref="I52" r:id="rId41"/>
+    <hyperlink ref="H47" r:id="rId38"/>
+    <hyperlink ref="I47" r:id="rId39"/>
+    <hyperlink ref="H51" r:id="rId40"/>
+    <hyperlink ref="I51" r:id="rId41"/>
     <hyperlink ref="H53" r:id="rId42"/>
     <hyperlink ref="I53" r:id="rId43"/>
-    <hyperlink ref="H58" r:id="rId44"/>
-    <hyperlink ref="I58" r:id="rId45"/>
-    <hyperlink ref="H59" r:id="rId46"/>
-    <hyperlink ref="I59" r:id="rId47"/>
+    <hyperlink ref="H54" r:id="rId44"/>
+    <hyperlink ref="I54" r:id="rId45"/>
+    <hyperlink ref="H58" r:id="rId46"/>
+    <hyperlink ref="I58" r:id="rId47"/>
     <hyperlink ref="H60" r:id="rId48"/>
     <hyperlink ref="I60" r:id="rId49"/>
-    <hyperlink ref="H69" r:id="rId50"/>
-    <hyperlink ref="I69" r:id="rId51"/>
+    <hyperlink ref="H61" r:id="rId50"/>
+    <hyperlink ref="I61" r:id="rId51"/>
+    <hyperlink ref="H62" r:id="rId52"/>
+    <hyperlink ref="I62" r:id="rId53"/>
+    <hyperlink ref="H71" r:id="rId54"/>
+    <hyperlink ref="I71" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tab_7a_Quellen.xlsx
+++ b/Tab_7a_Quellen.xlsx
@@ -3397,7 +3397,7 @@
       </c>
       <c r="L47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>ioer</t>
         </is>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="L58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>nbb</t>
         </is>
       </c>
     </row>
